--- a/AfDD_2023_Annex_Table_Tab24.xlsx
+++ b/AfDD_2023_Annex_Table_Tab24.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab24" sheetId="1" r:id="rId1"/>

--- a/AfDD_2023_Annex_Table_Tab24.xlsx
+++ b/AfDD_2023_Annex_Table_Tab24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C2B2B44-B2AF-4252-81C5-BF3E699FE962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FFD8439-E6C7-4D1B-A300-F74D263A1EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{7AF5C87D-5512-4A24-9AA8-A21023678F18}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED1C2C99-4D27-456F-9B46-9C34B7A8D9ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab24" sheetId="1" r:id="rId1"/>
@@ -548,7 +548,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Adjusted net savings are calculated by taking net national savings (the difference of gross savings and consumption of fixed capital), adding education expenditure and subtracting energy depletion, mineral depletion, net forest depletion, carbon dioxide damage, and particulate emission damage.</t>
@@ -557,7 +557,7 @@
     <t>In order to preserve the validity of the formula for adjusted net savings, aggregate figures for all the components of adjusted net savings do not take into account countries in which adjusted net savings is not reported.</t>
   </si>
   <si>
-    <t>Source: World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks -16/09/2022).</t>
+    <t>Source: World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks -22/12/2022).</t>
   </si>
   <si>
     <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
@@ -1393,7 +1393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AC80B1-0443-40E9-B2CB-F416399C2B98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2BEEF0-7FF2-4AB3-B149-043245E3F5EB}">
   <dimension ref="A1:O114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1525,13 +1525,13 @@
         <v>19</v>
       </c>
       <c r="C4" s="15">
-        <v>7.2094545553140401</v>
+        <v>7.2094545553140303</v>
       </c>
       <c r="D4" s="16">
         <v>0.44329742805307998</v>
       </c>
       <c r="E4" s="16">
-        <v>5.66113699922811</v>
+        <v>5.6611369992281002</v>
       </c>
       <c r="F4" s="16">
         <v>1.1050200835663699</v>
@@ -1540,16 +1540,16 @@
         <v>21.835134740079901</v>
       </c>
       <c r="H4" s="15">
-        <v>8.9702151109299404</v>
+        <v>8.9702151109299209</v>
       </c>
       <c r="I4" s="16">
-        <v>9.3876180817360293</v>
+        <v>9.3876180817360204</v>
       </c>
       <c r="J4" s="16">
         <v>0.19655927966369</v>
       </c>
       <c r="K4" s="16">
-        <v>4.3032453696100002E-2</v>
+        <v>4.3032453696090003E-2</v>
       </c>
       <c r="L4" s="16">
         <v>0.27522147244147999</v>
@@ -1581,7 +1581,7 @@
         <v>3.4855714822547501</v>
       </c>
       <c r="F5" s="20">
-        <v>1.59036003155469</v>
+        <v>1.5903600315547</v>
       </c>
       <c r="G5" s="20">
         <v>12.004017236587</v>
@@ -1590,7 +1590,7 @@
         <v>3.5636424046927</v>
       </c>
       <c r="I5" s="20">
-        <v>6.3409805425449104</v>
+        <v>6.3409805425449202</v>
       </c>
       <c r="J5" s="20">
         <v>9.5001283585399998E-3</v>
@@ -1619,25 +1619,25 @@
         <v>23</v>
       </c>
       <c r="C6" s="19">
-        <v>12.025103595794899</v>
+        <v>11.6410136248507</v>
       </c>
       <c r="D6" s="20">
-        <v>5.0848229748749603</v>
+        <v>4.9224102777104397</v>
       </c>
       <c r="E6" s="20">
-        <v>5.2354630381232203</v>
+        <v>5.0682387950909096</v>
       </c>
       <c r="F6" s="20">
-        <v>1.70481745789189</v>
+        <v>1.6503644311341199</v>
       </c>
       <c r="G6" s="20">
-        <v>14.3577506309343</v>
+        <v>13.8991543303929</v>
       </c>
       <c r="H6" s="19">
-        <v>6.3994719617247098</v>
+        <v>6.1950684835961498</v>
       </c>
       <c r="I6" s="20">
-        <v>7.2232991267325897</v>
+        <v>6.99258204977719</v>
       </c>
       <c r="J6" s="20">
         <v>0</v>
@@ -1646,16 +1646,16 @@
         <v>0</v>
       </c>
       <c r="L6" s="20">
-        <v>3.98083438448363</v>
+        <v>3.8536838322335498</v>
       </c>
       <c r="M6" s="20">
-        <v>4.5031742945515498</v>
+        <v>4.3593398510332699</v>
       </c>
       <c r="N6" s="19">
-        <v>1.96508463135676</v>
+        <v>1.9023184944209801</v>
       </c>
       <c r="O6" s="21">
-        <v>3.1736777780653598</v>
+        <v>3.0723083556855402</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -1666,25 +1666,25 @@
         <v>25</v>
       </c>
       <c r="C7" s="19">
-        <v>5.1997912835681896</v>
+        <v>5.1997912835681497</v>
       </c>
       <c r="D7" s="20">
-        <v>2.2651638228710902</v>
+        <v>2.2651638228710702</v>
       </c>
       <c r="E7" s="20">
-        <v>1.6947547056299199</v>
+        <v>1.6947547056299099</v>
       </c>
       <c r="F7" s="20">
-        <v>1.23987314675827</v>
+        <v>1.23987314675826</v>
       </c>
       <c r="G7" s="20">
-        <v>5.9400426283052399</v>
+        <v>5.9400426283051999</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>26</v>
       </c>
       <c r="I7" s="20">
-        <v>4.5032813381280903</v>
+        <v>4.5032813381280601</v>
       </c>
       <c r="J7" s="20">
         <v>7.9657868649499995E-3</v>
@@ -1693,13 +1693,13 @@
         <v>2.9691068680999999E-4</v>
       </c>
       <c r="L7" s="20">
-        <v>4.2270102337368396</v>
+        <v>4.2270102337368103</v>
       </c>
       <c r="M7" s="20">
         <v>0.61231720216027996</v>
       </c>
       <c r="N7" s="19">
-        <v>1.0172120368094399</v>
+        <v>1.01721203680943</v>
       </c>
       <c r="O7" s="21" t="s">
         <v>26</v>
@@ -1760,25 +1760,25 @@
         <v>30</v>
       </c>
       <c r="C9" s="19">
-        <v>8.33663043448046</v>
+        <v>8.3366304344804405</v>
       </c>
       <c r="D9" s="20">
         <v>0.38786418644268</v>
       </c>
       <c r="E9" s="20">
-        <v>3.9099039816127501</v>
+        <v>3.9099039816127399</v>
       </c>
       <c r="F9" s="20">
-        <v>4.0388620139395401</v>
+        <v>4.0388620139395304</v>
       </c>
       <c r="G9" s="20">
         <v>11.3743954728132</v>
       </c>
       <c r="H9" s="19">
-        <v>1.1801547066972</v>
+        <v>1.18015470669719</v>
       </c>
       <c r="I9" s="20">
-        <v>8.6700022967183905</v>
+        <v>8.6700022967183603</v>
       </c>
       <c r="J9" s="20">
         <v>0</v>
@@ -1790,13 +1790,13 @@
         <v>0.62135207484609001</v>
       </c>
       <c r="M9" s="20">
-        <v>1.3800810074132199</v>
+        <v>1.3800810074132099</v>
       </c>
       <c r="N9" s="19">
         <v>0.79340888325463998</v>
       </c>
       <c r="O9" s="21">
-        <v>6.4727386546139201</v>
+        <v>6.4727386546139103</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -1813,7 +1813,7 @@
         <v>9.0212535826819998E-2</v>
       </c>
       <c r="E10" s="20">
-        <v>4.8036353966038403</v>
+        <v>4.8036353966038297</v>
       </c>
       <c r="F10" s="20">
         <v>3.2811596079013898</v>
@@ -1825,7 +1825,7 @@
         <v>-0.57939806097669999</v>
       </c>
       <c r="I10" s="20">
-        <v>5.6634991962098598</v>
+        <v>5.66349919620985</v>
       </c>
       <c r="J10" s="20">
         <v>0.89952155176186999</v>
@@ -1854,7 +1854,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="15">
-        <v>5.46670090760768</v>
+        <v>5.4667009076076702</v>
       </c>
       <c r="D11" s="16">
         <v>2.3891875553587001</v>
@@ -1878,7 +1878,7 @@
         <v>1.19667940909E-2</v>
       </c>
       <c r="K11" s="16">
-        <v>3.1801471223110802</v>
+        <v>3.18014712231107</v>
       </c>
       <c r="L11" s="16">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>1.4858715704298799</v>
       </c>
       <c r="N11" s="15">
-        <v>0.86542782267159002</v>
+        <v>0.86542782267158003</v>
       </c>
       <c r="O11" s="17">
         <v>20.679360665336102</v>
@@ -1901,43 +1901,43 @@
         <v>36</v>
       </c>
       <c r="C12" s="19">
-        <v>6.8794777194270296</v>
+        <v>6.0768682798162201</v>
       </c>
       <c r="D12" s="20">
-        <v>2.0331518205425598</v>
+        <v>1.79594967964148</v>
       </c>
       <c r="E12" s="20">
-        <v>1.2129692947408199</v>
+        <v>1.0714555569802</v>
       </c>
       <c r="F12" s="20">
-        <v>3.63335660414364</v>
+        <v>3.2094630431945399</v>
       </c>
       <c r="G12" s="20">
-        <v>7.9513916630506101</v>
+        <v>7.0237250192899499</v>
       </c>
       <c r="H12" s="19">
-        <v>1.9696198021046301</v>
+        <v>1.7398297642432601</v>
       </c>
       <c r="I12" s="20">
-        <v>1.56955971714583</v>
+        <v>1.38644357135809</v>
       </c>
       <c r="J12" s="20">
-        <v>8.0876351548599998E-2</v>
+        <v>7.1440733636659995E-2</v>
       </c>
       <c r="K12" s="20">
-        <v>1.8252130521349501</v>
+        <v>1.6122705462224001</v>
       </c>
       <c r="L12" s="20">
-        <v>1.8998025654022701</v>
+        <v>1.67815790943038</v>
       </c>
       <c r="M12" s="20">
-        <v>1.9753257249571701</v>
+        <v>1.74486999302281</v>
       </c>
       <c r="N12" s="19">
-        <v>1.06292124812815</v>
+        <v>0.93891319663007999</v>
       </c>
       <c r="O12" s="21">
-        <v>-3.3049594229207</v>
+        <v>-2.9193790433409998</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1948,43 +1948,43 @@
         <v>38</v>
       </c>
       <c r="C13" s="24">
-        <v>6.9846499048271502</v>
+        <v>6.9619872604827702</v>
       </c>
       <c r="D13" s="25">
-        <v>0.50276785024968995</v>
+        <v>0.49583945940161001</v>
       </c>
       <c r="E13" s="25">
-        <v>3.7890121581425098</v>
+        <v>3.7845579079775198</v>
       </c>
       <c r="F13" s="25">
-        <v>2.6928698470961798</v>
+        <v>2.6815898437833598</v>
       </c>
       <c r="G13" s="25">
-        <v>13.427921900858699</v>
+        <v>13.401670126280001</v>
       </c>
       <c r="H13" s="24">
-        <v>4.1482603552290298</v>
+        <v>4.1411750657821003</v>
       </c>
       <c r="I13" s="25">
-        <v>5.2372922612044501</v>
+        <v>5.2313266754930901</v>
       </c>
       <c r="J13" s="25">
-        <v>4.1959037111924999</v>
+        <v>4.1956606755043699</v>
       </c>
       <c r="K13" s="25">
-        <v>0.66081745094615996</v>
+        <v>0.65514797180688999</v>
       </c>
       <c r="L13" s="25">
-        <v>0.19450950515174001</v>
+        <v>0.18800148399819</v>
       </c>
       <c r="M13" s="25">
-        <v>3.4842583187940299</v>
+        <v>3.47744261415595</v>
       </c>
       <c r="N13" s="24">
-        <v>0.57673959900081995</v>
+        <v>0.57313924254776005</v>
       </c>
       <c r="O13" s="26">
-        <v>0.27332403134823002</v>
+        <v>0.28310975326204002</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -1995,7 +1995,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="19">
-        <v>8.1074757435210998</v>
+        <v>8.1074757435210802</v>
       </c>
       <c r="D14" s="20">
         <v>2.0798565478501101</v>
@@ -2004,7 +2004,7 @@
         <v>2.7061737516464399</v>
       </c>
       <c r="F14" s="20">
-        <v>3.3214456529441301</v>
+        <v>3.3214456529441199</v>
       </c>
       <c r="G14" s="20">
         <v>12.907399783194901</v>
@@ -2013,7 +2013,7 @@
         <v>26</v>
       </c>
       <c r="I14" s="20">
-        <v>4.5316850523174796</v>
+        <v>4.5316850523174699</v>
       </c>
       <c r="J14" s="20">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="20">
-        <v>11.2255814770584</v>
+        <v>11.2255814770583</v>
       </c>
       <c r="M14" s="20">
         <v>0.87293611973135998</v>
@@ -2051,7 +2051,7 @@
         <v>0.11771876079422</v>
       </c>
       <c r="F15" s="20">
-        <v>2.8928669281455099</v>
+        <v>2.8928669281455002</v>
       </c>
       <c r="G15" s="20">
         <v>11.6735401299823</v>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="20">
-        <v>2.6401386958549602</v>
+        <v>2.64013869585495</v>
       </c>
       <c r="M15" s="20">
         <v>0.87676072733938004</v>
@@ -2089,40 +2089,40 @@
         <v>44</v>
       </c>
       <c r="C16" s="19">
-        <v>8.5052181084498706</v>
+        <v>8.5051632065137106</v>
       </c>
       <c r="D16" s="20">
-        <v>2.39204912251666</v>
+        <v>2.3920336816277201</v>
       </c>
       <c r="E16" s="20">
-        <v>0.89901057894309999</v>
+        <v>0.89900477575019</v>
       </c>
       <c r="F16" s="20">
-        <v>5.2141582057891398</v>
+        <v>5.2141245479361302</v>
       </c>
       <c r="G16" s="20">
-        <v>20.486198585042501</v>
+        <v>20.486066344816201</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>26</v>
       </c>
       <c r="I16" s="20">
-        <v>1.20431084311999</v>
+        <v>1.2043030691868299</v>
       </c>
       <c r="J16" s="20">
         <v>0</v>
       </c>
       <c r="K16" s="20">
-        <v>5.4229823029510002E-2</v>
+        <v>5.4229472971200003E-2</v>
       </c>
       <c r="L16" s="20">
         <v>0</v>
       </c>
       <c r="M16" s="20">
-        <v>0.64350529149666003</v>
+        <v>0.64350113761300998</v>
       </c>
       <c r="N16" s="19">
-        <v>0.96264687636590995</v>
+        <v>0.96264066239506996</v>
       </c>
       <c r="O16" s="21" t="s">
         <v>26</v>
@@ -2136,7 +2136,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="28">
-        <v>4.3792762209795697</v>
+        <v>4.3792762209795599</v>
       </c>
       <c r="D17" s="29">
         <v>0.89488255934503003</v>
@@ -2145,7 +2145,7 @@
         <v>0.75824676587034001</v>
       </c>
       <c r="F17" s="29">
-        <v>2.7261471407621198</v>
+        <v>2.7261471407621101</v>
       </c>
       <c r="G17" s="29">
         <v>12.943307155683399</v>
@@ -2163,13 +2163,13 @@
         <v>0</v>
       </c>
       <c r="L17" s="29">
-        <v>3.6691563758752501</v>
+        <v>3.6691563758752399</v>
       </c>
       <c r="M17" s="29">
         <v>0.40302984985132001</v>
       </c>
       <c r="N17" s="28">
-        <v>4.2768157856932003</v>
+        <v>4.2768157856931897</v>
       </c>
       <c r="O17" s="30" t="s">
         <v>26</v>
@@ -2183,40 +2183,40 @@
         <v>48</v>
       </c>
       <c r="C18" s="28">
-        <v>2.114906179299</v>
+        <v>2.0953112982639301</v>
       </c>
       <c r="D18" s="29">
-        <v>0.17658153506697999</v>
+        <v>0.17494548416009001</v>
       </c>
       <c r="E18" s="29">
-        <v>0.79507756699896004</v>
+        <v>0.78771106985053996</v>
       </c>
       <c r="F18" s="29">
-        <v>1.14324706895788</v>
+        <v>1.1326547360548</v>
       </c>
       <c r="G18" s="29">
-        <v>20.270706754798098</v>
+        <v>20.082896018206199</v>
       </c>
       <c r="H18" s="28" t="s">
         <v>26</v>
       </c>
       <c r="I18" s="29">
-        <v>1.97359653211216</v>
+        <v>1.95531090335166</v>
       </c>
       <c r="J18" s="29">
-        <v>27.683169637410401</v>
+        <v>27.426681467378</v>
       </c>
       <c r="K18" s="29">
         <v>0</v>
       </c>
       <c r="L18" s="29">
-        <v>3.4526492025182098</v>
+        <v>3.4206599582475299</v>
       </c>
       <c r="M18" s="29">
-        <v>0.96084876262886998</v>
+        <v>0.95194637377555003</v>
       </c>
       <c r="N18" s="28">
-        <v>0.99242587216990996</v>
+        <v>0.98323091728650003</v>
       </c>
       <c r="O18" s="30" t="s">
         <v>26</v>
@@ -2230,43 +2230,43 @@
         <v>50</v>
       </c>
       <c r="C19" s="15">
-        <v>3.6696297427125799</v>
+        <v>3.6341374138109601</v>
       </c>
       <c r="D19" s="16">
-        <v>1.42479140609135</v>
+        <v>1.4110109517276299</v>
       </c>
       <c r="E19" s="16">
-        <v>0.58046352998251005</v>
+        <v>0.57484933891529</v>
       </c>
       <c r="F19" s="16">
-        <v>1.6643747887996301</v>
+        <v>1.64827710550149</v>
       </c>
       <c r="G19" s="16">
-        <v>4.7434482500025297</v>
+        <v>4.6975700450552198</v>
       </c>
       <c r="H19" s="15">
-        <v>12.761538279040201</v>
+        <v>12.6381098283117</v>
       </c>
       <c r="I19" s="16">
-        <v>2.0012596013067001</v>
+        <v>1.98190359839437</v>
       </c>
       <c r="J19" s="16">
-        <v>0.52443294663796003</v>
+        <v>0.51936067833462995</v>
       </c>
       <c r="K19" s="16">
-        <v>0.99398208818041001</v>
+        <v>0.98436838280153005</v>
       </c>
       <c r="L19" s="16">
-        <v>8.7032179125071192</v>
+        <v>8.6190411714430901</v>
       </c>
       <c r="M19" s="16">
-        <v>0.17617302952895</v>
+        <v>0.17446909982867001</v>
       </c>
       <c r="N19" s="15">
-        <v>1.12628247985741</v>
+        <v>1.11538917698656</v>
       </c>
       <c r="O19" s="17">
-        <v>3.23870942363506</v>
+        <v>3.20738491731157</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
@@ -2277,7 +2277,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="28">
-        <v>3.48336073800693</v>
+        <v>3.48336073800691</v>
       </c>
       <c r="D20" s="29">
         <v>3.1831902761980002E-2</v>
@@ -2286,7 +2286,7 @@
         <v>0.74036769682379</v>
       </c>
       <c r="F20" s="29">
-        <v>2.71116105902126</v>
+        <v>2.7111610590212498</v>
       </c>
       <c r="G20" s="29">
         <v>12.2390945977423</v>
@@ -2295,19 +2295,19 @@
         <v>26</v>
       </c>
       <c r="I20" s="29">
-        <v>0.73300059043383003</v>
+        <v>0.73300059043382004</v>
       </c>
       <c r="J20" s="29">
-        <v>17.623679190988302</v>
+        <v>17.623679190988199</v>
       </c>
       <c r="K20" s="29">
         <v>0</v>
       </c>
       <c r="L20" s="29">
-        <v>1.9487834406423701</v>
+        <v>1.9487834406423601</v>
       </c>
       <c r="M20" s="29">
-        <v>2.1688069700786499</v>
+        <v>2.1688069700786401</v>
       </c>
       <c r="N20" s="28">
         <v>0.63361550404589995</v>
@@ -2324,7 +2324,7 @@
         <v>54</v>
       </c>
       <c r="C21" s="28">
-        <v>2.8577018042633702</v>
+        <v>2.85770180426336</v>
       </c>
       <c r="D21" s="29">
         <v>1.623651392228E-2</v>
@@ -2371,25 +2371,25 @@
         <v>56</v>
       </c>
       <c r="C22" s="19">
-        <v>5.4037834239482896</v>
+        <v>5.4037834239482301</v>
       </c>
       <c r="D22" s="20">
-        <v>1.8093228990074399</v>
+        <v>1.8093228990074199</v>
       </c>
       <c r="E22" s="20">
-        <v>2.5558629366107102</v>
+        <v>2.5558629366106902</v>
       </c>
       <c r="F22" s="20">
-        <v>1.0385976177292899</v>
+        <v>1.0385976177292799</v>
       </c>
       <c r="G22" s="20">
-        <v>24.625706438064199</v>
+        <v>24.625706438063901</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>26</v>
       </c>
       <c r="I22" s="20">
-        <v>3.44165634931759</v>
+        <v>3.44165634931755</v>
       </c>
       <c r="J22" s="20">
         <v>0</v>
@@ -2398,13 +2398,13 @@
         <v>0</v>
       </c>
       <c r="L22" s="20">
-        <v>2.0313716370008801</v>
+        <v>2.0313716370008601</v>
       </c>
       <c r="M22" s="20">
-        <v>1.35059244567749</v>
+        <v>1.3505924456774701</v>
       </c>
       <c r="N22" s="19">
-        <v>1.3311329196891499</v>
+        <v>1.3311329196891399</v>
       </c>
       <c r="O22" s="21" t="s">
         <v>26</v>
@@ -2418,43 +2418,43 @@
         <v>57</v>
       </c>
       <c r="C23" s="24">
-        <v>3.6732850304581999</v>
+        <v>3.6594498323491398</v>
       </c>
       <c r="D23" s="25">
-        <v>0.78131157041263</v>
+        <v>0.78226427696626</v>
       </c>
       <c r="E23" s="25">
-        <v>0.66694900430158999</v>
+        <v>0.66401552718358003</v>
       </c>
       <c r="F23" s="25">
-        <v>2.22502447252681</v>
+        <v>2.2131700447012101</v>
       </c>
       <c r="G23" s="25">
-        <v>11.0502727335738</v>
+        <v>10.9735068123329</v>
       </c>
       <c r="H23" s="24">
-        <v>7.7021198831708801</v>
+        <v>7.7146117574946498</v>
       </c>
       <c r="I23" s="25">
-        <v>2.3146378122206901</v>
+        <v>2.3002732161528598</v>
       </c>
       <c r="J23" s="25">
-        <v>1.6155731274426099</v>
+        <v>1.59692733766182</v>
       </c>
       <c r="K23" s="25">
-        <v>0.49292540583896</v>
+        <v>0.49547624146227998</v>
       </c>
       <c r="L23" s="25">
-        <v>5.6468787760238497</v>
+        <v>5.6495853404565199</v>
       </c>
       <c r="M23" s="25">
-        <v>0.52933245939023998</v>
+        <v>0.52326622051754001</v>
       </c>
       <c r="N23" s="24">
-        <v>1.23373611297773</v>
+        <v>1.22666824974654</v>
       </c>
       <c r="O23" s="26">
-        <v>0.49831181371818001</v>
+        <v>0.5229615838028</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
@@ -2465,25 +2465,25 @@
         <v>59</v>
       </c>
       <c r="C24" s="19">
-        <v>4.81522682902279</v>
+        <v>4.8152268290227598</v>
       </c>
       <c r="D24" s="20">
-        <v>0.84604011775791998</v>
+        <v>0.84604011775790999</v>
       </c>
       <c r="E24" s="20">
         <v>0.77376048145376997</v>
       </c>
       <c r="F24" s="20">
-        <v>3.1954258649596499</v>
+        <v>3.1954258649596299</v>
       </c>
       <c r="G24" s="20">
-        <v>7.2639700678954302</v>
+        <v>7.2639700678954</v>
       </c>
       <c r="H24" s="19">
-        <v>0.91138949384318002</v>
+        <v>0.91138949384317003</v>
       </c>
       <c r="I24" s="20">
-        <v>2.4985248156539099</v>
+        <v>2.4985248156539002</v>
       </c>
       <c r="J24" s="20">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>0.94266773057558995</v>
       </c>
       <c r="N24" s="19">
-        <v>1.0963219685404899</v>
+        <v>1.0963219685404799</v>
       </c>
       <c r="O24" s="21">
         <v>-0.1220688895644</v>
@@ -2512,7 +2512,7 @@
         <v>61</v>
       </c>
       <c r="C25" s="19">
-        <v>2.14911316389514</v>
+        <v>2.1491131638951302</v>
       </c>
       <c r="D25" s="20">
         <v>0.44608867003965003</v>
@@ -2530,7 +2530,7 @@
         <v>16.073956632866299</v>
       </c>
       <c r="I25" s="20">
-        <v>8.1613881971201501</v>
+        <v>8.1613881971201394</v>
       </c>
       <c r="J25" s="20">
         <v>0</v>
@@ -2545,7 +2545,7 @@
         <v>0.62216844473945998</v>
       </c>
       <c r="N25" s="19">
-        <v>2.1797729651552999</v>
+        <v>2.1797729651552902</v>
       </c>
       <c r="O25" s="21">
         <v>21.0762097131452</v>
@@ -2559,16 +2559,16 @@
         <v>63</v>
       </c>
       <c r="C26" s="19">
-        <v>4.46086185611325</v>
+        <v>4.4608618561132296</v>
       </c>
       <c r="D26" s="20">
-        <v>1.7486306156487099</v>
+        <v>1.7486306156486999</v>
       </c>
       <c r="E26" s="20">
         <v>0.78533379382213997</v>
       </c>
       <c r="F26" s="20">
-        <v>1.92689724538407</v>
+        <v>1.92689724538406</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>26</v>
@@ -2583,13 +2583,13 @@
         <v>0</v>
       </c>
       <c r="K26" s="20">
-        <v>0</v>
+        <v>1.5035230880964101</v>
       </c>
       <c r="L26" s="20">
         <v>0</v>
       </c>
       <c r="M26" s="20">
-        <v>1.64842924205993</v>
+        <v>1.7086918161731</v>
       </c>
       <c r="N26" s="19" t="s">
         <v>26</v>
@@ -2618,7 +2618,7 @@
         <v>1.42336318842446</v>
       </c>
       <c r="G27" s="20">
-        <v>8.8342604194178307</v>
+        <v>8.83426041941782</v>
       </c>
       <c r="H27" s="19">
         <v>21.2321444316546</v>
@@ -2653,43 +2653,43 @@
         <v>67</v>
       </c>
       <c r="C28" s="19">
-        <v>4.2360415525340498</v>
+        <v>4.2339195165514099</v>
       </c>
       <c r="D28" s="20">
-        <v>0.78408925916647998</v>
+        <v>0.78369647132412001</v>
       </c>
       <c r="E28" s="20">
-        <v>1.9476899497287199</v>
+        <v>1.9467142586017401</v>
       </c>
       <c r="F28" s="20">
-        <v>1.5042625117364801</v>
+        <v>1.5035089546389799</v>
       </c>
       <c r="G28" s="20">
-        <v>15.4161455565868</v>
+        <v>15.4084228713442</v>
       </c>
       <c r="H28" s="19">
-        <v>-1.5190797875899</v>
+        <v>-1.5183188078097001</v>
       </c>
       <c r="I28" s="20">
-        <v>4.80341295539536</v>
+        <v>4.80100669591834</v>
       </c>
       <c r="J28" s="20">
-        <v>1.2407495044100001E-2</v>
+        <v>1.2401279535920001E-2</v>
       </c>
       <c r="K28" s="20">
-        <v>3.0028337957599999E-3</v>
+        <v>3.0013295325699999E-3</v>
       </c>
       <c r="L28" s="20">
-        <v>1.2207925393904</v>
+        <v>1.22018098597105</v>
       </c>
       <c r="M28" s="20">
-        <v>0.79540331384498997</v>
+        <v>0.79500485825107003</v>
       </c>
       <c r="N28" s="19">
-        <v>0.98511893693667996</v>
+        <v>0.98462544370592997</v>
       </c>
       <c r="O28" s="21">
-        <v>0.26760804879351002</v>
+        <v>0.26747399111212999</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
@@ -2747,25 +2747,25 @@
         <v>71</v>
       </c>
       <c r="C30" s="19">
-        <v>6.3305526013588302</v>
+        <v>6.1592928754040699</v>
       </c>
       <c r="D30" s="20">
-        <v>1.850548004317E-2</v>
+        <v>1.8004853377470001E-2</v>
       </c>
       <c r="E30" s="20">
-        <v>2.9780288041267799</v>
+        <v>2.8974645265674002</v>
       </c>
       <c r="F30" s="20">
-        <v>3.3340184051406898</v>
+        <v>3.24382358103166</v>
       </c>
       <c r="G30" s="20">
-        <v>12.6956880607581</v>
+        <v>12.3522330426882</v>
       </c>
       <c r="H30" s="19">
-        <v>5.59722361748838</v>
+        <v>5.4458025578746003</v>
       </c>
       <c r="I30" s="20">
-        <v>5.3614969175800704</v>
+        <v>5.2164529458081699</v>
       </c>
       <c r="J30" s="20">
         <v>0</v>
@@ -2774,16 +2774,16 @@
         <v>0</v>
       </c>
       <c r="L30" s="20">
-        <v>2.0570090896900001E-3</v>
+        <v>2.0013610546499999E-3</v>
       </c>
       <c r="M30" s="20">
-        <v>1.21562362685287</v>
+        <v>1.1827374978987799</v>
       </c>
       <c r="N30" s="19">
-        <v>0.15811463619246</v>
+        <v>0.15383717876198</v>
       </c>
       <c r="O30" s="21">
-        <v>9.5829252629334505</v>
+        <v>9.3236794659673805</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
@@ -2794,25 +2794,25 @@
         <v>73</v>
       </c>
       <c r="C31" s="19">
-        <v>6.3707996852567002</v>
+        <v>6.3707996852566398</v>
       </c>
       <c r="D31" s="20">
-        <v>2.1526610417657501</v>
+        <v>2.1526610417657301</v>
       </c>
       <c r="E31" s="20">
-        <v>2.5449142617187599</v>
+        <v>2.5449142617187301</v>
       </c>
       <c r="F31" s="20">
-        <v>1.6732243210378499</v>
+        <v>1.6732243210378299</v>
       </c>
       <c r="G31" s="20">
-        <v>12.5117407833224</v>
+        <v>12.511740783322301</v>
       </c>
       <c r="H31" s="19">
         <v>-1.3805684321773</v>
       </c>
       <c r="I31" s="20">
-        <v>2.9697361790093</v>
+        <v>2.9697361790092698</v>
       </c>
       <c r="J31" s="20">
         <v>0</v>
@@ -2821,13 +2821,13 @@
         <v>0</v>
       </c>
       <c r="L31" s="20">
-        <v>3.5782282114378798</v>
+        <v>3.5782282114378501</v>
       </c>
       <c r="M31" s="20">
         <v>0.47290736522888999</v>
       </c>
       <c r="N31" s="19">
-        <v>1.2385796755388401</v>
+        <v>1.2385796755388301</v>
       </c>
       <c r="O31" s="21">
         <v>-3.7005475053736001</v>
@@ -2935,16 +2935,16 @@
         <v>79</v>
       </c>
       <c r="C34" s="15">
-        <v>4.4469288650452103</v>
+        <v>5.8491461530226898</v>
       </c>
       <c r="D34" s="16">
-        <v>2.4445706754347798</v>
+        <v>3.2153991205942201</v>
       </c>
       <c r="E34" s="16">
-        <v>0.72495720297925004</v>
+        <v>0.95355261206074005</v>
       </c>
       <c r="F34" s="16">
-        <v>1.27740083930504</v>
+        <v>1.6801942265863199</v>
       </c>
       <c r="G34" s="16" t="s">
         <v>26</v>
@@ -2956,13 +2956,13 @@
         <v>26</v>
       </c>
       <c r="J34" s="16">
-        <v>17.962085492555602</v>
+        <v>23.658520466333201</v>
       </c>
       <c r="K34" s="16">
-        <v>0</v>
+        <v>3.7724081540470002E-2</v>
       </c>
       <c r="L34" s="16">
-        <v>0.69106523436925005</v>
+        <v>4.9695102599014698</v>
       </c>
       <c r="M34" s="16" t="s">
         <v>26</v>
@@ -2982,7 +2982,7 @@
         <v>81</v>
       </c>
       <c r="C35" s="19">
-        <v>6.04470691002156</v>
+        <v>6.0447069100215503</v>
       </c>
       <c r="D35" s="20">
         <v>0.39638540194550997</v>
@@ -3029,43 +3029,43 @@
         <v>83</v>
       </c>
       <c r="C36" s="19">
-        <v>3.9721084763483399</v>
+        <v>3.9792751761565999</v>
       </c>
       <c r="D36" s="20">
-        <v>1.43570567880661</v>
+        <v>1.43829605912334</v>
       </c>
       <c r="E36" s="20">
-        <v>1.6239430112750299</v>
+        <v>1.6268730198930801</v>
       </c>
       <c r="F36" s="20">
-        <v>0.91245973703784999</v>
+        <v>0.91410604782252003</v>
       </c>
       <c r="G36" s="20">
-        <v>10.9296104552846</v>
+        <v>10.9493302684822</v>
       </c>
       <c r="H36" s="19">
-        <v>24.886268416218801</v>
+        <v>24.931169610672299</v>
       </c>
       <c r="I36" s="20">
-        <v>3.79734799479853</v>
+        <v>3.8041993819920701</v>
       </c>
       <c r="J36" s="20">
-        <v>0.19968928521184001</v>
+        <v>0.20004957576547999</v>
       </c>
       <c r="K36" s="20">
-        <v>0.82039436911623997</v>
+        <v>0.82187457042566003</v>
       </c>
       <c r="L36" s="20">
         <v>0</v>
       </c>
       <c r="M36" s="20">
-        <v>0.82789448873306004</v>
+        <v>0.82938822217689001</v>
       </c>
       <c r="N36" s="19">
-        <v>1.36431121207257</v>
+        <v>1.36677277850767</v>
       </c>
       <c r="O36" s="21">
-        <v>25.471327055883599</v>
+        <v>25.517283845788601</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3076,25 +3076,25 @@
         <v>85</v>
       </c>
       <c r="C37" s="19">
-        <v>3.6572796778168399</v>
+        <v>3.6576195032448702</v>
       </c>
       <c r="D37" s="20">
-        <v>1.5367827480065399</v>
+        <v>1.53692554207786</v>
       </c>
       <c r="E37" s="20">
-        <v>0.55286174724018999</v>
+        <v>0.55291311779329999</v>
       </c>
       <c r="F37" s="20">
-        <v>1.5676351746706401</v>
+        <v>1.5677808354735201</v>
       </c>
       <c r="G37" s="20">
-        <v>6.6204885209490403</v>
+        <v>6.6211036804510801</v>
       </c>
       <c r="H37" s="19">
-        <v>14.4512854217836</v>
+        <v>14.452628199664099</v>
       </c>
       <c r="I37" s="20">
-        <v>1.5505088106468701</v>
+        <v>1.55065288011015</v>
       </c>
       <c r="J37" s="20">
         <v>0</v>
@@ -3103,16 +3103,16 @@
         <v>0</v>
       </c>
       <c r="L37" s="20">
-        <v>6.8612281836223898</v>
+        <v>6.8618657120614799</v>
       </c>
       <c r="M37" s="20">
-        <v>0.70966948521220996</v>
+        <v>0.70973542595446004</v>
       </c>
       <c r="N37" s="19">
-        <v>0.93047923141672995</v>
+        <v>0.93056568925725003</v>
       </c>
       <c r="O37" s="21">
-        <v>7.5004173321791301</v>
+        <v>7.5011142525010204</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3123,43 +3123,43 @@
         <v>86</v>
       </c>
       <c r="C38" s="24">
-        <v>4.3267830917455496</v>
+        <v>4.3314704703903599</v>
       </c>
       <c r="D38" s="25">
-        <v>1.0138479787556001</v>
+        <v>1.0100588811954601</v>
       </c>
       <c r="E38" s="25">
-        <v>1.3718429761454001</v>
+        <v>1.3758936159856701</v>
       </c>
       <c r="F38" s="25">
-        <v>1.9410920992176199</v>
+        <v>1.9455179359107699</v>
       </c>
       <c r="G38" s="25">
-        <v>10.148109388135699</v>
+        <v>10.1421557354399</v>
       </c>
       <c r="H38" s="24">
-        <v>14.211377749794901</v>
+        <v>14.2056651977306</v>
       </c>
       <c r="I38" s="25">
-        <v>3.22331802150816</v>
+        <v>3.2217852024849698</v>
       </c>
       <c r="J38" s="25">
-        <v>0.11226727351493999</v>
+        <v>0.11221306864867001</v>
       </c>
       <c r="K38" s="25">
-        <v>0.48985182110528003</v>
+        <v>0.48960621030531998</v>
       </c>
       <c r="L38" s="25">
-        <v>2.63508346943282</v>
+        <v>2.63221119724574</v>
       </c>
       <c r="M38" s="25">
-        <v>1.1093951921198799</v>
+        <v>1.1086897751129701</v>
       </c>
       <c r="N38" s="24">
-        <v>1.1009941723560901</v>
+        <v>1.1002073251872699</v>
       </c>
       <c r="O38" s="26">
-        <v>11.987103842773999</v>
+        <v>11.984522823715601</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -3170,43 +3170,43 @@
         <v>88</v>
       </c>
       <c r="C39" s="28">
-        <v>6.1741140343891399</v>
+        <v>6.1743850904095998</v>
       </c>
       <c r="D39" s="29">
-        <v>2.75578667614E-3</v>
+        <v>2.7559076607099999E-3</v>
       </c>
       <c r="E39" s="29">
-        <v>4.0131608988926004</v>
+        <v>4.01333708472536</v>
       </c>
       <c r="F39" s="29">
-        <v>2.15819707146446</v>
+        <v>2.15829182065541</v>
       </c>
       <c r="G39" s="29">
-        <v>8.9144872562289308</v>
+        <v>8.9148786201439307</v>
       </c>
       <c r="H39" s="28">
-        <v>30.178949425773901</v>
+        <v>30.180274342334801</v>
       </c>
       <c r="I39" s="29">
-        <v>4.3714385467480597</v>
+        <v>4.37163046168995</v>
       </c>
       <c r="J39" s="29">
-        <v>9.9038800745807904</v>
+        <v>9.9043148748298897</v>
       </c>
       <c r="K39" s="29">
-        <v>2.3111911703999999E-3</v>
+        <v>2.3112926363400002E-3</v>
       </c>
       <c r="L39" s="29">
         <v>0</v>
       </c>
       <c r="M39" s="29">
-        <v>3.66557090922857</v>
+        <v>3.6657318351618802</v>
       </c>
       <c r="N39" s="28">
-        <v>0.34749865144448999</v>
+        <v>0.34751390733401</v>
       </c>
       <c r="O39" s="30">
-        <v>20.6311271460978</v>
+        <v>20.6320328940627</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -3217,43 +3217,43 @@
         <v>90</v>
       </c>
       <c r="C40" s="19">
-        <v>4.9783482823233403</v>
+        <v>4.97836331700631</v>
       </c>
       <c r="D40" s="20">
-        <v>5.2706315697649997E-2</v>
+        <v>5.2706474871480002E-2</v>
       </c>
       <c r="E40" s="20">
-        <v>1.3832170289872401</v>
+        <v>1.3832212063224401</v>
       </c>
       <c r="F40" s="20">
-        <v>3.5424250263474799</v>
+        <v>3.5424357245217002</v>
       </c>
       <c r="G40" s="20">
-        <v>5.7474817726375296</v>
+        <v>5.7474991301146403</v>
       </c>
       <c r="H40" s="19">
-        <v>8.7282247533543806</v>
+        <v>8.7282511127178992</v>
       </c>
       <c r="I40" s="20">
-        <v>4.0518015910752503</v>
+        <v>4.0518138275739801</v>
       </c>
       <c r="J40" s="20">
-        <v>3.4036062509218099</v>
+        <v>3.4036165298613401</v>
       </c>
       <c r="K40" s="20">
         <v>0</v>
       </c>
       <c r="L40" s="20">
-        <v>0.16173410122314</v>
+        <v>0.16173458966243001</v>
       </c>
       <c r="M40" s="20">
-        <v>3.31350049936965</v>
+        <v>3.3135105061885199</v>
       </c>
       <c r="N40" s="19">
-        <v>0.65557185414321995</v>
+        <v>0.65557383397959001</v>
       </c>
       <c r="O40" s="21">
-        <v>5.2456136387718297</v>
+        <v>5.2456294805999999</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -3323,10 +3323,10 @@
         <v>1.59359073839266</v>
       </c>
       <c r="G42" s="29">
-        <v>7.7774840203497799</v>
+        <v>7.7774840203497702</v>
       </c>
       <c r="H42" s="28">
-        <v>27.456982937866002</v>
+        <v>27.456982937865899</v>
       </c>
       <c r="I42" s="29">
         <v>2.8312515847405799</v>
@@ -3358,25 +3358,25 @@
         <v>96</v>
       </c>
       <c r="C43" s="19">
-        <v>4.9062037149515403</v>
+        <v>4.9062037149515199</v>
       </c>
       <c r="D43" s="20">
         <v>3.5216343002850002E-2</v>
       </c>
       <c r="E43" s="20">
-        <v>1.9564212830260801</v>
+        <v>1.9564212830260701</v>
       </c>
       <c r="F43" s="20">
-        <v>2.9145662894243598</v>
+        <v>2.91456628942435</v>
       </c>
       <c r="G43" s="20">
-        <v>9.7027169595363603</v>
+        <v>9.7027169595363301</v>
       </c>
       <c r="H43" s="19">
         <v>16.145232994241901</v>
       </c>
       <c r="I43" s="20">
-        <v>4.7595310143097898</v>
+        <v>4.7595310143097702</v>
       </c>
       <c r="J43" s="20">
         <v>3.0997370838699999E-3</v>
@@ -3388,13 +3388,13 @@
         <v>0</v>
       </c>
       <c r="M43" s="20">
-        <v>2.1512875836438798</v>
+        <v>2.1512875836438701</v>
       </c>
       <c r="N43" s="19">
         <v>0.52818597370517995</v>
       </c>
       <c r="O43" s="21">
-        <v>18.124931578463599</v>
+        <v>18.124931578463499</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3405,40 +3405,40 @@
         <v>98</v>
       </c>
       <c r="C44" s="19">
-        <v>6.72266592536005</v>
+        <v>6.7012981823930096</v>
       </c>
       <c r="D44" s="20">
-        <v>2.4160783270729999E-2</v>
+        <v>2.4083989122019998E-2</v>
       </c>
       <c r="E44" s="20">
-        <v>3.8414876534740099</v>
+        <v>3.8292776282099501</v>
       </c>
       <c r="F44" s="20">
-        <v>2.85701780129836</v>
+        <v>2.84793687675025</v>
       </c>
       <c r="G44" s="20">
-        <v>1.3633443919288999</v>
+        <v>1.35901105261594</v>
       </c>
       <c r="H44" s="19" t="s">
         <v>26</v>
       </c>
       <c r="I44" s="20">
-        <v>5.6620790347740799</v>
+        <v>5.6440823276912999</v>
       </c>
       <c r="J44" s="20">
-        <v>1.0184559569051099</v>
+        <v>1.01521883262257</v>
       </c>
       <c r="K44" s="20">
         <v>0</v>
       </c>
       <c r="L44" s="20">
-        <v>0.27033594459803001</v>
+        <v>0.26947669187848999</v>
       </c>
       <c r="M44" s="20">
-        <v>2.97028851047977</v>
+        <v>2.96084755920619</v>
       </c>
       <c r="N44" s="19">
-        <v>0.32986767001131001</v>
+        <v>0.32881919792238001</v>
       </c>
       <c r="O44" s="21" t="s">
         <v>26</v>
@@ -3452,43 +3452,43 @@
         <v>99</v>
       </c>
       <c r="C45" s="24">
-        <v>5.32460530892339</v>
+        <v>5.31982212226435</v>
       </c>
       <c r="D45" s="25">
-        <v>4.0798775783549998E-2</v>
+        <v>4.0953041009649999E-2</v>
       </c>
       <c r="E45" s="25">
-        <v>2.20394551513371</v>
+        <v>2.1953016327986301</v>
       </c>
       <c r="F45" s="25">
-        <v>3.0798610511178199</v>
+        <v>3.08356748278189</v>
       </c>
       <c r="G45" s="25">
-        <v>6.6918395828813502</v>
+        <v>6.6815698052600503</v>
       </c>
       <c r="H45" s="24">
-        <v>15.198990553393701</v>
+        <v>15.1277073839435</v>
       </c>
       <c r="I45" s="25">
-        <v>4.2183117836317301</v>
+        <v>4.2174136143886098</v>
       </c>
       <c r="J45" s="25">
-        <v>4.42938987515139</v>
+        <v>4.4062501789719404</v>
       </c>
       <c r="K45" s="25">
-        <v>1.8528035641460001E-2</v>
+        <v>1.8549859537459999E-2</v>
       </c>
       <c r="L45" s="25">
-        <v>0.10452955996721</v>
+        <v>0.10505587392783</v>
       </c>
       <c r="M45" s="25">
-        <v>3.2147975122183801</v>
+        <v>3.2133271571512401</v>
       </c>
       <c r="N45" s="24">
-        <v>0.56426486271730003</v>
+        <v>0.56530087343708002</v>
       </c>
       <c r="O45" s="26">
-        <v>11.0857924913297</v>
+        <v>11.036637055306601</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -3499,7 +3499,7 @@
         <v>101</v>
       </c>
       <c r="C46" s="19">
-        <v>2.4871830312534402</v>
+        <v>2.48718303125343</v>
       </c>
       <c r="D46" s="20">
         <v>0.60534457580678003</v>
@@ -3508,16 +3508,16 @@
         <v>0.56336458169312997</v>
       </c>
       <c r="F46" s="20">
-        <v>1.3184739873301901</v>
+        <v>1.3184739873301801</v>
       </c>
       <c r="G46" s="20">
-        <v>10.855443409838999</v>
+        <v>10.8554434098389</v>
       </c>
       <c r="H46" s="19">
         <v>10.8630627817865</v>
       </c>
       <c r="I46" s="20">
-        <v>2.90377287298702</v>
+        <v>2.9037728729870098</v>
       </c>
       <c r="J46" s="20">
         <v>8.1243031891879994E-2</v>
@@ -3529,13 +3529,13 @@
         <v>0</v>
       </c>
       <c r="M46" s="20">
-        <v>2.4321614683514698</v>
+        <v>2.4321614683514601</v>
       </c>
       <c r="N46" s="19">
-        <v>2.1177607061886401</v>
+        <v>2.1177607061886299</v>
       </c>
       <c r="O46" s="21">
-        <v>9.1356704483416102</v>
+        <v>9.13567044834158</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
@@ -3546,43 +3546,43 @@
         <v>103</v>
       </c>
       <c r="C47" s="19">
-        <v>5.5478740722569704</v>
+        <v>5.48341297767064</v>
       </c>
       <c r="D47" s="20">
-        <v>0.87646500497913005</v>
+        <v>0.86628130346540999</v>
       </c>
       <c r="E47" s="20">
-        <v>2.3197652254007401</v>
+        <v>2.2928117286801801</v>
       </c>
       <c r="F47" s="20">
-        <v>2.3516436676238399</v>
+        <v>2.3243197732964398</v>
       </c>
       <c r="G47" s="20">
-        <v>7.5821494306224801</v>
+        <v>7.49405196387226</v>
       </c>
       <c r="H47" s="19">
-        <v>9.4815274735994208</v>
+        <v>9.3713610149995503</v>
       </c>
       <c r="I47" s="20">
-        <v>4.1307677145389103</v>
+        <v>4.0827720670362702</v>
       </c>
       <c r="J47" s="20">
         <v>0</v>
       </c>
       <c r="K47" s="20">
-        <v>2.7741086132253301</v>
+        <v>2.7418760723671798</v>
       </c>
       <c r="L47" s="20">
         <v>0</v>
       </c>
       <c r="M47" s="20">
-        <v>1.19124398037542</v>
+        <v>1.1774028423297001</v>
       </c>
       <c r="N47" s="19">
-        <v>2.43829715774429</v>
+        <v>2.40996643111498</v>
       </c>
       <c r="O47" s="21">
-        <v>7.2086454367933204</v>
+        <v>7.1248877362239798</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -3640,43 +3640,43 @@
         <v>107</v>
       </c>
       <c r="C49" s="19">
-        <v>3.3539138839825799</v>
+        <v>3.28392895256906</v>
       </c>
       <c r="D49" s="20">
-        <v>0.51100373914410002</v>
+        <v>0.50034080536787995</v>
       </c>
       <c r="E49" s="20">
-        <v>0.97535171720715996</v>
+        <v>0.95499939887281005</v>
       </c>
       <c r="F49" s="20">
-        <v>1.8675583588448099</v>
+        <v>1.8285886809772001</v>
       </c>
       <c r="G49" s="20">
-        <v>3.2193995966056801</v>
+        <v>3.1522215271158198</v>
       </c>
       <c r="H49" s="19">
-        <v>14.334740189533701</v>
+        <v>14.035622250404</v>
       </c>
       <c r="I49" s="20">
-        <v>3.10132520209378</v>
+        <v>3.0366109491142601</v>
       </c>
       <c r="J49" s="20">
-        <v>0.77179254333111003</v>
+        <v>0.75568782207740004</v>
       </c>
       <c r="K49" s="20">
-        <v>0.44893382294987</v>
+        <v>0.43956608009922998</v>
       </c>
       <c r="L49" s="20">
         <v>0</v>
       </c>
       <c r="M49" s="20">
-        <v>0.73454716826292998</v>
+        <v>0.71921963304016001</v>
       </c>
       <c r="N49" s="19">
-        <v>1.11447470159647</v>
+        <v>1.09121935329256</v>
       </c>
       <c r="O49" s="21">
-        <v>14.366317155487099</v>
+        <v>14.0665403110089</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
@@ -3705,7 +3705,7 @@
         <v>-1.0634712736387999</v>
       </c>
       <c r="I50" s="20">
-        <v>2.6250500987240302</v>
+        <v>2.62505009872402</v>
       </c>
       <c r="J50" s="20">
         <v>0</v>
@@ -3746,19 +3746,19 @@
         <v>1.68327589456127</v>
       </c>
       <c r="G51" s="16">
-        <v>9.2852959600273604</v>
+        <v>9.2852959600273497</v>
       </c>
       <c r="H51" s="15">
         <v>9.3184106038763499</v>
       </c>
       <c r="I51" s="16">
-        <v>4.0688346713276697</v>
+        <v>4.06883467132766</v>
       </c>
       <c r="J51" s="16">
-        <v>4.0650191095356396</v>
+        <v>4.0650191095356298</v>
       </c>
       <c r="K51" s="16">
-        <v>1.57940296061218</v>
+        <v>1.57940296061217</v>
       </c>
       <c r="L51" s="16">
         <v>3.47540572170116</v>
@@ -3828,7 +3828,7 @@
         <v>115</v>
       </c>
       <c r="C53" s="19">
-        <v>8.29459743928569</v>
+        <v>8.2945974392856794</v>
       </c>
       <c r="D53" s="20">
         <v>2.10053895947068</v>
@@ -3846,7 +3846,7 @@
         <v>6.5647709933831297</v>
       </c>
       <c r="I53" s="20">
-        <v>1.1471084930073601</v>
+        <v>1.1471084930073501</v>
       </c>
       <c r="J53" s="20">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="20">
-        <v>9.6176793846982296</v>
+        <v>9.6176793846982207</v>
       </c>
       <c r="M53" s="20">
         <v>0.88631425615329995</v>
@@ -3875,25 +3875,25 @@
         <v>117</v>
       </c>
       <c r="C54" s="19">
-        <v>8.5076454361540907</v>
+        <v>8.5074693242390005</v>
       </c>
       <c r="D54" s="20">
-        <v>2.1002728980120202</v>
+        <v>2.1002294214608299</v>
       </c>
       <c r="E54" s="20">
-        <v>1.36941659870688</v>
+        <v>1.3693882511950299</v>
       </c>
       <c r="F54" s="20">
-        <v>5.0379564962217804</v>
+        <v>5.0378522083581903</v>
       </c>
       <c r="G54" s="20">
-        <v>24.022068486103901</v>
+        <v>24.021571218967299</v>
       </c>
       <c r="H54" s="19" t="s">
         <v>26</v>
       </c>
       <c r="I54" s="20">
-        <v>3.52426047550136</v>
+        <v>3.52418752179562</v>
       </c>
       <c r="J54" s="20">
         <v>0</v>
@@ -3902,13 +3902,13 @@
         <v>0</v>
       </c>
       <c r="L54" s="20">
-        <v>15.3444308872948</v>
+        <v>15.344113250984</v>
       </c>
       <c r="M54" s="20">
-        <v>1.80902557318945</v>
+        <v>1.80898812558299</v>
       </c>
       <c r="N54" s="19">
-        <v>0.98864459825489004</v>
+        <v>0.98862413288702</v>
       </c>
       <c r="O54" s="21" t="s">
         <v>26</v>
@@ -3922,7 +3922,7 @@
         <v>119</v>
       </c>
       <c r="C55" s="19">
-        <v>4.08013704481254</v>
+        <v>4.0801370448125303</v>
       </c>
       <c r="D55" s="20">
         <v>1.36499726166956</v>
@@ -3934,28 +3934,28 @@
         <v>1.34220443823581</v>
       </c>
       <c r="G55" s="20">
-        <v>4.9366998567612397</v>
+        <v>4.9366998567612201</v>
       </c>
       <c r="H55" s="19" t="s">
         <v>26</v>
       </c>
       <c r="I55" s="20">
-        <v>3.6666230520115799</v>
+        <v>3.6666230520115701</v>
       </c>
       <c r="J55" s="20">
         <v>0</v>
       </c>
       <c r="K55" s="20">
-        <v>4.54208407893237</v>
+        <v>4.5420840789323602</v>
       </c>
       <c r="L55" s="20">
-        <v>2.1651726927253701</v>
+        <v>2.1651726927253598</v>
       </c>
       <c r="M55" s="20">
         <v>1.4456940564809999</v>
       </c>
       <c r="N55" s="19">
-        <v>2.5469336214690799</v>
+        <v>2.5469336214690701</v>
       </c>
       <c r="O55" s="21" t="s">
         <v>26</v>
@@ -3969,43 +3969,43 @@
         <v>121</v>
       </c>
       <c r="C56" s="19">
-        <v>5.7006768151767497</v>
+        <v>5.6984305077144199</v>
       </c>
       <c r="D56" s="20">
-        <v>0.86928331720758001</v>
+        <v>0.86894078286198995</v>
       </c>
       <c r="E56" s="20">
-        <v>2.03459118153383</v>
+        <v>2.03378946666697</v>
       </c>
       <c r="F56" s="20">
-        <v>2.7968023836139801</v>
+        <v>2.79570032533762</v>
       </c>
       <c r="G56" s="20">
-        <v>3.3072017014998298</v>
+        <v>3.30589852433291</v>
       </c>
       <c r="H56" s="19">
-        <v>21.664472478238899</v>
+        <v>21.655935760973001</v>
       </c>
       <c r="I56" s="20">
-        <v>2.5336315195727899</v>
+        <v>2.5326331617332301</v>
       </c>
       <c r="J56" s="20">
-        <v>0.73328788392202005</v>
+        <v>0.73299893752159995</v>
       </c>
       <c r="K56" s="20">
-        <v>7.0883863361170002E-2</v>
+        <v>7.085593212487E-2</v>
       </c>
       <c r="L56" s="20">
         <v>0</v>
       </c>
       <c r="M56" s="20">
-        <v>0.77504989946855996</v>
+        <v>0.77474449706999005</v>
       </c>
       <c r="N56" s="19">
-        <v>2.60274472702964</v>
+        <v>2.601719135667</v>
       </c>
       <c r="O56" s="21">
-        <v>20.0161376240303</v>
+        <v>20.008250420322799</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
@@ -4016,7 +4016,7 @@
         <v>123</v>
       </c>
       <c r="C57" s="28">
-        <v>3.2422765518841299</v>
+        <v>3.2422765518841201</v>
       </c>
       <c r="D57" s="29">
         <v>0.41338214548322999</v>
@@ -4046,13 +4046,13 @@
         <v>0</v>
       </c>
       <c r="M57" s="29">
-        <v>1.2241939653356799</v>
+        <v>1.2241939653356699</v>
       </c>
       <c r="N57" s="28">
-        <v>2.4403389951016701</v>
+        <v>2.4403389951016599</v>
       </c>
       <c r="O57" s="30">
-        <v>5.3349252255147102</v>
+        <v>5.3349252255147004</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
@@ -4063,7 +4063,7 @@
         <v>125</v>
       </c>
       <c r="C58" s="19">
-        <v>4.0401547303780401</v>
+        <v>4.0401547303780303</v>
       </c>
       <c r="D58" s="20">
         <v>0.72457315902255004</v>
@@ -4075,7 +4075,7 @@
         <v>2.3041837882078702</v>
       </c>
       <c r="G58" s="20">
-        <v>9.6194675519719404</v>
+        <v>9.6194675519719297</v>
       </c>
       <c r="H58" s="19" t="s">
         <v>26</v>
@@ -4096,7 +4096,7 @@
         <v>1.79270443592575</v>
       </c>
       <c r="N58" s="19">
-        <v>1.2201744591399699</v>
+        <v>1.2201744591399599</v>
       </c>
       <c r="O58" s="21" t="s">
         <v>26</v>
@@ -4157,7 +4157,7 @@
         <v>129</v>
       </c>
       <c r="C60" s="15">
-        <v>5.8398164985961998</v>
+        <v>5.83981649859619</v>
       </c>
       <c r="D60" s="16">
         <v>0.53232132818082001</v>
@@ -4166,10 +4166,10 @@
         <v>0.88047353574998999</v>
       </c>
       <c r="F60" s="16">
-        <v>4.4270219303376797</v>
+        <v>4.4270219303376699</v>
       </c>
       <c r="G60" s="16">
-        <v>6.4566746103015999</v>
+        <v>6.4566746103015902</v>
       </c>
       <c r="H60" s="15">
         <v>13.317716717052599</v>
@@ -4190,10 +4190,10 @@
         <v>1.2357852469900801</v>
       </c>
       <c r="N60" s="15">
-        <v>2.2309970248410802</v>
+        <v>2.23099702484107</v>
       </c>
       <c r="O60" s="17">
-        <v>9.5842866445379702</v>
+        <v>9.5842866445379595</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4204,43 +4204,43 @@
         <v>130</v>
       </c>
       <c r="C61" s="24">
-        <v>3.5487266711649399</v>
+        <v>3.5412359647253999</v>
       </c>
       <c r="D61" s="25">
-        <v>0.51828480414597</v>
+        <v>0.51715274010593004</v>
       </c>
       <c r="E61" s="25">
-        <v>0.79369329594745996</v>
+        <v>0.79153340186928001</v>
       </c>
       <c r="F61" s="25">
-        <v>2.23674861205438</v>
+        <v>2.23254986381732</v>
       </c>
       <c r="G61" s="25">
-        <v>9.5194054418988294</v>
+        <v>9.5074107155355296</v>
       </c>
       <c r="H61" s="24">
-        <v>11.3695775844962</v>
+        <v>11.341415871093799</v>
       </c>
       <c r="I61" s="25">
-        <v>1.64937348159922</v>
+        <v>1.6434434122770201</v>
       </c>
       <c r="J61" s="25">
-        <v>2.9772524120544199</v>
+        <v>2.9740556623944099</v>
       </c>
       <c r="K61" s="25">
-        <v>0.31101438325132003</v>
+        <v>0.30961312413592001</v>
       </c>
       <c r="L61" s="25">
-        <v>0.60796338641291003</v>
+        <v>0.60750110523589995</v>
       </c>
       <c r="M61" s="25">
-        <v>1.17160712692743</v>
+        <v>1.1695596616691299</v>
       </c>
       <c r="N61" s="24">
-        <v>2.0944869266556099</v>
+        <v>2.0909877714551999</v>
       </c>
       <c r="O61" s="26">
-        <v>5.8566268307937097</v>
+        <v>5.8331419584802502</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4251,43 +4251,43 @@
         <v>131</v>
       </c>
       <c r="C62" s="34">
-        <v>4.9570026715774897</v>
+        <v>4.9485137130230603</v>
       </c>
       <c r="D62" s="35">
-        <v>0.44625479733727003</v>
+        <v>0.44408642729949999</v>
       </c>
       <c r="E62" s="35">
-        <v>1.9467428647759899</v>
+        <v>1.9423322961689999</v>
       </c>
       <c r="F62" s="35">
-        <v>2.56400501613646</v>
+        <v>2.56209499673299</v>
       </c>
       <c r="G62" s="35">
-        <v>9.4321733473106502</v>
+        <v>9.4181341556328899</v>
       </c>
       <c r="H62" s="34">
-        <v>11.5773257782811</v>
+        <v>11.540435063853399</v>
       </c>
       <c r="I62" s="35">
-        <v>3.5472302134122602</v>
+        <v>3.5421038292642302</v>
       </c>
       <c r="J62" s="35">
-        <v>3.1874999283680601</v>
+        <v>3.17613561769635</v>
       </c>
       <c r="K62" s="35">
-        <v>0.31871678381883001</v>
+        <v>0.31753731641701</v>
       </c>
       <c r="L62" s="35">
-        <v>0.85908415954670003</v>
+        <v>0.86037630057707004</v>
       </c>
       <c r="M62" s="35">
-        <v>2.3088361006295299</v>
+        <v>2.3043352014893599</v>
       </c>
       <c r="N62" s="34">
-        <v>1.0657137705667701</v>
+        <v>1.0646553181028799</v>
       </c>
       <c r="O62" s="36">
-        <v>7.3847052487634697</v>
+        <v>7.35949913883492</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4298,43 +4298,43 @@
         <v>132</v>
       </c>
       <c r="C63" s="38">
-        <v>8.48690828836388</v>
+        <v>8.5876316801112509</v>
       </c>
       <c r="D63" s="39">
-        <v>1.4490628876440001E-2</v>
+        <v>1.449620986586E-2</v>
       </c>
       <c r="E63" s="39">
-        <v>5.0360444486531604</v>
+        <v>5.0855154927263699</v>
       </c>
       <c r="F63" s="39">
-        <v>3.4382138934145998</v>
+        <v>3.4894606458299902</v>
       </c>
       <c r="G63" s="39">
-        <v>16.735614705717701</v>
+        <v>16.855353207171099</v>
       </c>
       <c r="H63" s="38">
-        <v>11.2029026018424</v>
+        <v>11.193058109187101</v>
       </c>
       <c r="I63" s="39">
-        <v>3.6745847190685099</v>
+        <v>3.6712329527256</v>
       </c>
       <c r="J63" s="39">
-        <v>1.0309592696694001</v>
+        <v>1.03030819843634</v>
       </c>
       <c r="K63" s="39">
-        <v>0.13367433194541001</v>
+        <v>0.13357160114968</v>
       </c>
       <c r="L63" s="39">
-        <v>3.6075081063940001E-2</v>
+        <v>3.604462251269E-2</v>
       </c>
       <c r="M63" s="39">
-        <v>1.8955313479817</v>
+        <v>1.8937090053547001</v>
       </c>
       <c r="N63" s="38">
-        <v>0.30312034404027</v>
+        <v>0.30283984677567</v>
       </c>
       <c r="O63" s="40">
-        <v>11.4781269462102</v>
+        <v>11.4678177876836</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
@@ -4345,43 +4345,43 @@
         <v>133</v>
       </c>
       <c r="C64" s="34">
-        <v>7.8738328653768903</v>
+        <v>7.8791764714454997</v>
       </c>
       <c r="D64" s="35">
-        <v>2.883753715677E-2</v>
+        <v>2.883711250936E-2</v>
       </c>
       <c r="E64" s="35">
-        <v>3.9746527018674702</v>
+        <v>3.9770153949105702</v>
       </c>
       <c r="F64" s="35">
-        <v>3.8799293614558499</v>
+        <v>3.88290952563995</v>
       </c>
       <c r="G64" s="35">
-        <v>12.666106439512401</v>
+        <v>12.665393141941699</v>
       </c>
       <c r="H64" s="34">
-        <v>5.0217010283164196</v>
+        <v>5.0215849651292102</v>
       </c>
       <c r="I64" s="35">
-        <v>4.8685026350450604</v>
+        <v>4.8683088868936499</v>
       </c>
       <c r="J64" s="35">
-        <v>1.51024034275303</v>
+        <v>1.5102379342235701</v>
       </c>
       <c r="K64" s="35">
-        <v>0.38668154174468</v>
+        <v>0.38666737670048001</v>
       </c>
       <c r="L64" s="35">
-        <v>2.3284644765479999E-2</v>
+        <v>2.327849538392E-2</v>
       </c>
       <c r="M64" s="35">
-        <v>1.20053084599885</v>
+        <v>1.20050393804894</v>
       </c>
       <c r="N64" s="34">
-        <v>0.19005299021246</v>
+        <v>0.19004896467001001</v>
       </c>
       <c r="O64" s="36">
-        <v>6.5794132978869797</v>
+        <v>6.5791571429959399</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
@@ -4392,43 +4392,43 @@
         <v>134</v>
       </c>
       <c r="C65" s="43">
-        <v>4.4762178325767898</v>
+        <v>4.7655365914386696</v>
       </c>
       <c r="D65" s="44">
-        <v>2.6025714287879999E-2</v>
+        <v>2.6051897136249998E-2</v>
       </c>
       <c r="E65" s="44">
-        <v>2.2349934115847199</v>
+        <v>2.3782663870540501</v>
       </c>
       <c r="F65" s="44">
-        <v>2.2152035754083101</v>
+        <v>2.36122317468236</v>
       </c>
       <c r="G65" s="44">
-        <v>17.9233505160385</v>
+        <v>18.271228886308901</v>
       </c>
       <c r="H65" s="43">
-        <v>18.1735524801996</v>
+        <v>18.163760176721802</v>
       </c>
       <c r="I65" s="44">
-        <v>2.3636594755799898</v>
+        <v>2.3619302287782</v>
       </c>
       <c r="J65" s="44">
-        <v>0.85710270331788996</v>
+        <v>0.85660896370602002</v>
       </c>
       <c r="K65" s="44">
-        <v>0.15671451285106</v>
+        <v>0.15665963230320001</v>
       </c>
       <c r="L65" s="44">
-        <v>8.8073226861130005E-2</v>
+        <v>8.8031100983649996E-2</v>
       </c>
       <c r="M65" s="44">
-        <v>2.9424705620567799</v>
+        <v>2.9404838960011701</v>
       </c>
       <c r="N65" s="43">
-        <v>0.64716360464884004</v>
+        <v>0.64680642133230004</v>
       </c>
       <c r="O65" s="45">
-        <v>15.845687346043899</v>
+        <v>15.837100391173699</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4439,43 +4439,43 @@
         <v>135</v>
       </c>
       <c r="C66" s="47">
-        <v>8.3090145623700096</v>
+        <v>8.4044271844666998</v>
       </c>
       <c r="D66" s="48">
-        <v>3.923778724851E-2</v>
+        <v>3.9091698989130001E-2</v>
       </c>
       <c r="E66" s="48">
-        <v>4.88035547870982</v>
+        <v>4.9272778929971102</v>
       </c>
       <c r="F66" s="48">
-        <v>3.3941571136139199</v>
+        <v>3.4427741801651202</v>
       </c>
       <c r="G66" s="48">
-        <v>16.358749366759501</v>
+        <v>16.471982280016601</v>
       </c>
       <c r="H66" s="47">
-        <v>11.2214730810521</v>
+        <v>11.2102775715875</v>
       </c>
       <c r="I66" s="48">
-        <v>3.6682682452272002</v>
+        <v>3.66483202699819</v>
       </c>
       <c r="J66" s="48">
-        <v>1.1379184431056699</v>
+        <v>1.13667678180735</v>
       </c>
       <c r="K66" s="48">
-        <v>0.14285198766137</v>
+        <v>0.14269077464246999</v>
       </c>
       <c r="L66" s="48">
-        <v>7.6894330360249993E-2</v>
+        <v>7.6906712369760002E-2</v>
       </c>
       <c r="M66" s="48">
-        <v>1.9160302588379201</v>
+        <v>1.91406373024349</v>
       </c>
       <c r="N66" s="47">
-        <v>0.34094312388919001</v>
+        <v>0.34060301064797999</v>
       </c>
       <c r="O66" s="49">
-        <v>11.2751031824249</v>
+        <v>11.2641685888746</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
@@ -4486,43 +4486,43 @@
         <v>136</v>
       </c>
       <c r="C67" s="51">
-        <v>4.8690349622418401</v>
+        <v>4.8534829308529197</v>
       </c>
       <c r="D67" s="52">
-        <v>0.53645266888976995</v>
+        <v>0.53263181925742997</v>
       </c>
       <c r="E67" s="52">
-        <v>1.5016001170931099</v>
+        <v>1.4975009006442499</v>
       </c>
       <c r="F67" s="52">
-        <v>2.8309822346567501</v>
+        <v>2.82335026928155</v>
       </c>
       <c r="G67" s="52">
-        <v>7.2668853154834201</v>
+        <v>7.2451044728779097</v>
       </c>
       <c r="H67" s="51">
-        <v>10.5246365033292</v>
+        <v>10.5114387489712</v>
       </c>
       <c r="I67" s="52">
-        <v>3.57521535545377</v>
+        <v>3.5695038813691902</v>
       </c>
       <c r="J67" s="52">
-        <v>1.8783524849147</v>
+        <v>1.87847012391768</v>
       </c>
       <c r="K67" s="52">
-        <v>0.31562676882030999</v>
+        <v>0.31231891883641999</v>
       </c>
       <c r="L67" s="52">
-        <v>1.65712999819398</v>
+        <v>1.6554488043231399</v>
       </c>
       <c r="M67" s="52">
-        <v>2.2891100638633501</v>
+        <v>2.2842472177203801</v>
       </c>
       <c r="N67" s="51">
-        <v>0.84000622203290998</v>
+        <v>0.83739597491221995</v>
       </c>
       <c r="O67" s="53">
-        <v>7.1196263209577504</v>
+        <v>7.1130615906305001</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
@@ -4533,43 +4533,43 @@
         <v>137</v>
       </c>
       <c r="C68" s="43">
-        <v>4.4112017922574003</v>
+        <v>4.4076246419566001</v>
       </c>
       <c r="D68" s="44">
-        <v>0.29281500563448998</v>
+        <v>0.29203542021793999</v>
       </c>
       <c r="E68" s="44">
-        <v>1.2426528865514701</v>
+        <v>1.2414893358050301</v>
       </c>
       <c r="F68" s="44">
-        <v>2.8757339513676001</v>
+        <v>2.87409993730091</v>
       </c>
       <c r="G68" s="44">
-        <v>7.6428039961674097</v>
+        <v>7.6350769012886701</v>
       </c>
       <c r="H68" s="43">
-        <v>11.4719267819981</v>
+        <v>11.455060069638099</v>
       </c>
       <c r="I68" s="44">
-        <v>2.8584136703321201</v>
+        <v>2.8568714692196702</v>
       </c>
       <c r="J68" s="44">
-        <v>2.6963941337713102</v>
+        <v>2.6959809245107098</v>
       </c>
       <c r="K68" s="44">
-        <v>0.27010359317200999</v>
+        <v>0.26909712210219999</v>
       </c>
       <c r="L68" s="44">
-        <v>0.34995367318409998</v>
+        <v>0.34957249291935999</v>
       </c>
       <c r="M68" s="44">
-        <v>2.1543770334775001</v>
+        <v>2.1546704146288702</v>
       </c>
       <c r="N68" s="43">
-        <v>1.3656792937639901</v>
+        <v>1.3633393014702899</v>
       </c>
       <c r="O68" s="45">
-        <v>7.4938327249613499</v>
+        <v>7.4792712832263799</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
@@ -4580,43 +4580,43 @@
         <v>138</v>
       </c>
       <c r="C69" s="43">
-        <v>4.2291688753127099</v>
+        <v>4.2431991373536704</v>
       </c>
       <c r="D69" s="44">
-        <v>1.2394432121072601</v>
+        <v>1.2361889597798601</v>
       </c>
       <c r="E69" s="44">
-        <v>1.6088412989788901</v>
+        <v>1.6206398324644899</v>
       </c>
       <c r="F69" s="44">
-        <v>1.3808844191166401</v>
+        <v>1.38637040146748</v>
       </c>
       <c r="G69" s="44">
-        <v>12.207932211958701</v>
+        <v>12.2105944264868</v>
       </c>
       <c r="H69" s="43">
-        <v>9.4567978730048399</v>
+        <v>9.4712135197793792</v>
       </c>
       <c r="I69" s="44">
-        <v>3.76483686493187</v>
+        <v>3.7659275588567001</v>
       </c>
       <c r="J69" s="44">
-        <v>6.4759735927900006E-2</v>
+        <v>6.4873938981659995E-2</v>
       </c>
       <c r="K69" s="44">
-        <v>0.24435070496235001</v>
+        <v>0.24483068162887001</v>
       </c>
       <c r="L69" s="44">
-        <v>2.0987491627134398</v>
+        <v>2.098235033595</v>
       </c>
       <c r="M69" s="44">
-        <v>0.77062769040976997</v>
+        <v>0.77090907512293005</v>
       </c>
       <c r="N69" s="43">
-        <v>1.1004197184153399</v>
+        <v>1.1009651330018999</v>
       </c>
       <c r="O69" s="45">
-        <v>8.9427277255079094</v>
+        <v>8.9573272163057105</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
@@ -4627,43 +4627,43 @@
         <v>139</v>
       </c>
       <c r="C70" s="43">
-        <v>3.4459409972914701</v>
+        <v>3.4394240928025801</v>
       </c>
       <c r="D70" s="44">
-        <v>0.58234829697805002</v>
+        <v>0.58401642800183995</v>
       </c>
       <c r="E70" s="44">
-        <v>0.94027999003309004</v>
+        <v>0.93707138801900003</v>
       </c>
       <c r="F70" s="44">
-        <v>1.92331274491454</v>
+        <v>1.9183363111559799</v>
       </c>
       <c r="G70" s="44">
-        <v>10.426722825918301</v>
+        <v>10.3869389383356</v>
       </c>
       <c r="H70" s="43">
-        <v>12.0617896717599</v>
+        <v>12.038646661003099</v>
       </c>
       <c r="I70" s="44">
-        <v>2.9205350048418501</v>
+        <v>2.9101261737970199</v>
       </c>
       <c r="J70" s="44">
-        <v>10.8777094022704</v>
+        <v>10.8083571070879</v>
       </c>
       <c r="K70" s="44">
-        <v>0.21838987718292999</v>
+        <v>0.22133813789382001</v>
       </c>
       <c r="L70" s="44">
-        <v>2.9673076418464799</v>
+        <v>2.9861708650183099</v>
       </c>
       <c r="M70" s="44">
-        <v>0.89921704270943004</v>
+        <v>0.89407018816397998</v>
       </c>
       <c r="N70" s="43">
-        <v>0.96974881503704002</v>
+        <v>0.96833073395531999</v>
       </c>
       <c r="O70" s="45">
-        <v>-0.9500481024445</v>
+        <v>-0.92949419731920002</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
@@ -4674,43 +4674,43 @@
         <v>140</v>
       </c>
       <c r="C71" s="43">
-        <v>3.5487266711649501</v>
+        <v>3.5412359647253999</v>
       </c>
       <c r="D71" s="44">
-        <v>0.51828480414597</v>
+        <v>0.51715274010593004</v>
       </c>
       <c r="E71" s="44">
-        <v>0.79369329594745996</v>
+        <v>0.79153340186928001</v>
       </c>
       <c r="F71" s="44">
-        <v>2.23674861205438</v>
+        <v>2.23254986381732</v>
       </c>
       <c r="G71" s="44">
-        <v>9.5194054418988294</v>
+        <v>9.5074107155355296</v>
       </c>
       <c r="H71" s="43">
-        <v>11.3695775844962</v>
+        <v>11.341415871093799</v>
       </c>
       <c r="I71" s="44">
-        <v>1.64937348159922</v>
+        <v>1.6434434122770201</v>
       </c>
       <c r="J71" s="44">
-        <v>2.9772524120544199</v>
+        <v>2.9740556623944099</v>
       </c>
       <c r="K71" s="44">
-        <v>0.31101438325132003</v>
+        <v>0.30961312413592001</v>
       </c>
       <c r="L71" s="44">
-        <v>0.60796338641291003</v>
+        <v>0.60750110523589995</v>
       </c>
       <c r="M71" s="44">
-        <v>1.17160712692743</v>
+        <v>1.1695596616691299</v>
       </c>
       <c r="N71" s="43">
-        <v>2.0944869266556201</v>
+        <v>2.0909877714551999</v>
       </c>
       <c r="O71" s="45">
-        <v>5.8566268307937097</v>
+        <v>5.8331419584802502</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
@@ -4721,43 +4721,43 @@
         <v>141</v>
       </c>
       <c r="C72" s="43">
-        <v>4.2699792949407804</v>
+        <v>4.2783425975407203</v>
       </c>
       <c r="D72" s="44">
-        <v>0.92808944909126001</v>
+        <v>0.92326132946517003</v>
       </c>
       <c r="E72" s="44">
-        <v>1.22315102207851</v>
+        <v>1.2279181467803499</v>
       </c>
       <c r="F72" s="44">
-        <v>2.1187387899083499</v>
+        <v>2.1271630878397798</v>
       </c>
       <c r="G72" s="44">
-        <v>9.8580088678983309</v>
+        <v>9.8559212530069509</v>
       </c>
       <c r="H72" s="43">
-        <v>13.465885410136901</v>
+        <v>13.4662559172898</v>
       </c>
       <c r="I72" s="44">
-        <v>3.1103338261470999</v>
+        <v>3.10968294889802</v>
       </c>
       <c r="J72" s="44">
-        <v>0.10578419993498001</v>
+        <v>0.10578613980491</v>
       </c>
       <c r="K72" s="44">
-        <v>0.48969435395059002</v>
+        <v>0.48971156195257998</v>
       </c>
       <c r="L72" s="44">
-        <v>3.11249342832097</v>
+        <v>3.1122574575355699</v>
       </c>
       <c r="M72" s="44">
-        <v>1.18682022091956</v>
+        <v>1.18672586437984</v>
       </c>
       <c r="N72" s="43">
-        <v>1.0795642534452301</v>
+        <v>1.0794320835922599</v>
       </c>
       <c r="O72" s="45">
-        <v>10.6018627797127</v>
+        <v>10.602025758922601</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
@@ -4768,43 +4768,43 @@
         <v>142</v>
       </c>
       <c r="C73" s="43">
-        <v>6.38924155243126</v>
+        <v>6.3615640549576504</v>
       </c>
       <c r="D73" s="44">
-        <v>0.65563613920621999</v>
+        <v>0.65053296401163996</v>
       </c>
       <c r="E73" s="44">
-        <v>3.2966758508638101</v>
+        <v>3.2864138090581099</v>
       </c>
       <c r="F73" s="44">
-        <v>2.4369295151508301</v>
+        <v>2.42461723478984</v>
       </c>
       <c r="G73" s="44">
-        <v>12.5300072341301</v>
+        <v>12.487795865752901</v>
       </c>
       <c r="H73" s="43">
-        <v>6.8132479016524004</v>
+        <v>6.8118755377124298</v>
       </c>
       <c r="I73" s="44">
-        <v>4.8034244699949298</v>
+        <v>4.7905540328591796</v>
       </c>
       <c r="J73" s="44">
-        <v>3.3748077801304901</v>
+        <v>3.36678612746995</v>
       </c>
       <c r="K73" s="44">
-        <v>0.66503241976118999</v>
+        <v>0.66026788727892005</v>
       </c>
       <c r="L73" s="44">
-        <v>0.81980923624809998</v>
+        <v>0.82337210598166999</v>
       </c>
       <c r="M73" s="44">
-        <v>2.9045243119167199</v>
+        <v>2.89236156832215</v>
       </c>
       <c r="N73" s="43">
-        <v>0.69585460274754996</v>
+        <v>0.69293760309247998</v>
       </c>
       <c r="O73" s="45">
-        <v>3.15664402084328</v>
+        <v>3.1667042784264399</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
@@ -4815,43 +4815,43 @@
         <v>143</v>
       </c>
       <c r="C74" s="43">
-        <v>5.77306167553742</v>
+        <v>5.7671991351617597</v>
       </c>
       <c r="D74" s="44">
-        <v>2.537667117639E-2</v>
+        <v>2.5553771606069999E-2</v>
       </c>
       <c r="E74" s="44">
-        <v>3.2669157557319601</v>
+        <v>3.2592839048470101</v>
       </c>
       <c r="F74" s="44">
-        <v>2.4807692097336198</v>
+        <v>2.4823614217816301</v>
       </c>
       <c r="G74" s="44">
-        <v>7.7510903363442596</v>
+        <v>7.7403189828753103</v>
       </c>
       <c r="H74" s="43">
-        <v>24.938845289769802</v>
+        <v>24.888853283433001</v>
       </c>
       <c r="I74" s="44">
-        <v>4.4689444193571903</v>
+        <v>4.47000439890419</v>
       </c>
       <c r="J74" s="44">
-        <v>5.9734085894260902</v>
+        <v>5.93557594008566</v>
       </c>
       <c r="K74" s="44">
-        <v>4.6416601118079999E-2</v>
+        <v>4.6844120438089998E-2</v>
       </c>
       <c r="L74" s="44">
-        <v>1.842477124338E-2</v>
+        <v>1.8603339488500001E-2</v>
       </c>
       <c r="M74" s="44">
-        <v>3.06622889041881</v>
+        <v>3.06051662994295</v>
       </c>
       <c r="N74" s="43">
-        <v>0.42682876003862003</v>
+        <v>0.42760674736009002</v>
       </c>
       <c r="O74" s="45">
-        <v>19.876482096882</v>
+        <v>19.869710905021901</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4865,7 +4865,7 @@
         <v>3.6093740810739701</v>
       </c>
       <c r="D75" s="48">
-        <v>0.83958296854422998</v>
+        <v>0.83958296854421999</v>
       </c>
       <c r="E75" s="48">
         <v>1.23193700692521</v>
@@ -4909,43 +4909,43 @@
         <v>145</v>
       </c>
       <c r="C76" s="51">
-        <v>3.7521616813360499</v>
+        <v>3.7447136437652899</v>
       </c>
       <c r="D76" s="52">
-        <v>3.4342538155319999E-2</v>
+        <v>3.4281211632770002E-2</v>
       </c>
       <c r="E76" s="52">
-        <v>1.8570122769514601</v>
+        <v>1.85356194331039</v>
       </c>
       <c r="F76" s="52">
-        <v>1.8608068939757101</v>
+        <v>1.8568705163197099</v>
       </c>
       <c r="G76" s="52">
-        <v>15.1026083133606</v>
+        <v>15.081682487572399</v>
       </c>
       <c r="H76" s="51">
-        <v>14.448826006371601</v>
+        <v>14.4307656409615</v>
       </c>
       <c r="I76" s="52">
-        <v>3.1005501830214901</v>
+        <v>3.0952685462191001</v>
       </c>
       <c r="J76" s="52">
-        <v>1.4578892067951701</v>
+        <v>1.4564800419286399</v>
       </c>
       <c r="K76" s="52">
-        <v>0.17163958203242999</v>
+        <v>0.17152989875638999</v>
       </c>
       <c r="L76" s="52">
-        <v>0.25182953276123998</v>
+        <v>0.25168086352072</v>
       </c>
       <c r="M76" s="52">
-        <v>2.1852992168218002</v>
+        <v>2.1808139104299999</v>
       </c>
       <c r="N76" s="51">
-        <v>0.41922800201951999</v>
+        <v>0.41874591463975003</v>
       </c>
       <c r="O76" s="53">
-        <v>13.063490648962899</v>
+        <v>13.046783557905099</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
@@ -4956,43 +4956,43 @@
         <v>146</v>
       </c>
       <c r="C77" s="43">
-        <v>9.0394534774805493</v>
+        <v>9.0476361918383308</v>
       </c>
       <c r="D77" s="44">
-        <v>1.479126099017E-2</v>
+        <v>1.4795182449769999E-2</v>
       </c>
       <c r="E77" s="44">
-        <v>4.5648938498542897</v>
+        <v>4.5685741787001799</v>
       </c>
       <c r="F77" s="44">
-        <v>4.4614722504795798</v>
+        <v>4.4659711780204603</v>
       </c>
       <c r="G77" s="44">
-        <v>11.3135274005716</v>
+        <v>11.312705110915401</v>
       </c>
       <c r="H77" s="43">
-        <v>3.5203673490218002</v>
+        <v>3.5202252755001</v>
       </c>
       <c r="I77" s="44">
-        <v>5.2367012932671297</v>
+        <v>5.2364583495723398</v>
       </c>
       <c r="J77" s="44">
-        <v>1.66910147741824</v>
+        <v>1.66911392395791</v>
       </c>
       <c r="K77" s="44">
-        <v>0.49511610242724002</v>
+        <v>0.49509892114353998</v>
       </c>
       <c r="L77" s="44">
-        <v>2.6972912102920001E-2</v>
+        <v>2.6963960527000001E-2</v>
       </c>
       <c r="M77" s="44">
-        <v>1.1159179850923799</v>
+        <v>1.1158887063706999</v>
       </c>
       <c r="N77" s="43">
-        <v>0.16842560851082</v>
+        <v>0.16842132347800001</v>
       </c>
       <c r="O77" s="45">
-        <v>5.2815345567373297</v>
+        <v>5.2811967895952998</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
@@ -5003,43 +5003,43 @@
         <v>147</v>
       </c>
       <c r="C78" s="43">
-        <v>9.5630271306474093</v>
+        <v>9.5617882527412892</v>
       </c>
       <c r="D78" s="44">
-        <v>2.1820927451299999E-3</v>
+        <v>2.1770315482900001E-3</v>
       </c>
       <c r="E78" s="44">
-        <v>7.1283222219999303</v>
+        <v>7.1274456558689501</v>
       </c>
       <c r="F78" s="44">
-        <v>2.4334432469352598</v>
+        <v>2.4330840871153501</v>
       </c>
       <c r="G78" s="44">
-        <v>17.164733600611701</v>
+        <v>17.162679900644399</v>
       </c>
       <c r="H78" s="43">
-        <v>7.9734410912879099</v>
+        <v>7.9732884382802096</v>
       </c>
       <c r="I78" s="44">
-        <v>4.5284990686141402</v>
+        <v>4.5281232083366802</v>
       </c>
       <c r="J78" s="44">
-        <v>6.1664029145669999E-2</v>
+        <v>6.1690017368919998E-2</v>
       </c>
       <c r="K78" s="44">
-        <v>1.9829560057489998E-2</v>
+        <v>1.9833985080749999E-2</v>
       </c>
       <c r="L78" s="44">
-        <v>7.7306714468600001E-3</v>
+        <v>7.7464427543000001E-3</v>
       </c>
       <c r="M78" s="44">
-        <v>0.81700787228736005</v>
+        <v>0.81708163933655997</v>
       </c>
       <c r="N78" s="43">
-        <v>6.5307086757219995E-2</v>
+        <v>6.5317328412729997E-2</v>
       </c>
       <c r="O78" s="45">
-        <v>11.5304009402074</v>
+        <v>11.529742233663599</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5050,43 +5050,43 @@
         <v>148</v>
       </c>
       <c r="C79" s="47">
-        <v>11.865548412860001</v>
+        <v>11.867862418611899</v>
       </c>
       <c r="D79" s="48">
-        <v>1.79938906781E-3</v>
+        <v>1.7989653990500001E-3</v>
       </c>
       <c r="E79" s="48">
-        <v>7.4173691287072696</v>
+        <v>7.4190568526419796</v>
       </c>
       <c r="F79" s="48">
-        <v>4.4467889576954196</v>
+        <v>4.4474157042050697</v>
       </c>
       <c r="G79" s="48">
-        <v>17.294881490709798</v>
+        <v>17.298781036335601</v>
       </c>
       <c r="H79" s="47">
-        <v>6.0887013939569004</v>
+        <v>6.0879618912017897</v>
       </c>
       <c r="I79" s="48">
-        <v>4.3829056401590298</v>
+        <v>4.3822347038985798</v>
       </c>
       <c r="J79" s="48">
-        <v>0.32839403615099</v>
+        <v>0.32836144828315</v>
       </c>
       <c r="K79" s="48">
-        <v>7.3122775018099995E-2</v>
+        <v>7.3132092606370006E-2</v>
       </c>
       <c r="L79" s="48">
-        <v>2.3011234080099999E-3</v>
+        <v>2.3009370790299999E-3</v>
       </c>
       <c r="M79" s="48">
-        <v>0.98805399882381995</v>
+        <v>0.98793041641710999</v>
       </c>
       <c r="N79" s="47">
-        <v>7.848713473235E-2</v>
+        <v>7.8479348156230005E-2</v>
       </c>
       <c r="O79" s="49">
-        <v>9.0012479659826798</v>
+        <v>8.9999923525584897</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
@@ -5097,43 +5097,43 @@
         <v>149</v>
       </c>
       <c r="C80" s="51">
-        <v>3.96259579311503</v>
+        <v>3.9528110843257198</v>
       </c>
       <c r="D80" s="52">
-        <v>0.25857670544834999</v>
+        <v>0.25962984412253998</v>
       </c>
       <c r="E80" s="52">
-        <v>1.5573449392224501</v>
+        <v>1.5467966114326299</v>
       </c>
       <c r="F80" s="52">
-        <v>2.1466741187532499</v>
+        <v>2.1463846001292501</v>
       </c>
       <c r="G80" s="52">
-        <v>9.9779687088384197</v>
+        <v>9.9816971119041504</v>
       </c>
       <c r="H80" s="51">
-        <v>17.902737707177501</v>
+        <v>17.8480496748344</v>
       </c>
       <c r="I80" s="52">
-        <v>2.1717854350918699</v>
+        <v>2.1619738174571999</v>
       </c>
       <c r="J80" s="52">
-        <v>7.3695878046391101</v>
+        <v>7.3583427594885604</v>
       </c>
       <c r="K80" s="52">
-        <v>7.3661256251899999E-3</v>
+        <v>7.3888237046999998E-3</v>
       </c>
       <c r="L80" s="52">
-        <v>6.6296757104699996E-2</v>
+        <v>6.6594079297200001E-2</v>
       </c>
       <c r="M80" s="52">
-        <v>1.93015494607002</v>
+        <v>1.9224167096648801</v>
       </c>
       <c r="N80" s="51">
-        <v>1.6156285161389901</v>
+        <v>1.6213199490263399</v>
       </c>
       <c r="O80" s="53">
-        <v>9.0854889926913796</v>
+        <v>9.0339611711099508</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
@@ -5144,43 +5144,43 @@
         <v>150</v>
       </c>
       <c r="C81" s="43">
-        <v>5.49574329481612</v>
+        <v>6.7216832076051496</v>
       </c>
       <c r="D81" s="44">
-        <v>6.30294147461E-3</v>
+        <v>6.4818293547E-3</v>
       </c>
       <c r="E81" s="44">
-        <v>3.2397603066925802</v>
+        <v>3.8431784835392699</v>
       </c>
       <c r="F81" s="44">
-        <v>2.24998132122127</v>
+        <v>2.8723305755109401</v>
       </c>
       <c r="G81" s="44">
-        <v>10.8063436819402</v>
+        <v>12.3734702751218</v>
       </c>
       <c r="H81" s="43">
-        <v>17.5187968239645</v>
+        <v>17.3610553299042</v>
       </c>
       <c r="I81" s="44">
-        <v>4.8138481788284597</v>
+        <v>4.7711912776965102</v>
       </c>
       <c r="J81" s="44">
-        <v>8.0341212576055199</v>
+        <v>7.9609676654415997</v>
       </c>
       <c r="K81" s="44">
-        <v>0.40323818289830998</v>
+        <v>0.39949158701117998</v>
       </c>
       <c r="L81" s="44">
-        <v>7.6088067046000004E-4</v>
+        <v>7.5525556357000005E-4</v>
       </c>
       <c r="M81" s="44">
-        <v>3.6047030913509399</v>
+        <v>3.5713818757339202</v>
       </c>
       <c r="N81" s="43">
-        <v>0.21913163733543001</v>
+        <v>0.21717891300385</v>
       </c>
       <c r="O81" s="45">
-        <v>10.0706899529323</v>
+        <v>9.9824713108466305</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
@@ -5191,43 +5191,43 @@
         <v>151</v>
       </c>
       <c r="C82" s="43">
-        <v>5.36433683855289</v>
+        <v>5.3543137734116497</v>
       </c>
       <c r="D82" s="44">
-        <v>0.52313248279465996</v>
+        <v>0.51926197714234001</v>
       </c>
       <c r="E82" s="44">
-        <v>2.1062500876871502</v>
+        <v>2.1035334420993399</v>
       </c>
       <c r="F82" s="44">
-        <v>2.7349542896385901</v>
+        <v>2.7315183759467798</v>
       </c>
       <c r="G82" s="44">
-        <v>9.1909192967031093</v>
+        <v>9.1705024974490801</v>
       </c>
       <c r="H82" s="43">
-        <v>8.9554393350746597</v>
+        <v>8.9434075269354807</v>
       </c>
       <c r="I82" s="44">
-        <v>4.1173527695706698</v>
+        <v>4.1103433090431301</v>
       </c>
       <c r="J82" s="44">
-        <v>1.4540223888260499</v>
+        <v>1.45419986508706</v>
       </c>
       <c r="K82" s="44">
-        <v>0.44777178908608001</v>
+        <v>0.44523442947544001</v>
       </c>
       <c r="L82" s="44">
-        <v>1.1876949387612299</v>
+        <v>1.18719942058679</v>
       </c>
       <c r="M82" s="44">
-        <v>2.4657996306886001</v>
+        <v>2.4615821008797498</v>
       </c>
       <c r="N82" s="43">
-        <v>0.83777383044232001</v>
+        <v>0.83546037445180998</v>
       </c>
       <c r="O82" s="45">
-        <v>6.6797295268410402</v>
+        <v>6.67007464549775</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5238,43 +5238,43 @@
         <v>152</v>
       </c>
       <c r="C83" s="47">
-        <v>8.76092399482852</v>
+        <v>8.7597565659921592</v>
       </c>
       <c r="D83" s="48">
-        <v>1.5315707837189999E-2</v>
+        <v>1.530974851568E-2</v>
       </c>
       <c r="E83" s="48">
-        <v>5.2005990851350301</v>
+        <v>5.2001151824191796</v>
       </c>
       <c r="F83" s="48">
-        <v>3.5470659254543602</v>
+        <v>3.5463879642916298</v>
       </c>
       <c r="G83" s="48">
-        <v>17.261796941790099</v>
+        <v>17.259865114324999</v>
       </c>
       <c r="H83" s="47">
-        <v>10.744061941221499</v>
+        <v>10.7407106603294</v>
       </c>
       <c r="I83" s="48">
-        <v>3.5918188619921501</v>
+        <v>3.59056441083988</v>
       </c>
       <c r="J83" s="48">
-        <v>0.52218959114552999</v>
+        <v>0.52202876564550005</v>
       </c>
       <c r="K83" s="48">
-        <v>0.11409090462683</v>
+        <v>0.1140696100008</v>
       </c>
       <c r="L83" s="48">
-        <v>3.8640607095250003E-2</v>
+        <v>3.8632667633340001E-2</v>
       </c>
       <c r="M83" s="48">
-        <v>1.7713624711352101</v>
+        <v>1.7706721401004599</v>
       </c>
       <c r="N83" s="47">
-        <v>0.30922200317415999</v>
+        <v>0.30912203262496002</v>
       </c>
       <c r="O83" s="49">
-        <v>11.580375226036599</v>
+        <v>11.5767498551642</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
@@ -5285,43 +5285,43 @@
         <v>153</v>
       </c>
       <c r="C84" s="51">
-        <v>4.7013896563621804</v>
+        <v>4.7015648180181397</v>
       </c>
       <c r="D84" s="52">
-        <v>1.2869163507114001</v>
+        <v>1.28371335004863</v>
       </c>
       <c r="E84" s="52">
-        <v>1.1243437473926301</v>
+        <v>1.1246663529524801</v>
       </c>
       <c r="F84" s="52">
-        <v>2.29012953400375</v>
+        <v>2.2931850912424698</v>
       </c>
       <c r="G84" s="52">
-        <v>8.14621846920069</v>
+        <v>8.1284821182273497</v>
       </c>
       <c r="H84" s="51">
-        <v>14.860928637657199</v>
+        <v>14.833942094336599</v>
       </c>
       <c r="I84" s="52">
-        <v>2.5271769865136999</v>
+        <v>2.5212862356139101</v>
       </c>
       <c r="J84" s="52">
-        <v>0.19171063357358001</v>
+        <v>0.19218544167813001</v>
       </c>
       <c r="K84" s="52">
-        <v>0.69578679793472997</v>
+        <v>0.69450835943690004</v>
       </c>
       <c r="L84" s="52">
-        <v>4.0511172512034097</v>
+        <v>4.0560490204988104</v>
       </c>
       <c r="M84" s="52">
-        <v>1.1667243984948099</v>
+        <v>1.1626695586660201</v>
       </c>
       <c r="N84" s="51">
-        <v>1.2854227991751299</v>
+        <v>1.28251268219576</v>
       </c>
       <c r="O84" s="53">
-        <v>9.9973437437892105</v>
+        <v>9.9673032674748203</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
@@ -5344,7 +5344,7 @@
         <v>10.454868368908899</v>
       </c>
       <c r="G85" s="44">
-        <v>7.3306258145779699</v>
+        <v>7.3306258145779601</v>
       </c>
       <c r="H85" s="43" t="s">
         <v>26</v>
@@ -5379,43 +5379,43 @@
         <v>155</v>
       </c>
       <c r="C86" s="43">
-        <v>4.4129980376553402</v>
+        <v>4.4011863714523498</v>
       </c>
       <c r="D86" s="44">
-        <v>0.32614183410110997</v>
+        <v>0.32423722114520998</v>
       </c>
       <c r="E86" s="44">
-        <v>1.5794353195777799</v>
+        <v>1.57272316317064</v>
       </c>
       <c r="F86" s="44">
-        <v>2.5074209259360098</v>
+        <v>2.5042260297120702</v>
       </c>
       <c r="G86" s="44">
-        <v>8.8147800681350805</v>
+        <v>8.80029623980856</v>
       </c>
       <c r="H86" s="43">
-        <v>13.3129909062595</v>
+        <v>13.2674049699141</v>
       </c>
       <c r="I86" s="44">
-        <v>3.2665927076046999</v>
+        <v>3.2616958846847401</v>
       </c>
       <c r="J86" s="44">
-        <v>4.3120888683429097</v>
+        <v>4.2993793987368703</v>
       </c>
       <c r="K86" s="44">
-        <v>0.17675297997535</v>
+        <v>0.17507464089086</v>
       </c>
       <c r="L86" s="44">
-        <v>0.36727727977233998</v>
+        <v>0.36574108430668001</v>
       </c>
       <c r="M86" s="44">
-        <v>2.1456860206459401</v>
+        <v>2.14135779808365</v>
       </c>
       <c r="N86" s="43">
-        <v>1.1473101215132</v>
+        <v>1.14655603210986</v>
       </c>
       <c r="O86" s="45">
-        <v>8.4304683436144607</v>
+        <v>8.4009919004709204</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
@@ -5426,43 +5426,43 @@
         <v>156</v>
       </c>
       <c r="C87" s="43">
-        <v>3.6214542338358302</v>
+        <v>4.2740471725297997</v>
       </c>
       <c r="D87" s="44">
-        <v>5.7094260204820002E-2</v>
+        <v>5.7134609234600002E-2</v>
       </c>
       <c r="E87" s="44">
-        <v>1.4104560672525599</v>
+        <v>1.73400371762058</v>
       </c>
       <c r="F87" s="44">
-        <v>2.15390381671804</v>
+        <v>2.4829087577723801</v>
       </c>
       <c r="G87" s="44">
-        <v>10.465686959667099</v>
+        <v>11.2852443354796</v>
       </c>
       <c r="H87" s="43">
-        <v>17.234767370111602</v>
+        <v>17.214074825716501</v>
       </c>
       <c r="I87" s="44">
-        <v>2.98634542088445</v>
+        <v>2.9820792240442899</v>
       </c>
       <c r="J87" s="44">
-        <v>0.75975659332221002</v>
+        <v>0.75914837479945996</v>
       </c>
       <c r="K87" s="44">
-        <v>0.28018544399262002</v>
+        <v>0.27993471643605</v>
       </c>
       <c r="L87" s="44">
-        <v>0.11944774261546</v>
+        <v>0.11931899374799</v>
       </c>
       <c r="M87" s="44">
-        <v>3.0354660151648201</v>
+        <v>3.0310486682845399</v>
       </c>
       <c r="N87" s="43">
-        <v>0.91258797467889996</v>
+        <v>0.91152707959283996</v>
       </c>
       <c r="O87" s="45">
-        <v>15.113669021222099</v>
+        <v>15.095176216899899</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
@@ -5473,43 +5473,43 @@
         <v>157</v>
       </c>
       <c r="C88" s="43">
-        <v>7.7797343799392999</v>
+        <v>7.7727968603832496</v>
       </c>
       <c r="D88" s="44">
-        <v>0.10561013242448999</v>
+        <v>0.10550065112326</v>
       </c>
       <c r="E88" s="44">
-        <v>4.5468837306817704</v>
+        <v>4.5426652451306699</v>
       </c>
       <c r="F88" s="44">
-        <v>3.12724039174865</v>
+        <v>3.1246308391995399</v>
       </c>
       <c r="G88" s="44">
-        <v>13.1265173367534</v>
+        <v>13.116779224856501</v>
       </c>
       <c r="H88" s="43">
-        <v>7.1112915290519996E-2</v>
+        <v>7.2383497382949996E-2</v>
       </c>
       <c r="I88" s="44">
-        <v>5.89302504871615</v>
+        <v>5.8875687208789902</v>
       </c>
       <c r="J88" s="44">
-        <v>0.81621346136350004</v>
+        <v>0.81527835314328001</v>
       </c>
       <c r="K88" s="44">
-        <v>0.61915735995540999</v>
+        <v>0.61844801226107005</v>
       </c>
       <c r="L88" s="44">
-        <v>2.866196233878E-2</v>
+        <v>2.8629622182570001E-2</v>
       </c>
       <c r="M88" s="44">
-        <v>4.2174515828279802</v>
+        <v>4.2129134343929602</v>
       </c>
       <c r="N88" s="43">
-        <v>0.45994942953741003</v>
+        <v>0.45946067484108999</v>
       </c>
       <c r="O88" s="45">
-        <v>-0.17729583201640001</v>
+        <v>-0.17477787855900001</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
@@ -5520,43 +5520,43 @@
         <v>158</v>
       </c>
       <c r="C89" s="43">
-        <v>5.7141636789841499</v>
+        <v>5.7135034966869398</v>
       </c>
       <c r="D89" s="44">
-        <v>5.23169046282E-3</v>
+        <v>5.2269031720800002E-3</v>
       </c>
       <c r="E89" s="44">
-        <v>3.2136168219722201</v>
+        <v>3.2132500461632398</v>
       </c>
       <c r="F89" s="44">
-        <v>2.4958830582350302</v>
+        <v>2.4955941807120001</v>
       </c>
       <c r="G89" s="44">
-        <v>19.290737291629501</v>
+        <v>19.2724689665204</v>
       </c>
       <c r="H89" s="43">
-        <v>14.376810055572401</v>
+        <v>14.3753957905222</v>
       </c>
       <c r="I89" s="44">
-        <v>2.9423763589779401</v>
+        <v>2.9420611441587701</v>
       </c>
       <c r="J89" s="44">
-        <v>1.72714260310038</v>
+        <v>1.72685097231819</v>
       </c>
       <c r="K89" s="44">
-        <v>0.1614258335173</v>
+        <v>0.16141665596365001</v>
       </c>
       <c r="L89" s="44">
-        <v>4.332687124186E-2</v>
+        <v>4.3322638100040001E-2</v>
       </c>
       <c r="M89" s="44">
-        <v>2.6035107905019901</v>
+        <v>2.6032553352229701</v>
       </c>
       <c r="N89" s="43">
-        <v>0.33724595949835001</v>
+        <v>0.33721124161819999</v>
       </c>
       <c r="O89" s="45">
-        <v>12.4465343566904</v>
+        <v>12.4454000914579</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5567,43 +5567,43 @@
         <v>159</v>
       </c>
       <c r="C90" s="47">
-        <v>12.060087383675</v>
+        <v>12.048233512406201</v>
       </c>
       <c r="D90" s="48">
-        <v>1.84121745481E-3</v>
+        <v>1.8387559808199999E-3</v>
       </c>
       <c r="E90" s="48">
-        <v>7.5432598188012596</v>
+        <v>7.5361916263475299</v>
       </c>
       <c r="F90" s="48">
-        <v>4.5153169361937797</v>
+        <v>4.5105329946079404</v>
       </c>
       <c r="G90" s="48">
-        <v>16.999880680291501</v>
+        <v>16.9839358608262</v>
       </c>
       <c r="H90" s="47">
-        <v>6.7748972945451502</v>
+        <v>6.7664160672756397</v>
       </c>
       <c r="I90" s="48">
-        <v>4.4628229611741901</v>
+        <v>4.4565877359968997</v>
       </c>
       <c r="J90" s="48">
-        <v>0.58852401019287004</v>
+        <v>0.58827460071733995</v>
       </c>
       <c r="K90" s="48">
-        <v>6.3853085243039995E-2</v>
+        <v>6.3778380119419997E-2</v>
       </c>
       <c r="L90" s="48">
-        <v>2.8741126244800001E-3</v>
+        <v>2.8759433483700001E-3</v>
       </c>
       <c r="M90" s="48">
-        <v>0.97599135882332</v>
+        <v>0.97474078384940999</v>
       </c>
       <c r="N90" s="47">
-        <v>7.48587733536E-2</v>
+        <v>7.4773743860940003E-2</v>
       </c>
       <c r="O90" s="49">
-        <v>9.5316189154820297</v>
+        <v>9.5185603513770705</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
@@ -5614,43 +5614,43 @@
         <v>160</v>
       </c>
       <c r="C91" s="51">
-        <v>4.3129396155826196</v>
+        <v>4.3117799774204304</v>
       </c>
       <c r="D91" s="52">
-        <v>1.1430358399398</v>
+        <v>1.14041825035196</v>
       </c>
       <c r="E91" s="52">
-        <v>1.2123731250381899</v>
+        <v>1.2123908092114</v>
       </c>
       <c r="F91" s="52">
-        <v>1.9575306470800999</v>
+        <v>1.9589709146782699</v>
       </c>
       <c r="G91" s="52">
-        <v>9.0628966935159596</v>
+        <v>9.0499790708820207</v>
       </c>
       <c r="H91" s="51">
-        <v>16.809682479634802</v>
+        <v>16.792586298787</v>
       </c>
       <c r="I91" s="52">
-        <v>2.9081918739189301</v>
+        <v>2.90343005937524</v>
       </c>
       <c r="J91" s="52">
-        <v>3.3088239266842798</v>
+        <v>3.3023893044930599</v>
       </c>
       <c r="K91" s="52">
-        <v>0.68087222626552002</v>
+        <v>0.68025845315107003</v>
       </c>
       <c r="L91" s="52">
-        <v>2.6866657269597201</v>
+        <v>2.6922023874269199</v>
       </c>
       <c r="M91" s="52">
-        <v>1.22649639856487</v>
+        <v>1.2233408796685099</v>
       </c>
       <c r="N91" s="51">
-        <v>1.2054520257775001</v>
+        <v>1.2037862114157201</v>
       </c>
       <c r="O91" s="53">
-        <v>10.6095640493019</v>
+        <v>10.594039122007</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
@@ -5661,43 +5661,43 @@
         <v>161</v>
       </c>
       <c r="C92" s="43">
-        <v>3.5777965921383799</v>
+        <v>3.5782072186762699</v>
       </c>
       <c r="D92" s="44">
-        <v>0.34845698472030001</v>
+        <v>0.34861967490241003</v>
       </c>
       <c r="E92" s="44">
-        <v>0.64509944731985003</v>
+        <v>0.64538934351681998</v>
       </c>
       <c r="F92" s="44">
-        <v>2.58424013285717</v>
+        <v>2.5841981730374699</v>
       </c>
       <c r="G92" s="44">
-        <v>3.2794158444338501</v>
+        <v>3.2804447283675899</v>
       </c>
       <c r="H92" s="43">
-        <v>28.376732687137402</v>
+        <v>28.377122531727501</v>
       </c>
       <c r="I92" s="44">
-        <v>1.2398530813345101</v>
+        <v>1.24018713242752</v>
       </c>
       <c r="J92" s="44">
-        <v>0.64206035028148001</v>
+        <v>0.64572779927182</v>
       </c>
       <c r="K92" s="44">
-        <v>5.8482564684319997E-2</v>
+        <v>5.8478651021209999E-2</v>
       </c>
       <c r="L92" s="44">
-        <v>0.41885201463591998</v>
+        <v>0.41883234422922</v>
       </c>
       <c r="M92" s="44">
-        <v>1.3624749034308199</v>
+        <v>1.3625510222466599</v>
       </c>
       <c r="N92" s="43">
-        <v>0.68361608956478004</v>
+        <v>0.68366279754102</v>
       </c>
       <c r="O92" s="45">
-        <v>26.451099845874499</v>
+        <v>26.448057049845001</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
@@ -5708,43 +5708,43 @@
         <v>162</v>
       </c>
       <c r="C93" s="43">
-        <v>6.1767477525197902</v>
+        <v>6.0656241106771098</v>
       </c>
       <c r="D93" s="44">
-        <v>0.32935207743282002</v>
+        <v>0.32188590170641002</v>
       </c>
       <c r="E93" s="44">
-        <v>2.67196492150181</v>
+        <v>2.6250472777148102</v>
       </c>
       <c r="F93" s="44">
-        <v>3.17543081915812</v>
+        <v>3.1186909957475399</v>
       </c>
       <c r="G93" s="44">
-        <v>11.6008449110972</v>
+        <v>11.396029555784301</v>
       </c>
       <c r="H93" s="43">
-        <v>7.1058863018036398</v>
+        <v>6.9575413406945898</v>
       </c>
       <c r="I93" s="44">
-        <v>4.6614535846157299</v>
+        <v>4.5730663073826898</v>
       </c>
       <c r="J93" s="44">
-        <v>3.7370510261930001E-2</v>
+        <v>3.6434985869170003E-2</v>
       </c>
       <c r="K93" s="44">
         <v>0</v>
       </c>
       <c r="L93" s="44">
-        <v>1.12128094698777</v>
+        <v>1.0932297350434099</v>
       </c>
       <c r="M93" s="44">
-        <v>1.1640515776148901</v>
+        <v>1.14133093580434</v>
       </c>
       <c r="N93" s="43">
-        <v>0.38217314348726</v>
+        <v>0.37344604140632998</v>
       </c>
       <c r="O93" s="45">
-        <v>9.0624637080675292</v>
+        <v>8.8861659499540302</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
@@ -5755,43 +5755,43 @@
         <v>163</v>
       </c>
       <c r="C94" s="43">
-        <v>4.7151699509286296</v>
+        <v>4.7102479281032004</v>
       </c>
       <c r="D94" s="44">
-        <v>0.12002026453557001</v>
+        <v>0.12004660270311</v>
       </c>
       <c r="E94" s="44">
-        <v>2.3583714088107199</v>
+        <v>2.3555377935950101</v>
       </c>
       <c r="F94" s="44">
-        <v>2.23698537091254</v>
+        <v>2.2348701982438302</v>
       </c>
       <c r="G94" s="44">
-        <v>12.3564500370052</v>
+        <v>12.326589800498599</v>
       </c>
       <c r="H94" s="43">
-        <v>20.764313595283699</v>
+        <v>20.7135661633029</v>
       </c>
       <c r="I94" s="44">
-        <v>2.5559513092624901</v>
+        <v>2.5503823287080398</v>
       </c>
       <c r="J94" s="44">
-        <v>0.20385708000750999</v>
+        <v>0.20972232114846001</v>
       </c>
       <c r="K94" s="44">
-        <v>0.15597661388851</v>
+        <v>0.15577284347198</v>
       </c>
       <c r="L94" s="44">
-        <v>3.9818240982409998E-2</v>
+        <v>3.9778088429799997E-2</v>
       </c>
       <c r="M94" s="44">
-        <v>0.77071267018225997</v>
+        <v>0.76937142686791005</v>
       </c>
       <c r="N94" s="43">
-        <v>0.22041899715176</v>
+        <v>0.22019832230427999</v>
       </c>
       <c r="O94" s="45">
-        <v>21.929481302333699</v>
+        <v>21.869105489788598</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
@@ -5802,43 +5802,43 @@
         <v>164</v>
       </c>
       <c r="C95" s="43">
-        <v>4.6306383813240899</v>
+        <v>4.5998342509630303</v>
       </c>
       <c r="D95" s="44">
-        <v>1.44064802789335</v>
+        <v>1.4264764115750199</v>
       </c>
       <c r="E95" s="44">
-        <v>1.5076113952749901</v>
+        <v>1.5059909266368801</v>
       </c>
       <c r="F95" s="44">
-        <v>1.68237903487643</v>
+        <v>1.66736699086242</v>
       </c>
       <c r="G95" s="44">
-        <v>9.7074580281953207</v>
+        <v>9.6555349639050903</v>
       </c>
       <c r="H95" s="43">
-        <v>16.101821515893501</v>
+        <v>16.077345846640402</v>
       </c>
       <c r="I95" s="44">
-        <v>3.3505796208857501</v>
+        <v>3.3351769736636299</v>
       </c>
       <c r="J95" s="44">
-        <v>5.2747949550970001E-2</v>
+        <v>5.2211215938060003E-2</v>
       </c>
       <c r="K95" s="44">
-        <v>0.64476888330367998</v>
+        <v>0.63149176752134994</v>
       </c>
       <c r="L95" s="44">
-        <v>3.8992855116265699</v>
+        <v>3.8848958790321801</v>
       </c>
       <c r="M95" s="44">
-        <v>1.0513519175341199</v>
+        <v>1.0364986525320601</v>
       </c>
       <c r="N95" s="43">
-        <v>1.1010765819930901</v>
+        <v>1.09202300319246</v>
       </c>
       <c r="O95" s="45">
-        <v>12.7031702927708</v>
+        <v>12.715402302087901</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5849,43 +5849,43 @@
         <v>165</v>
       </c>
       <c r="C96" s="47">
-        <v>5.1102486474143802</v>
+        <v>5.1054008008882104</v>
       </c>
       <c r="D96" s="48">
-        <v>0.23340209472821999</v>
+        <v>0.23304350765258999</v>
       </c>
       <c r="E96" s="48">
-        <v>2.0245469536017899</v>
+        <v>2.0226331294833502</v>
       </c>
       <c r="F96" s="48">
-        <v>2.9267316033683901</v>
+        <v>2.92395730456892</v>
       </c>
       <c r="G96" s="48">
-        <v>10.3148196962368</v>
+        <v>10.4140873070381</v>
       </c>
       <c r="H96" s="47">
-        <v>17.4480706358998</v>
+        <v>17.429473720346198</v>
       </c>
       <c r="I96" s="48">
-        <v>4.2704461795978901</v>
+        <v>4.2668152172249796</v>
       </c>
       <c r="J96" s="48">
-        <v>5.3734136354564201</v>
+        <v>5.3676609589047404</v>
       </c>
       <c r="K96" s="48">
-        <v>1.4775860828863601</v>
+        <v>1.4762795513112901</v>
       </c>
       <c r="L96" s="48">
-        <v>0.15568726407795</v>
+        <v>0.15544069241601999</v>
       </c>
       <c r="M96" s="48">
-        <v>4.2806565198947997</v>
+        <v>4.2766364944762101</v>
       </c>
       <c r="N96" s="47">
-        <v>0.33827041763122001</v>
+        <v>0.33793729721441002</v>
       </c>
       <c r="O96" s="49">
-        <v>10.092902895550999</v>
+        <v>10.0823339432485</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
@@ -5896,43 +5896,43 @@
         <v>166</v>
       </c>
       <c r="C97" s="51">
-        <v>3.8879169338817801</v>
+        <v>3.8745101679293601</v>
       </c>
       <c r="D97" s="52">
-        <v>0.80751655255680999</v>
+        <v>0.80264122675514005</v>
       </c>
       <c r="E97" s="52">
-        <v>0.98167769383196002</v>
+        <v>0.97891886529066996</v>
       </c>
       <c r="F97" s="52">
-        <v>2.0987227171934002</v>
+        <v>2.0929501058132298</v>
       </c>
       <c r="G97" s="52">
-        <v>9.8117703541309798</v>
+        <v>9.7891844556567396</v>
       </c>
       <c r="H97" s="51">
-        <v>12.9548743078612</v>
+        <v>12.9344478439891</v>
       </c>
       <c r="I97" s="52">
-        <v>2.3074979339239499</v>
+        <v>2.3007546622970101</v>
       </c>
       <c r="J97" s="52">
-        <v>3.03415530044323</v>
+        <v>3.0296651933021401</v>
       </c>
       <c r="K97" s="52">
-        <v>0.37463980928228002</v>
+        <v>0.37182078409935998</v>
       </c>
       <c r="L97" s="52">
-        <v>1.49163537094315</v>
+        <v>1.49250072851007</v>
       </c>
       <c r="M97" s="52">
-        <v>1.1544405379343301</v>
+        <v>1.14945291844804</v>
       </c>
       <c r="N97" s="51">
-        <v>1.61768246810574</v>
+        <v>1.61371065611646</v>
       </c>
       <c r="O97" s="53">
-        <v>7.5898187550763803</v>
+        <v>7.57805222581002</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5943,43 +5943,43 @@
         <v>167</v>
       </c>
       <c r="C98" s="47">
-        <v>4.7275171066138801</v>
+        <v>7.4348138012303497</v>
       </c>
       <c r="D98" s="48">
-        <v>0.16105397835641999</v>
+        <v>0.16146529321163999</v>
       </c>
       <c r="E98" s="48">
-        <v>1.8258095382714801</v>
+        <v>3.1656203721849101</v>
       </c>
       <c r="F98" s="48">
-        <v>2.7406535369476601</v>
+        <v>4.1077280895648496</v>
       </c>
       <c r="G98" s="48">
-        <v>5.9311149335870104</v>
+        <v>9.5085665411808495</v>
       </c>
       <c r="H98" s="47">
-        <v>18.4135951349169</v>
+        <v>18.4081050355163</v>
       </c>
       <c r="I98" s="48">
-        <v>2.0340911147938199</v>
+        <v>2.03312014845707</v>
       </c>
       <c r="J98" s="48">
-        <v>2.1128633653286499</v>
+        <v>2.1104123612872598</v>
       </c>
       <c r="K98" s="48">
-        <v>7.1316638333599996E-2</v>
+        <v>7.1316637728130003E-2</v>
       </c>
       <c r="L98" s="48">
-        <v>0.20586332607088001</v>
+        <v>0.20586248210710001</v>
       </c>
       <c r="M98" s="48">
-        <v>2.1459135846961299</v>
+        <v>2.1451812214318</v>
       </c>
       <c r="N98" s="47">
-        <v>1.1432249491903601</v>
+        <v>1.14311020933231</v>
       </c>
       <c r="O98" s="49">
-        <v>14.768504386090999</v>
+        <v>14.7653422720868</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
@@ -6263,11 +6263,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{88E6F84F-C3F8-4B95-A2CB-F651E807CE06}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{8BE55B73-22FA-4234-BF34-BC142D752168}"/>
-    <hyperlink ref="B107" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{96C501A9-8CFC-4F52-8C18-DE5E4F210979}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{ABBE4AC4-3A0A-45C9-8067-32B6BA79918B}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{378F167C-882A-4378-A73E-3CED2001E7E0}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{4B3F5942-BC4E-4876-89E5-79ACABB6F934}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{4561F5B6-79D8-4153-BA37-B982E84B37DE}"/>
+    <hyperlink ref="B107" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{E6AB40DF-E928-4F8D-A8FC-6ABF335BC264}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{D1249039-1D47-4F95-A0BB-43CD08FE2EA2}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{CB211A8A-8581-4EFE-B7C5-6F673493ECE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AfDD_2023_Annex_Table_Tab24.xlsx
+++ b/AfDD_2023_Annex_Table_Tab24.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FFD8439-E6C7-4D1B-A300-F74D263A1EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BC2AF12-6522-4764-87FC-4D98C8D56BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED1C2C99-4D27-456F-9B46-9C34B7A8D9ED}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AC493C39-8E67-40AD-A145-3CFE7892434A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab24" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="179">
   <si>
     <t>Table 24: Sustainable public investments and adjusted net savings</t>
   </si>
@@ -272,7 +272,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan</t>
+    <t>South Sudan*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -404,7 +404,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -1393,7 +1393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2BEEF0-7FF2-4AB3-B149-043245E3F5EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B618138D-6F90-4666-81CE-719E0E3E79DD}">
   <dimension ref="A1:O114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1478,43 +1478,43 @@
         <v>17</v>
       </c>
       <c r="C3" s="11">
-        <v>2.7304472248193501</v>
+        <v>2.6559265729862802</v>
       </c>
       <c r="D3" s="12">
-        <v>8.656840174687E-2</v>
+        <v>8.4831394343040004E-2</v>
       </c>
       <c r="E3" s="12">
-        <v>1.1255945479190499</v>
+        <v>1.0944812597375999</v>
       </c>
       <c r="F3" s="12">
-        <v>1.5182843482705799</v>
+        <v>1.47661392541346</v>
       </c>
       <c r="G3" s="12">
-        <v>9.2467487515535698</v>
+        <v>5.7720858282498702</v>
       </c>
       <c r="H3" s="11">
-        <v>17.7584651422283</v>
+        <v>20.5487639269375</v>
       </c>
       <c r="I3" s="12">
-        <v>3.4595553522394802</v>
+        <v>2.6629817606547999</v>
       </c>
       <c r="J3" s="12">
-        <v>20.650206600866198</v>
+        <v>17.4818778456351</v>
       </c>
       <c r="K3" s="12">
         <v>0</v>
       </c>
       <c r="L3" s="12">
-        <v>0.47430957661102002</v>
+        <v>0.47477981691998</v>
       </c>
       <c r="M3" s="12">
-        <v>1.28841638271207</v>
+        <v>1.2163876440969701</v>
       </c>
       <c r="N3" s="11">
-        <v>0.69664544591445998</v>
+        <v>0.53777455492118997</v>
       </c>
       <c r="O3" s="13">
-        <v>-1.8915575116359</v>
+        <v>3.5009258260191101</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -1525,43 +1525,43 @@
         <v>19</v>
       </c>
       <c r="C4" s="15">
-        <v>7.2094545553140303</v>
+        <v>6.1219413669630196</v>
       </c>
       <c r="D4" s="16">
-        <v>0.44329742805307998</v>
+        <v>0.58548091199148</v>
       </c>
       <c r="E4" s="16">
-        <v>5.6611369992281002</v>
+        <v>4.3729480862529702</v>
       </c>
       <c r="F4" s="16">
-        <v>1.1050200835663699</v>
+        <v>1.1635121724372399</v>
       </c>
       <c r="G4" s="16">
-        <v>21.835134740079901</v>
+        <v>20.496725031205798</v>
       </c>
       <c r="H4" s="15">
-        <v>8.9702151109299209</v>
+        <v>5.3419817933963696</v>
       </c>
       <c r="I4" s="16">
-        <v>9.3876180817360204</v>
+        <v>8.9825436838678208</v>
       </c>
       <c r="J4" s="16">
-        <v>0.19655927966369</v>
+        <v>0.21823983490073001</v>
       </c>
       <c r="K4" s="16">
         <v>4.3032453696090003E-2</v>
       </c>
       <c r="L4" s="16">
-        <v>0.27522147244147999</v>
+        <v>0.27556322966195002</v>
       </c>
       <c r="M4" s="16">
-        <v>2.18369465370569</v>
+        <v>1.77076856876764</v>
       </c>
       <c r="N4" s="15">
-        <v>0.52277202387036004</v>
+        <v>0.47974149119498999</v>
       </c>
       <c r="O4" s="17">
-        <v>15.136553309288599</v>
+        <v>11.537179899042799</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -1572,43 +1572,43 @@
         <v>21</v>
       </c>
       <c r="C5" s="19">
-        <v>6.8702903624168501</v>
+        <v>6.7451252847151597</v>
       </c>
       <c r="D5" s="20">
-        <v>1.7943584627546401</v>
+        <v>1.7614012443853899</v>
       </c>
       <c r="E5" s="20">
-        <v>3.4855714822547501</v>
+        <v>3.4212429719023998</v>
       </c>
       <c r="F5" s="20">
-        <v>1.5903600315547</v>
+        <v>1.56248187916048</v>
       </c>
       <c r="G5" s="20">
-        <v>12.004017236587</v>
+        <v>17.220144833338999</v>
       </c>
       <c r="H5" s="19">
-        <v>3.5636424046927</v>
+        <v>-1.6629159350588001</v>
       </c>
       <c r="I5" s="20">
-        <v>6.3409805425449202</v>
+        <v>6.34041760137137</v>
       </c>
       <c r="J5" s="20">
-        <v>9.5001283585399998E-3</v>
+        <v>1.9227396557199998E-6</v>
       </c>
       <c r="K5" s="20">
         <v>0</v>
       </c>
       <c r="L5" s="20">
-        <v>2.8067624205902399</v>
+        <v>2.7584587558334301</v>
       </c>
       <c r="M5" s="20">
-        <v>0.99362756173278999</v>
+        <v>0.87085374209029998</v>
       </c>
       <c r="N5" s="19">
-        <v>1.1495685040527399</v>
+        <v>1.0910564533823299</v>
       </c>
       <c r="O5" s="21">
-        <v>4.9451643325032899</v>
+        <v>-4.28692077332E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -1619,25 +1619,25 @@
         <v>23</v>
       </c>
       <c r="C6" s="19">
-        <v>11.6410136248507</v>
+        <v>11.2992943381795</v>
       </c>
       <c r="D6" s="20">
-        <v>4.9224102777104397</v>
+        <v>4.6985107800467496</v>
       </c>
       <c r="E6" s="20">
-        <v>5.0682387950909096</v>
+        <v>4.9696758989413103</v>
       </c>
       <c r="F6" s="20">
-        <v>1.6503644311341199</v>
+        <v>1.6311070658629401</v>
       </c>
       <c r="G6" s="20">
-        <v>13.8991543303929</v>
+        <v>14.906247352188799</v>
       </c>
       <c r="H6" s="19">
-        <v>6.1950684835961498</v>
+        <v>3.5442896805368398</v>
       </c>
       <c r="I6" s="20">
-        <v>6.99258204977719</v>
+        <v>7.3319637536725804</v>
       </c>
       <c r="J6" s="20">
         <v>0</v>
@@ -1646,16 +1646,16 @@
         <v>0</v>
       </c>
       <c r="L6" s="20">
-        <v>3.8536838322335498</v>
+        <v>3.8592202438383598</v>
       </c>
       <c r="M6" s="20">
-        <v>4.3593398510332699</v>
+        <v>1.32236360758786</v>
       </c>
       <c r="N6" s="19">
-        <v>1.9023184944209801</v>
+        <v>1.7747362066583801</v>
       </c>
       <c r="O6" s="21">
-        <v>3.0723083556855402</v>
+        <v>3.9199333761248201</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -1666,40 +1666,40 @@
         <v>25</v>
       </c>
       <c r="C7" s="19">
-        <v>5.1997912835681497</v>
+        <v>5.1345049485644196</v>
       </c>
       <c r="D7" s="20">
-        <v>2.2651638228710702</v>
+        <v>2.2365195640577</v>
       </c>
       <c r="E7" s="20">
-        <v>1.6947547056299099</v>
+        <v>1.6733207872007401</v>
       </c>
       <c r="F7" s="20">
-        <v>1.23987314675826</v>
+        <v>1.2246644673124301</v>
       </c>
       <c r="G7" s="20">
-        <v>5.9400426283051999</v>
+        <v>5.67034870980254</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>26</v>
       </c>
       <c r="I7" s="20">
-        <v>4.5032813381280601</v>
+        <v>4.54320254208751</v>
       </c>
       <c r="J7" s="20">
-        <v>7.9657868649499995E-3</v>
+        <v>8.0394993910199997E-3</v>
       </c>
       <c r="K7" s="20">
         <v>2.9691068680999999E-4</v>
       </c>
       <c r="L7" s="20">
-        <v>4.2270102337368103</v>
+        <v>4.2286254410908697</v>
       </c>
       <c r="M7" s="20">
-        <v>0.61231720216027996</v>
+        <v>0.53604513238546003</v>
       </c>
       <c r="N7" s="19">
-        <v>1.01721203680943</v>
+        <v>1.1510639343057301</v>
       </c>
       <c r="O7" s="21" t="s">
         <v>26</v>
@@ -1713,28 +1713,28 @@
         <v>28</v>
       </c>
       <c r="C8" s="19">
-        <v>7.7654023235817897</v>
+        <v>7.9527180092041396</v>
       </c>
       <c r="D8" s="20">
-        <v>4.8701200808021703</v>
+        <v>4.8830582056796104</v>
       </c>
       <c r="E8" s="20">
-        <v>1.652730749364</v>
+        <v>1.84061082418824</v>
       </c>
       <c r="F8" s="20">
-        <v>1.2425518141785199</v>
+        <v>1.2290491800590799</v>
       </c>
       <c r="G8" s="20">
-        <v>21.768710694892999</v>
+        <v>20.9561598800449</v>
       </c>
       <c r="H8" s="19">
-        <v>-3.4757632544204</v>
+        <v>-2.0692107326537998</v>
       </c>
       <c r="I8" s="20">
-        <v>5.2746730120805898</v>
+        <v>5.2833289402930097</v>
       </c>
       <c r="J8" s="20">
-        <v>0.43683321804929998</v>
+        <v>0.50855053977779996</v>
       </c>
       <c r="K8" s="20">
         <v>2.1310125280800001E-2</v>
@@ -1743,13 +1743,13 @@
         <v>0</v>
       </c>
       <c r="M8" s="20">
-        <v>1.90751166858857</v>
+        <v>1.9872724023863699</v>
       </c>
       <c r="N8" s="19">
-        <v>1.0823325691674099</v>
+        <v>1.0793378205248301</v>
       </c>
       <c r="O8" s="21">
-        <v>-1.6490778234259</v>
+        <v>-0.38235268033059999</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -1760,25 +1760,25 @@
         <v>30</v>
       </c>
       <c r="C9" s="19">
-        <v>8.3366304344804405</v>
+        <v>8.4256361449754493</v>
       </c>
       <c r="D9" s="20">
-        <v>0.38786418644268</v>
+        <v>0.39545290362280999</v>
       </c>
       <c r="E9" s="20">
-        <v>3.9099039816127399</v>
+        <v>3.9863694647966601</v>
       </c>
       <c r="F9" s="20">
-        <v>4.0388620139395304</v>
+        <v>4.0438133195845696</v>
       </c>
       <c r="G9" s="20">
-        <v>11.3743954728132</v>
+        <v>11.163700984416201</v>
       </c>
       <c r="H9" s="19">
-        <v>1.18015470669719</v>
+        <v>2.0664433946104301</v>
       </c>
       <c r="I9" s="20">
-        <v>8.6700022967183603</v>
+        <v>8.7021114551094705</v>
       </c>
       <c r="J9" s="20">
         <v>0</v>
@@ -1787,16 +1787,16 @@
         <v>0.58257638328769001</v>
       </c>
       <c r="L9" s="20">
-        <v>0.62135207484609001</v>
+        <v>0.62255021771554997</v>
       </c>
       <c r="M9" s="20">
-        <v>1.3800810074132099</v>
+        <v>1.3723962586623699</v>
       </c>
       <c r="N9" s="19">
-        <v>0.79340888325463998</v>
+        <v>0.80231861092465995</v>
       </c>
       <c r="O9" s="21">
-        <v>6.4727386546139103</v>
+        <v>7.3887133791296602</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -1807,43 +1807,43 @@
         <v>32</v>
       </c>
       <c r="C10" s="19">
-        <v>8.1750076723731002</v>
+        <v>8.2317092000451701</v>
       </c>
       <c r="D10" s="20">
-        <v>9.0212535826819998E-2</v>
+        <v>9.260923957061E-2</v>
       </c>
       <c r="E10" s="20">
-        <v>4.8036353966038297</v>
+        <v>4.8109317639527198</v>
       </c>
       <c r="F10" s="20">
-        <v>3.2811596079013898</v>
+        <v>3.3281683551804599</v>
       </c>
       <c r="G10" s="20">
-        <v>14.027393617925499</v>
+        <v>14.0466253954928</v>
       </c>
       <c r="H10" s="19">
-        <v>-0.57939806097669999</v>
+        <v>-0.75883651012620001</v>
       </c>
       <c r="I10" s="20">
-        <v>5.66349919620985</v>
+        <v>5.6712639428021898</v>
       </c>
       <c r="J10" s="20">
-        <v>0.89952155176186999</v>
+        <v>1.32027763635105</v>
       </c>
       <c r="K10" s="20">
-        <v>0.66960308142014002</v>
+        <v>0.67879303463371998</v>
       </c>
       <c r="L10" s="20">
         <v>0</v>
       </c>
       <c r="M10" s="20">
-        <v>4.5073174469842003</v>
+        <v>4.6153206693305098</v>
       </c>
       <c r="N10" s="19">
-        <v>0.45770814374489999</v>
+        <v>0.37861417496067001</v>
       </c>
       <c r="O10" s="21">
-        <v>-1.4500490886779001</v>
+        <v>-2.0805780826000002</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -1854,43 +1854,43 @@
         <v>34</v>
       </c>
       <c r="C11" s="15">
-        <v>5.4667009076076702</v>
+        <v>5.3195061401197101</v>
       </c>
       <c r="D11" s="16">
-        <v>2.3891875553587001</v>
+        <v>2.3216690622418898</v>
       </c>
       <c r="E11" s="16">
-        <v>2.1911297937079999</v>
+        <v>2.1365030796608599</v>
       </c>
       <c r="F11" s="16">
-        <v>0.88638383690558997</v>
+        <v>0.86133394301718003</v>
       </c>
       <c r="G11" s="16">
-        <v>16.9936220013854</v>
+        <v>17.2882158599982</v>
       </c>
       <c r="H11" s="15">
-        <v>22.720771238600499</v>
+        <v>22.4261773806689</v>
       </c>
       <c r="I11" s="16">
-        <v>3.50200273623902</v>
+        <v>3.5020027361895201</v>
       </c>
       <c r="J11" s="16">
-        <v>1.19667940909E-2</v>
+        <v>1.053124126677E-2</v>
       </c>
       <c r="K11" s="16">
-        <v>3.18014712231107</v>
+        <v>1.2906434117504499</v>
       </c>
       <c r="L11" s="16">
         <v>0</v>
       </c>
       <c r="M11" s="16">
-        <v>1.4858715704298799</v>
+        <v>1.1896718922216201</v>
       </c>
       <c r="N11" s="15">
-        <v>0.86542782267158003</v>
+        <v>1.00256263796817</v>
       </c>
       <c r="O11" s="17">
-        <v>20.679360665336102</v>
+        <v>22.4347709336514</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1901,43 +1901,43 @@
         <v>36</v>
       </c>
       <c r="C12" s="19">
-        <v>6.0768682798162201</v>
+        <v>3.2327444149772302</v>
       </c>
       <c r="D12" s="20">
-        <v>1.79594967964148</v>
+        <v>2.0022017706064799</v>
       </c>
       <c r="E12" s="20">
-        <v>1.0714555569802</v>
+        <v>0.46116068679757999</v>
       </c>
       <c r="F12" s="20">
-        <v>3.2094630431945399</v>
+        <v>0.76938196465107</v>
       </c>
       <c r="G12" s="20">
-        <v>7.0237250192899499</v>
+        <v>7.3173485328161503</v>
       </c>
       <c r="H12" s="19">
-        <v>1.7398297642432601</v>
+        <v>9.6496283955587092</v>
       </c>
       <c r="I12" s="20">
-        <v>1.38644357135809</v>
+        <v>1.5765608199757</v>
       </c>
       <c r="J12" s="20">
-        <v>7.1440733636659995E-2</v>
+        <v>8.8434981736110002E-2</v>
       </c>
       <c r="K12" s="20">
         <v>1.6122705462224001</v>
       </c>
       <c r="L12" s="20">
-        <v>1.67815790943038</v>
+        <v>1.67399717111296</v>
       </c>
       <c r="M12" s="20">
-        <v>1.74486999302281</v>
+        <v>1.84216162309913</v>
       </c>
       <c r="N12" s="19">
-        <v>0.93891319663007999</v>
+        <v>1.3337444848873501</v>
       </c>
       <c r="O12" s="21">
-        <v>-2.9193790433409998</v>
+        <v>4.6755804084764598</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1948,43 +1948,43 @@
         <v>38</v>
       </c>
       <c r="C13" s="24">
-        <v>6.9619872604827702</v>
+        <v>6.8750708999141601</v>
       </c>
       <c r="D13" s="25">
-        <v>0.49583945940161001</v>
+        <v>0.50205073271060996</v>
       </c>
       <c r="E13" s="25">
-        <v>3.7845579079775198</v>
+        <v>3.7325183807110101</v>
       </c>
       <c r="F13" s="25">
-        <v>2.6815898437833598</v>
+        <v>2.64050187878432</v>
       </c>
       <c r="G13" s="25">
-        <v>13.401670126280001</v>
+        <v>12.816799741770399</v>
       </c>
       <c r="H13" s="24">
-        <v>4.1411750657821003</v>
+        <v>4.6007833378046703</v>
       </c>
       <c r="I13" s="25">
-        <v>5.2313266754930901</v>
+        <v>5.0931962947270302</v>
       </c>
       <c r="J13" s="25">
-        <v>4.1956606755043699</v>
+        <v>3.9242812763510702</v>
       </c>
       <c r="K13" s="25">
-        <v>0.65514797180688999</v>
+        <v>0.56590525812389003</v>
       </c>
       <c r="L13" s="25">
-        <v>0.18800148399819</v>
+        <v>0.18764075125608001</v>
       </c>
       <c r="M13" s="25">
-        <v>3.47744261415595</v>
+        <v>3.4982942884942401</v>
       </c>
       <c r="N13" s="24">
-        <v>0.57313924254776005</v>
+        <v>0.50896345517937003</v>
       </c>
       <c r="O13" s="26">
-        <v>0.28310975326204002</v>
+        <v>1.00889460312705</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -1995,25 +1995,25 @@
         <v>40</v>
       </c>
       <c r="C14" s="19">
-        <v>8.1074757435210802</v>
+        <v>6.5395193500528803</v>
       </c>
       <c r="D14" s="20">
-        <v>2.0798565478501101</v>
+        <v>2.01861009242648</v>
       </c>
       <c r="E14" s="20">
-        <v>2.7061737516464399</v>
+        <v>2.3915413659585201</v>
       </c>
       <c r="F14" s="20">
-        <v>3.3214456529441199</v>
+        <v>2.12936767486454</v>
       </c>
       <c r="G14" s="20">
-        <v>12.907399783194901</v>
+        <v>12.4716844403324</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>26</v>
       </c>
       <c r="I14" s="20">
-        <v>4.5316850523174699</v>
+        <v>4.4392656339390699</v>
       </c>
       <c r="J14" s="20">
         <v>0</v>
@@ -2022,13 +2022,13 @@
         <v>0</v>
       </c>
       <c r="L14" s="20">
-        <v>11.2255814770583</v>
+        <v>11.2276502992058</v>
       </c>
       <c r="M14" s="20">
-        <v>0.87293611973135998</v>
+        <v>0.97463910356885997</v>
       </c>
       <c r="N14" s="19">
-        <v>1.7254530286682701</v>
+        <v>1.66682344407394</v>
       </c>
       <c r="O14" s="21" t="s">
         <v>26</v>
@@ -2042,43 +2042,43 @@
         <v>42</v>
       </c>
       <c r="C15" s="19">
-        <v>3.5090649736350299</v>
+        <v>3.6514240971418901</v>
       </c>
       <c r="D15" s="20">
-        <v>0.49847936333039</v>
+        <v>0.47640524580718002</v>
       </c>
       <c r="E15" s="20">
-        <v>0.11771876079422</v>
+        <v>0.40685497814602001</v>
       </c>
       <c r="F15" s="20">
-        <v>2.8928669281455002</v>
+        <v>2.7681639817181201</v>
       </c>
       <c r="G15" s="20">
-        <v>11.6735401299823</v>
+        <v>11.3380869626706</v>
       </c>
       <c r="H15" s="19">
-        <v>2.72480702818845</v>
+        <v>3.0602601949284098</v>
       </c>
       <c r="I15" s="20">
-        <v>2.6229304410586298</v>
+        <v>2.62293044108401</v>
       </c>
       <c r="J15" s="20">
-        <v>2.6890060052099201</v>
+        <v>2.3233372631126499</v>
       </c>
       <c r="K15" s="20">
         <v>0</v>
       </c>
       <c r="L15" s="20">
-        <v>2.64013869585495</v>
+        <v>2.6423277258148001</v>
       </c>
       <c r="M15" s="20">
-        <v>0.87676072733938004</v>
+        <v>0.96929532285623998</v>
       </c>
       <c r="N15" s="19">
-        <v>1.33944596094779</v>
+        <v>1.38789772982652</v>
       </c>
       <c r="O15" s="21">
-        <v>-2.1976139201049998</v>
+        <v>-1.6396674055978</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -2089,25 +2089,25 @@
         <v>44</v>
       </c>
       <c r="C16" s="19">
-        <v>8.5051632065137106</v>
+        <v>7.8262544449668097</v>
       </c>
       <c r="D16" s="20">
-        <v>2.3920336816277201</v>
+        <v>2.1651380695495002</v>
       </c>
       <c r="E16" s="20">
-        <v>0.89900477575019</v>
+        <v>0.81890540194086003</v>
       </c>
       <c r="F16" s="20">
-        <v>5.2141245479361302</v>
+        <v>4.8422110443536104</v>
       </c>
       <c r="G16" s="20">
-        <v>20.486066344816201</v>
+        <v>19.373103742082801</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>26</v>
       </c>
       <c r="I16" s="20">
-        <v>1.2043030691868299</v>
+        <v>1.2043030690158001</v>
       </c>
       <c r="J16" s="20">
         <v>0</v>
@@ -2119,10 +2119,10 @@
         <v>0</v>
       </c>
       <c r="M16" s="20">
-        <v>0.64350113761300998</v>
+        <v>0.42954650718467002</v>
       </c>
       <c r="N16" s="19">
-        <v>0.96264066239506996</v>
+        <v>0.96993589901410004</v>
       </c>
       <c r="O16" s="21" t="s">
         <v>26</v>
@@ -2136,40 +2136,40 @@
         <v>46</v>
       </c>
       <c r="C17" s="28">
-        <v>4.3792762209795599</v>
+        <v>4.4791906376050097</v>
       </c>
       <c r="D17" s="29">
-        <v>0.89488255934503003</v>
+        <v>0.88489501520328995</v>
       </c>
       <c r="E17" s="29">
-        <v>0.75824676587034001</v>
+        <v>0.69893447994831004</v>
       </c>
       <c r="F17" s="29">
-        <v>2.7261471407621101</v>
+        <v>2.8953610661666298</v>
       </c>
       <c r="G17" s="29">
-        <v>12.943307155683399</v>
+        <v>13.132435623795001</v>
       </c>
       <c r="H17" s="28" t="s">
         <v>26</v>
       </c>
       <c r="I17" s="29">
-        <v>1.7894188813474201</v>
+        <v>1.7894188812952601</v>
       </c>
       <c r="J17" s="29">
-        <v>10.6218592058193</v>
+        <v>9.2536139995455091</v>
       </c>
       <c r="K17" s="29">
         <v>0</v>
       </c>
       <c r="L17" s="29">
-        <v>3.6691563758752399</v>
+        <v>3.6744113905642699</v>
       </c>
       <c r="M17" s="29">
-        <v>0.40302984985132001</v>
+        <v>0.83466882974275003</v>
       </c>
       <c r="N17" s="28">
-        <v>4.2768157856931897</v>
+        <v>3.3386362103675</v>
       </c>
       <c r="O17" s="30" t="s">
         <v>26</v>
@@ -2183,43 +2183,43 @@
         <v>48</v>
       </c>
       <c r="C18" s="28">
-        <v>2.0953112982639301</v>
+        <v>2.5416528862938002</v>
       </c>
       <c r="D18" s="29">
-        <v>0.17494548416009001</v>
+        <v>0.17818198868676</v>
       </c>
       <c r="E18" s="29">
-        <v>0.78771106985053996</v>
+        <v>1.11427695260335</v>
       </c>
       <c r="F18" s="29">
-        <v>1.1326547360548</v>
+        <v>1.24919381296467</v>
       </c>
       <c r="G18" s="29">
-        <v>20.082896018206199</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>26</v>
+        <v>23.6095930402448</v>
+      </c>
+      <c r="H18" s="28">
+        <v>10.635398456898001</v>
       </c>
       <c r="I18" s="29">
-        <v>1.95531090335166</v>
+        <v>2.2139186814951302</v>
       </c>
       <c r="J18" s="29">
-        <v>27.426681467378</v>
+        <v>23.419400271824799</v>
       </c>
       <c r="K18" s="29">
         <v>0</v>
       </c>
       <c r="L18" s="29">
-        <v>3.4206599582475299</v>
+        <v>2.97942977125992</v>
       </c>
       <c r="M18" s="29">
-        <v>0.95194637377555003</v>
+        <v>2.2931947916847801</v>
       </c>
       <c r="N18" s="28">
-        <v>0.98323091728650003</v>
-      </c>
-      <c r="O18" s="30" t="s">
-        <v>26</v>
+        <v>0.94797235589044004</v>
+      </c>
+      <c r="O18" s="30">
+        <v>-16.790680052267</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
@@ -2230,43 +2230,43 @@
         <v>50</v>
       </c>
       <c r="C19" s="15">
-        <v>3.6341374138109601</v>
+        <v>3.5081723749548299</v>
       </c>
       <c r="D19" s="16">
-        <v>1.4110109517276299</v>
+        <v>1.3621029464515999</v>
       </c>
       <c r="E19" s="16">
-        <v>0.57484933891529</v>
+        <v>0.55492409738140003</v>
       </c>
       <c r="F19" s="16">
-        <v>1.64827710550149</v>
+        <v>1.5911450590570499</v>
       </c>
       <c r="G19" s="16">
-        <v>4.6975700450552198</v>
+        <v>4.8473894784303004</v>
       </c>
       <c r="H19" s="15">
-        <v>12.6381098283117</v>
+        <v>9.8921996648289596</v>
       </c>
       <c r="I19" s="16">
-        <v>1.98190359839437</v>
+        <v>1.9819035983976501</v>
       </c>
       <c r="J19" s="16">
-        <v>0.51936067833462995</v>
+        <v>0.44470608354391</v>
       </c>
       <c r="K19" s="16">
-        <v>0.98436838280153005</v>
+        <v>0.92895325002704998</v>
       </c>
       <c r="L19" s="16">
-        <v>8.6190411714430901</v>
+        <v>8.6329389293446592</v>
       </c>
       <c r="M19" s="16">
-        <v>0.17446909982867001</v>
+        <v>0.25721683290568997</v>
       </c>
       <c r="N19" s="15">
-        <v>1.11538917698656</v>
+        <v>1.1094540201629499</v>
       </c>
       <c r="O19" s="17">
-        <v>3.20738491731157</v>
+        <v>0.50083414724233999</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
@@ -2277,40 +2277,40 @@
         <v>52</v>
       </c>
       <c r="C20" s="28">
-        <v>3.48336073800691</v>
+        <v>3.0439637870852101</v>
       </c>
       <c r="D20" s="29">
-        <v>3.1831902761980002E-2</v>
+        <v>2.7793187713899999E-2</v>
       </c>
       <c r="E20" s="29">
-        <v>0.74036769682379</v>
+        <v>0.64643174750307997</v>
       </c>
       <c r="F20" s="29">
-        <v>2.7111610590212498</v>
+        <v>2.36973892539172</v>
       </c>
       <c r="G20" s="29">
-        <v>12.2390945977423</v>
+        <v>20.155230706372301</v>
       </c>
       <c r="H20" s="28" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="29">
-        <v>0.73300059043382004</v>
+        <v>0.73300060688429003</v>
       </c>
       <c r="J20" s="29">
-        <v>17.623679190988199</v>
+        <v>16.561649566125801</v>
       </c>
       <c r="K20" s="29">
         <v>0</v>
       </c>
       <c r="L20" s="29">
-        <v>1.9487834406423601</v>
+        <v>1.9491043116492699</v>
       </c>
       <c r="M20" s="29">
-        <v>2.1688069700786401</v>
+        <v>1.9197875094194199</v>
       </c>
       <c r="N20" s="28">
-        <v>0.63361550404589995</v>
+        <v>0.55827477144523996</v>
       </c>
       <c r="O20" s="30" t="s">
         <v>26</v>
@@ -2324,40 +2324,40 @@
         <v>54</v>
       </c>
       <c r="C21" s="28">
-        <v>2.85770180426336</v>
+        <v>2.7682463673313</v>
       </c>
       <c r="D21" s="29">
-        <v>1.623651392228E-2</v>
+        <v>1.572825804416E-2</v>
       </c>
       <c r="E21" s="29">
-        <v>1.7235065567018</v>
+        <v>1.66955518111116</v>
       </c>
       <c r="F21" s="29">
-        <v>1.1179585578066</v>
+        <v>1.0829628092264301</v>
       </c>
       <c r="G21" s="29">
-        <v>17.304733575589999</v>
+        <v>18.904162039826399</v>
       </c>
       <c r="H21" s="28" t="s">
         <v>26</v>
       </c>
       <c r="I21" s="29">
-        <v>2.81265790631574</v>
+        <v>2.8126578429915599</v>
       </c>
       <c r="J21" s="29">
-        <v>13.216610483762301</v>
+        <v>10.593948106369201</v>
       </c>
       <c r="K21" s="29">
         <v>4.5196943848900004E-3</v>
       </c>
       <c r="L21" s="29">
-        <v>2.2431910604551</v>
+        <v>2.24370830391062</v>
       </c>
       <c r="M21" s="29">
-        <v>1.11594334371322</v>
+        <v>1.26866501430056</v>
       </c>
       <c r="N21" s="28">
-        <v>0.27386304128041999</v>
+        <v>0.26365682164807003</v>
       </c>
       <c r="O21" s="30" t="s">
         <v>26</v>
@@ -2371,25 +2371,25 @@
         <v>56</v>
       </c>
       <c r="C22" s="19">
-        <v>5.4037834239482301</v>
+        <v>5.2293478447471102</v>
       </c>
       <c r="D22" s="20">
-        <v>1.8093228990074199</v>
+        <v>1.8131758954647399</v>
       </c>
       <c r="E22" s="20">
-        <v>2.5558629366106902</v>
+        <v>2.3740324219656799</v>
       </c>
       <c r="F22" s="20">
-        <v>1.0385976177292799</v>
+        <v>1.04213945805428</v>
       </c>
       <c r="G22" s="20">
-        <v>24.625706438063901</v>
+        <v>23.305355746789498</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>26</v>
       </c>
       <c r="I22" s="20">
-        <v>3.44165634931755</v>
+        <v>3.4416563491910002</v>
       </c>
       <c r="J22" s="20">
         <v>0</v>
@@ -2398,13 +2398,13 @@
         <v>0</v>
       </c>
       <c r="L22" s="20">
-        <v>2.0313716370008601</v>
+        <v>2.0312267816510698</v>
       </c>
       <c r="M22" s="20">
-        <v>1.3505924456774701</v>
+        <v>1.4203065549287399</v>
       </c>
       <c r="N22" s="19">
-        <v>1.3311329196891399</v>
+        <v>1.30939671756089</v>
       </c>
       <c r="O22" s="21" t="s">
         <v>26</v>
@@ -2418,43 +2418,43 @@
         <v>57</v>
       </c>
       <c r="C23" s="24">
-        <v>3.6594498323491398</v>
+        <v>3.6034856743853401</v>
       </c>
       <c r="D23" s="25">
-        <v>0.78226427696626</v>
+        <v>0.75418078470031003</v>
       </c>
       <c r="E23" s="25">
-        <v>0.66401552718358003</v>
+        <v>0.74062291788682999</v>
       </c>
       <c r="F23" s="25">
-        <v>2.2131700447012101</v>
+        <v>2.10868189347836</v>
       </c>
       <c r="G23" s="25">
-        <v>10.9735068123329</v>
+        <v>11.938834629692501</v>
       </c>
       <c r="H23" s="24">
-        <v>7.7146117574946498</v>
+        <v>6.8979365451268499</v>
       </c>
       <c r="I23" s="25">
-        <v>2.3002732161528598</v>
+        <v>2.2919461943529602</v>
       </c>
       <c r="J23" s="25">
-        <v>1.59692733766182</v>
+        <v>3.5031790635260398</v>
       </c>
       <c r="K23" s="25">
-        <v>0.49547624146227998</v>
+        <v>0.42249507676677001</v>
       </c>
       <c r="L23" s="25">
-        <v>5.6495853404565199</v>
+        <v>5.3994099172039096</v>
       </c>
       <c r="M23" s="25">
-        <v>0.52326622051754001</v>
+        <v>0.77309794157698997</v>
       </c>
       <c r="N23" s="24">
-        <v>1.22666824974654</v>
+        <v>1.21883813073001</v>
       </c>
       <c r="O23" s="26">
-        <v>0.5229615838028</v>
+        <v>-2.1271373903239001</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
@@ -2465,25 +2465,25 @@
         <v>59</v>
       </c>
       <c r="C24" s="19">
-        <v>4.8152268290227598</v>
+        <v>5.1798753209828599</v>
       </c>
       <c r="D24" s="20">
-        <v>0.84604011775790999</v>
+        <v>0.91010927017597998</v>
       </c>
       <c r="E24" s="20">
-        <v>0.77376048145376997</v>
+        <v>0.83235602322131996</v>
       </c>
       <c r="F24" s="20">
-        <v>3.1954258649596299</v>
+        <v>3.4374099317121898</v>
       </c>
       <c r="G24" s="20">
-        <v>7.2639700678954</v>
+        <v>6.6447261490181404</v>
       </c>
       <c r="H24" s="19">
-        <v>0.91138949384317003</v>
+        <v>3.7700277953143</v>
       </c>
       <c r="I24" s="20">
-        <v>2.4985248156539002</v>
+        <v>2.5587868386563901</v>
       </c>
       <c r="J24" s="20">
         <v>0</v>
@@ -2492,16 +2492,16 @@
         <v>0</v>
       </c>
       <c r="L24" s="20">
-        <v>1.49299349994542</v>
+        <v>1.4952490414017401</v>
       </c>
       <c r="M24" s="20">
-        <v>0.94266773057558995</v>
+        <v>1.09837949941335</v>
       </c>
       <c r="N24" s="19">
-        <v>1.0963219685404799</v>
+        <v>1.1654803825928499</v>
       </c>
       <c r="O24" s="21">
-        <v>-0.1220688895644</v>
+        <v>2.5697057105627401</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
@@ -2512,25 +2512,25 @@
         <v>61</v>
       </c>
       <c r="C25" s="19">
-        <v>2.1491131638951302</v>
+        <v>2.1664049135387198</v>
       </c>
       <c r="D25" s="20">
-        <v>0.44608867003965003</v>
+        <v>0.40437289064922999</v>
       </c>
       <c r="E25" s="20">
-        <v>1.1533372993076301</v>
+        <v>1.0454779549259801</v>
       </c>
       <c r="F25" s="20">
-        <v>0.54968709510569003</v>
+        <v>0.71655409890879995</v>
       </c>
       <c r="G25" s="20">
-        <v>12.1614320387618</v>
+        <v>11.1874137166762</v>
       </c>
       <c r="H25" s="19">
-        <v>16.073956632866299</v>
+        <v>9.3522609269595804</v>
       </c>
       <c r="I25" s="20">
-        <v>8.1613881971201394</v>
+        <v>7.5658201475416202</v>
       </c>
       <c r="J25" s="20">
         <v>0</v>
@@ -2539,16 +2539,16 @@
         <v>0</v>
       </c>
       <c r="L25" s="20">
-        <v>0.35719370694650998</v>
+        <v>0.35853161415168999</v>
       </c>
       <c r="M25" s="20">
-        <v>0.62216844473945998</v>
+        <v>0.55448228353520002</v>
       </c>
       <c r="N25" s="19">
-        <v>2.1797729651552902</v>
+        <v>1.98370343785109</v>
       </c>
       <c r="O25" s="21">
-        <v>21.0762097131452</v>
+        <v>14.021363738963201</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
@@ -2559,16 +2559,16 @@
         <v>63</v>
       </c>
       <c r="C26" s="19">
-        <v>4.4608618561132296</v>
+        <v>4.4590876367694801</v>
       </c>
       <c r="D26" s="20">
-        <v>1.7486306156486999</v>
+        <v>1.7477815067284499</v>
       </c>
       <c r="E26" s="20">
-        <v>0.78533379382213997</v>
+        <v>0.78534594170468996</v>
       </c>
       <c r="F26" s="20">
-        <v>1.92689724538406</v>
+        <v>1.92596045668078</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>26</v>
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="20">
-        <v>1.7086918161731</v>
+        <v>1.81069820969412</v>
       </c>
       <c r="N26" s="19" t="s">
         <v>26</v>
@@ -2606,43 +2606,43 @@
         <v>65</v>
       </c>
       <c r="C27" s="19">
-        <v>3.2954393083755402</v>
+        <v>3.2322183110074598</v>
       </c>
       <c r="D27" s="20">
-        <v>1.1239086836038199</v>
+        <v>1.1037993723217501</v>
       </c>
       <c r="E27" s="20">
-        <v>0.74816756697095999</v>
+        <v>0.73052216367704004</v>
       </c>
       <c r="F27" s="20">
-        <v>1.42336318842446</v>
+        <v>1.3978964977413799</v>
       </c>
       <c r="G27" s="20">
-        <v>8.83426041941782</v>
+        <v>8.6621059712388799</v>
       </c>
       <c r="H27" s="19">
-        <v>21.2321444316546</v>
+        <v>21.4042988795692</v>
       </c>
       <c r="I27" s="20">
-        <v>3.1645937748512099</v>
+        <v>3.1645937748333299</v>
       </c>
       <c r="J27" s="20">
-        <v>1.7647214926699999E-6</v>
+        <v>3.2382182639700002E-6</v>
       </c>
       <c r="K27" s="20">
         <v>2.3060422204990001E-2</v>
       </c>
       <c r="L27" s="20">
-        <v>5.6612201684443999</v>
+        <v>5.6711435222315698</v>
       </c>
       <c r="M27" s="20">
-        <v>0.79106791444058999</v>
+        <v>0.80846366313823004</v>
       </c>
       <c r="N27" s="19">
-        <v>0.87915242201415</v>
+        <v>0.87534902897348998</v>
       </c>
       <c r="O27" s="21">
-        <v>17.042235514680101</v>
+        <v>17.190872779635999</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
@@ -2653,43 +2653,43 @@
         <v>67</v>
       </c>
       <c r="C28" s="19">
-        <v>4.2339195165514099</v>
+        <v>4.3687466995464197</v>
       </c>
       <c r="D28" s="20">
-        <v>0.78369647132412001</v>
+        <v>0.80865288681043002</v>
       </c>
       <c r="E28" s="20">
-        <v>1.9467142586017401</v>
+        <v>2.0087063839512602</v>
       </c>
       <c r="F28" s="20">
-        <v>1.5035089546389799</v>
+        <v>1.55138743233789</v>
       </c>
       <c r="G28" s="20">
-        <v>15.4084228713442</v>
+        <v>11.6696879914939</v>
       </c>
       <c r="H28" s="19">
-        <v>-1.5183188078097001</v>
+        <v>2.40190392639908</v>
       </c>
       <c r="I28" s="20">
-        <v>4.80100669591834</v>
+        <v>4.7926974453211102</v>
       </c>
       <c r="J28" s="20">
-        <v>1.2401279535920001E-2</v>
+        <v>1.71885044751E-3</v>
       </c>
       <c r="K28" s="20">
         <v>3.0013295325699999E-3</v>
       </c>
       <c r="L28" s="20">
-        <v>1.22018098597105</v>
+        <v>1.2205969595460799</v>
       </c>
       <c r="M28" s="20">
-        <v>0.79500485825107003</v>
+        <v>0.90512878507729999</v>
       </c>
       <c r="N28" s="19">
-        <v>0.98462544370592997</v>
+        <v>1.00892150999278</v>
       </c>
       <c r="O28" s="21">
-        <v>0.26747399111212999</v>
+        <v>4.0552339371239601</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
@@ -2700,43 +2700,43 @@
         <v>69</v>
       </c>
       <c r="C29" s="19">
-        <v>3.8748318396397599</v>
+        <v>3.7773245885112599</v>
       </c>
       <c r="D29" s="20">
-        <v>1.09379660690339</v>
+        <v>1.0713935216922199</v>
       </c>
       <c r="E29" s="20">
-        <v>1.2471364801748399</v>
+        <v>1.2216013791766001</v>
       </c>
       <c r="F29" s="20">
-        <v>1.53389864129418</v>
+        <v>1.4843295997998001</v>
       </c>
       <c r="G29" s="20">
-        <v>9.5169956550130497</v>
+        <v>6.6258569347262704</v>
       </c>
       <c r="H29" s="19">
-        <v>6.4978495580668403</v>
+        <v>9.5029163859199492</v>
       </c>
       <c r="I29" s="20">
-        <v>2.00502319879616</v>
+        <v>2.0073929034633302</v>
       </c>
       <c r="J29" s="20">
-        <v>7.3752116599770004E-2</v>
+        <v>5.6400053941849999E-2</v>
       </c>
       <c r="K29" s="20">
         <v>0</v>
       </c>
       <c r="L29" s="20">
-        <v>4.6081322866452998</v>
+        <v>4.6145813258812698</v>
       </c>
       <c r="M29" s="20">
-        <v>1.0704872859727601</v>
+        <v>1.1911601783288699</v>
       </c>
       <c r="N29" s="19">
-        <v>1.0934375784330901</v>
+        <v>1.0686339055804801</v>
       </c>
       <c r="O29" s="21">
-        <v>1.6570634892120799</v>
+        <v>4.57953382565079</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
@@ -2747,25 +2747,25 @@
         <v>71</v>
       </c>
       <c r="C30" s="19">
-        <v>6.1592928754040699</v>
+        <v>6.0328185235602199</v>
       </c>
       <c r="D30" s="20">
-        <v>1.8004853377470001E-2</v>
+        <v>1.7635240017270001E-2</v>
       </c>
       <c r="E30" s="20">
-        <v>2.8974645265674002</v>
+        <v>2.83796325169607</v>
       </c>
       <c r="F30" s="20">
-        <v>3.24382358103166</v>
+        <v>3.1772200507033501</v>
       </c>
       <c r="G30" s="20">
-        <v>12.3522330426882</v>
+        <v>12.3203411659652</v>
       </c>
       <c r="H30" s="19">
-        <v>5.4458025578746003</v>
+        <v>-0.94888267001839999</v>
       </c>
       <c r="I30" s="20">
-        <v>5.2164529458081699</v>
+        <v>4.8810304357755703</v>
       </c>
       <c r="J30" s="20">
         <v>0</v>
@@ -2774,16 +2774,16 @@
         <v>0</v>
       </c>
       <c r="L30" s="20">
-        <v>2.0013610546499999E-3</v>
+        <v>1.98723893618E-3</v>
       </c>
       <c r="M30" s="20">
-        <v>1.1827374978987799</v>
+        <v>1.17791641742533</v>
       </c>
       <c r="N30" s="19">
-        <v>0.15383717876198</v>
+        <v>0.14805157764603</v>
       </c>
       <c r="O30" s="21">
-        <v>9.3236794659673805</v>
+        <v>2.6041925317496002</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
@@ -2794,43 +2794,43 @@
         <v>73</v>
       </c>
       <c r="C31" s="19">
-        <v>6.3707996852566398</v>
+        <v>6.3316400362940097</v>
       </c>
       <c r="D31" s="20">
-        <v>2.1526610417657301</v>
+        <v>2.1177626441933</v>
       </c>
       <c r="E31" s="20">
-        <v>2.5449142617187301</v>
+        <v>2.5036599684385998</v>
       </c>
       <c r="F31" s="20">
-        <v>1.6732243210378299</v>
+        <v>1.71021690680048</v>
       </c>
       <c r="G31" s="20">
-        <v>12.511740783322301</v>
+        <v>12.1849921105789</v>
       </c>
       <c r="H31" s="19">
-        <v>-1.3805684321773</v>
+        <v>-0.75710800592570004</v>
       </c>
       <c r="I31" s="20">
-        <v>2.9697361790092698</v>
+        <v>2.6518540512750599</v>
       </c>
       <c r="J31" s="20">
-        <v>0</v>
+        <v>8.9839073447000001E-4</v>
       </c>
       <c r="K31" s="20">
         <v>0</v>
       </c>
       <c r="L31" s="20">
-        <v>3.5782282114378501</v>
+        <v>3.5791852577825298</v>
       </c>
       <c r="M31" s="20">
-        <v>0.47290736522888999</v>
+        <v>0.52375573782099005</v>
       </c>
       <c r="N31" s="19">
-        <v>1.2385796755388301</v>
+        <v>2.0022813649706301</v>
       </c>
       <c r="O31" s="21">
-        <v>-3.7005475053736001</v>
+        <v>-4.2113747059593001</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
@@ -2841,25 +2841,25 @@
         <v>75</v>
       </c>
       <c r="C32" s="19">
-        <v>5.2084810654203704</v>
+        <v>4.8790026220362304</v>
       </c>
       <c r="D32" s="20">
         <v>0</v>
       </c>
       <c r="E32" s="20">
-        <v>3.7883193746071502</v>
+        <v>3.5475488979970198</v>
       </c>
       <c r="F32" s="20">
-        <v>1.42016160850941</v>
+        <v>1.3314539218908701</v>
       </c>
       <c r="G32" s="20">
-        <v>11.9562669764244</v>
+        <v>10.2415309122594</v>
       </c>
       <c r="H32" s="19">
-        <v>7.8122146979689999E-2</v>
+        <v>-1.6241415596602</v>
       </c>
       <c r="I32" s="20">
-        <v>4.1075536121369698</v>
+        <v>4.3120064928441799</v>
       </c>
       <c r="J32" s="20">
         <v>0</v>
@@ -2868,10 +2868,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="20">
-        <v>9.7570002172609999E-2</v>
+        <v>9.7585320501530001E-2</v>
       </c>
       <c r="M32" s="20">
-        <v>1.50448142839425</v>
+        <v>1.4781911124112601</v>
       </c>
       <c r="N32" s="19" t="s">
         <v>26</v>
@@ -2900,13 +2900,13 @@
         <v>26</v>
       </c>
       <c r="G33" s="20">
-        <v>5.1237945497969202</v>
+        <v>7.0524497994781203</v>
       </c>
       <c r="H33" s="19" t="s">
         <v>26</v>
       </c>
       <c r="I33" s="20">
-        <v>0.74991173806265998</v>
+        <v>0.98568968071216001</v>
       </c>
       <c r="J33" s="20">
         <v>0</v>
@@ -2915,13 +2915,13 @@
         <v>0</v>
       </c>
       <c r="L33" s="20">
-        <v>10.7102677583856</v>
+        <v>10.730410568789701</v>
       </c>
       <c r="M33" s="20">
-        <v>0.44060659519209</v>
+        <v>0.43388520028188998</v>
       </c>
       <c r="N33" s="19">
-        <v>5.48062746319758</v>
+        <v>7.1140616450905201</v>
       </c>
       <c r="O33" s="21" t="s">
         <v>26</v>
@@ -2931,46 +2931,46 @@
       <c r="A34" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="15">
-        <v>5.8491461530226898</v>
-      </c>
-      <c r="D34" s="16">
-        <v>3.2153991205942201</v>
-      </c>
-      <c r="E34" s="16">
-        <v>0.95355261206074005</v>
-      </c>
-      <c r="F34" s="16">
-        <v>1.6801942265863199</v>
-      </c>
-      <c r="G34" s="16" t="s">
+      <c r="C34" s="28">
+        <v>6.1281987382404299</v>
+      </c>
+      <c r="D34" s="29">
+        <v>3.4045004295650698</v>
+      </c>
+      <c r="E34" s="29">
+        <v>1.0084987850043801</v>
+      </c>
+      <c r="F34" s="29">
+        <v>1.7151996554423301</v>
+      </c>
+      <c r="G34" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I34" s="16" t="s">
+      <c r="I34" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="J34" s="16">
-        <v>23.658520466333201</v>
-      </c>
-      <c r="K34" s="16">
+      <c r="J34" s="29">
+        <v>19.439727313312599</v>
+      </c>
+      <c r="K34" s="29">
         <v>3.7724081540470002E-2</v>
       </c>
-      <c r="L34" s="16">
-        <v>4.9695102599014698</v>
-      </c>
-      <c r="M34" s="16" t="s">
+      <c r="L34" s="29">
+        <v>4.9790928838656896</v>
+      </c>
+      <c r="M34" s="29">
+        <v>1.71441596991178</v>
+      </c>
+      <c r="N34" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="N34" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="O34" s="17" t="s">
+      <c r="O34" s="30" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2982,28 +2982,28 @@
         <v>81</v>
       </c>
       <c r="C35" s="19">
-        <v>6.0447069100215503</v>
+        <v>4.6348132146661696</v>
       </c>
       <c r="D35" s="20">
-        <v>0.39638540194550997</v>
+        <v>0.39520181703237001</v>
       </c>
       <c r="E35" s="20">
-        <v>1.3713911438831801</v>
+        <v>1.0023794425755901</v>
       </c>
       <c r="F35" s="20">
-        <v>4.2769298438174301</v>
+        <v>3.2372319563462701</v>
       </c>
       <c r="G35" s="20">
-        <v>6.3215559457598003</v>
+        <v>7.6734346080295097</v>
       </c>
       <c r="H35" s="19">
-        <v>21.3324780140954</v>
+        <v>26.583354903540801</v>
       </c>
       <c r="I35" s="20">
-        <v>1.5936166381724399</v>
+        <v>1.99516172306307</v>
       </c>
       <c r="J35" s="20">
-        <v>0.43379147811502999</v>
+        <v>0.38294631196161999</v>
       </c>
       <c r="K35" s="20">
         <v>2.0460696850794702</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="M35" s="20">
-        <v>2.5181355290084699</v>
+        <v>2.50526440360701</v>
       </c>
       <c r="N35" s="19">
-        <v>1.53010735730346</v>
+        <v>1.95204743651194</v>
       </c>
       <c r="O35" s="21">
-        <v>16.3979906027614</v>
+        <v>21.692188789443801</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -3029,28 +3029,28 @@
         <v>83</v>
       </c>
       <c r="C36" s="19">
-        <v>3.9792751761565999</v>
+        <v>3.9022261052248801</v>
       </c>
       <c r="D36" s="20">
-        <v>1.43829605912334</v>
+        <v>1.43530961107291</v>
       </c>
       <c r="E36" s="20">
-        <v>1.6268730198930801</v>
+        <v>1.5801199698955699</v>
       </c>
       <c r="F36" s="20">
-        <v>0.91410604782252003</v>
+        <v>0.88679655286063996</v>
       </c>
       <c r="G36" s="20">
-        <v>10.9493302684822</v>
+        <v>10.8191581777072</v>
       </c>
       <c r="H36" s="19">
-        <v>24.931169610672299</v>
+        <v>25.061344328181999</v>
       </c>
       <c r="I36" s="20">
-        <v>3.8041993819920701</v>
+        <v>3.80419938201721</v>
       </c>
       <c r="J36" s="20">
-        <v>0.20004957576547999</v>
+        <v>0.17475467892447999</v>
       </c>
       <c r="K36" s="20">
         <v>0.82187457042566003</v>
@@ -3059,13 +3059,13 @@
         <v>0</v>
       </c>
       <c r="M36" s="20">
-        <v>0.82938822217689001</v>
+        <v>0.83639151870401995</v>
       </c>
       <c r="N36" s="19">
-        <v>1.36677277850767</v>
+        <v>1.3354104189012499</v>
       </c>
       <c r="O36" s="21">
-        <v>25.517283845788601</v>
+        <v>25.697112523243799</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3076,25 +3076,25 @@
         <v>85</v>
       </c>
       <c r="C37" s="19">
-        <v>3.6576195032448702</v>
+        <v>3.77007660902887</v>
       </c>
       <c r="D37" s="20">
-        <v>1.53692554207786</v>
+        <v>1.58417991176217</v>
       </c>
       <c r="E37" s="20">
-        <v>0.55291311779329999</v>
+        <v>0.56991300584361004</v>
       </c>
       <c r="F37" s="20">
-        <v>1.5677808354735201</v>
+        <v>1.6159838821566299</v>
       </c>
       <c r="G37" s="20">
-        <v>6.6211036804510801</v>
+        <v>6.4851559136403196</v>
       </c>
       <c r="H37" s="19">
-        <v>14.452628199664099</v>
+        <v>8.0453792518609895</v>
       </c>
       <c r="I37" s="20">
-        <v>1.55065288011015</v>
+        <v>1.4385307636359601</v>
       </c>
       <c r="J37" s="20">
         <v>0</v>
@@ -3103,16 +3103,16 @@
         <v>0</v>
       </c>
       <c r="L37" s="20">
-        <v>6.8618657120614799</v>
+        <v>6.8637323624545701</v>
       </c>
       <c r="M37" s="20">
-        <v>0.70973542595446004</v>
+        <v>0.62794244574588998</v>
       </c>
       <c r="N37" s="19">
-        <v>0.93056568925725003</v>
+        <v>0.96454939999917</v>
       </c>
       <c r="O37" s="21">
-        <v>7.5011142525010204</v>
+        <v>1.0276858072973101</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3123,43 +3123,43 @@
         <v>86</v>
       </c>
       <c r="C38" s="24">
-        <v>4.3314704703903599</v>
+        <v>4.0933939044224097</v>
       </c>
       <c r="D38" s="25">
-        <v>1.0100588811954601</v>
+        <v>1.01384785026049</v>
       </c>
       <c r="E38" s="25">
-        <v>1.3758936159856701</v>
+        <v>1.3114424546434</v>
       </c>
       <c r="F38" s="25">
-        <v>1.9455179359107699</v>
+        <v>1.76810354233301</v>
       </c>
       <c r="G38" s="25">
-        <v>10.1421557354399</v>
+        <v>9.3623174902755899</v>
       </c>
       <c r="H38" s="24">
-        <v>14.2056651977306</v>
+        <v>15.3829090830717</v>
       </c>
       <c r="I38" s="25">
-        <v>3.2217852024849698</v>
+        <v>3.25871617690663</v>
       </c>
       <c r="J38" s="25">
-        <v>0.11221306864867001</v>
+        <v>9.6353200235929998E-2</v>
       </c>
       <c r="K38" s="25">
         <v>0.48960621030531998</v>
       </c>
       <c r="L38" s="25">
-        <v>2.63221119724574</v>
+        <v>2.63522131552189</v>
       </c>
       <c r="M38" s="25">
-        <v>1.1086897751129701</v>
+        <v>1.13496953031921</v>
       </c>
       <c r="N38" s="24">
-        <v>1.1002073251872699</v>
+        <v>1.1967536621516399</v>
       </c>
       <c r="O38" s="26">
-        <v>11.984522823715601</v>
+        <v>13.0887213414443</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -3170,28 +3170,28 @@
         <v>88</v>
       </c>
       <c r="C39" s="28">
-        <v>6.1743850904095998</v>
+        <v>6.2329658369720304</v>
       </c>
       <c r="D39" s="29">
-        <v>2.7559076607099999E-3</v>
+        <v>2.77834562148E-3</v>
       </c>
       <c r="E39" s="29">
-        <v>4.01333708472536</v>
+        <v>4.0543239284620398</v>
       </c>
       <c r="F39" s="29">
-        <v>2.15829182065541</v>
+        <v>2.1758635472165899</v>
       </c>
       <c r="G39" s="29">
-        <v>8.9148786201439307</v>
+        <v>8.6898236773301392</v>
       </c>
       <c r="H39" s="28">
-        <v>30.180274342334801</v>
+        <v>28.948014156519601</v>
       </c>
       <c r="I39" s="29">
-        <v>4.37163046168995</v>
+        <v>4.3603926047881902</v>
       </c>
       <c r="J39" s="29">
-        <v>9.9043148748298897</v>
+        <v>10.7836290224067</v>
       </c>
       <c r="K39" s="29">
         <v>2.3112926363400002E-3</v>
@@ -3200,13 +3200,13 @@
         <v>0</v>
       </c>
       <c r="M39" s="29">
-        <v>3.6657318351618802</v>
+        <v>4.0678553465692397</v>
       </c>
       <c r="N39" s="28">
-        <v>0.34751390733401</v>
+        <v>0.34977685182780999</v>
       </c>
       <c r="O39" s="30">
-        <v>20.6320328940627</v>
+        <v>18.104834247867601</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -3217,43 +3217,43 @@
         <v>90</v>
       </c>
       <c r="C40" s="19">
-        <v>4.97836331700631</v>
+        <v>4.8278712647804998</v>
       </c>
       <c r="D40" s="20">
-        <v>5.2706474871480002E-2</v>
+        <v>5.0096303305170002E-2</v>
       </c>
       <c r="E40" s="20">
-        <v>1.3832212063224401</v>
+        <v>1.36164220256982</v>
       </c>
       <c r="F40" s="20">
-        <v>3.5424357245217002</v>
+        <v>3.41613260175383</v>
       </c>
       <c r="G40" s="20">
-        <v>5.7474991301146403</v>
+        <v>5.6562461064899701</v>
       </c>
       <c r="H40" s="19">
-        <v>8.7282511127178992</v>
+        <v>8.8195041362802105</v>
       </c>
       <c r="I40" s="20">
-        <v>4.0518138275739801</v>
+        <v>4.0528027144173997</v>
       </c>
       <c r="J40" s="20">
-        <v>3.4036165298613401</v>
+        <v>3.7775416327833802</v>
       </c>
       <c r="K40" s="20">
         <v>0</v>
       </c>
       <c r="L40" s="20">
-        <v>0.16173458966243001</v>
+        <v>0.16230204180605001</v>
       </c>
       <c r="M40" s="20">
-        <v>3.3135105061885199</v>
+        <v>3.1988739820299301</v>
       </c>
       <c r="N40" s="19">
-        <v>0.65557383397959001</v>
+        <v>0.61999154077611995</v>
       </c>
       <c r="O40" s="21">
-        <v>5.2456294805999999</v>
+        <v>5.1135976533020999</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -3276,31 +3276,31 @@
         <v>26</v>
       </c>
       <c r="G41" s="29">
-        <v>5.6156291755815904</v>
-      </c>
-      <c r="H41" s="28" t="s">
-        <v>26</v>
+        <v>8.7835442916757298</v>
+      </c>
+      <c r="H41" s="28">
+        <v>12.5805228558318</v>
       </c>
       <c r="I41" s="29">
-        <v>1.6539549286870601</v>
+        <v>2.1621063964754499</v>
       </c>
       <c r="J41" s="29">
-        <v>7.6711567544993002</v>
+        <v>7.7851020276275698</v>
       </c>
       <c r="K41" s="29">
         <v>0</v>
       </c>
       <c r="L41" s="29">
-        <v>5.878940353941E-2</v>
+        <v>5.8944527075270002E-2</v>
       </c>
       <c r="M41" s="29">
-        <v>3.7542300637383601</v>
+        <v>3.3451788315675199</v>
       </c>
       <c r="N41" s="28">
-        <v>0.27169070591027999</v>
-      </c>
-      <c r="O41" s="30" t="s">
-        <v>26</v>
+        <v>0.43829693308083001</v>
+      </c>
+      <c r="O41" s="30">
+        <v>3.1151069329560199</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
@@ -3311,43 +3311,43 @@
         <v>94</v>
       </c>
       <c r="C42" s="28">
-        <v>3.1463155415439199</v>
+        <v>3.2724351015346902</v>
       </c>
       <c r="D42" s="29">
-        <v>0.37359628917071003</v>
+        <v>0.39107536738442999</v>
       </c>
       <c r="E42" s="29">
-        <v>1.1791284319049</v>
+        <v>1.2172813059118099</v>
       </c>
       <c r="F42" s="29">
-        <v>1.59359073839266</v>
+        <v>1.6640783108322199</v>
       </c>
       <c r="G42" s="29">
-        <v>7.7774840203497702</v>
+        <v>7.3514256504243596</v>
       </c>
       <c r="H42" s="28">
-        <v>27.456982937865899</v>
+        <v>29.298003966851901</v>
       </c>
       <c r="I42" s="29">
-        <v>2.8312515847405799</v>
+        <v>2.8953585614904802</v>
       </c>
       <c r="J42" s="29">
-        <v>2.369265269948E-2</v>
+        <v>2.3532513536659999E-2</v>
       </c>
       <c r="K42" s="29">
         <v>0.31558035864653</v>
       </c>
       <c r="L42" s="29">
-        <v>0.62787033300905004</v>
+        <v>0.62901973414990997</v>
       </c>
       <c r="M42" s="29">
-        <v>2.2160257311109799</v>
+        <v>1.99716863308748</v>
       </c>
       <c r="N42" s="28">
-        <v>0.78679125364478997</v>
+        <v>0.94771190586455001</v>
       </c>
       <c r="O42" s="30">
-        <v>26.3182741934957</v>
+        <v>28.280349383057299</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -3358,28 +3358,28 @@
         <v>96</v>
       </c>
       <c r="C43" s="19">
-        <v>4.9062037149515199</v>
+        <v>4.9913654221297401</v>
       </c>
       <c r="D43" s="20">
-        <v>3.5216343002850002E-2</v>
+        <v>3.6829087823940003E-2</v>
       </c>
       <c r="E43" s="20">
-        <v>1.9564212830260701</v>
+        <v>2.02342471019531</v>
       </c>
       <c r="F43" s="20">
-        <v>2.91456628942435</v>
+        <v>2.9311115196355599</v>
       </c>
       <c r="G43" s="20">
-        <v>9.7027169595363301</v>
+        <v>9.3034240998706803</v>
       </c>
       <c r="H43" s="19">
-        <v>16.145232994241901</v>
+        <v>17.927082691917001</v>
       </c>
       <c r="I43" s="20">
-        <v>4.7595310143097702</v>
+        <v>5.1216707845326104</v>
       </c>
       <c r="J43" s="20">
-        <v>3.0997370838699999E-3</v>
+        <v>5.43731907433E-3</v>
       </c>
       <c r="K43" s="20">
         <v>9.7259135655180004E-2</v>
@@ -3388,13 +3388,13 @@
         <v>0</v>
       </c>
       <c r="M43" s="20">
-        <v>2.1512875836438701</v>
+        <v>2.2609923988751901</v>
       </c>
       <c r="N43" s="19">
-        <v>0.52818597370517995</v>
+        <v>0.52553786419580995</v>
       </c>
       <c r="O43" s="21">
-        <v>18.124931578463499</v>
+        <v>20.1595267586491</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3405,43 +3405,43 @@
         <v>98</v>
       </c>
       <c r="C44" s="19">
-        <v>6.7012981823930096</v>
+        <v>5.4559900655414397</v>
       </c>
       <c r="D44" s="20">
-        <v>2.4083989122019998E-2</v>
+        <v>2.3307449386750001E-2</v>
       </c>
       <c r="E44" s="20">
-        <v>3.8292776282099501</v>
+        <v>2.8106627342526602</v>
       </c>
       <c r="F44" s="20">
-        <v>2.84793687675025</v>
+        <v>2.6220193367334601</v>
       </c>
       <c r="G44" s="20">
-        <v>1.35901105261594</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>26</v>
+        <v>11.1553530111394</v>
+      </c>
+      <c r="H44" s="19">
+        <v>0.13655329917808001</v>
       </c>
       <c r="I44" s="20">
-        <v>5.6440823276912999</v>
+        <v>5.7463161411784398</v>
       </c>
       <c r="J44" s="20">
-        <v>1.01521883262257</v>
+        <v>1.1095251509967601</v>
       </c>
       <c r="K44" s="20">
         <v>0</v>
       </c>
       <c r="L44" s="20">
-        <v>0.26947669187848999</v>
+        <v>0.26940231027807998</v>
       </c>
       <c r="M44" s="20">
-        <v>2.96084755920619</v>
+        <v>2.91059850163693</v>
       </c>
       <c r="N44" s="19">
-        <v>0.32881919792238001</v>
-      </c>
-      <c r="O44" s="21" t="s">
-        <v>26</v>
+        <v>0.30161461680014001</v>
+      </c>
+      <c r="O44" s="21">
+        <v>1.29172886064462</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3452,43 +3452,43 @@
         <v>99</v>
       </c>
       <c r="C45" s="24">
-        <v>5.31982212226435</v>
+        <v>5.1846448567760302</v>
       </c>
       <c r="D45" s="25">
-        <v>4.0953041009649999E-2</v>
+        <v>3.9845501325360001E-2</v>
       </c>
       <c r="E45" s="25">
-        <v>2.1953016327986301</v>
+        <v>2.1396796519436698</v>
       </c>
       <c r="F45" s="25">
-        <v>3.08356748278189</v>
+        <v>3.0051195618931601</v>
       </c>
       <c r="G45" s="25">
-        <v>6.6815698052600503</v>
+        <v>7.2905977275433402</v>
       </c>
       <c r="H45" s="24">
-        <v>15.1277073839435</v>
+        <v>14.1501259920541</v>
       </c>
       <c r="I45" s="25">
-        <v>4.2174136143886098</v>
+        <v>4.2205858121969202</v>
       </c>
       <c r="J45" s="25">
-        <v>4.4062501789719404</v>
+        <v>4.8137768959576199</v>
       </c>
       <c r="K45" s="25">
-        <v>1.8549859537459999E-2</v>
+        <v>1.6316327183259999E-2</v>
       </c>
       <c r="L45" s="25">
-        <v>0.10505587392783</v>
+        <v>0.11185270592908</v>
       </c>
       <c r="M45" s="25">
-        <v>3.2133271571512401</v>
+        <v>3.2392870181281799</v>
       </c>
       <c r="N45" s="24">
-        <v>0.56530087343708002</v>
+        <v>0.52507843236469998</v>
       </c>
       <c r="O45" s="26">
-        <v>11.036637055306601</v>
+        <v>9.6644004246881199</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -3499,28 +3499,28 @@
         <v>101</v>
       </c>
       <c r="C46" s="19">
-        <v>2.48718303125343</v>
+        <v>2.3202662970974499</v>
       </c>
       <c r="D46" s="20">
-        <v>0.60534457580678003</v>
+        <v>0.57127102974768995</v>
       </c>
       <c r="E46" s="20">
-        <v>0.56336458169312997</v>
+        <v>0.54094020532785003</v>
       </c>
       <c r="F46" s="20">
-        <v>1.3184739873301801</v>
+        <v>1.2080550440887501</v>
       </c>
       <c r="G46" s="20">
-        <v>10.8554434098389</v>
+        <v>10.2746235343831</v>
       </c>
       <c r="H46" s="19">
-        <v>10.8630627817865</v>
+        <v>11.443882204512599</v>
       </c>
       <c r="I46" s="20">
-        <v>2.9037728729870098</v>
+        <v>2.9037728077525902</v>
       </c>
       <c r="J46" s="20">
-        <v>8.1243031891879994E-2</v>
+        <v>6.7315764400420003E-2</v>
       </c>
       <c r="K46" s="20">
         <v>0</v>
@@ -3529,13 +3529,13 @@
         <v>0</v>
       </c>
       <c r="M46" s="20">
-        <v>2.4321614683514601</v>
+        <v>2.0683712267804202</v>
       </c>
       <c r="N46" s="19">
-        <v>2.1177607061886299</v>
+        <v>2.2888359012510602</v>
       </c>
       <c r="O46" s="21">
-        <v>9.13567044834158</v>
+        <v>9.9231321198332694</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
@@ -3546,25 +3546,25 @@
         <v>103</v>
       </c>
       <c r="C47" s="19">
-        <v>5.48341297767064</v>
+        <v>5.3184625046605802</v>
       </c>
       <c r="D47" s="20">
-        <v>0.86628130346540999</v>
+        <v>0.84022208648297003</v>
       </c>
       <c r="E47" s="20">
-        <v>2.2928117286801801</v>
+        <v>2.2238400453139202</v>
       </c>
       <c r="F47" s="20">
-        <v>2.3243197732964398</v>
+        <v>2.2544002744473399</v>
       </c>
       <c r="G47" s="20">
-        <v>7.49405196387226</v>
+        <v>7.3970051918475503</v>
       </c>
       <c r="H47" s="19">
-        <v>9.3713610149995503</v>
+        <v>9.4684077857295907</v>
       </c>
       <c r="I47" s="20">
-        <v>4.0827720670362702</v>
+        <v>4.0827720670287304</v>
       </c>
       <c r="J47" s="20">
         <v>0</v>
@@ -3576,13 +3576,13 @@
         <v>0</v>
       </c>
       <c r="M47" s="20">
-        <v>1.1774028423297001</v>
+        <v>1.26020554704437</v>
       </c>
       <c r="N47" s="19">
-        <v>2.40996643111498</v>
+        <v>2.3355766932453998</v>
       </c>
       <c r="O47" s="21">
-        <v>7.1248877362239798</v>
+        <v>7.2135215401013699</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -3593,43 +3593,43 @@
         <v>105</v>
       </c>
       <c r="C48" s="28">
-        <v>4.7257430131302298</v>
+        <v>4.6218860215483897</v>
       </c>
       <c r="D48" s="29">
-        <v>0.32341926956083</v>
+        <v>0.30823238523979002</v>
       </c>
       <c r="E48" s="29">
-        <v>3.1078004610963799</v>
+        <v>2.9618681275463601</v>
       </c>
       <c r="F48" s="29">
-        <v>1.29452303567958</v>
+        <v>1.3517854431454699</v>
       </c>
       <c r="G48" s="29">
-        <v>10.7784656254828</v>
+        <v>9.8114182941957093</v>
       </c>
       <c r="H48" s="28">
-        <v>21.458320898095</v>
+        <v>22.384310394298598</v>
       </c>
       <c r="I48" s="29">
-        <v>4.6539424399498204</v>
+        <v>4.6558334716066199</v>
       </c>
       <c r="J48" s="29">
-        <v>0.34604081985882001</v>
+        <v>0.34940565545201002</v>
       </c>
       <c r="K48" s="29">
         <v>0</v>
       </c>
       <c r="L48" s="29">
-        <v>0.22551295521433001</v>
+        <v>0.22594780809435999</v>
       </c>
       <c r="M48" s="29">
-        <v>1.2189582345941301</v>
+        <v>1.2203055106816301</v>
       </c>
       <c r="N48" s="28">
-        <v>0.39258613993141001</v>
+        <v>0.36738238358120001</v>
       </c>
       <c r="O48" s="30">
-        <v>23.929165188446099</v>
+        <v>24.877102508096002</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
@@ -3640,28 +3640,28 @@
         <v>107</v>
       </c>
       <c r="C49" s="19">
-        <v>3.28392895256906</v>
+        <v>3.2209610791731702</v>
       </c>
       <c r="D49" s="20">
-        <v>0.50034080536787995</v>
+        <v>0.41868783646313001</v>
       </c>
       <c r="E49" s="20">
-        <v>0.95499939887281005</v>
+        <v>0.97289145841193003</v>
       </c>
       <c r="F49" s="20">
-        <v>1.8285886809772001</v>
+        <v>1.8293817842981099</v>
       </c>
       <c r="G49" s="20">
-        <v>3.1522215271158198</v>
+        <v>3.2989749996793498</v>
       </c>
       <c r="H49" s="19">
-        <v>14.035622250404</v>
+        <v>13.888868777216899</v>
       </c>
       <c r="I49" s="20">
-        <v>3.0366109491142601</v>
+        <v>3.0366109491009898</v>
       </c>
       <c r="J49" s="20">
-        <v>0.75568782207740004</v>
+        <v>0.59353700896967998</v>
       </c>
       <c r="K49" s="20">
         <v>0.43956608009922998</v>
@@ -3670,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="M49" s="20">
-        <v>0.71921963304016001</v>
+        <v>0.73868211627862002</v>
       </c>
       <c r="N49" s="19">
-        <v>1.09121935329256</v>
+        <v>1.03019791940606</v>
       </c>
       <c r="O49" s="21">
-        <v>14.0665403110089</v>
+        <v>14.123496601564399</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
@@ -3687,25 +3687,25 @@
         <v>109</v>
       </c>
       <c r="C50" s="19">
-        <v>4.1294160601208896</v>
+        <v>3.1718267683026</v>
       </c>
       <c r="D50" s="20">
-        <v>1.8692788939593801</v>
+        <v>0.85982823314787005</v>
       </c>
       <c r="E50" s="20">
-        <v>1.1251875396155</v>
+        <v>1.30618259856526</v>
       </c>
       <c r="F50" s="20">
-        <v>1.134949725177</v>
+        <v>1.00581587546604</v>
       </c>
       <c r="G50" s="20">
-        <v>19.021183000148199</v>
+        <v>16.9743275898254</v>
       </c>
       <c r="H50" s="19">
-        <v>-1.0634712736387999</v>
+        <v>1.05459926607041</v>
       </c>
       <c r="I50" s="20">
-        <v>2.62505009872402</v>
+        <v>2.6269728003690198</v>
       </c>
       <c r="J50" s="20">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="L50" s="20">
-        <v>2.82238711946261</v>
+        <v>2.82571350805553</v>
       </c>
       <c r="M50" s="20">
-        <v>1.3754842204211599</v>
+        <v>1.30959849931923</v>
       </c>
       <c r="N50" s="19">
-        <v>1.12585081436011</v>
+        <v>0.98134310774521005</v>
       </c>
       <c r="O50" s="21">
-        <v>-3.7621433291585999</v>
+        <v>-1.4350830486805</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
@@ -3734,43 +3734,43 @@
         <v>111</v>
       </c>
       <c r="C51" s="15">
-        <v>3.47177615250019</v>
+        <v>3.3906950057557999</v>
       </c>
       <c r="D51" s="16">
-        <v>0.39142994757152999</v>
+        <v>0.38256099726808002</v>
       </c>
       <c r="E51" s="16">
-        <v>1.3970702481092301</v>
+        <v>1.3841116450108499</v>
       </c>
       <c r="F51" s="16">
-        <v>1.68327589456127</v>
+        <v>1.62402230583042</v>
       </c>
       <c r="G51" s="16">
-        <v>9.2852959600273497</v>
+        <v>8.5161027792708204</v>
       </c>
       <c r="H51" s="15">
-        <v>9.3184106038763499</v>
+        <v>10.087603784606699</v>
       </c>
       <c r="I51" s="16">
-        <v>4.06883467132766</v>
+        <v>4.0688346713398396</v>
       </c>
       <c r="J51" s="16">
-        <v>4.0650191095356298</v>
+        <v>2.5839323202917401</v>
       </c>
       <c r="K51" s="16">
-        <v>1.57940296061217</v>
+        <v>1.5770664670647101</v>
       </c>
       <c r="L51" s="16">
-        <v>3.47540572170116</v>
+        <v>3.4809110240374999</v>
       </c>
       <c r="M51" s="16">
-        <v>1.00617069188139</v>
+        <v>1.1955788453985801</v>
       </c>
       <c r="N51" s="15">
-        <v>0.73937380280302001</v>
+        <v>0.71554974983402997</v>
       </c>
       <c r="O51" s="17">
-        <v>2.5218729886706401</v>
+        <v>4.6034000493199798</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
@@ -3781,25 +3781,25 @@
         <v>113</v>
       </c>
       <c r="C52" s="19">
-        <v>4.1227168928979596</v>
+        <v>4.0886874443967898</v>
       </c>
       <c r="D52" s="20">
-        <v>0.44510695963642</v>
+        <v>0.44143300198287999</v>
       </c>
       <c r="E52" s="20">
-        <v>0.92860025871749996</v>
+        <v>0.92093549888780002</v>
       </c>
       <c r="F52" s="20">
-        <v>2.7490098814566499</v>
+        <v>2.7263192768853202</v>
       </c>
       <c r="G52" s="20">
-        <v>9.6464367429759008</v>
+        <v>9.6550405392024192</v>
       </c>
       <c r="H52" s="19">
-        <v>-1.1980283381273999</v>
+        <v>-2.5837186907946998</v>
       </c>
       <c r="I52" s="20">
-        <v>1.82038103264705</v>
+        <v>1.8108239897066301</v>
       </c>
       <c r="J52" s="20">
         <v>0</v>
@@ -3808,16 +3808,16 @@
         <v>0</v>
       </c>
       <c r="L52" s="20">
-        <v>4.5216197673381702</v>
+        <v>4.5289240636468602</v>
       </c>
       <c r="M52" s="20">
-        <v>0.97390535609874995</v>
+        <v>1.19821074319854</v>
       </c>
       <c r="N52" s="19">
-        <v>1.51367479824953</v>
+        <v>1.7104882550010301</v>
       </c>
       <c r="O52" s="21">
-        <v>-6.3868472271668004</v>
+        <v>-8.2105177629343995</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
@@ -3828,25 +3828,25 @@
         <v>115</v>
       </c>
       <c r="C53" s="19">
-        <v>8.2945974392856794</v>
+        <v>8.0868412815341593</v>
       </c>
       <c r="D53" s="20">
-        <v>2.10053895947068</v>
+        <v>2.0467733269995301</v>
       </c>
       <c r="E53" s="20">
-        <v>0.52889460116215004</v>
+        <v>0.51731796705343003</v>
       </c>
       <c r="F53" s="20">
-        <v>5.6651644923745001</v>
+        <v>5.5227502393324102</v>
       </c>
       <c r="G53" s="20">
-        <v>4.6234448886392201</v>
+        <v>4.4486448676260997</v>
       </c>
       <c r="H53" s="19">
-        <v>6.5647709933831297</v>
+        <v>6.7395710171254999</v>
       </c>
       <c r="I53" s="20">
-        <v>1.1471084930073501</v>
+        <v>1.1471084930354301</v>
       </c>
       <c r="J53" s="20">
         <v>0</v>
@@ -3855,16 +3855,16 @@
         <v>0</v>
       </c>
       <c r="L53" s="20">
-        <v>9.6176793846982207</v>
+        <v>9.6335589610007393</v>
       </c>
       <c r="M53" s="20">
-        <v>0.88631425615329995</v>
+        <v>0.90526013433662</v>
       </c>
       <c r="N53" s="19">
-        <v>1.48495395104785</v>
+        <v>1.7749544849152801</v>
       </c>
       <c r="O53" s="21">
-        <v>-4.2770681055089002</v>
+        <v>-4.4270940700916999</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
@@ -3875,19 +3875,19 @@
         <v>117</v>
       </c>
       <c r="C54" s="19">
-        <v>8.5074693242390005</v>
+        <v>8.4310591530098797</v>
       </c>
       <c r="D54" s="20">
-        <v>2.1002294214608299</v>
+        <v>2.0680690426519099</v>
       </c>
       <c r="E54" s="20">
-        <v>1.3693882511950299</v>
+        <v>1.3562266798284</v>
       </c>
       <c r="F54" s="20">
-        <v>5.0378522083581903</v>
+        <v>5.0067635907642503</v>
       </c>
       <c r="G54" s="20">
-        <v>24.021571218967299</v>
+        <v>23.158537116501101</v>
       </c>
       <c r="H54" s="19" t="s">
         <v>26</v>
@@ -3902,13 +3902,13 @@
         <v>0</v>
       </c>
       <c r="L54" s="20">
-        <v>15.344113250984</v>
+        <v>15.3691806216973</v>
       </c>
       <c r="M54" s="20">
-        <v>1.80898812558299</v>
+        <v>1.56224339628667</v>
       </c>
       <c r="N54" s="19">
-        <v>0.98862413288702</v>
+        <v>0.98363914621670001</v>
       </c>
       <c r="O54" s="21" t="s">
         <v>26</v>
@@ -3922,25 +3922,25 @@
         <v>119</v>
       </c>
       <c r="C55" s="19">
-        <v>4.0801370448125303</v>
+        <v>3.8814118099960502</v>
       </c>
       <c r="D55" s="20">
-        <v>1.36499726166956</v>
+        <v>1.3070958047010199</v>
       </c>
       <c r="E55" s="20">
-        <v>1.37293541869811</v>
+        <v>1.3122314693916599</v>
       </c>
       <c r="F55" s="20">
-        <v>1.34220443823581</v>
+        <v>1.2620846025532699</v>
       </c>
       <c r="G55" s="20">
-        <v>4.9366998567612201</v>
-      </c>
-      <c r="H55" s="19" t="s">
-        <v>26</v>
+        <v>4.5314490482022096</v>
+      </c>
+      <c r="H55" s="19">
+        <v>10.5425477687717</v>
       </c>
       <c r="I55" s="20">
-        <v>3.6666230520115701</v>
+        <v>3.9937645053815798</v>
       </c>
       <c r="J55" s="20">
         <v>0</v>
@@ -3949,16 +3949,16 @@
         <v>4.5420840789323602</v>
       </c>
       <c r="L55" s="20">
-        <v>2.1651726927253598</v>
+        <v>2.1679273352787201</v>
       </c>
       <c r="M55" s="20">
-        <v>1.4456940564809999</v>
+        <v>1.37573823652461</v>
       </c>
       <c r="N55" s="19">
-        <v>2.5469336214690701</v>
-      </c>
-      <c r="O55" s="21" t="s">
-        <v>26</v>
+        <v>2.3076864101312502</v>
+      </c>
+      <c r="O55" s="21">
+        <v>4.1428762132863302</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
@@ -3969,28 +3969,28 @@
         <v>121</v>
       </c>
       <c r="C56" s="19">
-        <v>5.6984305077144199</v>
+        <v>5.6661803497435104</v>
       </c>
       <c r="D56" s="20">
-        <v>0.86894078286198995</v>
+        <v>0.86402300833531998</v>
       </c>
       <c r="E56" s="20">
-        <v>2.03378946666697</v>
+        <v>2.0222792242685999</v>
       </c>
       <c r="F56" s="20">
-        <v>2.79570032533762</v>
+        <v>2.7798780463575801</v>
       </c>
       <c r="G56" s="20">
-        <v>3.30589852433291</v>
+        <v>3.30589678679948</v>
       </c>
       <c r="H56" s="19">
-        <v>21.655935760973001</v>
+        <v>21.655933777998399</v>
       </c>
       <c r="I56" s="20">
-        <v>2.5326331617332301</v>
+        <v>3.4184778017555102</v>
       </c>
       <c r="J56" s="20">
-        <v>0.73299893752159995</v>
+        <v>0.45824363479621999</v>
       </c>
       <c r="K56" s="20">
         <v>7.085593212487E-2</v>
@@ -3999,60 +3999,60 @@
         <v>0</v>
       </c>
       <c r="M56" s="20">
-        <v>0.77474449706999005</v>
+        <v>0.67875343352091</v>
       </c>
       <c r="N56" s="19">
-        <v>2.601719135667</v>
+        <v>2.5356902257348199</v>
       </c>
       <c r="O56" s="21">
-        <v>20.008250420322799</v>
+        <v>21.330868353577099</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C57" s="28">
-        <v>3.2422765518841201</v>
-      </c>
-      <c r="D57" s="29">
-        <v>0.41338214548322999</v>
-      </c>
-      <c r="E57" s="29">
-        <v>0.51703262162541996</v>
-      </c>
-      <c r="F57" s="29">
-        <v>2.31186185373525</v>
-      </c>
-      <c r="G57" s="29">
-        <v>10.7510584873438</v>
-      </c>
-      <c r="H57" s="28">
-        <v>11.7875255309251</v>
-      </c>
-      <c r="I57" s="29">
-        <v>0.82131939088354999</v>
-      </c>
-      <c r="J57" s="29">
-        <v>3.6052514589583602</v>
-      </c>
-      <c r="K57" s="29">
+      <c r="C57" s="19">
+        <v>3.1613282891529</v>
+      </c>
+      <c r="D57" s="20">
+        <v>0.37134639626304</v>
+      </c>
+      <c r="E57" s="20">
+        <v>0.49747745228487</v>
+      </c>
+      <c r="F57" s="20">
+        <v>2.2925045041205601</v>
+      </c>
+      <c r="G57" s="20">
+        <v>9.8319110958868201</v>
+      </c>
+      <c r="H57" s="19">
+        <v>12.612473711223201</v>
+      </c>
+      <c r="I57" s="20">
+        <v>0.82217118186339</v>
+      </c>
+      <c r="J57" s="20">
+        <v>3.1760414807937498</v>
+      </c>
+      <c r="K57" s="20">
         <v>4.1352768982099997E-3</v>
       </c>
-      <c r="L57" s="29">
-        <v>0</v>
-      </c>
-      <c r="M57" s="29">
-        <v>1.2241939653356699</v>
-      </c>
-      <c r="N57" s="28">
-        <v>2.4403389951016599</v>
-      </c>
-      <c r="O57" s="30">
-        <v>5.3349252255147004</v>
+      <c r="L57" s="20">
+        <v>0</v>
+      </c>
+      <c r="M57" s="20">
+        <v>1.0490469982669901</v>
+      </c>
+      <c r="N57" s="19">
+        <v>2.2421976849659599</v>
+      </c>
+      <c r="O57" s="21">
+        <v>6.9632234521616496</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
@@ -4063,28 +4063,28 @@
         <v>125</v>
       </c>
       <c r="C58" s="19">
-        <v>4.0401547303780303</v>
+        <v>4.4951197383968102</v>
       </c>
       <c r="D58" s="20">
-        <v>0.72457315902255004</v>
+        <v>0.86655926208293999</v>
       </c>
       <c r="E58" s="20">
-        <v>1.0113976682958801</v>
+        <v>1.0576435829489399</v>
       </c>
       <c r="F58" s="20">
-        <v>2.3041837882078702</v>
+        <v>2.5709166732324298</v>
       </c>
       <c r="G58" s="20">
-        <v>9.6194675519719297</v>
+        <v>9.6898517450562807</v>
       </c>
       <c r="H58" s="19" t="s">
         <v>26</v>
       </c>
       <c r="I58" s="20">
-        <v>4.8280002262738497</v>
+        <v>4.8572524407328004</v>
       </c>
       <c r="J58" s="20">
-        <v>2.11994671676E-3</v>
+        <v>2.1822202086999999E-3</v>
       </c>
       <c r="K58" s="20">
         <v>0.95320195214668002</v>
@@ -4093,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="M58" s="20">
-        <v>1.79270443592575</v>
+        <v>1.85032208283135</v>
       </c>
       <c r="N58" s="19">
-        <v>1.2201744591399599</v>
+        <v>1.16337267290608</v>
       </c>
       <c r="O58" s="21" t="s">
         <v>26</v>
@@ -4110,25 +4110,25 @@
         <v>127</v>
       </c>
       <c r="C59" s="19">
-        <v>9.1174655521003896</v>
+        <v>8.8527696278548493</v>
       </c>
       <c r="D59" s="20">
-        <v>2.7336209334848598</v>
+        <v>2.6542591399051401</v>
       </c>
       <c r="E59" s="20">
-        <v>1.2768139287840701</v>
+        <v>1.2397457875128</v>
       </c>
       <c r="F59" s="20">
-        <v>5.1070308320512598</v>
+        <v>4.9587647992006598</v>
       </c>
       <c r="G59" s="20">
-        <v>4.8824714011024701</v>
+        <v>5.0344338810897797</v>
       </c>
       <c r="H59" s="19">
-        <v>-7.6891874992632001</v>
+        <v>-7.4704691216664996</v>
       </c>
       <c r="I59" s="20">
-        <v>2.6811439147466398</v>
+        <v>5.7763129816151801</v>
       </c>
       <c r="J59" s="20">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>1.404175050589E-2</v>
       </c>
       <c r="L59" s="20">
-        <v>6.6495263691100002</v>
+        <v>6.6601810310903904</v>
       </c>
       <c r="M59" s="20">
-        <v>1.0991557175819999</v>
+        <v>0.90090931528517004</v>
       </c>
       <c r="N59" s="19">
-        <v>2.3805798836866998</v>
+        <v>2.37029597618442</v>
       </c>
       <c r="O59" s="21">
-        <v>-15.151347305401</v>
+        <v>-11.639584213117001</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4157,25 +4157,25 @@
         <v>129</v>
       </c>
       <c r="C60" s="15">
-        <v>5.83981649859619</v>
+        <v>5.6422980788314403</v>
       </c>
       <c r="D60" s="16">
-        <v>0.53232132818082001</v>
+        <v>0.52194182773519004</v>
       </c>
       <c r="E60" s="16">
-        <v>0.88047353574998999</v>
+        <v>0.86330556616551002</v>
       </c>
       <c r="F60" s="16">
-        <v>4.4270219303376699</v>
+        <v>4.2570506815059703</v>
       </c>
       <c r="G60" s="16">
-        <v>6.4566746103015902</v>
+        <v>6.2152807754487398</v>
       </c>
       <c r="H60" s="15">
-        <v>13.317716717052599</v>
+        <v>13.559110558594201</v>
       </c>
       <c r="I60" s="16">
-        <v>3.5822033321498501</v>
+        <v>3.5822033321455802</v>
       </c>
       <c r="J60" s="16">
         <v>0</v>
@@ -4184,16 +4184,16 @@
         <v>1.0562768163129601</v>
       </c>
       <c r="L60" s="16">
-        <v>2.79257431652037</v>
+        <v>2.7972307382984201</v>
       </c>
       <c r="M60" s="16">
-        <v>1.2357852469900801</v>
+        <v>1.3384577402476501</v>
       </c>
       <c r="N60" s="15">
-        <v>2.23099702484107</v>
+        <v>2.1299214609612598</v>
       </c>
       <c r="O60" s="17">
-        <v>9.5842866445379595</v>
+        <v>9.8194271349194402</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4204,43 +4204,43 @@
         <v>130</v>
       </c>
       <c r="C61" s="24">
-        <v>3.5412359647253999</v>
+        <v>3.46805941258657</v>
       </c>
       <c r="D61" s="25">
-        <v>0.51715274010593004</v>
+        <v>0.48006720675103998</v>
       </c>
       <c r="E61" s="25">
-        <v>0.79153340186928001</v>
+        <v>0.77602371286561</v>
       </c>
       <c r="F61" s="25">
-        <v>2.23254986381732</v>
+        <v>2.2119685257351001</v>
       </c>
       <c r="G61" s="25">
-        <v>9.5074107155355296</v>
+        <v>8.8190014889552408</v>
       </c>
       <c r="H61" s="24">
-        <v>11.341415871093799</v>
+        <v>11.9331545554209</v>
       </c>
       <c r="I61" s="25">
-        <v>1.6434434122770201</v>
+        <v>1.7545155134055199</v>
       </c>
       <c r="J61" s="25">
-        <v>2.9740556623944099</v>
+        <v>2.4271904349140798</v>
       </c>
       <c r="K61" s="25">
-        <v>0.30961312413592001</v>
+        <v>0.43241109002396</v>
       </c>
       <c r="L61" s="25">
-        <v>0.60750110523589995</v>
+        <v>0.65380567743216</v>
       </c>
       <c r="M61" s="25">
-        <v>1.1695596616691299</v>
+        <v>1.0779879814945099</v>
       </c>
       <c r="N61" s="24">
-        <v>2.0909877714551999</v>
+        <v>1.96328571987912</v>
       </c>
       <c r="O61" s="26">
-        <v>5.8331419584802502</v>
+        <v>7.1329891650826101</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4251,43 +4251,43 @@
         <v>131</v>
       </c>
       <c r="C62" s="34">
-        <v>4.9485137130230603</v>
+        <v>4.8255414999301696</v>
       </c>
       <c r="D62" s="35">
-        <v>0.44408642729949999</v>
+        <v>0.43478688333317</v>
       </c>
       <c r="E62" s="35">
-        <v>1.9423322961689999</v>
+        <v>1.90254630312311</v>
       </c>
       <c r="F62" s="35">
-        <v>2.56209499673299</v>
+        <v>2.4882082784785302</v>
       </c>
       <c r="G62" s="35">
-        <v>9.4181341556328899</v>
+        <v>9.2736481102469295</v>
       </c>
       <c r="H62" s="34">
-        <v>11.540435063853399</v>
+        <v>11.723455504816799</v>
       </c>
       <c r="I62" s="35">
-        <v>3.5421038292642302</v>
+        <v>3.5618619033230998</v>
       </c>
       <c r="J62" s="35">
-        <v>3.17613561769635</v>
+        <v>3.2483867589713</v>
       </c>
       <c r="K62" s="35">
-        <v>0.31753731641701</v>
+        <v>0.31458372138669</v>
       </c>
       <c r="L62" s="35">
-        <v>0.86037630057707004</v>
+        <v>0.84668119835389</v>
       </c>
       <c r="M62" s="35">
-        <v>2.3043352014893599</v>
+        <v>2.3342495635712299</v>
       </c>
       <c r="N62" s="34">
-        <v>1.0646553181028799</v>
+        <v>1.0074085184014701</v>
       </c>
       <c r="O62" s="36">
-        <v>7.35949913883492</v>
+        <v>7.5340076474553603</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4298,43 +4298,43 @@
         <v>132</v>
       </c>
       <c r="C63" s="38">
-        <v>8.5876316801112509</v>
+        <v>8.5436439598311704</v>
       </c>
       <c r="D63" s="39">
-        <v>1.449620986586E-2</v>
+        <v>1.6645104395759999E-2</v>
       </c>
       <c r="E63" s="39">
-        <v>5.0855154927263699</v>
+        <v>5.0872696938425701</v>
       </c>
       <c r="F63" s="39">
-        <v>3.4894606458299902</v>
+        <v>3.4432822577111901</v>
       </c>
       <c r="G63" s="39">
-        <v>16.855353207171099</v>
+        <v>17.437630488749502</v>
       </c>
       <c r="H63" s="38">
-        <v>11.193058109187101</v>
+        <v>10.862058710660801</v>
       </c>
       <c r="I63" s="39">
-        <v>3.6712329527256</v>
+        <v>3.6584858175703099</v>
       </c>
       <c r="J63" s="39">
-        <v>1.03030819843634</v>
+        <v>0.96126765142482995</v>
       </c>
       <c r="K63" s="39">
-        <v>0.13357160114968</v>
+        <v>0.14345933286807999</v>
       </c>
       <c r="L63" s="39">
-        <v>3.604462251269E-2</v>
+        <v>3.6263851122060001E-2</v>
       </c>
       <c r="M63" s="39">
-        <v>1.8937090053547001</v>
+        <v>1.90566778783272</v>
       </c>
       <c r="N63" s="38">
-        <v>0.30283984677567</v>
+        <v>0.31139262871139001</v>
       </c>
       <c r="O63" s="40">
-        <v>11.4678177876836</v>
+        <v>11.1624932762721</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
@@ -4345,43 +4345,43 @@
         <v>133</v>
       </c>
       <c r="C64" s="34">
-        <v>7.8791764714454997</v>
+        <v>7.7253714329412198</v>
       </c>
       <c r="D64" s="35">
-        <v>2.883711250936E-2</v>
+        <v>2.799040939706E-2</v>
       </c>
       <c r="E64" s="35">
-        <v>3.9770153949105702</v>
+        <v>3.92263312271113</v>
       </c>
       <c r="F64" s="35">
-        <v>3.88290952563995</v>
+        <v>3.7840522167938202</v>
       </c>
       <c r="G64" s="35">
-        <v>12.665393141941699</v>
+        <v>15.6766575898498</v>
       </c>
       <c r="H64" s="34">
-        <v>5.0215849651292102</v>
+        <v>1.8830236661358399</v>
       </c>
       <c r="I64" s="35">
-        <v>4.8683088868936499</v>
+        <v>4.6816214079150802</v>
       </c>
       <c r="J64" s="35">
-        <v>1.5102379342235701</v>
+        <v>1.4013766768326099</v>
       </c>
       <c r="K64" s="35">
-        <v>0.38666737670048001</v>
+        <v>0.28736735220748</v>
       </c>
       <c r="L64" s="35">
-        <v>2.327849538392E-2</v>
+        <v>2.333141565487E-2</v>
       </c>
       <c r="M64" s="35">
-        <v>1.20050393804894</v>
+        <v>1.1965987812258401</v>
       </c>
       <c r="N64" s="34">
-        <v>0.19004896467001001</v>
+        <v>0.18843964402991001</v>
       </c>
       <c r="O64" s="36">
-        <v>6.5791571429959399</v>
+        <v>3.46753120410022</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
@@ -4392,43 +4392,43 @@
         <v>134</v>
       </c>
       <c r="C65" s="43">
-        <v>4.7655365914386696</v>
+        <v>4.7279436484718502</v>
       </c>
       <c r="D65" s="44">
-        <v>2.6051897136249998E-2</v>
+        <v>2.8145338934730001E-2</v>
       </c>
       <c r="E65" s="44">
-        <v>2.3782663870540501</v>
+        <v>2.36449496647348</v>
       </c>
       <c r="F65" s="44">
-        <v>2.36122317468236</v>
+        <v>2.3353034194229498</v>
       </c>
       <c r="G65" s="44">
-        <v>18.271228886308901</v>
+        <v>19.093541667445599</v>
       </c>
       <c r="H65" s="43">
-        <v>18.163760176721802</v>
+        <v>17.7599622188838</v>
       </c>
       <c r="I65" s="44">
-        <v>2.3619302287782</v>
+        <v>2.37960328453297</v>
       </c>
       <c r="J65" s="44">
-        <v>0.85660896370602002</v>
+        <v>0.82353533565158998</v>
       </c>
       <c r="K65" s="44">
-        <v>0.15665963230320001</v>
+        <v>0.20737689902709999</v>
       </c>
       <c r="L65" s="44">
-        <v>8.8031100983649996E-2</v>
+        <v>8.861706007964E-2</v>
       </c>
       <c r="M65" s="44">
-        <v>2.9404838960011701</v>
+        <v>2.9909557695292901</v>
       </c>
       <c r="N65" s="43">
-        <v>0.64680642133230004</v>
+        <v>0.66841169890938001</v>
       </c>
       <c r="O65" s="45">
-        <v>15.837100391173699</v>
+        <v>15.360668740219801</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4439,43 +4439,43 @@
         <v>135</v>
       </c>
       <c r="C66" s="47">
-        <v>8.4044271844666998</v>
+        <v>8.3539675630388093</v>
       </c>
       <c r="D66" s="48">
-        <v>3.9091698989130001E-2</v>
+        <v>4.2645297756719998E-2</v>
       </c>
       <c r="E66" s="48">
-        <v>4.9272778929971102</v>
+        <v>4.9248545873883298</v>
       </c>
       <c r="F66" s="48">
-        <v>3.4427741801651202</v>
+        <v>3.39455982657738</v>
       </c>
       <c r="G66" s="48">
-        <v>16.471982280016601</v>
+        <v>17.0167966431911</v>
       </c>
       <c r="H66" s="47">
-        <v>11.2102775715875</v>
+        <v>10.9070905728251</v>
       </c>
       <c r="I66" s="48">
-        <v>3.66483202699819</v>
+        <v>3.6534345394396399</v>
       </c>
       <c r="J66" s="48">
-        <v>1.13667678180735</v>
+        <v>1.08083302838364</v>
       </c>
       <c r="K66" s="48">
-        <v>0.14269077464246999</v>
+        <v>0.15240532608398</v>
       </c>
       <c r="L66" s="48">
-        <v>7.6906712369760002E-2</v>
+        <v>7.86306239307E-2</v>
       </c>
       <c r="M66" s="48">
-        <v>1.91406373024349</v>
+        <v>1.9280730667728401</v>
       </c>
       <c r="N66" s="47">
-        <v>0.34060301064797999</v>
+        <v>0.34777875392259</v>
       </c>
       <c r="O66" s="49">
-        <v>11.2641685888746</v>
+        <v>10.972804313171</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
@@ -4486,43 +4486,43 @@
         <v>136</v>
       </c>
       <c r="C67" s="51">
-        <v>4.8534829308529197</v>
+        <v>4.5644189206342496</v>
       </c>
       <c r="D67" s="52">
-        <v>0.53263181925742997</v>
+        <v>0.53108093273490997</v>
       </c>
       <c r="E67" s="52">
-        <v>1.4975009006442499</v>
+        <v>1.3964962633748399</v>
       </c>
       <c r="F67" s="52">
-        <v>2.82335026928155</v>
+        <v>2.6368415805763199</v>
       </c>
       <c r="G67" s="52">
-        <v>7.2451044728779097</v>
+        <v>7.6004438053010004</v>
       </c>
       <c r="H67" s="51">
-        <v>10.5114387489712</v>
+        <v>10.568400977710001</v>
       </c>
       <c r="I67" s="52">
-        <v>3.5695038813691902</v>
+        <v>3.61886177032296</v>
       </c>
       <c r="J67" s="52">
-        <v>1.87847012391768</v>
+        <v>2.34473054909235</v>
       </c>
       <c r="K67" s="52">
-        <v>0.31231891883641999</v>
+        <v>0.23163410450472999</v>
       </c>
       <c r="L67" s="52">
-        <v>1.6554488043231399</v>
+        <v>1.4955571363029601</v>
       </c>
       <c r="M67" s="52">
-        <v>2.2842472177203801</v>
+        <v>2.3287523252334301</v>
       </c>
       <c r="N67" s="51">
-        <v>0.83739597491221995</v>
+        <v>0.81821697307514996</v>
       </c>
       <c r="O67" s="53">
-        <v>7.1130615906305001</v>
+        <v>6.9683716598243599</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
@@ -4533,43 +4533,43 @@
         <v>137</v>
       </c>
       <c r="C68" s="43">
-        <v>4.4076246419566001</v>
+        <v>4.21033448470354</v>
       </c>
       <c r="D68" s="44">
-        <v>0.29203542021793999</v>
+        <v>0.27395923014691997</v>
       </c>
       <c r="E68" s="44">
-        <v>1.2414893358050301</v>
+        <v>1.1749504778089499</v>
       </c>
       <c r="F68" s="44">
-        <v>2.87409993730091</v>
+        <v>2.76142470631159</v>
       </c>
       <c r="G68" s="44">
-        <v>7.6350769012886701</v>
+        <v>7.8225427979812796</v>
       </c>
       <c r="H68" s="43">
-        <v>11.455060069638099</v>
+        <v>11.78788626966</v>
       </c>
       <c r="I68" s="44">
-        <v>2.8568714692196702</v>
+        <v>3.0192420178699302</v>
       </c>
       <c r="J68" s="44">
-        <v>2.6959809245107098</v>
+        <v>2.73799785412925</v>
       </c>
       <c r="K68" s="44">
-        <v>0.26909712210219999</v>
+        <v>0.30200375995822998</v>
       </c>
       <c r="L68" s="44">
-        <v>0.34957249291935999</v>
+        <v>0.35828757842371001</v>
       </c>
       <c r="M68" s="44">
-        <v>2.1546704146288702</v>
+        <v>2.1468445185311</v>
       </c>
       <c r="N68" s="43">
-        <v>1.3633393014702899</v>
+        <v>1.2494194552237099</v>
       </c>
       <c r="O68" s="45">
-        <v>7.4792712832263799</v>
+        <v>8.0125751212639305</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
@@ -4580,43 +4580,43 @@
         <v>138</v>
       </c>
       <c r="C69" s="43">
-        <v>4.2431991373536704</v>
+        <v>4.1576103530106501</v>
       </c>
       <c r="D69" s="44">
-        <v>1.2361889597798601</v>
+        <v>1.2712950266890299</v>
       </c>
       <c r="E69" s="44">
-        <v>1.6206398324644899</v>
+        <v>1.46353540071008</v>
       </c>
       <c r="F69" s="44">
-        <v>1.38637040146748</v>
+        <v>1.4227798975919399</v>
       </c>
       <c r="G69" s="44">
-        <v>12.2105944264868</v>
+        <v>9.5767857907821803</v>
       </c>
       <c r="H69" s="43">
-        <v>9.4712135197793792</v>
+        <v>10.0290678466292</v>
       </c>
       <c r="I69" s="44">
-        <v>3.7659275588567001</v>
+        <v>3.44557360120162</v>
       </c>
       <c r="J69" s="44">
-        <v>6.4873938981659995E-2</v>
+        <v>0.11504156492037</v>
       </c>
       <c r="K69" s="44">
-        <v>0.24483068162887001</v>
+        <v>0.3537808642484</v>
       </c>
       <c r="L69" s="44">
-        <v>2.098235033595</v>
+        <v>3.1394327356625999</v>
       </c>
       <c r="M69" s="44">
-        <v>0.77090907512293005</v>
+        <v>0.72150840205234001</v>
       </c>
       <c r="N69" s="43">
-        <v>1.1009651330018999</v>
+        <v>1.1442255820288201</v>
       </c>
       <c r="O69" s="45">
-        <v>8.9573272163057105</v>
+        <v>8.0006522989183093</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
@@ -4627,43 +4627,43 @@
         <v>139</v>
       </c>
       <c r="C70" s="43">
-        <v>3.4394240928025801</v>
+        <v>3.37717031795462</v>
       </c>
       <c r="D70" s="44">
-        <v>0.58401642800183995</v>
+        <v>0.56572744852366996</v>
       </c>
       <c r="E70" s="44">
-        <v>0.93707138801900003</v>
+        <v>0.96624119508629003</v>
       </c>
       <c r="F70" s="44">
-        <v>1.9183363111559799</v>
+        <v>1.8452016064290999</v>
       </c>
       <c r="G70" s="44">
-        <v>10.3869389383356</v>
+        <v>9.5778742901385403</v>
       </c>
       <c r="H70" s="43">
-        <v>12.038646661003099</v>
+        <v>12.796825348200899</v>
       </c>
       <c r="I70" s="44">
-        <v>2.9101261737970199</v>
+        <v>2.48720782619209</v>
       </c>
       <c r="J70" s="44">
-        <v>10.8083571070879</v>
+        <v>9.8104273678040599</v>
       </c>
       <c r="K70" s="44">
-        <v>0.22133813789382001</v>
+        <v>0.19937310472854999</v>
       </c>
       <c r="L70" s="44">
-        <v>2.9861708650183099</v>
+        <v>2.9895887140131201</v>
       </c>
       <c r="M70" s="44">
-        <v>0.89407018816397998</v>
+        <v>0.96460880491884005</v>
       </c>
       <c r="N70" s="43">
-        <v>0.96833073395531999</v>
+        <v>0.94922342997128994</v>
       </c>
       <c r="O70" s="45">
-        <v>-0.92949419731920002</v>
+        <v>0.37081175295711999</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
@@ -4674,43 +4674,43 @@
         <v>140</v>
       </c>
       <c r="C71" s="43">
-        <v>3.5412359647253999</v>
+        <v>3.46805941258657</v>
       </c>
       <c r="D71" s="44">
-        <v>0.51715274010593004</v>
+        <v>0.48006720675103998</v>
       </c>
       <c r="E71" s="44">
-        <v>0.79153340186928001</v>
+        <v>0.77602371286560001</v>
       </c>
       <c r="F71" s="44">
-        <v>2.23254986381732</v>
+        <v>2.2119685257351001</v>
       </c>
       <c r="G71" s="44">
-        <v>9.5074107155355296</v>
+        <v>8.8190014889552408</v>
       </c>
       <c r="H71" s="43">
-        <v>11.341415871093799</v>
+        <v>11.9331545554209</v>
       </c>
       <c r="I71" s="44">
-        <v>1.6434434122770201</v>
+        <v>1.7545155134055199</v>
       </c>
       <c r="J71" s="44">
-        <v>2.9740556623944099</v>
+        <v>2.4271904349140798</v>
       </c>
       <c r="K71" s="44">
-        <v>0.30961312413592001</v>
+        <v>0.43241109002396</v>
       </c>
       <c r="L71" s="44">
-        <v>0.60750110523589995</v>
+        <v>0.65380567743216</v>
       </c>
       <c r="M71" s="44">
-        <v>1.1695596616691299</v>
+        <v>1.0779879814945099</v>
       </c>
       <c r="N71" s="43">
-        <v>2.0909877714551999</v>
+        <v>1.96328571987912</v>
       </c>
       <c r="O71" s="45">
-        <v>5.8331419584802502</v>
+        <v>7.1329891650826101</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
@@ -4721,43 +4721,43 @@
         <v>141</v>
       </c>
       <c r="C72" s="43">
-        <v>4.2783425975407203</v>
+        <v>3.98816666910405</v>
       </c>
       <c r="D72" s="44">
-        <v>0.92326132946517003</v>
+        <v>0.93117000368892999</v>
       </c>
       <c r="E72" s="44">
-        <v>1.2279181467803499</v>
+        <v>1.1570896716066901</v>
       </c>
       <c r="F72" s="44">
-        <v>2.1271630878397798</v>
+        <v>1.8999069343250701</v>
       </c>
       <c r="G72" s="44">
-        <v>9.8559212530069509</v>
+        <v>9.0250961925746704</v>
       </c>
       <c r="H72" s="43">
-        <v>13.4662559172898</v>
+        <v>15.054149155050499</v>
       </c>
       <c r="I72" s="44">
-        <v>3.10968294889802</v>
+        <v>3.1829773425238401</v>
       </c>
       <c r="J72" s="44">
-        <v>0.10578613980491</v>
+        <v>9.060265992673E-2</v>
       </c>
       <c r="K72" s="44">
         <v>0.48971156195257998</v>
       </c>
       <c r="L72" s="44">
-        <v>3.1122574575355699</v>
+        <v>3.1158625603486301</v>
       </c>
       <c r="M72" s="44">
-        <v>1.18672586437984</v>
+        <v>1.2113883506854399</v>
       </c>
       <c r="N72" s="43">
-        <v>1.0794320835922599</v>
+        <v>1.1879557906507701</v>
       </c>
       <c r="O72" s="45">
-        <v>10.602025758922601</v>
+        <v>12.1416055740102</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
@@ -4768,43 +4768,43 @@
         <v>142</v>
       </c>
       <c r="C73" s="43">
-        <v>6.3615640549576504</v>
+        <v>6.2724535004034303</v>
       </c>
       <c r="D73" s="44">
-        <v>0.65053296401163996</v>
+        <v>0.65162354583843995</v>
       </c>
       <c r="E73" s="44">
-        <v>3.2864138090581099</v>
+        <v>3.2372972176161099</v>
       </c>
       <c r="F73" s="44">
-        <v>2.42461723478984</v>
+        <v>2.3835327941250402</v>
       </c>
       <c r="G73" s="44">
-        <v>12.487795865752901</v>
+        <v>11.937225943169</v>
       </c>
       <c r="H73" s="43">
-        <v>6.8118755377124298</v>
+        <v>6.9804047563534004</v>
       </c>
       <c r="I73" s="44">
-        <v>4.7905540328591796</v>
+        <v>4.6752188263810499</v>
       </c>
       <c r="J73" s="44">
-        <v>3.36678612746995</v>
+        <v>3.14486040265394</v>
       </c>
       <c r="K73" s="44">
-        <v>0.66026788727892005</v>
+        <v>0.58632239620309001</v>
       </c>
       <c r="L73" s="44">
-        <v>0.82337210598166999</v>
+        <v>0.82414756187088001</v>
       </c>
       <c r="M73" s="44">
-        <v>2.89236156832215</v>
+        <v>2.9182785924234702</v>
       </c>
       <c r="N73" s="43">
-        <v>0.69293760309247998</v>
+        <v>0.63811743429696</v>
       </c>
       <c r="O73" s="45">
-        <v>3.1667042784264399</v>
+        <v>3.5438971952861</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
@@ -4815,43 +4815,43 @@
         <v>143</v>
       </c>
       <c r="C74" s="43">
-        <v>5.7671991351617597</v>
+        <v>5.6520871994827102</v>
       </c>
       <c r="D74" s="44">
-        <v>2.5553771606069999E-2</v>
+        <v>2.6414970031669999E-2</v>
       </c>
       <c r="E74" s="44">
-        <v>3.2592839048470101</v>
+        <v>3.1590590460704502</v>
       </c>
       <c r="F74" s="44">
-        <v>2.4823614217816301</v>
+        <v>2.4666130621243498</v>
       </c>
       <c r="G74" s="44">
-        <v>7.7403189828753103</v>
+        <v>9.1431004136543503</v>
       </c>
       <c r="H74" s="43">
-        <v>24.888853283433001</v>
+        <v>20.192272112421101</v>
       </c>
       <c r="I74" s="44">
-        <v>4.47000439890419</v>
+        <v>4.4107643731116504</v>
       </c>
       <c r="J74" s="44">
-        <v>5.93557594008566</v>
+        <v>5.9883274539556597</v>
       </c>
       <c r="K74" s="44">
-        <v>4.6844120438089998E-2</v>
+        <v>3.481053586216E-2</v>
       </c>
       <c r="L74" s="44">
-        <v>1.8603339488500001E-2</v>
+        <v>5.4669460279430003E-2</v>
       </c>
       <c r="M74" s="44">
-        <v>3.06051662994295</v>
+        <v>3.2850943321489199</v>
       </c>
       <c r="N74" s="43">
-        <v>0.42760674736009002</v>
+        <v>0.41749644938482999</v>
       </c>
       <c r="O74" s="45">
-        <v>19.869710905021901</v>
+        <v>14.822638253901699</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4862,43 +4862,43 @@
         <v>144</v>
       </c>
       <c r="C75" s="47">
-        <v>3.6093740810739701</v>
+        <v>3.5708726715513799</v>
       </c>
       <c r="D75" s="48">
-        <v>0.83958296854421999</v>
+        <v>0.83899869264587001</v>
       </c>
       <c r="E75" s="48">
-        <v>1.23193700692521</v>
+        <v>1.2313183753738901</v>
       </c>
       <c r="F75" s="48">
-        <v>1.5378542187128501</v>
+        <v>1.50055564138373</v>
       </c>
       <c r="G75" s="48">
-        <v>11.1113367986464</v>
+        <v>8.1334824960359207</v>
       </c>
       <c r="H75" s="47">
-        <v>14.472760881453301</v>
+        <v>16.984006718900201</v>
       </c>
       <c r="I75" s="48">
-        <v>3.7133761786289599</v>
+        <v>3.0628862302781101</v>
       </c>
       <c r="J75" s="48">
-        <v>16.9683848367332</v>
+        <v>14.386591530873799</v>
       </c>
       <c r="K75" s="48">
         <v>3.1800329598900001E-3</v>
       </c>
       <c r="L75" s="48">
-        <v>0.54505962251636997</v>
+        <v>0.54570457302208997</v>
       </c>
       <c r="M75" s="48">
-        <v>1.37324517520269</v>
+        <v>1.3265326950162499</v>
       </c>
       <c r="N75" s="47">
-        <v>0.76171867683983996</v>
+        <v>0.63547433296800004</v>
       </c>
       <c r="O75" s="49">
-        <v>-1.4654512841697001</v>
+        <v>3.1494097843382902</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
@@ -4909,43 +4909,43 @@
         <v>145</v>
       </c>
       <c r="C76" s="51">
-        <v>3.7447136437652899</v>
+        <v>3.7369985474251002</v>
       </c>
       <c r="D76" s="52">
-        <v>3.4281211632770002E-2</v>
+        <v>3.4344354883840002E-2</v>
       </c>
       <c r="E76" s="52">
-        <v>1.85356194331039</v>
+        <v>1.8383423884774199</v>
       </c>
       <c r="F76" s="52">
-        <v>1.8568705163197099</v>
+        <v>1.8643117107625899</v>
       </c>
       <c r="G76" s="52">
-        <v>15.081682487572399</v>
+        <v>16.852028066284898</v>
       </c>
       <c r="H76" s="51">
-        <v>14.4307656409615</v>
+        <v>14.251228524908401</v>
       </c>
       <c r="I76" s="52">
-        <v>3.0952685462191001</v>
+        <v>3.2314179137483001</v>
       </c>
       <c r="J76" s="52">
-        <v>1.4564800419286399</v>
+        <v>1.3630681462807701</v>
       </c>
       <c r="K76" s="52">
-        <v>0.17152989875638999</v>
+        <v>0.17196811116922001</v>
       </c>
       <c r="L76" s="52">
-        <v>0.25168086352072</v>
+        <v>0.25390897053275002</v>
       </c>
       <c r="M76" s="52">
-        <v>2.1808139104299999</v>
+        <v>2.3041292625323502</v>
       </c>
       <c r="N76" s="51">
-        <v>0.41874591463975003</v>
+        <v>0.42284198591137001</v>
       </c>
       <c r="O76" s="53">
-        <v>13.046783557905099</v>
+        <v>12.9667299622303</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
@@ -4956,43 +4956,43 @@
         <v>146</v>
       </c>
       <c r="C77" s="43">
-        <v>9.0476361918383308</v>
+        <v>8.9445975304901495</v>
       </c>
       <c r="D77" s="44">
-        <v>1.4795182449769999E-2</v>
+        <v>1.49939082883E-2</v>
       </c>
       <c r="E77" s="44">
-        <v>4.5685741787001799</v>
+        <v>4.5684229672586403</v>
       </c>
       <c r="F77" s="44">
-        <v>4.4659711780204603</v>
+        <v>4.3629685850750102</v>
       </c>
       <c r="G77" s="44">
-        <v>11.312705110915401</v>
+        <v>15.999262572832301</v>
       </c>
       <c r="H77" s="43">
-        <v>3.5202252755001</v>
+        <v>-1.3502098867478001</v>
       </c>
       <c r="I77" s="44">
-        <v>5.2364583495723398</v>
+        <v>5.0441584364979297</v>
       </c>
       <c r="J77" s="44">
-        <v>1.66911392395791</v>
+        <v>1.55410665774998</v>
       </c>
       <c r="K77" s="44">
-        <v>0.49509892114353998</v>
+        <v>0.34875081024650001</v>
       </c>
       <c r="L77" s="44">
-        <v>2.6963960527000001E-2</v>
+        <v>2.7025920038969999E-2</v>
       </c>
       <c r="M77" s="44">
-        <v>1.1158887063706999</v>
+        <v>1.10888992967816</v>
       </c>
       <c r="N77" s="43">
-        <v>0.16842132347800001</v>
+        <v>0.1660972304553</v>
       </c>
       <c r="O77" s="45">
-        <v>5.2811967895952998</v>
+        <v>0.48907800158122999</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
@@ -5003,43 +5003,43 @@
         <v>147</v>
       </c>
       <c r="C78" s="43">
-        <v>9.5617882527412892</v>
+        <v>9.5956994223389707</v>
       </c>
       <c r="D78" s="44">
-        <v>2.1770315482900001E-3</v>
+        <v>4.2364507494499996E-3</v>
       </c>
       <c r="E78" s="44">
-        <v>7.1274456558689501</v>
+        <v>7.1418713032093297</v>
       </c>
       <c r="F78" s="44">
-        <v>2.4330840871153501</v>
+        <v>2.4525896531985798</v>
       </c>
       <c r="G78" s="44">
-        <v>17.162679900644399</v>
+        <v>17.305505413133801</v>
       </c>
       <c r="H78" s="43">
-        <v>7.9732884382802096</v>
+        <v>7.7587569794877203</v>
       </c>
       <c r="I78" s="44">
-        <v>4.5281232083366802</v>
+        <v>4.5220360292746502</v>
       </c>
       <c r="J78" s="44">
-        <v>6.1690017368919998E-2</v>
+        <v>5.9663807161989997E-2</v>
       </c>
       <c r="K78" s="44">
-        <v>1.9833985080749999E-2</v>
+        <v>1.9333794946240001E-2</v>
       </c>
       <c r="L78" s="44">
-        <v>7.7464427543000001E-3</v>
+        <v>7.7499881463599998E-3</v>
       </c>
       <c r="M78" s="44">
-        <v>0.81708163933655997</v>
+        <v>0.77867075570247002</v>
       </c>
       <c r="N78" s="43">
-        <v>6.5317328412729997E-2</v>
+        <v>6.5139116671000002E-2</v>
       </c>
       <c r="O78" s="45">
-        <v>11.529742233663599</v>
+        <v>11.3502355461343</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5050,43 +5050,43 @@
         <v>148</v>
       </c>
       <c r="C79" s="47">
-        <v>11.867862418611899</v>
+        <v>11.752642179847401</v>
       </c>
       <c r="D79" s="48">
-        <v>1.7989653990500001E-3</v>
+        <v>2.0030966148700002E-3</v>
       </c>
       <c r="E79" s="48">
-        <v>7.4190568526419796</v>
+        <v>7.4081185190660497</v>
       </c>
       <c r="F79" s="48">
-        <v>4.4474157042050697</v>
+        <v>4.3454615063911204</v>
       </c>
       <c r="G79" s="48">
-        <v>17.298781036335601</v>
+        <v>17.313396830577101</v>
       </c>
       <c r="H79" s="47">
-        <v>6.0879618912017897</v>
+        <v>6.2687111574793297</v>
       </c>
       <c r="I79" s="48">
-        <v>4.3822347038985798</v>
+        <v>4.3465563836727696</v>
       </c>
       <c r="J79" s="48">
-        <v>0.32836144828315</v>
+        <v>0.30247578389742003</v>
       </c>
       <c r="K79" s="48">
-        <v>7.3132092606370006E-2</v>
+        <v>6.1381406625709997E-2</v>
       </c>
       <c r="L79" s="48">
-        <v>2.3009370790299999E-3</v>
+        <v>2.3016419435200001E-3</v>
       </c>
       <c r="M79" s="48">
-        <v>0.98793041641710999</v>
+        <v>0.96234957346432004</v>
       </c>
       <c r="N79" s="47">
-        <v>7.8479348156230005E-2</v>
+        <v>8.0057560001090003E-2</v>
       </c>
       <c r="O79" s="49">
-        <v>8.9999923525584897</v>
+        <v>9.2067015752200305</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
@@ -5097,43 +5097,43 @@
         <v>149</v>
       </c>
       <c r="C80" s="51">
-        <v>3.9528110843257198</v>
+        <v>4.8560060829492704</v>
       </c>
       <c r="D80" s="52">
-        <v>0.25962984412253998</v>
+        <v>9.1732306532150004E-2</v>
       </c>
       <c r="E80" s="52">
-        <v>1.5467966114326299</v>
+        <v>2.8257109378465799</v>
       </c>
       <c r="F80" s="52">
-        <v>2.1463846001292501</v>
+        <v>1.93856282031809</v>
       </c>
       <c r="G80" s="52">
-        <v>9.9816971119041504</v>
+        <v>9.1051105816999893</v>
       </c>
       <c r="H80" s="51">
-        <v>17.8480496748344</v>
+        <v>23.814989007417001</v>
       </c>
       <c r="I80" s="52">
-        <v>2.1619738174571999</v>
+        <v>3.50816080422035</v>
       </c>
       <c r="J80" s="52">
-        <v>7.3583427594885604</v>
+        <v>11.832721042585501</v>
       </c>
       <c r="K80" s="52">
-        <v>7.3888237046999998E-3</v>
+        <v>9.7350372615399999E-3</v>
       </c>
       <c r="L80" s="52">
-        <v>6.6594079297200001E-2</v>
+        <v>0.20930128828979</v>
       </c>
       <c r="M80" s="52">
-        <v>1.9224167096648801</v>
+        <v>3.16186882179157</v>
       </c>
       <c r="N80" s="51">
-        <v>1.6213199490263399</v>
+        <v>0.4389517379167</v>
       </c>
       <c r="O80" s="53">
-        <v>9.0339611711099508</v>
+        <v>11.6705718837923</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
@@ -5144,43 +5144,43 @@
         <v>150</v>
       </c>
       <c r="C81" s="43">
-        <v>6.7216832076051496</v>
+        <v>6.63289947914088</v>
       </c>
       <c r="D81" s="44">
-        <v>6.4818293547E-3</v>
+        <v>7.9714067960800009E-3</v>
       </c>
       <c r="E81" s="44">
-        <v>3.8431784835392699</v>
+        <v>3.69387939958128</v>
       </c>
       <c r="F81" s="44">
-        <v>2.8723305755109401</v>
+        <v>2.9315013578036</v>
       </c>
       <c r="G81" s="44">
-        <v>12.3734702751218</v>
+        <v>12.792041694477801</v>
       </c>
       <c r="H81" s="43">
-        <v>17.3610553299042</v>
+        <v>17.469263075660599</v>
       </c>
       <c r="I81" s="44">
-        <v>4.7711912776965102</v>
+        <v>4.7294031381341401</v>
       </c>
       <c r="J81" s="44">
-        <v>7.9609676654415997</v>
+        <v>7.3789349655340901</v>
       </c>
       <c r="K81" s="44">
-        <v>0.39949158701117998</v>
+        <v>0.39772739169561999</v>
       </c>
       <c r="L81" s="44">
-        <v>7.5525556357000005E-4</v>
+        <v>7.5955734252E-4</v>
       </c>
       <c r="M81" s="44">
-        <v>3.5713818757339202</v>
+        <v>3.6767734014217801</v>
       </c>
       <c r="N81" s="43">
-        <v>0.21717891300385</v>
+        <v>0.21415036000413001</v>
       </c>
       <c r="O81" s="45">
-        <v>9.9824713108466305</v>
+        <v>10.5303205377966</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
@@ -5191,43 +5191,43 @@
         <v>151</v>
       </c>
       <c r="C82" s="43">
-        <v>5.3543137734116497</v>
+        <v>4.8209758278359001</v>
       </c>
       <c r="D82" s="44">
-        <v>0.51926197714234001</v>
+        <v>0.48619985383491998</v>
       </c>
       <c r="E82" s="44">
-        <v>2.1035334420993399</v>
+        <v>1.7641932848486099</v>
       </c>
       <c r="F82" s="44">
-        <v>2.7315183759467798</v>
+        <v>2.5705826516477801</v>
       </c>
       <c r="G82" s="44">
-        <v>9.1705024974490801</v>
+        <v>9.3031297915900701</v>
       </c>
       <c r="H82" s="43">
-        <v>8.9434075269354807</v>
+        <v>9.7434710295057307</v>
       </c>
       <c r="I82" s="44">
-        <v>4.1103433090431301</v>
+        <v>3.5706554399334598</v>
       </c>
       <c r="J82" s="44">
-        <v>1.45419986508706</v>
+        <v>1.84270495618077</v>
       </c>
       <c r="K82" s="44">
-        <v>0.44523442947544001</v>
+        <v>0.36450258914296002</v>
       </c>
       <c r="L82" s="44">
-        <v>1.18719942058679</v>
+        <v>0.95105194062001996</v>
       </c>
       <c r="M82" s="44">
-        <v>2.4615821008797498</v>
+        <v>2.1987271931132302</v>
       </c>
       <c r="N82" s="43">
-        <v>0.83546037445180998</v>
+        <v>1.1004931217731699</v>
       </c>
       <c r="O82" s="45">
-        <v>6.67007464549775</v>
+        <v>6.8566466686090397</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5238,43 +5238,43 @@
         <v>152</v>
       </c>
       <c r="C83" s="47">
-        <v>8.7597565659921592</v>
+        <v>8.6909866994358804</v>
       </c>
       <c r="D83" s="48">
-        <v>1.530974851568E-2</v>
+        <v>1.7433106338810001E-2</v>
       </c>
       <c r="E83" s="48">
-        <v>5.2001151824191796</v>
+        <v>5.1946793060673704</v>
       </c>
       <c r="F83" s="48">
-        <v>3.5463879642916298</v>
+        <v>3.48274708444852</v>
       </c>
       <c r="G83" s="48">
-        <v>17.259865114324999</v>
+        <v>17.856917652540901</v>
       </c>
       <c r="H83" s="47">
-        <v>10.7407106603294</v>
+        <v>10.3775060432801</v>
       </c>
       <c r="I83" s="48">
-        <v>3.59056441083988</v>
+        <v>3.5799479344419698</v>
       </c>
       <c r="J83" s="48">
-        <v>0.52202876564550005</v>
+        <v>0.49061506621243001</v>
       </c>
       <c r="K83" s="48">
-        <v>0.1140696100008</v>
+        <v>0.12481207158655</v>
       </c>
       <c r="L83" s="48">
-        <v>3.8632667633340001E-2</v>
+        <v>3.8867630164439997E-2</v>
       </c>
       <c r="M83" s="48">
-        <v>1.7706721401004599</v>
+        <v>1.7757801830503399</v>
       </c>
       <c r="N83" s="47">
-        <v>0.30912203262496002</v>
+        <v>0.31852408675041</v>
       </c>
       <c r="O83" s="49">
-        <v>11.5767498551642</v>
+        <v>11.2088549399579</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
@@ -5285,43 +5285,43 @@
         <v>153</v>
       </c>
       <c r="C84" s="51">
-        <v>4.7015648180181397</v>
+        <v>4.4432316608839999</v>
       </c>
       <c r="D84" s="52">
-        <v>1.28371335004863</v>
+        <v>1.3251890505850099</v>
       </c>
       <c r="E84" s="52">
-        <v>1.1246663529524801</v>
+        <v>1.11023172288139</v>
       </c>
       <c r="F84" s="52">
-        <v>2.2931850912424698</v>
+        <v>2.0078108090071098</v>
       </c>
       <c r="G84" s="52">
-        <v>8.1284821182273497</v>
+        <v>8.6636086250139304</v>
       </c>
       <c r="H84" s="51">
-        <v>14.833942094336599</v>
+        <v>15.3696915790558</v>
       </c>
       <c r="I84" s="52">
-        <v>2.5212862356139101</v>
+        <v>2.7690514340474102</v>
       </c>
       <c r="J84" s="52">
-        <v>0.19218544167813001</v>
+        <v>0.14973173278192001</v>
       </c>
       <c r="K84" s="52">
-        <v>0.69450835943690004</v>
+        <v>0.90171338954964997</v>
       </c>
       <c r="L84" s="52">
-        <v>4.0560490204988104</v>
+        <v>3.7232412210231001</v>
       </c>
       <c r="M84" s="52">
-        <v>1.1626695586660201</v>
+        <v>1.19284052051298</v>
       </c>
       <c r="N84" s="51">
-        <v>1.28251268219576</v>
+        <v>1.4111820750049799</v>
       </c>
       <c r="O84" s="53">
-        <v>9.9673032674748203</v>
+        <v>10.7600340742306</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
@@ -5332,19 +5332,19 @@
         <v>154</v>
       </c>
       <c r="C85" s="43">
-        <v>13.1674786373147</v>
+        <v>14.8538967632308</v>
       </c>
       <c r="D85" s="44">
-        <v>1.63429986837533</v>
+        <v>2.9455629199103499</v>
       </c>
       <c r="E85" s="44">
-        <v>1.0783117666815401</v>
+        <v>0.49781271272122002</v>
       </c>
       <c r="F85" s="44">
-        <v>10.454868368908899</v>
+        <v>11.4105211305992</v>
       </c>
       <c r="G85" s="44">
-        <v>7.3306258145779601</v>
+        <v>7.42747323734757</v>
       </c>
       <c r="H85" s="43" t="s">
         <v>26</v>
@@ -5379,43 +5379,43 @@
         <v>155</v>
       </c>
       <c r="C86" s="43">
-        <v>4.4011863714523498</v>
+        <v>4.2833545404728399</v>
       </c>
       <c r="D86" s="44">
-        <v>0.32423722114520998</v>
+        <v>0.28521661984100999</v>
       </c>
       <c r="E86" s="44">
-        <v>1.57272316317064</v>
+        <v>1.5351369104611601</v>
       </c>
       <c r="F86" s="44">
-        <v>2.5042260297120702</v>
+        <v>2.46300095370382</v>
       </c>
       <c r="G86" s="44">
-        <v>8.80029623980856</v>
+        <v>8.3074782974982497</v>
       </c>
       <c r="H86" s="43">
-        <v>13.2674049699141</v>
+        <v>13.3633636097109</v>
       </c>
       <c r="I86" s="44">
-        <v>3.2616958846847401</v>
+        <v>3.3162370029438</v>
       </c>
       <c r="J86" s="44">
-        <v>4.2993793987368703</v>
+        <v>4.2302777994270402</v>
       </c>
       <c r="K86" s="44">
-        <v>0.17507464089086</v>
+        <v>0.12590709359763999</v>
       </c>
       <c r="L86" s="44">
-        <v>0.36574108430668001</v>
+        <v>0.38084637865588</v>
       </c>
       <c r="M86" s="44">
-        <v>2.14135779808365</v>
+        <v>2.1583780837689202</v>
       </c>
       <c r="N86" s="43">
-        <v>1.14655603210986</v>
+        <v>1.06199201491793</v>
       </c>
       <c r="O86" s="45">
-        <v>8.4009919004709204</v>
+        <v>8.7221992422872905</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
@@ -5426,43 +5426,43 @@
         <v>156</v>
       </c>
       <c r="C87" s="43">
-        <v>4.2740471725297997</v>
+        <v>4.1634221954894803</v>
       </c>
       <c r="D87" s="44">
-        <v>5.7134609234600002E-2</v>
+        <v>5.6325375929620003E-2</v>
       </c>
       <c r="E87" s="44">
-        <v>1.73400371762058</v>
+        <v>1.6917643627329999</v>
       </c>
       <c r="F87" s="44">
-        <v>2.4829087577723801</v>
+        <v>2.4153324937938798</v>
       </c>
       <c r="G87" s="44">
-        <v>11.2852443354796</v>
+        <v>12.1465077004137</v>
       </c>
       <c r="H87" s="43">
-        <v>17.214074825716501</v>
+        <v>17.150858194345702</v>
       </c>
       <c r="I87" s="44">
-        <v>2.9820792240442899</v>
+        <v>3.0021185554364802</v>
       </c>
       <c r="J87" s="44">
-        <v>0.75914837479945996</v>
+        <v>0.72566581888421</v>
       </c>
       <c r="K87" s="44">
-        <v>0.27993471643605</v>
+        <v>0.28148316094548997</v>
       </c>
       <c r="L87" s="44">
-        <v>0.11931899374799</v>
+        <v>0.11986723342887</v>
       </c>
       <c r="M87" s="44">
-        <v>3.0310486682845399</v>
+        <v>3.0335461741971801</v>
       </c>
       <c r="N87" s="43">
-        <v>0.91152707959283996</v>
+        <v>0.94114585416179997</v>
       </c>
       <c r="O87" s="45">
-        <v>15.095176216899899</v>
+        <v>15.0512685081647</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
@@ -5473,43 +5473,43 @@
         <v>157</v>
       </c>
       <c r="C88" s="43">
-        <v>7.7727968603832496</v>
+        <v>7.7611980368921802</v>
       </c>
       <c r="D88" s="44">
-        <v>0.10550065112326</v>
+        <v>0.11320879306623</v>
       </c>
       <c r="E88" s="44">
-        <v>4.5426652451306699</v>
+        <v>4.4935941635376402</v>
       </c>
       <c r="F88" s="44">
-        <v>3.1246308391995399</v>
+        <v>3.1543951930188099</v>
       </c>
       <c r="G88" s="44">
-        <v>13.116779224856501</v>
+        <v>13.732897410001</v>
       </c>
       <c r="H88" s="43">
-        <v>7.2383497382949996E-2</v>
+        <v>1.41238650265909</v>
       </c>
       <c r="I88" s="44">
-        <v>5.8875687208789902</v>
+        <v>5.3422339945533501</v>
       </c>
       <c r="J88" s="44">
-        <v>0.81527835314328001</v>
+        <v>2.1274924487379101</v>
       </c>
       <c r="K88" s="44">
-        <v>0.61844801226107005</v>
+        <v>0.53790767211706003</v>
       </c>
       <c r="L88" s="44">
-        <v>2.8629622182570001E-2</v>
+        <v>3.2964440902910001E-2</v>
       </c>
       <c r="M88" s="44">
-        <v>4.2129134343929602</v>
+        <v>4.1578940464843601</v>
       </c>
       <c r="N88" s="43">
-        <v>0.45946067484108999</v>
+        <v>0.39404349068258998</v>
       </c>
       <c r="O88" s="45">
-        <v>-0.17477787855900001</v>
+        <v>-0.4956816017124</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
@@ -5520,43 +5520,43 @@
         <v>158</v>
       </c>
       <c r="C89" s="43">
-        <v>5.7135034966869398</v>
+        <v>5.7288846796698696</v>
       </c>
       <c r="D89" s="44">
-        <v>5.2269031720800002E-3</v>
+        <v>5.3927152544299998E-3</v>
       </c>
       <c r="E89" s="44">
-        <v>3.2132500461632398</v>
+        <v>3.2086969943686898</v>
       </c>
       <c r="F89" s="44">
-        <v>2.4955941807120001</v>
+        <v>2.5152953275477401</v>
       </c>
       <c r="G89" s="44">
-        <v>19.2724689665204</v>
+        <v>20.595519710890901</v>
       </c>
       <c r="H89" s="43">
-        <v>14.3753957905222</v>
+        <v>13.3295910519538</v>
       </c>
       <c r="I89" s="44">
-        <v>2.9420611441587701</v>
+        <v>2.9381948341053401</v>
       </c>
       <c r="J89" s="44">
-        <v>1.72685097231819</v>
+        <v>1.60592913575652</v>
       </c>
       <c r="K89" s="44">
-        <v>0.16141665596365001</v>
+        <v>0.20593714951983999</v>
       </c>
       <c r="L89" s="44">
-        <v>4.3322638100040001E-2</v>
+        <v>4.4262636923919997E-2</v>
       </c>
       <c r="M89" s="44">
-        <v>2.6032553352229701</v>
+        <v>2.6882220388316802</v>
       </c>
       <c r="N89" s="43">
-        <v>0.33721124161819999</v>
+        <v>0.35112201327700998</v>
       </c>
       <c r="O89" s="45">
-        <v>12.4454000914579</v>
+        <v>11.3723129117501</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5567,43 +5567,43 @@
         <v>159</v>
       </c>
       <c r="C90" s="47">
-        <v>12.048233512406201</v>
+        <v>12.03982303607</v>
       </c>
       <c r="D90" s="48">
-        <v>1.8387559808199999E-3</v>
+        <v>1.9972417474300001E-3</v>
       </c>
       <c r="E90" s="48">
-        <v>7.5361916263475299</v>
+        <v>7.5963392037714303</v>
       </c>
       <c r="F90" s="48">
-        <v>4.5105329946079404</v>
+        <v>4.4443918704898397</v>
       </c>
       <c r="G90" s="48">
-        <v>16.9839358608262</v>
+        <v>17.001292266122299</v>
       </c>
       <c r="H90" s="47">
-        <v>6.7664160672756397</v>
+        <v>6.9683401664120401</v>
       </c>
       <c r="I90" s="48">
-        <v>4.4565877359968997</v>
+        <v>4.4070230575940004</v>
       </c>
       <c r="J90" s="48">
-        <v>0.58827460071733995</v>
+        <v>0.56214600691920003</v>
       </c>
       <c r="K90" s="48">
-        <v>6.3778380119419997E-2</v>
+        <v>5.1849012447970001E-2</v>
       </c>
       <c r="L90" s="48">
-        <v>2.8759433483700001E-3</v>
+        <v>2.8405638513999999E-3</v>
       </c>
       <c r="M90" s="48">
-        <v>0.97474078384940999</v>
+        <v>0.95594681444236995</v>
       </c>
       <c r="N90" s="47">
-        <v>7.4773743860940003E-2</v>
+        <v>7.4801193337179994E-2</v>
       </c>
       <c r="O90" s="49">
-        <v>9.5185603513770705</v>
+        <v>9.7277796330079394</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
@@ -5614,43 +5614,43 @@
         <v>160</v>
       </c>
       <c r="C91" s="51">
-        <v>4.3117799774204304</v>
+        <v>4.1003120456645998</v>
       </c>
       <c r="D91" s="52">
-        <v>1.14041825035196</v>
+        <v>1.1286136765082</v>
       </c>
       <c r="E91" s="52">
-        <v>1.2123908092114</v>
+        <v>1.1530070220214901</v>
       </c>
       <c r="F91" s="52">
-        <v>1.9589709146782699</v>
+        <v>1.8186912850360999</v>
       </c>
       <c r="G91" s="52">
-        <v>9.0499790708820207</v>
+        <v>8.57280560306776</v>
       </c>
       <c r="H91" s="51">
-        <v>16.792586298787</v>
+        <v>17.2071683904799</v>
       </c>
       <c r="I91" s="52">
-        <v>2.90343005937524</v>
+        <v>2.90340420359788</v>
       </c>
       <c r="J91" s="52">
-        <v>3.3023893044930599</v>
+        <v>2.71057748997013</v>
       </c>
       <c r="K91" s="52">
-        <v>0.68025845315107003</v>
+        <v>0.71747991476860995</v>
       </c>
       <c r="L91" s="52">
-        <v>2.6922023874269199</v>
+        <v>2.6791420561053201</v>
       </c>
       <c r="M91" s="52">
-        <v>1.2233408796685099</v>
+        <v>1.1934687069518899</v>
       </c>
       <c r="N91" s="51">
-        <v>1.2037862114157201</v>
+        <v>1.29273828817979</v>
       </c>
       <c r="O91" s="53">
-        <v>10.594039122007</v>
+        <v>11.517166138102001</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
@@ -5661,43 +5661,43 @@
         <v>161</v>
       </c>
       <c r="C92" s="43">
-        <v>3.5782072186762699</v>
+        <v>3.7141328844040902</v>
       </c>
       <c r="D92" s="44">
-        <v>0.34861967490241003</v>
+        <v>0.40617136544075999</v>
       </c>
       <c r="E92" s="44">
-        <v>0.64538934351681998</v>
+        <v>0.64102791627569</v>
       </c>
       <c r="F92" s="44">
-        <v>2.5841981730374699</v>
+        <v>2.6669336066403302</v>
       </c>
       <c r="G92" s="44">
-        <v>3.2804447283675899</v>
+        <v>3.26301679179989</v>
       </c>
       <c r="H92" s="43">
-        <v>28.377122531727501</v>
+        <v>32.044989518890198</v>
       </c>
       <c r="I92" s="44">
-        <v>1.24018713242752</v>
+        <v>1.61213301327585</v>
       </c>
       <c r="J92" s="44">
-        <v>0.64572779927182</v>
+        <v>0.79329359325920001</v>
       </c>
       <c r="K92" s="44">
         <v>5.8478651021209999E-2</v>
       </c>
       <c r="L92" s="44">
-        <v>0.41883234422922</v>
+        <v>0.43000963316253998</v>
       </c>
       <c r="M92" s="44">
-        <v>1.3625510222466599</v>
+        <v>1.3674234662771301</v>
       </c>
       <c r="N92" s="43">
-        <v>0.68366279754102</v>
+        <v>0.82488113027209997</v>
       </c>
       <c r="O92" s="45">
-        <v>26.448057049845001</v>
+        <v>30.183036058173901</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
@@ -5708,43 +5708,43 @@
         <v>162</v>
       </c>
       <c r="C93" s="43">
-        <v>6.0656241106771098</v>
+        <v>5.9484277859872501</v>
       </c>
       <c r="D93" s="44">
-        <v>0.32188590170641002</v>
+        <v>0.31898099148600001</v>
       </c>
       <c r="E93" s="44">
-        <v>2.6250472777148102</v>
+        <v>2.5545749442079999</v>
       </c>
       <c r="F93" s="44">
-        <v>3.1186909957475399</v>
+        <v>3.07487188572623</v>
       </c>
       <c r="G93" s="44">
-        <v>11.396029555784301</v>
+        <v>11.0941300660477</v>
       </c>
       <c r="H93" s="43">
-        <v>6.9575413406945898</v>
+        <v>2.5851904287661198</v>
       </c>
       <c r="I93" s="44">
-        <v>4.5730663073826898</v>
+        <v>4.3321931031562499</v>
       </c>
       <c r="J93" s="44">
-        <v>3.6434985869170003E-2</v>
+        <v>3.6789272792139997E-2</v>
       </c>
       <c r="K93" s="44">
         <v>0</v>
       </c>
       <c r="L93" s="44">
-        <v>1.0932297350434099</v>
+        <v>1.09501532258127</v>
       </c>
       <c r="M93" s="44">
-        <v>1.14133093580434</v>
+        <v>1.1497424749988301</v>
       </c>
       <c r="N93" s="43">
-        <v>0.37344604140632998</v>
+        <v>0.40030270888260999</v>
       </c>
       <c r="O93" s="45">
-        <v>8.8861659499540302</v>
+        <v>4.2355337526675303</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
@@ -5755,43 +5755,43 @@
         <v>163</v>
       </c>
       <c r="C94" s="43">
-        <v>4.7102479281032004</v>
+        <v>4.5509052961380601</v>
       </c>
       <c r="D94" s="44">
-        <v>0.12004660270311</v>
+        <v>0.11984012496091</v>
       </c>
       <c r="E94" s="44">
-        <v>2.3555377935950101</v>
+        <v>2.4542330703371502</v>
       </c>
       <c r="F94" s="44">
-        <v>2.2348701982438302</v>
+        <v>1.9768320661746901</v>
       </c>
       <c r="G94" s="44">
-        <v>12.326589800498599</v>
+        <v>12.916258820167901</v>
       </c>
       <c r="H94" s="43">
-        <v>20.7135661633029</v>
+        <v>20.294309156396</v>
       </c>
       <c r="I94" s="44">
-        <v>2.5503823287080398</v>
+        <v>2.54802555564721</v>
       </c>
       <c r="J94" s="44">
-        <v>0.20972232114846001</v>
+        <v>0.21601399884670999</v>
       </c>
       <c r="K94" s="44">
-        <v>0.15577284347198</v>
+        <v>0.15556288749389999</v>
       </c>
       <c r="L94" s="44">
-        <v>3.9778088429799997E-2</v>
+        <v>3.9541281748320001E-2</v>
       </c>
       <c r="M94" s="44">
-        <v>0.76937142686791005</v>
+        <v>0.78680844494315005</v>
       </c>
       <c r="N94" s="43">
-        <v>0.22019832230427999</v>
+        <v>0.21979099441718</v>
       </c>
       <c r="O94" s="45">
-        <v>21.869105489788598</v>
+        <v>21.424617104593999</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
@@ -5802,43 +5802,43 @@
         <v>164</v>
       </c>
       <c r="C95" s="43">
-        <v>4.5998342509630303</v>
+        <v>4.34520065100644</v>
       </c>
       <c r="D95" s="44">
-        <v>1.4264764115750199</v>
+        <v>1.42601327999255</v>
       </c>
       <c r="E95" s="44">
-        <v>1.5059909266368801</v>
+        <v>1.3838795791684899</v>
       </c>
       <c r="F95" s="44">
-        <v>1.66736699086242</v>
+        <v>1.53530768006457</v>
       </c>
       <c r="G95" s="44">
-        <v>9.6555349639050903</v>
+        <v>9.5630460804180295</v>
       </c>
       <c r="H95" s="43">
-        <v>16.077345846640402</v>
+        <v>14.8395025987212</v>
       </c>
       <c r="I95" s="44">
-        <v>3.3351769736636299</v>
+        <v>3.3779106643008698</v>
       </c>
       <c r="J95" s="44">
-        <v>5.2211215938060003E-2</v>
+        <v>3.834605598443E-2</v>
       </c>
       <c r="K95" s="44">
-        <v>0.63149176752134994</v>
+        <v>0.72597480484448995</v>
       </c>
       <c r="L95" s="44">
-        <v>3.8848958790321801</v>
+        <v>3.7675533547319202</v>
       </c>
       <c r="M95" s="44">
-        <v>1.0364986525320601</v>
+        <v>0.98274892637027</v>
       </c>
       <c r="N95" s="43">
-        <v>1.09202300319246</v>
+        <v>1.23493900145844</v>
       </c>
       <c r="O95" s="45">
-        <v>12.715402302087901</v>
+        <v>11.467851119632501</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5849,43 +5849,43 @@
         <v>165</v>
       </c>
       <c r="C96" s="47">
-        <v>5.1054008008882104</v>
+        <v>5.1970147782920098</v>
       </c>
       <c r="D96" s="48">
-        <v>0.23304350765258999</v>
+        <v>0.32916623076078999</v>
       </c>
       <c r="E96" s="48">
-        <v>2.0226331294833502</v>
+        <v>1.99826648036512</v>
       </c>
       <c r="F96" s="48">
-        <v>2.92395730456892</v>
+        <v>2.9744031027424098</v>
       </c>
       <c r="G96" s="48">
-        <v>10.4140873070381</v>
+        <v>10.480456014161399</v>
       </c>
       <c r="H96" s="47">
-        <v>17.429473720346198</v>
+        <v>17.431352352825101</v>
       </c>
       <c r="I96" s="48">
-        <v>4.2668152172249796</v>
+        <v>3.6773772158000799</v>
       </c>
       <c r="J96" s="48">
-        <v>5.3676609589047404</v>
+        <v>4.8321448155030602</v>
       </c>
       <c r="K96" s="48">
-        <v>1.4762795513112901</v>
+        <v>1.4277623966911499</v>
       </c>
       <c r="L96" s="48">
-        <v>0.15544069241601999</v>
+        <v>0.15576637538016</v>
       </c>
       <c r="M96" s="48">
-        <v>4.2766364944762101</v>
+        <v>4.3068779489451297</v>
       </c>
       <c r="N96" s="47">
-        <v>0.33793729721441002</v>
+        <v>0.41334725936661998</v>
       </c>
       <c r="O96" s="49">
-        <v>10.0823339432485</v>
+        <v>9.9728307727390799</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
@@ -5896,43 +5896,43 @@
         <v>166</v>
       </c>
       <c r="C97" s="51">
-        <v>3.8745101679293601</v>
+        <v>3.6935008374890601</v>
       </c>
       <c r="D97" s="52">
-        <v>0.80264122675514005</v>
+        <v>0.77758898148628997</v>
       </c>
       <c r="E97" s="52">
-        <v>0.97891886529066996</v>
+        <v>0.94548271127354</v>
       </c>
       <c r="F97" s="52">
-        <v>2.0929501058132298</v>
+        <v>1.97042915005351</v>
       </c>
       <c r="G97" s="52">
-        <v>9.7891844556567396</v>
+        <v>9.2483305771225393</v>
       </c>
       <c r="H97" s="51">
-        <v>12.9344478439891</v>
+        <v>13.7559599090192</v>
       </c>
       <c r="I97" s="52">
-        <v>2.3007546622970101</v>
+        <v>2.31439940947556</v>
       </c>
       <c r="J97" s="52">
-        <v>3.0296651933021401</v>
+        <v>2.92412494101122</v>
       </c>
       <c r="K97" s="52">
-        <v>0.37182078409935998</v>
+        <v>0.36880434521799998</v>
       </c>
       <c r="L97" s="52">
-        <v>1.49250072851007</v>
+        <v>1.42734564722631</v>
       </c>
       <c r="M97" s="52">
-        <v>1.14945291844804</v>
+        <v>1.21860609951597</v>
       </c>
       <c r="N97" s="51">
-        <v>1.61371065611646</v>
+        <v>1.52726221794383</v>
       </c>
       <c r="O97" s="53">
-        <v>7.57805222581002</v>
+        <v>8.6042160675794701</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5943,43 +5943,43 @@
         <v>167</v>
       </c>
       <c r="C98" s="47">
-        <v>7.4348138012303497</v>
+        <v>6.8100746785064397</v>
       </c>
       <c r="D98" s="48">
-        <v>0.16146529321163999</v>
+        <v>0.17720696615572001</v>
       </c>
       <c r="E98" s="48">
-        <v>3.1656203721849101</v>
+        <v>2.8180947158201302</v>
       </c>
       <c r="F98" s="48">
-        <v>4.1077280895648496</v>
+        <v>3.8147729150220799</v>
       </c>
       <c r="G98" s="48">
-        <v>9.5085665411808495</v>
+        <v>10.0629250446228</v>
       </c>
       <c r="H98" s="47">
-        <v>18.4081050355163</v>
+        <v>20.2860605465475</v>
       </c>
       <c r="I98" s="48">
-        <v>2.03312014845707</v>
+        <v>2.2992901802427701</v>
       </c>
       <c r="J98" s="48">
-        <v>2.1104123612872598</v>
+        <v>2.3746101017741501</v>
       </c>
       <c r="K98" s="48">
-        <v>7.1316637728130003E-2</v>
+        <v>7.1368691236309997E-2</v>
       </c>
       <c r="L98" s="48">
-        <v>0.20586248210710001</v>
+        <v>0.21078928063597999</v>
       </c>
       <c r="M98" s="48">
-        <v>2.1451812214318</v>
+        <v>2.0025300229401402</v>
       </c>
       <c r="N98" s="47">
-        <v>1.14311020933231</v>
+        <v>1.27586650407511</v>
       </c>
       <c r="O98" s="49">
-        <v>14.7653422720868</v>
+        <v>16.650186126128499</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
@@ -6263,11 +6263,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{4B3F5942-BC4E-4876-89E5-79ACABB6F934}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{4561F5B6-79D8-4153-BA37-B982E84B37DE}"/>
-    <hyperlink ref="B107" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{E6AB40DF-E928-4F8D-A8FC-6ABF335BC264}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{D1249039-1D47-4F95-A0BB-43CD08FE2EA2}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{CB211A8A-8581-4EFE-B7C5-6F673493ECE7}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{9BE3F7F8-4526-4405-9739-887EB9493E56}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{CDD654EB-8777-43F8-932E-874AA63F40B4}"/>
+    <hyperlink ref="B107" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{0683BC36-95E8-4A99-987B-EE0F84B5B780}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{8494AFE4-0093-496F-B744-B075298434AA}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{5B7D0B59-0C0D-433B-BE76-2EE9643DEAF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AfDD_2023_Annex_Table_Tab24.xlsx
+++ b/AfDD_2023_Annex_Table_Tab24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BC2AF12-6522-4764-87FC-4D98C8D56BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87F32E7A-8178-4F92-B55A-AC5B06F599BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AC493C39-8E67-40AD-A145-3CFE7892434A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CBDC3BA0-FAB4-4B59-9EE5-12174E7D0596}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab24" sheetId="1" r:id="rId1"/>
@@ -1393,7 +1393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B618138D-6F90-4666-81CE-719E0E3E79DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272B6819-5DEE-4544-9B72-ACD7970765EE}">
   <dimension ref="A1:O114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6263,11 +6263,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{9BE3F7F8-4526-4405-9739-887EB9493E56}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{CDD654EB-8777-43F8-932E-874AA63F40B4}"/>
-    <hyperlink ref="B107" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{0683BC36-95E8-4A99-987B-EE0F84B5B780}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{8494AFE4-0093-496F-B744-B075298434AA}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{5B7D0B59-0C0D-433B-BE76-2EE9643DEAF4}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{052C7EA8-D656-4CF8-BB68-EF66F65C173A}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{8DFC33D1-E803-4901-ACDD-C6B65FBDC293}"/>
+    <hyperlink ref="B107" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{60A089E3-8B2E-439E-9B8E-6C0D679DB5B4}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{10CF47B5-847F-4C5D-B9DE-E933798365CD}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{BB0E3039-B713-4A49-BB52-0F8DD9C4BA18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AfDD_2023_Annex_Table_Tab24.xlsx
+++ b/AfDD_2023_Annex_Table_Tab24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87F32E7A-8178-4F92-B55A-AC5B06F599BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07384447-BF99-4616-BC99-3B40A621545C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CBDC3BA0-FAB4-4B59-9EE5-12174E7D0596}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{0C3108D6-5E42-49DB-8E17-3BB5ED3EA9B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab24" sheetId="1" r:id="rId1"/>
@@ -548,7 +548,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Adjusted net savings are calculated by taking net national savings (the difference of gross savings and consumption of fixed capital), adding education expenditure and subtracting energy depletion, mineral depletion, net forest depletion, carbon dioxide damage, and particulate emission damage.</t>
@@ -1393,7 +1393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272B6819-5DEE-4544-9B72-ACD7970765EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5FFF60-CFD9-4F7E-A374-36C8AF2A34E7}">
   <dimension ref="A1:O114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4492,13 +4492,13 @@
         <v>0.53108093273490997</v>
       </c>
       <c r="E67" s="52">
-        <v>1.3964962633748399</v>
+        <v>1.3964962633748299</v>
       </c>
       <c r="F67" s="52">
         <v>2.6368415805763199</v>
       </c>
       <c r="G67" s="52">
-        <v>7.6004438053010004</v>
+        <v>7.6004438053009897</v>
       </c>
       <c r="H67" s="51">
         <v>10.568400977710001</v>
@@ -5896,43 +5896,43 @@
         <v>166</v>
       </c>
       <c r="C97" s="51">
-        <v>3.6935008374890601</v>
+        <v>3.6206806205811199</v>
       </c>
       <c r="D97" s="52">
-        <v>0.77758898148628997</v>
+        <v>0.77880354436694998</v>
       </c>
       <c r="E97" s="52">
-        <v>0.94548271127354</v>
+        <v>0.95551302065485</v>
       </c>
       <c r="F97" s="52">
-        <v>1.97042915005351</v>
+        <v>1.8863640722460899</v>
       </c>
       <c r="G97" s="52">
-        <v>9.2483305771225393</v>
+        <v>9.2520791220348197</v>
       </c>
       <c r="H97" s="51">
-        <v>13.7559599090192</v>
+        <v>13.0826511567235</v>
       </c>
       <c r="I97" s="52">
-        <v>2.31439940947556</v>
+        <v>2.3473762044489201</v>
       </c>
       <c r="J97" s="52">
-        <v>2.92412494101122</v>
+        <v>3.0237969942338601</v>
       </c>
       <c r="K97" s="52">
-        <v>0.36880434521799998</v>
+        <v>0.2434273350002</v>
       </c>
       <c r="L97" s="52">
-        <v>1.42734564722631</v>
+        <v>1.2577576311749099</v>
       </c>
       <c r="M97" s="52">
-        <v>1.21860609951597</v>
+        <v>1.16079390303647</v>
       </c>
       <c r="N97" s="51">
-        <v>1.52726221794383</v>
+        <v>1.5185544056963001</v>
       </c>
       <c r="O97" s="53">
-        <v>8.6042160675794701</v>
+        <v>8.2256970920306998</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5943,43 +5943,43 @@
         <v>167</v>
       </c>
       <c r="C98" s="47">
-        <v>6.8100746785064397</v>
+        <v>6.9538852374586897</v>
       </c>
       <c r="D98" s="48">
-        <v>0.17720696615572001</v>
+        <v>0.13195129533625</v>
       </c>
       <c r="E98" s="48">
-        <v>2.8180947158201302</v>
+        <v>2.95393647281493</v>
       </c>
       <c r="F98" s="48">
-        <v>3.8147729150220799</v>
+        <v>3.8679973818550102</v>
       </c>
       <c r="G98" s="48">
-        <v>10.0629250446228</v>
+        <v>10.009310586441099</v>
       </c>
       <c r="H98" s="47">
-        <v>20.2860605465475</v>
+        <v>19.468789188814998</v>
       </c>
       <c r="I98" s="48">
-        <v>2.2992901802427701</v>
+        <v>1.93364398480389</v>
       </c>
       <c r="J98" s="48">
-        <v>2.3746101017741501</v>
+        <v>0.81207254130507001</v>
       </c>
       <c r="K98" s="48">
-        <v>7.1368691236309997E-2</v>
+        <v>8.4109358527300004E-2</v>
       </c>
       <c r="L98" s="48">
-        <v>0.21078928063597999</v>
+        <v>0.24209497276752001</v>
       </c>
       <c r="M98" s="48">
-        <v>2.0025300229401402</v>
+        <v>1.84416197499422</v>
       </c>
       <c r="N98" s="47">
-        <v>1.27586650407511</v>
+        <v>1.3930771239950199</v>
       </c>
       <c r="O98" s="49">
-        <v>16.650186126128499</v>
+        <v>17.0269172020298</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
@@ -6263,11 +6263,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{052C7EA8-D656-4CF8-BB68-EF66F65C173A}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{8DFC33D1-E803-4901-ACDD-C6B65FBDC293}"/>
-    <hyperlink ref="B107" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{60A089E3-8B2E-439E-9B8E-6C0D679DB5B4}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{10CF47B5-847F-4C5D-B9DE-E933798365CD}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{BB0E3039-B713-4A49-BB52-0F8DD9C4BA18}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{E382C9BD-A561-41B6-B6D9-F834049B6A79}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{951408C8-E6BE-48AC-A610-0C2BD6BB4FEB}"/>
+    <hyperlink ref="B107" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{F6A79709-900F-4BE9-BC93-EBDA5C2AEBCD}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{32456211-80C2-471A-8B42-738FA50F09F5}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{9593F385-6AA8-48C1-BDCA-8C38478FDB46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AfDD_2023_Annex_Table_Tab24.xlsx
+++ b/AfDD_2023_Annex_Table_Tab24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07384447-BF99-4616-BC99-3B40A621545C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F67D3527-3881-40A3-8B07-0CAF9B382572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{0C3108D6-5E42-49DB-8E17-3BB5ED3EA9B8}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{9D038623-779A-43C6-A6A1-0F87E7A161E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab24" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="180">
   <si>
     <t>Table 24: Sustainable public investments and adjusted net savings</t>
   </si>
@@ -560,16 +560,19 @@
     <t>Source: World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks -22/12/2022).</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
-  </si>
-  <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
   </si>
   <si>
     <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5FFF60-CFD9-4F7E-A374-36C8AF2A34E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3454A9D8-19B7-4B30-A6F1-9AB3BD7D42D2}">
   <dimension ref="A1:O114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6159,7 +6162,7 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C109" s="57"/>
       <c r="D109" s="57"/>
@@ -6177,7 +6180,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C110" s="57"/>
       <c r="D110" s="57"/>
@@ -6194,7 +6197,9 @@
       <c r="O110" s="57"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="C111" s="57"/>
       <c r="D111" s="57"/>
       <c r="E111" s="57"/>
@@ -6211,7 +6216,7 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C112" s="57"/>
       <c r="D112" s="57"/>
@@ -6229,7 +6234,7 @@
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C113" s="57"/>
       <c r="D113" s="57"/>
@@ -6263,11 +6268,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{E382C9BD-A561-41B6-B6D9-F834049B6A79}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{951408C8-E6BE-48AC-A610-0C2BD6BB4FEB}"/>
-    <hyperlink ref="B107" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{F6A79709-900F-4BE9-BC93-EBDA5C2AEBCD}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{32456211-80C2-471A-8B42-738FA50F09F5}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{9593F385-6AA8-48C1-BDCA-8C38478FDB46}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{8A1A9498-38CB-4A92-8657-8C33113FD2A7}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{C5752588-3D6E-4F6F-A705-A82120477767}"/>
+    <hyperlink ref="B107" r:id="rId3" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{C1AA23B2-8A25-44C8-A9D4-479AC0805BF4}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{C74DE4C1-F06A-4119-9DF6-1D3C8ECC28C7}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{7CA11AD8-0C3A-44DD-83FD-3580CB02F87E}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{B463165F-6BD8-4F46-AB90-1389A8E4F1F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AfDD_2023_Annex_Table_Tab24.xlsx
+++ b/AfDD_2023_Annex_Table_Tab24.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F67D3527-3881-40A3-8B07-0CAF9B382572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BE64817-CB93-4384-BB53-AC5813C9E08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{9D038623-779A-43C6-A6A1-0F87E7A161E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{442345CA-CDF2-4135-8645-73D247BF5FAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab24" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="180">
   <si>
     <t>Table 24: Sustainable public investments and adjusted net savings</t>
   </si>
@@ -557,7 +557,7 @@
     <t>In order to preserve the validity of the formula for adjusted net savings, aggregate figures for all the components of adjusted net savings do not take into account countries in which adjusted net savings is not reported.</t>
   </si>
   <si>
-    <t>Source: World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks -22/12/2022).</t>
+    <t>Source: World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks -10/10/2023).</t>
   </si>
   <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
@@ -1396,19 +1396,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3454A9D8-19B7-4B30-A6F1-9AB3BD7D42D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9451525D-F7DA-4FCC-BD6A-0B4117867E94}">
   <dimension ref="A1:O114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="12.36328125" style="59" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="12.33203125" style="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1426,7 +1426,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
@@ -1481,46 +1481,46 @@
         <v>17</v>
       </c>
       <c r="C3" s="11">
-        <v>2.6559265729862802</v>
+        <v>2.6559120387044799</v>
       </c>
       <c r="D3" s="12">
-        <v>8.4831394343040004E-2</v>
+        <v>8.4830930112059999E-2</v>
       </c>
       <c r="E3" s="12">
-        <v>1.0944812597375999</v>
+        <v>1.09447527030279</v>
       </c>
       <c r="F3" s="12">
-        <v>1.47661392541346</v>
+        <v>1.4766058447974</v>
       </c>
       <c r="G3" s="12">
-        <v>5.7720858282498702</v>
+        <v>9.2466981496832101</v>
       </c>
       <c r="H3" s="11">
-        <v>20.5487639269375</v>
+        <v>17.758367960875699</v>
       </c>
       <c r="I3" s="12">
-        <v>2.6629817606547999</v>
+        <v>3.4595364201828098</v>
       </c>
       <c r="J3" s="12">
-        <v>17.4818778456351</v>
+        <v>20.650093594759301</v>
       </c>
       <c r="K3" s="12">
         <v>0</v>
       </c>
       <c r="L3" s="12">
-        <v>0.47477981691998</v>
+        <v>0.47430698100121998</v>
       </c>
       <c r="M3" s="12">
-        <v>1.2163876440969701</v>
+        <v>1.2884093319874801</v>
       </c>
       <c r="N3" s="11">
-        <v>0.53777455492118997</v>
+        <v>0.69664163359474995</v>
       </c>
       <c r="O3" s="13">
-        <v>3.5009258260191101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-1.8915471602842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -1528,46 +1528,46 @@
         <v>19</v>
       </c>
       <c r="C4" s="15">
-        <v>6.1219413669630196</v>
+        <v>6.1219342310623199</v>
       </c>
       <c r="D4" s="16">
-        <v>0.58548091199148</v>
+        <v>0.58548022953906997</v>
       </c>
       <c r="E4" s="16">
-        <v>4.3729480862529702</v>
+        <v>4.3729429890262201</v>
       </c>
       <c r="F4" s="16">
-        <v>1.1635121724372399</v>
+        <v>1.16351081621593</v>
       </c>
       <c r="G4" s="16">
-        <v>20.496725031205798</v>
+        <v>21.8351092884553</v>
       </c>
       <c r="H4" s="15">
-        <v>5.3419817933963696</v>
+        <v>8.9702046550041992</v>
       </c>
       <c r="I4" s="16">
-        <v>8.9825436838678208</v>
+        <v>9.3876071392740794</v>
       </c>
       <c r="J4" s="16">
-        <v>0.21823983490073001</v>
+        <v>0.19655905054886</v>
       </c>
       <c r="K4" s="16">
-        <v>4.3032453696090003E-2</v>
+        <v>4.3032403536300001E-2</v>
       </c>
       <c r="L4" s="16">
-        <v>0.27556322966195002</v>
+        <v>0.27522115163588001</v>
       </c>
       <c r="M4" s="16">
-        <v>1.77076856876764</v>
+        <v>2.18369210833204</v>
       </c>
       <c r="N4" s="15">
-        <v>0.47974149119498999</v>
+        <v>0.52277141451313003</v>
       </c>
       <c r="O4" s="17">
-        <v>11.537179899042799</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+        <v>15.136535665712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
@@ -1575,46 +1575,46 @@
         <v>21</v>
       </c>
       <c r="C5" s="19">
-        <v>6.7451252847151597</v>
+        <v>6.74562281153844</v>
       </c>
       <c r="D5" s="20">
-        <v>1.7614012443853899</v>
+        <v>1.76153116700783</v>
       </c>
       <c r="E5" s="20">
-        <v>3.4212429719023998</v>
+        <v>3.4214953260212102</v>
       </c>
       <c r="F5" s="20">
-        <v>1.56248187916048</v>
+        <v>1.56259712930231</v>
       </c>
       <c r="G5" s="20">
-        <v>17.220144833338999</v>
+        <v>12.004902664256701</v>
       </c>
       <c r="H5" s="19">
-        <v>-1.6629159350588001</v>
+        <v>3.5639052623284102</v>
       </c>
       <c r="I5" s="20">
-        <v>6.34041760137137</v>
+        <v>6.34144825926961</v>
       </c>
       <c r="J5" s="20">
-        <v>1.9227396557199998E-6</v>
+        <v>9.5008290970000006E-3</v>
       </c>
       <c r="K5" s="20">
         <v>0</v>
       </c>
       <c r="L5" s="20">
-        <v>2.7584587558334301</v>
+        <v>2.80696945004216</v>
       </c>
       <c r="M5" s="20">
-        <v>0.87085374209029998</v>
+        <v>0.99370085264191998</v>
       </c>
       <c r="N5" s="19">
-        <v>1.0910564533823299</v>
+        <v>1.14965329731332</v>
       </c>
       <c r="O5" s="21">
-        <v>-4.28692077332E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.9455290925036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
@@ -1622,25 +1622,25 @@
         <v>23</v>
       </c>
       <c r="C6" s="19">
-        <v>11.2992943381795</v>
+        <v>11.297003454316901</v>
       </c>
       <c r="D6" s="20">
-        <v>4.6985107800467496</v>
+        <v>4.6975581769724402</v>
       </c>
       <c r="E6" s="20">
-        <v>4.9696758989413103</v>
+        <v>4.9686683182926101</v>
       </c>
       <c r="F6" s="20">
-        <v>1.6311070658629401</v>
+        <v>1.63077636584367</v>
       </c>
       <c r="G6" s="20">
-        <v>14.906247352188799</v>
+        <v>13.896336335976001</v>
       </c>
       <c r="H6" s="19">
-        <v>3.5442896805368398</v>
+        <v>6.1938124598134303</v>
       </c>
       <c r="I6" s="20">
-        <v>7.3319637536725804</v>
+        <v>6.99116433351137</v>
       </c>
       <c r="J6" s="20">
         <v>0</v>
@@ -1649,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="L6" s="20">
-        <v>3.8592202438383598</v>
+        <v>3.8529025142292102</v>
       </c>
       <c r="M6" s="20">
-        <v>1.32236360758786</v>
+        <v>4.3584560134220602</v>
       </c>
       <c r="N6" s="19">
-        <v>1.7747362066583801</v>
+        <v>1.90193280743824</v>
       </c>
       <c r="O6" s="21">
-        <v>3.9199333761248201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+        <v>3.0716854582352799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
@@ -1669,46 +1669,46 @@
         <v>25</v>
       </c>
       <c r="C7" s="19">
-        <v>5.1345049485644196</v>
+        <v>5.1343572044783601</v>
       </c>
       <c r="D7" s="20">
-        <v>2.2365195640577</v>
+        <v>2.23645520877082</v>
       </c>
       <c r="E7" s="20">
-        <v>1.6733207872007401</v>
+        <v>1.67327263781675</v>
       </c>
       <c r="F7" s="20">
-        <v>1.2246644673124301</v>
+        <v>1.2246292279009801</v>
       </c>
       <c r="G7" s="20">
-        <v>5.67034870980254</v>
+        <v>5.9398717050753902</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>26</v>
       </c>
       <c r="I7" s="20">
-        <v>4.54320254208751</v>
+        <v>4.5031517573423301</v>
       </c>
       <c r="J7" s="20">
-        <v>8.0394993910199997E-3</v>
+        <v>7.9655576514400007E-3</v>
       </c>
       <c r="K7" s="20">
-        <v>2.9691068680999999E-4</v>
+        <v>2.9690214327999999E-4</v>
       </c>
       <c r="L7" s="20">
-        <v>4.2286254410908697</v>
+        <v>4.2268886025824903</v>
       </c>
       <c r="M7" s="20">
-        <v>0.53604513238546003</v>
+        <v>0.61229958288707997</v>
       </c>
       <c r="N7" s="19">
-        <v>1.1510639343057301</v>
+        <v>1.01718276678939</v>
       </c>
       <c r="O7" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
@@ -1716,46 +1716,46 @@
         <v>28</v>
       </c>
       <c r="C8" s="19">
-        <v>7.9527180092041396</v>
+        <v>7.9527357715237903</v>
       </c>
       <c r="D8" s="20">
-        <v>4.8830582056796104</v>
+        <v>4.8830691119434402</v>
       </c>
       <c r="E8" s="20">
-        <v>1.84061082418824</v>
+        <v>1.8406149351749199</v>
       </c>
       <c r="F8" s="20">
-        <v>1.2290491800590799</v>
+        <v>1.22905192512867</v>
       </c>
       <c r="G8" s="20">
-        <v>20.9561598800449</v>
+        <v>21.768759315100301</v>
       </c>
       <c r="H8" s="19">
-        <v>-2.0692107326537998</v>
+        <v>-3.4757710175044001</v>
       </c>
       <c r="I8" s="20">
-        <v>5.2833289402930097</v>
+        <v>5.2746847930123497</v>
       </c>
       <c r="J8" s="20">
-        <v>0.50855053977779996</v>
+        <v>0.43683419371212001</v>
       </c>
       <c r="K8" s="20">
-        <v>2.1310125280800001E-2</v>
+        <v>2.131017287676E-2</v>
       </c>
       <c r="L8" s="20">
         <v>0</v>
       </c>
       <c r="M8" s="20">
-        <v>1.9872724023863699</v>
+        <v>1.90751592899765</v>
       </c>
       <c r="N8" s="19">
-        <v>1.0793378205248301</v>
+        <v>1.0823349865468599</v>
       </c>
       <c r="O8" s="21">
-        <v>-0.38235268033059999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-1.6490815066254001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
@@ -1763,46 +1763,46 @@
         <v>30</v>
       </c>
       <c r="C9" s="19">
-        <v>8.4256361449754493</v>
+        <v>8.4257473010322901</v>
       </c>
       <c r="D9" s="20">
-        <v>0.39545290362280999</v>
+        <v>0.39545812067523001</v>
       </c>
       <c r="E9" s="20">
-        <v>3.9863694647966601</v>
+        <v>3.9864220553789198</v>
       </c>
       <c r="F9" s="20">
-        <v>4.0438133195845696</v>
+        <v>4.0438666680006898</v>
       </c>
       <c r="G9" s="20">
-        <v>11.163700984416201</v>
+        <v>11.3745455306757</v>
       </c>
       <c r="H9" s="19">
-        <v>2.0664433946104301</v>
+        <v>1.1801702760074999</v>
       </c>
       <c r="I9" s="20">
-        <v>8.7021114551094705</v>
+        <v>8.6701166766003706</v>
       </c>
       <c r="J9" s="20">
         <v>0</v>
       </c>
       <c r="K9" s="20">
-        <v>0.58257638328769001</v>
+        <v>0.58258406898552995</v>
       </c>
       <c r="L9" s="20">
-        <v>0.62255021771554997</v>
+        <v>0.62136027209615996</v>
       </c>
       <c r="M9" s="20">
-        <v>1.3723962586623699</v>
+        <v>1.3800992142714601</v>
       </c>
       <c r="N9" s="19">
-        <v>0.80231861092465995</v>
+        <v>0.79341935038155997</v>
       </c>
       <c r="O9" s="21">
-        <v>7.3887133791296602</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+        <v>6.4728240468731304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>31</v>
       </c>
@@ -1810,46 +1810,46 @@
         <v>32</v>
       </c>
       <c r="C10" s="19">
-        <v>8.2317092000451701</v>
+        <v>8.2148197364984608</v>
       </c>
       <c r="D10" s="20">
-        <v>9.260923957061E-2</v>
+        <v>9.2419227953610003E-2</v>
       </c>
       <c r="E10" s="20">
-        <v>4.8109317639527198</v>
+        <v>4.8010609030320603</v>
       </c>
       <c r="F10" s="20">
-        <v>3.3281683551804599</v>
+        <v>3.3213397638458901</v>
       </c>
       <c r="G10" s="20">
-        <v>14.0466253954928</v>
+        <v>13.998612820717</v>
       </c>
       <c r="H10" s="19">
-        <v>-0.75883651012620001</v>
+        <v>-0.57820927719049997</v>
       </c>
       <c r="I10" s="20">
-        <v>5.6712639428021898</v>
+        <v>5.6518790744469696</v>
       </c>
       <c r="J10" s="20">
-        <v>1.32027763635105</v>
+        <v>0.89767595249582</v>
       </c>
       <c r="K10" s="20">
-        <v>0.67879303463371998</v>
+        <v>0.66822921888932996</v>
       </c>
       <c r="L10" s="20">
         <v>0</v>
       </c>
       <c r="M10" s="20">
-        <v>4.6153206693305098</v>
+        <v>4.4980695287373003</v>
       </c>
       <c r="N10" s="19">
-        <v>0.37861417496067001</v>
+        <v>0.45676903804753</v>
       </c>
       <c r="O10" s="21">
-        <v>-2.0805780826000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-1.4470739409135001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>33</v>
       </c>
@@ -1857,46 +1857,46 @@
         <v>34</v>
       </c>
       <c r="C11" s="15">
-        <v>5.3195061401197101</v>
+        <v>5.3194303224115602</v>
       </c>
       <c r="D11" s="16">
-        <v>2.3216690622418898</v>
+        <v>2.32163597202209</v>
       </c>
       <c r="E11" s="16">
-        <v>2.1365030796608599</v>
+        <v>2.1364726285695999</v>
       </c>
       <c r="F11" s="16">
-        <v>0.86133394301718003</v>
+        <v>0.86132166662086995</v>
       </c>
       <c r="G11" s="16">
-        <v>17.2882158599982</v>
+        <v>16.993379795165701</v>
       </c>
       <c r="H11" s="15">
-        <v>22.4261773806689</v>
+        <v>22.720447404628398</v>
       </c>
       <c r="I11" s="16">
-        <v>3.5020027361895201</v>
+        <v>3.5019528229924899</v>
       </c>
       <c r="J11" s="16">
-        <v>1.053124126677E-2</v>
+        <v>1.1966623530909999E-2</v>
       </c>
       <c r="K11" s="16">
-        <v>1.2906434117504499</v>
+        <v>3.18010179639922</v>
       </c>
       <c r="L11" s="16">
         <v>0</v>
       </c>
       <c r="M11" s="16">
-        <v>1.1896718922216201</v>
+        <v>1.4858503926411699</v>
       </c>
       <c r="N11" s="15">
-        <v>1.00256263796817</v>
+        <v>0.86541548792614997</v>
       </c>
       <c r="O11" s="17">
-        <v>22.4347709336514</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20.679065927123499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>35</v>
       </c>
@@ -1904,46 +1904,46 @@
         <v>36</v>
       </c>
       <c r="C12" s="19">
-        <v>3.2327444149772302</v>
+        <v>3.2311888072535799</v>
       </c>
       <c r="D12" s="20">
-        <v>2.0022017706064799</v>
+        <v>2.0012383042327602</v>
       </c>
       <c r="E12" s="20">
-        <v>0.46116068679757999</v>
+        <v>0.46093877469005001</v>
       </c>
       <c r="F12" s="20">
-        <v>0.76938196465107</v>
+        <v>0.76901173540526002</v>
       </c>
       <c r="G12" s="20">
-        <v>7.3173485328161503</v>
+        <v>7.0203451786696496</v>
       </c>
       <c r="H12" s="19">
-        <v>9.6496283955587092</v>
+        <v>1.7389925521808001</v>
       </c>
       <c r="I12" s="20">
-        <v>1.5765608199757</v>
+        <v>1.38577640994625</v>
       </c>
       <c r="J12" s="20">
-        <v>8.8434981736110002E-2</v>
+        <v>7.1406356110089997E-2</v>
       </c>
       <c r="K12" s="20">
-        <v>1.6122705462224001</v>
+        <v>1.61149471609408</v>
       </c>
       <c r="L12" s="20">
-        <v>1.67399717111296</v>
+        <v>1.67735037407642</v>
       </c>
       <c r="M12" s="20">
-        <v>1.84216162309913</v>
+        <v>1.7440303555849299</v>
       </c>
       <c r="N12" s="19">
-        <v>1.3337444848873501</v>
+        <v>0.93846138837274995</v>
       </c>
       <c r="O12" s="21">
-        <v>4.6755804084764598</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>-2.9179742281112002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>37</v>
       </c>
@@ -1951,46 +1951,46 @@
         <v>38</v>
       </c>
       <c r="C13" s="24">
-        <v>6.8750708999141601</v>
+        <v>6.8640919579527901</v>
       </c>
       <c r="D13" s="25">
-        <v>0.50205073271060996</v>
+        <v>0.50194063617109996</v>
       </c>
       <c r="E13" s="25">
-        <v>3.7325183807110101</v>
+        <v>3.72609203588316</v>
       </c>
       <c r="F13" s="25">
-        <v>2.64050187878432</v>
+        <v>2.6360593779781798</v>
       </c>
       <c r="G13" s="25">
-        <v>12.816799741770399</v>
+        <v>13.383035716541899</v>
       </c>
       <c r="H13" s="24">
-        <v>4.6007833378046703</v>
+        <v>4.1421550554825801</v>
       </c>
       <c r="I13" s="25">
-        <v>5.0931962947270302</v>
+        <v>5.22362431831767</v>
       </c>
       <c r="J13" s="25">
-        <v>3.9242812763510702</v>
+        <v>4.1945908268270298</v>
       </c>
       <c r="K13" s="25">
-        <v>0.56590525812389003</v>
+        <v>0.65423582146143</v>
       </c>
       <c r="L13" s="25">
-        <v>0.18764075125608001</v>
+        <v>0.18800913510903999</v>
       </c>
       <c r="M13" s="25">
-        <v>3.4982942884942401</v>
+        <v>3.4712796915626498</v>
       </c>
       <c r="N13" s="24">
-        <v>0.50896345517937003</v>
+        <v>0.57252248173742004</v>
       </c>
       <c r="O13" s="26">
-        <v>1.00889460312705</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.28514141710268998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>39</v>
       </c>
@@ -1998,25 +1998,25 @@
         <v>40</v>
       </c>
       <c r="C14" s="19">
-        <v>6.5395193500528803</v>
+        <v>6.5405650817568803</v>
       </c>
       <c r="D14" s="20">
-        <v>2.01861009242648</v>
+        <v>2.0189328874911698</v>
       </c>
       <c r="E14" s="20">
-        <v>2.3915413659585201</v>
+        <v>2.3919237963014699</v>
       </c>
       <c r="F14" s="20">
-        <v>2.12936767486454</v>
+        <v>2.1297081811262202</v>
       </c>
       <c r="G14" s="20">
-        <v>12.4716844403324</v>
+        <v>12.9094637998981</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>26</v>
       </c>
       <c r="I14" s="20">
-        <v>4.4392656339390699</v>
+        <v>4.5324097121094296</v>
       </c>
       <c r="J14" s="20">
         <v>0</v>
@@ -2025,19 +2025,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="20">
-        <v>11.2276502992058</v>
+        <v>11.227376554925399</v>
       </c>
       <c r="M14" s="20">
-        <v>0.97463910356885997</v>
+        <v>0.87307571056778999</v>
       </c>
       <c r="N14" s="19">
-        <v>1.66682344407394</v>
+        <v>1.7257289451139901</v>
       </c>
       <c r="O14" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>41</v>
       </c>
@@ -2045,46 +2045,46 @@
         <v>42</v>
       </c>
       <c r="C15" s="19">
-        <v>3.6514240971418901</v>
+        <v>3.6513927807701099</v>
       </c>
       <c r="D15" s="20">
-        <v>0.47640524580718002</v>
+        <v>0.47640115992631998</v>
       </c>
       <c r="E15" s="20">
-        <v>0.40685497814602001</v>
+        <v>0.40685148876176003</v>
       </c>
       <c r="F15" s="20">
-        <v>2.7681639817181201</v>
+        <v>2.7681402406105202</v>
       </c>
       <c r="G15" s="20">
-        <v>11.3380869626706</v>
+        <v>11.673440012079601</v>
       </c>
       <c r="H15" s="19">
-        <v>3.0602601949284098</v>
+        <v>2.72478365893096</v>
       </c>
       <c r="I15" s="20">
-        <v>2.62293044108401</v>
+        <v>2.6229079455438198</v>
       </c>
       <c r="J15" s="20">
-        <v>2.3233372631126499</v>
+        <v>2.6889829429992398</v>
       </c>
       <c r="K15" s="20">
         <v>0</v>
       </c>
       <c r="L15" s="20">
-        <v>2.6423277258148001</v>
+        <v>2.6401160527538599</v>
       </c>
       <c r="M15" s="20">
-        <v>0.96929532285623998</v>
+        <v>0.87675320781708999</v>
       </c>
       <c r="N15" s="19">
-        <v>1.38789772982652</v>
+        <v>1.3394344732140799</v>
       </c>
       <c r="O15" s="21">
-        <v>-1.6396674055978</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-2.1975950723094999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>43</v>
       </c>
@@ -2092,46 +2092,46 @@
         <v>44</v>
       </c>
       <c r="C16" s="19">
-        <v>7.8262544449668097</v>
+        <v>7.8277511675897804</v>
       </c>
       <c r="D16" s="20">
-        <v>2.1651380695495002</v>
+        <v>2.16555213877679</v>
       </c>
       <c r="E16" s="20">
-        <v>0.81890540194086003</v>
+        <v>0.81906201251999999</v>
       </c>
       <c r="F16" s="20">
-        <v>4.8422110443536104</v>
+        <v>4.8431370871837096</v>
       </c>
       <c r="G16" s="20">
-        <v>19.373103742082801</v>
+        <v>20.489984177946901</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>26</v>
       </c>
       <c r="I16" s="20">
-        <v>1.2043030690158001</v>
+        <v>1.2045333846795401</v>
       </c>
       <c r="J16" s="20">
         <v>0</v>
       </c>
       <c r="K16" s="20">
-        <v>5.4229472971200003E-2</v>
+        <v>5.4239844021559999E-2</v>
       </c>
       <c r="L16" s="20">
         <v>0</v>
       </c>
       <c r="M16" s="20">
-        <v>0.42954650718467002</v>
+        <v>0.64362420321448999</v>
       </c>
       <c r="N16" s="19">
-        <v>0.96993589901410004</v>
+        <v>0.96282476145130003</v>
       </c>
       <c r="O16" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>45</v>
       </c>
@@ -2139,46 +2139,46 @@
         <v>46</v>
       </c>
       <c r="C17" s="28">
-        <v>4.4791906376050097</v>
+        <v>4.4790650463152897</v>
       </c>
       <c r="D17" s="29">
-        <v>0.88489501520328995</v>
+        <v>0.88487020377747005</v>
       </c>
       <c r="E17" s="29">
-        <v>0.69893447994831004</v>
+        <v>0.69891488263935997</v>
       </c>
       <c r="F17" s="29">
-        <v>2.8953610661666298</v>
+        <v>2.8952798836138198</v>
       </c>
       <c r="G17" s="29">
-        <v>13.132435623795001</v>
+        <v>12.9429442404225</v>
       </c>
       <c r="H17" s="28" t="s">
         <v>26</v>
       </c>
       <c r="I17" s="29">
-        <v>1.7894188812952601</v>
+        <v>1.78936870812566</v>
       </c>
       <c r="J17" s="29">
-        <v>9.2536139995455091</v>
+        <v>10.621561381255701</v>
       </c>
       <c r="K17" s="29">
         <v>0</v>
       </c>
       <c r="L17" s="29">
-        <v>3.6744113905642699</v>
+        <v>3.66905349700298</v>
       </c>
       <c r="M17" s="29">
-        <v>0.83466882974275003</v>
+        <v>0.40301854936363002</v>
       </c>
       <c r="N17" s="28">
-        <v>3.3386362103675</v>
+        <v>4.2766958687586696</v>
       </c>
       <c r="O17" s="30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>47</v>
       </c>
@@ -2186,46 +2186,46 @@
         <v>48</v>
       </c>
       <c r="C18" s="28">
-        <v>2.5416528862938002</v>
+        <v>2.3476518299367601</v>
       </c>
       <c r="D18" s="29">
-        <v>0.17818198868676</v>
+        <v>0.16458158942869</v>
       </c>
       <c r="E18" s="29">
-        <v>1.11427695260335</v>
+        <v>1.0292256432585201</v>
       </c>
       <c r="F18" s="29">
-        <v>1.24919381296467</v>
+        <v>1.1538444752889001</v>
       </c>
       <c r="G18" s="29">
-        <v>23.6095930402448</v>
-      </c>
-      <c r="H18" s="28">
-        <v>10.635398456898001</v>
+        <v>18.549994706917399</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="I18" s="29">
-        <v>2.2139186814951302</v>
+        <v>1.8060645673148801</v>
       </c>
       <c r="J18" s="29">
-        <v>23.419400271824799</v>
+        <v>25.3332385721138</v>
       </c>
       <c r="K18" s="29">
         <v>0</v>
       </c>
       <c r="L18" s="29">
-        <v>2.97942977125992</v>
+        <v>3.1595654362863099</v>
       </c>
       <c r="M18" s="29">
-        <v>2.2931947916847801</v>
+        <v>0.87928554620793997</v>
       </c>
       <c r="N18" s="28">
-        <v>0.94797235589044004</v>
-      </c>
-      <c r="O18" s="30">
-        <v>-16.790680052267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.90818218123559002</v>
+      </c>
+      <c r="O18" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>49</v>
       </c>
@@ -2233,46 +2233,46 @@
         <v>50</v>
       </c>
       <c r="C19" s="15">
-        <v>3.5081723749548299</v>
+        <v>3.5081755591806898</v>
       </c>
       <c r="D19" s="16">
-        <v>1.3621029464515999</v>
+        <v>1.36210418277723</v>
       </c>
       <c r="E19" s="16">
-        <v>0.55492409738140003</v>
+        <v>0.55492460106351005</v>
       </c>
       <c r="F19" s="16">
-        <v>1.5911450590570499</v>
+        <v>1.5911465032749299</v>
       </c>
       <c r="G19" s="16">
-        <v>4.8473894784303004</v>
+        <v>4.6975743088491297</v>
       </c>
       <c r="H19" s="15">
-        <v>9.8921996648289596</v>
+        <v>12.638121299411701</v>
       </c>
       <c r="I19" s="16">
-        <v>1.9819035983976501</v>
+        <v>1.9819053972879299</v>
       </c>
       <c r="J19" s="16">
-        <v>0.44470608354391</v>
+        <v>0.51936114973726999</v>
       </c>
       <c r="K19" s="16">
-        <v>0.92895325002704998</v>
+        <v>0.98436927627281001</v>
       </c>
       <c r="L19" s="16">
-        <v>8.6329389293446592</v>
+        <v>8.6190489945973798</v>
       </c>
       <c r="M19" s="16">
-        <v>0.25721683290568997</v>
+        <v>0.17446925818719999</v>
       </c>
       <c r="N19" s="15">
-        <v>1.1094540201629499</v>
+        <v>1.1153901893801099</v>
       </c>
       <c r="O19" s="17">
-        <v>0.50083414724233999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+        <v>3.2073878285248498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>51</v>
       </c>
@@ -2280,46 +2280,46 @@
         <v>52</v>
       </c>
       <c r="C20" s="28">
-        <v>3.0439637870852101</v>
+        <v>3.0439996409755699</v>
       </c>
       <c r="D20" s="29">
-        <v>2.7793187713899999E-2</v>
+        <v>2.77935150811E-2</v>
       </c>
       <c r="E20" s="29">
-        <v>0.64643174750307997</v>
+        <v>0.64643936161894999</v>
       </c>
       <c r="F20" s="29">
-        <v>2.36973892539172</v>
+        <v>2.36976683779986</v>
       </c>
       <c r="G20" s="29">
-        <v>20.155230706372301</v>
+        <v>12.239238758181299</v>
       </c>
       <c r="H20" s="28" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="29">
-        <v>0.73300060688429003</v>
+        <v>0.73300922421683001</v>
       </c>
       <c r="J20" s="29">
-        <v>16.561649566125801</v>
+        <v>17.623886774752599</v>
       </c>
       <c r="K20" s="29">
         <v>0</v>
       </c>
       <c r="L20" s="29">
-        <v>1.9491043116492699</v>
+        <v>1.9488063947484899</v>
       </c>
       <c r="M20" s="29">
-        <v>1.9197875094194199</v>
+        <v>2.1688325157725998</v>
       </c>
       <c r="N20" s="28">
-        <v>0.55827477144523996</v>
+        <v>0.63362296720329003</v>
       </c>
       <c r="O20" s="30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>53</v>
       </c>
@@ -2327,46 +2327,46 @@
         <v>54</v>
       </c>
       <c r="C21" s="28">
-        <v>2.7682463673313</v>
+        <v>2.7766653880867702</v>
       </c>
       <c r="D21" s="29">
-        <v>1.572825804416E-2</v>
+        <v>1.5776092128749999E-2</v>
       </c>
       <c r="E21" s="29">
-        <v>1.66955518111116</v>
+        <v>1.67463277098468</v>
       </c>
       <c r="F21" s="29">
-        <v>1.0829628092264301</v>
+        <v>1.0862564056620201</v>
       </c>
       <c r="G21" s="29">
-        <v>18.904162039826399</v>
+        <v>17.3573621685</v>
       </c>
       <c r="H21" s="28" t="s">
         <v>26</v>
       </c>
       <c r="I21" s="29">
-        <v>2.8126578429915599</v>
+        <v>2.8212119951319501</v>
       </c>
       <c r="J21" s="29">
-        <v>10.593948106369201</v>
+        <v>13.2568059372063</v>
       </c>
       <c r="K21" s="29">
-        <v>4.5196943848900004E-3</v>
+        <v>4.53344005481E-3</v>
       </c>
       <c r="L21" s="29">
-        <v>2.24370830391062</v>
+        <v>2.2500132394054</v>
       </c>
       <c r="M21" s="29">
-        <v>1.26866501430056</v>
+        <v>1.11933724328933</v>
       </c>
       <c r="N21" s="28">
-        <v>0.26365682164807003</v>
+        <v>0.27469593630591999</v>
       </c>
       <c r="O21" s="30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>55</v>
       </c>
@@ -2374,25 +2374,25 @@
         <v>56</v>
       </c>
       <c r="C22" s="19">
-        <v>5.2293478447471102</v>
+        <v>5.4137614254397901</v>
       </c>
       <c r="D22" s="20">
-        <v>1.8131758954647399</v>
+        <v>1.8771177614938299</v>
       </c>
       <c r="E22" s="20">
-        <v>2.3740324219656799</v>
+        <v>2.4577529608575399</v>
       </c>
       <c r="F22" s="20">
-        <v>1.04213945805428</v>
+        <v>1.0788906313834701</v>
       </c>
       <c r="G22" s="20">
-        <v>23.305355746789498</v>
+        <v>25.494134937401899</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>26</v>
       </c>
       <c r="I22" s="20">
-        <v>3.4416563491910002</v>
+        <v>3.5630267744134598</v>
       </c>
       <c r="J22" s="20">
         <v>0</v>
@@ -2401,19 +2401,19 @@
         <v>0</v>
       </c>
       <c r="L22" s="20">
-        <v>2.0312267816510698</v>
+        <v>2.1030082020982102</v>
       </c>
       <c r="M22" s="20">
-        <v>1.4203065549287399</v>
+        <v>1.39822125071366</v>
       </c>
       <c r="N22" s="19">
-        <v>1.30939671756089</v>
+        <v>1.3780754822009</v>
       </c>
       <c r="O22" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>37</v>
       </c>
@@ -2421,46 +2421,46 @@
         <v>57</v>
       </c>
       <c r="C23" s="24">
-        <v>3.6034856743853401</v>
+        <v>3.5835236758922902</v>
       </c>
       <c r="D23" s="25">
-        <v>0.75418078470031003</v>
+        <v>0.74937855098983996</v>
       </c>
       <c r="E23" s="25">
-        <v>0.74062291788682999</v>
+        <v>0.73698794826547998</v>
       </c>
       <c r="F23" s="25">
-        <v>2.10868189347836</v>
+        <v>2.0971570986605501</v>
       </c>
       <c r="G23" s="25">
-        <v>11.938834629692501</v>
+        <v>10.922921893925301</v>
       </c>
       <c r="H23" s="24">
-        <v>6.8979365451268499</v>
+        <v>7.7146103900404999</v>
       </c>
       <c r="I23" s="25">
-        <v>2.2919461943529602</v>
+        <v>2.3002626603741101</v>
       </c>
       <c r="J23" s="25">
-        <v>3.5031790635260398</v>
+        <v>1.5969151437336599</v>
       </c>
       <c r="K23" s="25">
-        <v>0.42249507676677001</v>
+        <v>0.49547713455977999</v>
       </c>
       <c r="L23" s="25">
-        <v>5.3994099172039096</v>
+        <v>5.64958072536795</v>
       </c>
       <c r="M23" s="25">
-        <v>0.77309794157698997</v>
+        <v>0.52326224929442</v>
       </c>
       <c r="N23" s="24">
-        <v>1.21883813073001</v>
+        <v>1.22666295296827</v>
       </c>
       <c r="O23" s="26">
-        <v>-2.1271373903239001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.52297484449053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>58</v>
       </c>
@@ -2468,25 +2468,25 @@
         <v>59</v>
       </c>
       <c r="C24" s="19">
-        <v>5.1798753209828599</v>
+        <v>5.1800761462053702</v>
       </c>
       <c r="D24" s="20">
-        <v>0.91010927017597998</v>
+        <v>0.91014455536826</v>
       </c>
       <c r="E24" s="20">
-        <v>0.83235602322131996</v>
+        <v>0.83238829389835001</v>
       </c>
       <c r="F24" s="20">
-        <v>3.4374099317121898</v>
+        <v>3.4375432010616702</v>
       </c>
       <c r="G24" s="20">
-        <v>6.6447261490181404</v>
+        <v>7.2642516940571902</v>
       </c>
       <c r="H24" s="19">
-        <v>3.7700277953143</v>
+        <v>0.91142482867008001</v>
       </c>
       <c r="I24" s="20">
-        <v>2.5587868386563901</v>
+        <v>2.4986216841634601</v>
       </c>
       <c r="J24" s="20">
         <v>0</v>
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="L24" s="20">
-        <v>1.4952490414017401</v>
+        <v>1.49305138372317</v>
       </c>
       <c r="M24" s="20">
-        <v>1.09837949941335</v>
+        <v>0.94270427806853996</v>
       </c>
       <c r="N24" s="19">
-        <v>1.1654803825928499</v>
+        <v>1.0963644732514299</v>
       </c>
       <c r="O24" s="21">
-        <v>2.5697057105627401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-0.1220736222096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>60</v>
       </c>
@@ -2515,25 +2515,25 @@
         <v>61</v>
       </c>
       <c r="C25" s="19">
-        <v>2.1664049135387198</v>
+        <v>2.1663022661700402</v>
       </c>
       <c r="D25" s="20">
-        <v>0.40437289064922999</v>
+        <v>0.40435373088231003</v>
       </c>
       <c r="E25" s="20">
-        <v>1.0454779549259801</v>
+        <v>1.04542841868259</v>
       </c>
       <c r="F25" s="20">
-        <v>0.71655409890879995</v>
+        <v>0.71652014754895998</v>
       </c>
       <c r="G25" s="20">
-        <v>11.1874137166762</v>
+        <v>12.1608558126877</v>
       </c>
       <c r="H25" s="19">
-        <v>9.3522609269595804</v>
+        <v>16.073195025771401</v>
       </c>
       <c r="I25" s="20">
-        <v>7.5658201475416202</v>
+        <v>8.1610014988542599</v>
       </c>
       <c r="J25" s="20">
         <v>0</v>
@@ -2542,19 +2542,19 @@
         <v>0</v>
       </c>
       <c r="L25" s="20">
-        <v>0.35853161415168999</v>
+        <v>0.35717678259690999</v>
       </c>
       <c r="M25" s="20">
-        <v>0.55448228353520002</v>
+        <v>0.62213896550714998</v>
       </c>
       <c r="N25" s="19">
-        <v>1.98370343785109</v>
+        <v>2.1796696843891699</v>
       </c>
       <c r="O25" s="21">
-        <v>14.021363738963201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+        <v>21.075211092132399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>62</v>
       </c>
@@ -2562,16 +2562,16 @@
         <v>63</v>
       </c>
       <c r="C26" s="19">
-        <v>4.4590876367694801</v>
+        <v>4.4587660247201697</v>
       </c>
       <c r="D26" s="20">
-        <v>1.7477815067284499</v>
+        <v>1.7476554478487201</v>
       </c>
       <c r="E26" s="20">
-        <v>0.78534594170468996</v>
+        <v>0.78528929856637997</v>
       </c>
       <c r="F26" s="20">
-        <v>1.92596045668078</v>
+        <v>1.92582154663016</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>26</v>
@@ -2586,13 +2586,13 @@
         <v>0</v>
       </c>
       <c r="K26" s="20">
-        <v>1.5035230880964101</v>
+        <v>1.50341464637448</v>
       </c>
       <c r="L26" s="20">
         <v>0</v>
       </c>
       <c r="M26" s="20">
-        <v>1.81069820969412</v>
+        <v>1.8105676129421999</v>
       </c>
       <c r="N26" s="19" t="s">
         <v>26</v>
@@ -2601,7 +2601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>64</v>
       </c>
@@ -2609,46 +2609,46 @@
         <v>65</v>
       </c>
       <c r="C27" s="19">
-        <v>3.2322183110074598</v>
+        <v>3.2322139126619902</v>
       </c>
       <c r="D27" s="20">
-        <v>1.1037993723217501</v>
+        <v>1.1037978702911</v>
       </c>
       <c r="E27" s="20">
-        <v>0.73052216367704004</v>
+        <v>0.73052116959541002</v>
       </c>
       <c r="F27" s="20">
-        <v>1.3978964977413799</v>
+        <v>1.39789459550857</v>
       </c>
       <c r="G27" s="20">
-        <v>8.6621059712388799</v>
+        <v>8.8342483979126101</v>
       </c>
       <c r="H27" s="19">
-        <v>21.4042988795692</v>
+        <v>21.232115539328198</v>
       </c>
       <c r="I27" s="20">
-        <v>3.1645937748333299</v>
+        <v>3.16458946852801</v>
       </c>
       <c r="J27" s="20">
-        <v>3.2382182639700002E-6</v>
+        <v>1.7647190912699999E-6</v>
       </c>
       <c r="K27" s="20">
-        <v>2.3060422204990001E-2</v>
+        <v>2.3060390824780001E-2</v>
       </c>
       <c r="L27" s="20">
-        <v>5.6711435222315698</v>
+        <v>5.6612124647561997</v>
       </c>
       <c r="M27" s="20">
-        <v>0.80846366313823004</v>
+        <v>0.79106683796938004</v>
       </c>
       <c r="N27" s="19">
-        <v>0.87534902897348998</v>
+        <v>0.87915122567908999</v>
       </c>
       <c r="O27" s="21">
-        <v>17.190872779635999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+        <v>17.042212323907702</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>66</v>
       </c>
@@ -2656,46 +2656,46 @@
         <v>67</v>
       </c>
       <c r="C28" s="19">
-        <v>4.3687466995464197</v>
+        <v>4.3709441902163704</v>
       </c>
       <c r="D28" s="20">
-        <v>0.80865288681043002</v>
+        <v>0.80905964126341001</v>
       </c>
       <c r="E28" s="20">
-        <v>2.0087063839512602</v>
+        <v>2.0097167683568902</v>
       </c>
       <c r="F28" s="20">
-        <v>1.55138743233789</v>
+        <v>1.552167784151</v>
       </c>
       <c r="G28" s="20">
-        <v>11.6696879914939</v>
+        <v>15.416173347127501</v>
       </c>
       <c r="H28" s="19">
-        <v>2.40190392639908</v>
+        <v>-1.5190825260208001</v>
       </c>
       <c r="I28" s="20">
-        <v>4.7926974453211102</v>
+        <v>4.8034216144627599</v>
       </c>
       <c r="J28" s="20">
-        <v>1.71885044751E-3</v>
+        <v>1.240751741098E-2</v>
       </c>
       <c r="K28" s="20">
-        <v>3.0013295325699999E-3</v>
+        <v>3.0028392089400001E-3</v>
       </c>
       <c r="L28" s="20">
-        <v>1.2205969595460799</v>
+        <v>1.2207947401016399</v>
       </c>
       <c r="M28" s="20">
-        <v>0.90512878507729999</v>
+        <v>0.79540474771106995</v>
       </c>
       <c r="N28" s="19">
-        <v>1.00892150999278</v>
+        <v>0.98512071280132996</v>
       </c>
       <c r="O28" s="21">
-        <v>4.0552339371239601</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.26760853120803002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>68</v>
       </c>
@@ -2703,46 +2703,46 @@
         <v>69</v>
       </c>
       <c r="C29" s="19">
-        <v>3.7773245885112599</v>
+        <v>3.7772347891373501</v>
       </c>
       <c r="D29" s="20">
-        <v>1.0713935216922199</v>
+        <v>1.0713680511600401</v>
       </c>
       <c r="E29" s="20">
-        <v>1.2216013791766001</v>
+        <v>1.2215723377118199</v>
       </c>
       <c r="F29" s="20">
-        <v>1.4843295997998001</v>
+        <v>1.4842943124249399</v>
       </c>
       <c r="G29" s="20">
-        <v>6.6258569347262704</v>
+        <v>9.5167694048639504</v>
       </c>
       <c r="H29" s="19">
-        <v>9.5029163859199492</v>
+        <v>6.4976950829063398</v>
       </c>
       <c r="I29" s="20">
-        <v>2.0073929034633302</v>
+        <v>2.0049755328294898</v>
       </c>
       <c r="J29" s="20">
-        <v>5.6400053941849999E-2</v>
+        <v>7.3750363270470007E-2</v>
       </c>
       <c r="K29" s="20">
         <v>0</v>
       </c>
       <c r="L29" s="20">
-        <v>4.6145813258812698</v>
+        <v>4.6080227362520203</v>
       </c>
       <c r="M29" s="20">
-        <v>1.1911601783288699</v>
+        <v>1.07046183698478</v>
       </c>
       <c r="N29" s="19">
-        <v>1.0686339055804801</v>
+        <v>1.0934115838414999</v>
       </c>
       <c r="O29" s="21">
-        <v>4.57953382565079</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1.6570240953870701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>70</v>
       </c>
@@ -2750,25 +2750,25 @@
         <v>71</v>
       </c>
       <c r="C30" s="19">
-        <v>6.0328185235602199</v>
+        <v>6.0329635833792103</v>
       </c>
       <c r="D30" s="20">
-        <v>1.7635240017270001E-2</v>
+        <v>1.763566405865E-2</v>
       </c>
       <c r="E30" s="20">
-        <v>2.83796325169607</v>
+        <v>2.8380314908506201</v>
       </c>
       <c r="F30" s="20">
-        <v>3.1772200507033501</v>
+        <v>3.1772964473268601</v>
       </c>
       <c r="G30" s="20">
-        <v>12.3203411659652</v>
+        <v>12.352530053560001</v>
       </c>
       <c r="H30" s="19">
-        <v>-0.94888267001839999</v>
+        <v>5.4459335028268203</v>
       </c>
       <c r="I30" s="20">
-        <v>4.8810304357755703</v>
+        <v>5.2165783760224498</v>
       </c>
       <c r="J30" s="20">
         <v>0</v>
@@ -2777,19 +2777,19 @@
         <v>0</v>
       </c>
       <c r="L30" s="20">
-        <v>1.98723893618E-3</v>
+        <v>2.0014091776100001E-3</v>
       </c>
       <c r="M30" s="20">
-        <v>1.17791641742533</v>
+        <v>1.18276593695868</v>
       </c>
       <c r="N30" s="19">
-        <v>0.14805157764603</v>
+        <v>0.15384087779472999</v>
       </c>
       <c r="O30" s="21">
-        <v>2.6041925317496002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+        <v>9.3239036549182597</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>72</v>
       </c>
@@ -2797,46 +2797,46 @@
         <v>73</v>
       </c>
       <c r="C31" s="19">
-        <v>6.3316400362940097</v>
+        <v>6.3378843572521903</v>
       </c>
       <c r="D31" s="20">
-        <v>2.1177626441933</v>
+        <v>2.1198512009633901</v>
       </c>
       <c r="E31" s="20">
-        <v>2.5036599684385998</v>
+        <v>2.50612910065766</v>
       </c>
       <c r="F31" s="20">
-        <v>1.71021690680048</v>
+        <v>1.71190353825978</v>
       </c>
       <c r="G31" s="20">
-        <v>12.1849921105789</v>
+        <v>12.5240799758141</v>
       </c>
       <c r="H31" s="19">
-        <v>-0.75710800592570004</v>
+        <v>-1.3819299613144</v>
       </c>
       <c r="I31" s="20">
-        <v>2.6518540512750599</v>
+        <v>2.9726649598238102</v>
       </c>
       <c r="J31" s="20">
-        <v>8.9839073447000001E-4</v>
+        <v>0</v>
       </c>
       <c r="K31" s="20">
         <v>0</v>
       </c>
       <c r="L31" s="20">
-        <v>3.5791852577825298</v>
+        <v>3.5817570926259399</v>
       </c>
       <c r="M31" s="20">
-        <v>0.52375573782099005</v>
+        <v>0.47337375077118998</v>
       </c>
       <c r="N31" s="19">
-        <v>2.0022813649706301</v>
+        <v>1.23980117407349</v>
       </c>
       <c r="O31" s="21">
-        <v>-4.2113747059593001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-3.7041970189611999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>74</v>
       </c>
@@ -2844,25 +2844,25 @@
         <v>75</v>
       </c>
       <c r="C32" s="19">
-        <v>4.8790026220362304</v>
+        <v>4.3976607141721802</v>
       </c>
       <c r="D32" s="20">
         <v>0</v>
       </c>
       <c r="E32" s="20">
-        <v>3.5475488979970198</v>
+        <v>3.1975626227098299</v>
       </c>
       <c r="F32" s="20">
-        <v>1.3314539218908701</v>
+        <v>1.2000982697947999</v>
       </c>
       <c r="G32" s="20">
-        <v>10.2415309122594</v>
+        <v>10.7767118904379</v>
       </c>
       <c r="H32" s="19">
-        <v>-1.6241415596602</v>
+        <v>7.0414944055919998E-2</v>
       </c>
       <c r="I32" s="20">
-        <v>4.3120064928441799</v>
+        <v>3.7023196236594802</v>
       </c>
       <c r="J32" s="20">
         <v>0</v>
@@ -2871,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="20">
-        <v>9.7585320501530001E-2</v>
+        <v>8.7944155532569998E-2</v>
       </c>
       <c r="M32" s="20">
-        <v>1.4781911124112601</v>
+        <v>1.3560556091871501</v>
       </c>
       <c r="N32" s="19" t="s">
         <v>26</v>
@@ -2883,7 +2883,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>76</v>
       </c>
@@ -2903,13 +2903,13 @@
         <v>26</v>
       </c>
       <c r="G33" s="20">
-        <v>7.0524497994781203</v>
+        <v>3.5273681162880099</v>
       </c>
       <c r="H33" s="19" t="s">
         <v>26</v>
       </c>
       <c r="I33" s="20">
-        <v>0.98568968071216001</v>
+        <v>0.51626089398474995</v>
       </c>
       <c r="J33" s="20">
         <v>0</v>
@@ -2918,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="L33" s="20">
-        <v>10.730410568789701</v>
+        <v>7.3732575810117202</v>
       </c>
       <c r="M33" s="20">
-        <v>0.43388520028188998</v>
+        <v>0.30332630252873999</v>
       </c>
       <c r="N33" s="19">
-        <v>7.1140616450905201</v>
+        <v>3.7730221973287001</v>
       </c>
       <c r="O33" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>78</v>
       </c>
@@ -2938,16 +2938,16 @@
         <v>79</v>
       </c>
       <c r="C34" s="28">
-        <v>6.1281987382404299</v>
+        <v>6.1275963960681503</v>
       </c>
       <c r="D34" s="29">
-        <v>3.4045004295650698</v>
+        <v>3.4041658003743702</v>
       </c>
       <c r="E34" s="29">
-        <v>1.0084987850043801</v>
+        <v>1.0083996594089399</v>
       </c>
       <c r="F34" s="29">
-        <v>1.7151996554423301</v>
+        <v>1.7150310680432499</v>
       </c>
       <c r="G34" s="29" t="s">
         <v>26</v>
@@ -2959,16 +2959,16 @@
         <v>26</v>
       </c>
       <c r="J34" s="29">
-        <v>19.439727313312599</v>
+        <v>19.437816577698701</v>
       </c>
       <c r="K34" s="29">
-        <v>3.7724081540470002E-2</v>
+        <v>3.7720373631140003E-2</v>
       </c>
       <c r="L34" s="29">
-        <v>4.9790928838656896</v>
+        <v>4.9786034875925296</v>
       </c>
       <c r="M34" s="29">
-        <v>1.71441596991178</v>
+        <v>1.7142474595413399</v>
       </c>
       <c r="N34" s="28" t="s">
         <v>26</v>
@@ -2977,7 +2977,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>80</v>
       </c>
@@ -2985,46 +2985,46 @@
         <v>81</v>
       </c>
       <c r="C35" s="19">
-        <v>4.6348132146661696</v>
+        <v>4.6317466032723296</v>
       </c>
       <c r="D35" s="20">
-        <v>0.39520181703237001</v>
+        <v>0.39494033283897001</v>
       </c>
       <c r="E35" s="20">
-        <v>1.0023794425755901</v>
+        <v>1.0017162209791299</v>
       </c>
       <c r="F35" s="20">
-        <v>3.2372319563462701</v>
+        <v>3.2350900507414302</v>
       </c>
       <c r="G35" s="20">
-        <v>7.6734346080295097</v>
+        <v>6.3173733056851704</v>
       </c>
       <c r="H35" s="19">
-        <v>26.583354903540801</v>
+        <v>21.3183634387917</v>
       </c>
       <c r="I35" s="20">
-        <v>1.99516172306307</v>
+        <v>1.5925622261144501</v>
       </c>
       <c r="J35" s="20">
-        <v>0.38294631196161999</v>
+        <v>0.43350446117870001</v>
       </c>
       <c r="K35" s="20">
-        <v>2.0460696850794702</v>
+        <v>2.0447159087095801</v>
       </c>
       <c r="L35" s="20">
         <v>0</v>
       </c>
       <c r="M35" s="20">
-        <v>2.50526440360701</v>
+        <v>2.51646941157356</v>
       </c>
       <c r="N35" s="19">
-        <v>1.95204743651194</v>
+        <v>1.5290949659861901</v>
       </c>
       <c r="O35" s="21">
-        <v>21.692188789443801</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+        <v>16.387140917458101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>82</v>
       </c>
@@ -3032,46 +3032,46 @@
         <v>83</v>
       </c>
       <c r="C36" s="19">
-        <v>3.9022261052248801</v>
+        <v>3.9022225705020102</v>
       </c>
       <c r="D36" s="20">
-        <v>1.43530961107291</v>
+        <v>1.4353083109376601</v>
       </c>
       <c r="E36" s="20">
-        <v>1.5801199698955699</v>
+        <v>1.58011853858789</v>
       </c>
       <c r="F36" s="20">
-        <v>0.88679655286063996</v>
+        <v>0.88679574958067997</v>
       </c>
       <c r="G36" s="20">
-        <v>10.8191581777072</v>
+        <v>10.949320350336199</v>
       </c>
       <c r="H36" s="19">
-        <v>25.061344328181999</v>
+        <v>24.931147027466402</v>
       </c>
       <c r="I36" s="20">
-        <v>3.80419938201721</v>
+        <v>3.8041959360639899</v>
       </c>
       <c r="J36" s="20">
-        <v>0.17475467892447999</v>
+        <v>0.20004939455613999</v>
       </c>
       <c r="K36" s="20">
-        <v>0.82187457042566003</v>
+        <v>0.82187382595346004</v>
       </c>
       <c r="L36" s="20">
         <v>0</v>
       </c>
       <c r="M36" s="20">
-        <v>0.83639151870401995</v>
+        <v>0.82938747089866005</v>
       </c>
       <c r="N36" s="19">
-        <v>1.3354104189012499</v>
+        <v>1.3667715404546099</v>
       </c>
       <c r="O36" s="21">
-        <v>25.697112523243799</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>25.517260731667498</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>84</v>
       </c>
@@ -3079,25 +3079,25 @@
         <v>85</v>
       </c>
       <c r="C37" s="19">
-        <v>3.77007660902887</v>
+        <v>3.7862100075012299</v>
       </c>
       <c r="D37" s="20">
-        <v>1.58417991176217</v>
+        <v>1.59095913892884</v>
       </c>
       <c r="E37" s="20">
-        <v>0.56991300584361004</v>
+        <v>0.57235185114342002</v>
       </c>
       <c r="F37" s="20">
-        <v>1.6159838821566299</v>
+        <v>1.62289920897872</v>
       </c>
       <c r="G37" s="20">
-        <v>6.4851559136403196</v>
+        <v>6.6494375619822099</v>
       </c>
       <c r="H37" s="19">
-        <v>8.0453792518609895</v>
+        <v>14.5144757518225</v>
       </c>
       <c r="I37" s="20">
-        <v>1.4385307636359601</v>
+        <v>1.5572886340752501</v>
       </c>
       <c r="J37" s="20">
         <v>0</v>
@@ -3106,19 +3106,19 @@
         <v>0</v>
       </c>
       <c r="L37" s="20">
-        <v>6.8637323624545701</v>
+        <v>6.8912298935561997</v>
       </c>
       <c r="M37" s="20">
-        <v>0.62794244574588998</v>
+        <v>0.71277261740289</v>
       </c>
       <c r="N37" s="19">
-        <v>0.96454939999917</v>
+        <v>0.93454788607350003</v>
       </c>
       <c r="O37" s="21">
-        <v>1.0276858072973101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7.5332139888651204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
         <v>37</v>
       </c>
@@ -3126,46 +3126,46 @@
         <v>86</v>
       </c>
       <c r="C38" s="24">
-        <v>4.0933939044224097</v>
+        <v>4.0938765871307803</v>
       </c>
       <c r="D38" s="25">
-        <v>1.01384785026049</v>
+        <v>1.0142103047556299</v>
       </c>
       <c r="E38" s="25">
-        <v>1.3114424546434</v>
+        <v>1.3115709433359199</v>
       </c>
       <c r="F38" s="25">
-        <v>1.76810354233301</v>
+        <v>1.7680952819198099</v>
       </c>
       <c r="G38" s="25">
-        <v>9.3623174902755899</v>
+        <v>10.0688510139199</v>
       </c>
       <c r="H38" s="24">
-        <v>15.3829090830717</v>
+        <v>14.209148836824401</v>
       </c>
       <c r="I38" s="25">
-        <v>3.25871617690663</v>
+        <v>3.2230584899967898</v>
       </c>
       <c r="J38" s="25">
-        <v>9.6353200235929998E-2</v>
+        <v>0.11217651805145</v>
       </c>
       <c r="K38" s="25">
-        <v>0.48960621030531998</v>
+        <v>0.48942332275551997</v>
       </c>
       <c r="L38" s="25">
-        <v>2.63522131552189</v>
+        <v>2.6348769090165201</v>
       </c>
       <c r="M38" s="25">
-        <v>1.13496953031921</v>
+        <v>1.10884486583735</v>
       </c>
       <c r="N38" s="24">
-        <v>1.1967536621516399</v>
+        <v>1.10058125661799</v>
       </c>
       <c r="O38" s="26">
-        <v>13.0887213414443</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+        <v>11.986304454542299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>87</v>
       </c>
@@ -3173,46 +3173,46 @@
         <v>88</v>
       </c>
       <c r="C39" s="28">
-        <v>6.2329658369720304</v>
+        <v>6.2329487660821901</v>
       </c>
       <c r="D39" s="29">
-        <v>2.77834562148E-3</v>
+        <v>2.7783380121199999E-3</v>
       </c>
       <c r="E39" s="29">
-        <v>4.0543239284620398</v>
+        <v>4.0543128244516904</v>
       </c>
       <c r="F39" s="29">
-        <v>2.1758635472165899</v>
+        <v>2.1758575879465001</v>
       </c>
       <c r="G39" s="29">
-        <v>8.6898236773301392</v>
+        <v>8.9148542040128707</v>
       </c>
       <c r="H39" s="28">
-        <v>28.948014156519601</v>
+        <v>30.1801916843913</v>
       </c>
       <c r="I39" s="29">
-        <v>4.3603926047881902</v>
+        <v>4.3716184886382798</v>
       </c>
       <c r="J39" s="29">
-        <v>10.7836290224067</v>
+        <v>9.9042877488239895</v>
       </c>
       <c r="K39" s="29">
-        <v>2.3112926363400002E-3</v>
+        <v>2.3112863061600002E-3</v>
       </c>
       <c r="L39" s="29">
         <v>0</v>
       </c>
       <c r="M39" s="29">
-        <v>4.0678553465692397</v>
+        <v>3.6657217954302399</v>
       </c>
       <c r="N39" s="28">
-        <v>0.34977685182780999</v>
+        <v>0.34751295556051998</v>
       </c>
       <c r="O39" s="30">
-        <v>18.104834247867601</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+        <v>20.631976386908701</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>89</v>
       </c>
@@ -3220,46 +3220,46 @@
         <v>90</v>
       </c>
       <c r="C40" s="19">
-        <v>4.8278712647804998</v>
+        <v>4.8278764009415998</v>
       </c>
       <c r="D40" s="20">
-        <v>5.0096303305170002E-2</v>
+        <v>5.0096356600429999E-2</v>
       </c>
       <c r="E40" s="20">
-        <v>1.36164220256982</v>
+        <v>1.3616436511614101</v>
       </c>
       <c r="F40" s="20">
-        <v>3.41613260175383</v>
+        <v>3.4161362360279099</v>
       </c>
       <c r="G40" s="20">
-        <v>5.6562461064899701</v>
+        <v>5.74750524462761</v>
       </c>
       <c r="H40" s="19">
-        <v>8.8195041362802105</v>
+        <v>8.7282603983225595</v>
       </c>
       <c r="I40" s="20">
-        <v>4.0528027144173997</v>
+        <v>4.0518181381215097</v>
       </c>
       <c r="J40" s="20">
-        <v>3.7775416327833802</v>
+        <v>3.40362015082012</v>
       </c>
       <c r="K40" s="20">
         <v>0</v>
       </c>
       <c r="L40" s="20">
-        <v>0.16230204180605001</v>
+        <v>0.16173476172479001</v>
       </c>
       <c r="M40" s="20">
-        <v>3.1988739820299301</v>
+        <v>3.3135140312874398</v>
       </c>
       <c r="N40" s="19">
-        <v>0.61999154077611995</v>
+        <v>0.65557453141592004</v>
       </c>
       <c r="O40" s="21">
-        <v>5.1135976533020999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+        <v>5.2456350611958102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>91</v>
       </c>
@@ -3279,34 +3279,34 @@
         <v>26</v>
       </c>
       <c r="G41" s="29">
-        <v>8.7835442916757298</v>
-      </c>
-      <c r="H41" s="28">
-        <v>12.5805228558318</v>
+        <v>5.6124858693519899</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="I41" s="29">
-        <v>2.1621063964754499</v>
+        <v>1.65302913984519</v>
       </c>
       <c r="J41" s="29">
-        <v>7.7851020276275698</v>
+        <v>7.6668628821546898</v>
       </c>
       <c r="K41" s="29">
         <v>0</v>
       </c>
       <c r="L41" s="29">
-        <v>5.8944527075270002E-2</v>
+        <v>5.8756496612579999E-2</v>
       </c>
       <c r="M41" s="29">
-        <v>3.3451788315675199</v>
+        <v>3.7521286616732099</v>
       </c>
       <c r="N41" s="28">
-        <v>0.43829693308083001</v>
-      </c>
-      <c r="O41" s="30">
-        <v>3.1151069329560199</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.27153862907940002</v>
+      </c>
+      <c r="O41" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>93</v>
       </c>
@@ -3314,46 +3314,46 @@
         <v>94</v>
       </c>
       <c r="C42" s="28">
-        <v>3.2724351015346902</v>
+        <v>3.27253848787984</v>
       </c>
       <c r="D42" s="29">
-        <v>0.39107536738442999</v>
+        <v>0.39108772266471997</v>
       </c>
       <c r="E42" s="29">
-        <v>1.2172813059118099</v>
+        <v>1.2173197635928099</v>
       </c>
       <c r="F42" s="29">
-        <v>1.6640783108322199</v>
+        <v>1.6641308842123701</v>
       </c>
       <c r="G42" s="29">
-        <v>7.3514256504243596</v>
+        <v>7.7777297351225201</v>
       </c>
       <c r="H42" s="28">
-        <v>29.298003966851901</v>
+        <v>27.457850388870099</v>
       </c>
       <c r="I42" s="29">
-        <v>2.8953585614904802</v>
+        <v>2.83134103273404</v>
       </c>
       <c r="J42" s="29">
-        <v>2.3532513536659999E-2</v>
+        <v>2.3693401223650001E-2</v>
       </c>
       <c r="K42" s="29">
-        <v>0.31558035864653</v>
+        <v>0.31559032880602</v>
       </c>
       <c r="L42" s="29">
-        <v>0.62901973414990997</v>
+        <v>0.62789016937460995</v>
       </c>
       <c r="M42" s="29">
-        <v>1.99716863308748</v>
+        <v>2.2160957422170702</v>
       </c>
       <c r="N42" s="28">
-        <v>0.94771190586455001</v>
+        <v>0.78681611081370995</v>
       </c>
       <c r="O42" s="30">
-        <v>28.280349383057299</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+        <v>26.319105669169002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>95</v>
       </c>
@@ -3361,46 +3361,46 @@
         <v>96</v>
       </c>
       <c r="C43" s="19">
-        <v>4.9913654221297401</v>
+        <v>4.9913756849967301</v>
       </c>
       <c r="D43" s="20">
-        <v>3.6829087823940003E-2</v>
+        <v>3.6829163549119998E-2</v>
       </c>
       <c r="E43" s="20">
-        <v>2.02342471019531</v>
+        <v>2.0234288706077299</v>
       </c>
       <c r="F43" s="20">
-        <v>2.9311115196355599</v>
+        <v>2.9311175463647499</v>
       </c>
       <c r="G43" s="20">
-        <v>9.3034240998706803</v>
+        <v>9.7027369095269993</v>
       </c>
       <c r="H43" s="19">
-        <v>17.927082691917001</v>
+        <v>16.145266190845302</v>
       </c>
       <c r="I43" s="20">
-        <v>5.1216707845326104</v>
+        <v>4.7595408004964304</v>
       </c>
       <c r="J43" s="20">
-        <v>5.43731907433E-3</v>
+        <v>3.0997434573199999E-3</v>
       </c>
       <c r="K43" s="20">
-        <v>9.7259135655180004E-2</v>
+        <v>9.7259335632040006E-2</v>
       </c>
       <c r="L43" s="20">
         <v>0</v>
       </c>
       <c r="M43" s="20">
-        <v>2.2609923988751901</v>
+        <v>2.1512920069582302</v>
       </c>
       <c r="N43" s="19">
-        <v>0.52553786419580995</v>
+        <v>0.52818705972111002</v>
       </c>
       <c r="O43" s="21">
-        <v>20.1595267586491</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>18.1249688455731</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>97</v>
       </c>
@@ -3408,46 +3408,46 @@
         <v>98</v>
       </c>
       <c r="C44" s="19">
-        <v>5.4559900655414397</v>
+        <v>5.4560402202370897</v>
       </c>
       <c r="D44" s="20">
-        <v>2.3307449386750001E-2</v>
+        <v>2.330766364264E-2</v>
       </c>
       <c r="E44" s="20">
-        <v>2.8106627342526602</v>
+        <v>2.8106885715310099</v>
       </c>
       <c r="F44" s="20">
-        <v>2.6220193367334601</v>
+        <v>2.62204343988985</v>
       </c>
       <c r="G44" s="20">
-        <v>11.1553530111394</v>
-      </c>
-      <c r="H44" s="19">
-        <v>0.13655329917808001</v>
+        <v>1.35902354545132</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="I44" s="20">
-        <v>5.7463161411784398</v>
+        <v>5.6441342114425499</v>
       </c>
       <c r="J44" s="20">
-        <v>1.1095251509967601</v>
+        <v>1.01522816511602</v>
       </c>
       <c r="K44" s="20">
         <v>0</v>
       </c>
       <c r="L44" s="20">
-        <v>0.26940231027807998</v>
+        <v>0.26947916906802</v>
       </c>
       <c r="M44" s="20">
-        <v>2.91059850163693</v>
+        <v>2.9608747770725001</v>
       </c>
       <c r="N44" s="19">
-        <v>0.30161461680014001</v>
-      </c>
-      <c r="O44" s="21">
-        <v>1.29172886064462</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0.32882222062340999</v>
+      </c>
+      <c r="O44" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
         <v>37</v>
       </c>
@@ -3455,46 +3455,46 @@
         <v>99</v>
       </c>
       <c r="C45" s="24">
-        <v>5.1846448567760302</v>
+        <v>5.1846305602093503</v>
       </c>
       <c r="D45" s="25">
-        <v>3.9845501325360001E-2</v>
+        <v>3.984621428468E-2</v>
       </c>
       <c r="E45" s="25">
-        <v>2.1396796519436698</v>
+        <v>2.1396389239920102</v>
       </c>
       <c r="F45" s="25">
-        <v>3.0051195618931601</v>
+        <v>3.00514528031752</v>
       </c>
       <c r="G45" s="25">
-        <v>7.2905977275433402</v>
+        <v>6.68132836115291</v>
       </c>
       <c r="H45" s="24">
-        <v>14.1501259920541</v>
+        <v>15.1273422112905</v>
       </c>
       <c r="I45" s="25">
-        <v>4.2205858121969202</v>
+        <v>4.2174066027384098</v>
       </c>
       <c r="J45" s="25">
-        <v>4.8137768959576199</v>
+        <v>4.4061882044859404</v>
       </c>
       <c r="K45" s="25">
-        <v>1.6316327183259999E-2</v>
+        <v>1.8548937542210001E-2</v>
       </c>
       <c r="L45" s="25">
-        <v>0.11185270592908</v>
+        <v>0.10505939182913999</v>
       </c>
       <c r="M45" s="25">
-        <v>3.2392870181281799</v>
+        <v>3.2133339816317301</v>
       </c>
       <c r="N45" s="24">
-        <v>0.52507843236469998</v>
+        <v>0.56530665397799995</v>
       </c>
       <c r="O45" s="26">
-        <v>9.6644004246881199</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+        <v>11.0363116445619</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>100</v>
       </c>
@@ -3502,28 +3502,28 @@
         <v>101</v>
       </c>
       <c r="C46" s="19">
-        <v>2.3202662970974499</v>
+        <v>2.3203141746910001</v>
       </c>
       <c r="D46" s="20">
-        <v>0.57127102974768995</v>
+        <v>0.57128281765418998</v>
       </c>
       <c r="E46" s="20">
-        <v>0.54094020532785003</v>
+        <v>0.54095136737218996</v>
       </c>
       <c r="F46" s="20">
-        <v>1.2080550440887501</v>
+        <v>1.2080799717310899</v>
       </c>
       <c r="G46" s="20">
-        <v>10.2746235343831</v>
+        <v>10.8556674067604</v>
       </c>
       <c r="H46" s="19">
-        <v>11.443882204512599</v>
+        <v>10.863286935930001</v>
       </c>
       <c r="I46" s="20">
-        <v>2.9037728077525902</v>
+        <v>2.9038327909617498</v>
       </c>
       <c r="J46" s="20">
-        <v>6.7315764400420003E-2</v>
+        <v>8.1244708303279997E-2</v>
       </c>
       <c r="K46" s="20">
         <v>0</v>
@@ -3532,16 +3532,16 @@
         <v>0</v>
       </c>
       <c r="M46" s="20">
-        <v>2.0683712267804202</v>
+        <v>2.43221165484875</v>
       </c>
       <c r="N46" s="19">
-        <v>2.2888359012510602</v>
+        <v>2.1178044051754501</v>
       </c>
       <c r="O46" s="21">
-        <v>9.9231321198332694</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+        <v>9.1358589585643504</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>102</v>
       </c>
@@ -3549,46 +3549,46 @@
         <v>103</v>
       </c>
       <c r="C47" s="19">
-        <v>5.3184625046605802</v>
+        <v>5.3186176700905197</v>
       </c>
       <c r="D47" s="20">
-        <v>0.84022208648297003</v>
+        <v>0.84024659984960004</v>
       </c>
       <c r="E47" s="20">
-        <v>2.2238400453139202</v>
+        <v>2.2239049255488501</v>
       </c>
       <c r="F47" s="20">
-        <v>2.2544002744473399</v>
+        <v>2.2544660462728499</v>
       </c>
       <c r="G47" s="20">
-        <v>7.3970051918475503</v>
+        <v>7.4942706018327501</v>
       </c>
       <c r="H47" s="19">
-        <v>9.4684077857295907</v>
+        <v>9.3716344231997102</v>
       </c>
       <c r="I47" s="20">
-        <v>4.0827720670287304</v>
+        <v>4.0828911813635003</v>
       </c>
       <c r="J47" s="20">
         <v>0</v>
       </c>
       <c r="K47" s="20">
-        <v>2.7418760723671798</v>
+        <v>2.7419560662336901</v>
       </c>
       <c r="L47" s="20">
         <v>0</v>
       </c>
       <c r="M47" s="20">
-        <v>1.26020554704437</v>
+        <v>1.1774371928996401</v>
       </c>
       <c r="N47" s="19">
-        <v>2.3355766932453998</v>
+        <v>2.4100367415622399</v>
       </c>
       <c r="O47" s="21">
-        <v>7.2135215401013699</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+        <v>7.1250956038676696</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>104</v>
       </c>
@@ -3596,46 +3596,46 @@
         <v>105</v>
       </c>
       <c r="C48" s="28">
-        <v>4.6218860215483897</v>
+        <v>4.4998719671005496</v>
       </c>
       <c r="D48" s="29">
-        <v>0.30823238523979002</v>
+        <v>0.30009529945709001</v>
       </c>
       <c r="E48" s="29">
-        <v>2.9618681275463601</v>
+        <v>2.8836772034740399</v>
       </c>
       <c r="F48" s="29">
-        <v>1.3517854431454699</v>
+        <v>1.31609940028488</v>
       </c>
       <c r="G48" s="29">
-        <v>9.8114182941957093</v>
+        <v>10.493922846721</v>
       </c>
       <c r="H48" s="28">
-        <v>22.384310394298598</v>
+        <v>20.891838574166499</v>
       </c>
       <c r="I48" s="29">
-        <v>4.6558334716066199</v>
+        <v>4.5310821219718997</v>
       </c>
       <c r="J48" s="29">
-        <v>0.34940565545201002</v>
+        <v>0.33690562196805002</v>
       </c>
       <c r="K48" s="29">
         <v>0</v>
       </c>
       <c r="L48" s="29">
-        <v>0.22594780809435999</v>
+        <v>0.21955959551053</v>
       </c>
       <c r="M48" s="29">
-        <v>1.2203055106816301</v>
+        <v>1.18677872265636</v>
       </c>
       <c r="N48" s="28">
-        <v>0.36738238358120001</v>
+        <v>0.38222218321986001</v>
       </c>
       <c r="O48" s="30">
-        <v>24.877102508096002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+        <v>23.2974545727836</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>106</v>
       </c>
@@ -3643,46 +3643,46 @@
         <v>107</v>
       </c>
       <c r="C49" s="19">
-        <v>3.2209610791731702</v>
+        <v>3.2149909312590501</v>
       </c>
       <c r="D49" s="20">
-        <v>0.41868783646313001</v>
+        <v>0.41791178600735002</v>
       </c>
       <c r="E49" s="20">
-        <v>0.97289145841193003</v>
+        <v>0.97108817492966004</v>
       </c>
       <c r="F49" s="20">
-        <v>1.8293817842981099</v>
+        <v>1.8259909703220301</v>
       </c>
       <c r="G49" s="20">
-        <v>3.2989749996793498</v>
+        <v>3.1463787900220201</v>
       </c>
       <c r="H49" s="19">
-        <v>13.888868777216899</v>
+        <v>14.0096068038208</v>
       </c>
       <c r="I49" s="20">
-        <v>3.0366109491009898</v>
+        <v>3.03098249969241</v>
       </c>
       <c r="J49" s="20">
-        <v>0.59353700896967998</v>
+        <v>0.75428713204612996</v>
       </c>
       <c r="K49" s="20">
-        <v>0.43956608009922998</v>
+        <v>0.43875133119301002</v>
       </c>
       <c r="L49" s="20">
         <v>0</v>
       </c>
       <c r="M49" s="20">
-        <v>0.73868211627862002</v>
+        <v>0.71788653789046997</v>
       </c>
       <c r="N49" s="19">
-        <v>1.03019791940606</v>
+        <v>1.08919674551005</v>
       </c>
       <c r="O49" s="21">
-        <v>14.123496601564399</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+        <v>14.040467556873599</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>108</v>
       </c>
@@ -3690,25 +3690,25 @@
         <v>109</v>
       </c>
       <c r="C50" s="19">
-        <v>3.1718267683026</v>
+        <v>3.1718836932250398</v>
       </c>
       <c r="D50" s="20">
-        <v>0.85982823314787005</v>
+        <v>0.85984366452512995</v>
       </c>
       <c r="E50" s="20">
-        <v>1.30618259856526</v>
+        <v>1.30620604068507</v>
       </c>
       <c r="F50" s="20">
-        <v>1.00581587546604</v>
+        <v>1.00583392689031</v>
       </c>
       <c r="G50" s="20">
-        <v>16.9743275898254</v>
+        <v>19.021524374203601</v>
       </c>
       <c r="H50" s="19">
-        <v>1.05459926607041</v>
+        <v>-1.0634903598072001</v>
       </c>
       <c r="I50" s="20">
-        <v>2.6269728003690198</v>
+        <v>2.6250972106201602</v>
       </c>
       <c r="J50" s="20">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="L50" s="20">
-        <v>2.82571350805553</v>
+        <v>2.82243777297542</v>
       </c>
       <c r="M50" s="20">
-        <v>1.30959849931923</v>
+        <v>1.37550890630039</v>
       </c>
       <c r="N50" s="19">
-        <v>0.98134310774521005</v>
+        <v>1.1258710200569999</v>
       </c>
       <c r="O50" s="21">
-        <v>-1.4350830486805</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-3.7622108485197998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>110</v>
       </c>
@@ -3737,46 +3737,46 @@
         <v>111</v>
       </c>
       <c r="C51" s="15">
-        <v>3.3906950057557999</v>
+        <v>3.3906767559467901</v>
       </c>
       <c r="D51" s="16">
-        <v>0.38256099726808002</v>
+        <v>0.38255893820198</v>
       </c>
       <c r="E51" s="16">
-        <v>1.3841116450108499</v>
+        <v>1.3841041952776401</v>
       </c>
       <c r="F51" s="16">
-        <v>1.62402230583042</v>
+        <v>1.6240135648210301</v>
       </c>
       <c r="G51" s="16">
-        <v>8.5161027792708204</v>
+        <v>9.2852459835837102</v>
       </c>
       <c r="H51" s="15">
-        <v>10.087603784606699</v>
+        <v>9.3183604491990604</v>
       </c>
       <c r="I51" s="16">
-        <v>4.0688346713398396</v>
+        <v>4.0688127715532802</v>
       </c>
       <c r="J51" s="16">
-        <v>2.5839323202917401</v>
+        <v>4.0649972302978199</v>
       </c>
       <c r="K51" s="16">
-        <v>1.5770664670647101</v>
+        <v>1.57939445975842</v>
       </c>
       <c r="L51" s="16">
-        <v>3.4809110240374999</v>
+        <v>3.4753870159518798</v>
       </c>
       <c r="M51" s="16">
-        <v>1.1955788453985801</v>
+        <v>1.00616527634772</v>
       </c>
       <c r="N51" s="15">
-        <v>0.71554974983402997</v>
+        <v>0.73936982325584999</v>
       </c>
       <c r="O51" s="17">
-        <v>4.6034000493199798</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+        <v>2.5218594151406402</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>112</v>
       </c>
@@ -3784,25 +3784,25 @@
         <v>113</v>
       </c>
       <c r="C52" s="19">
-        <v>4.0886874443967898</v>
+        <v>4.0887196512519397</v>
       </c>
       <c r="D52" s="20">
-        <v>0.44143300198287999</v>
+        <v>0.44143647917916001</v>
       </c>
       <c r="E52" s="20">
-        <v>0.92093549888780002</v>
+        <v>0.92094275315621998</v>
       </c>
       <c r="F52" s="20">
-        <v>2.7263192768853202</v>
+        <v>2.7263407522784102</v>
       </c>
       <c r="G52" s="20">
-        <v>9.6550405392024192</v>
+        <v>9.6465127285813406</v>
       </c>
       <c r="H52" s="19">
-        <v>-2.5837186907946998</v>
+        <v>-1.1980377750740001</v>
       </c>
       <c r="I52" s="20">
-        <v>1.8108239897066301</v>
+        <v>1.8203953719060499</v>
       </c>
       <c r="J52" s="20">
         <v>0</v>
@@ -3811,19 +3811,19 @@
         <v>0</v>
       </c>
       <c r="L52" s="20">
-        <v>4.5289240636468602</v>
+        <v>4.5216553844291996</v>
       </c>
       <c r="M52" s="20">
-        <v>1.19821074319854</v>
+        <v>0.97391302761415999</v>
       </c>
       <c r="N52" s="19">
-        <v>1.7104882550010301</v>
+        <v>1.51368672156371</v>
       </c>
       <c r="O52" s="21">
-        <v>-8.2105177629343995</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-6.3868975367749998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>114</v>
       </c>
@@ -3831,25 +3831,25 @@
         <v>115</v>
       </c>
       <c r="C53" s="19">
-        <v>8.0868412815341593</v>
+        <v>8.0843338626552903</v>
       </c>
       <c r="D53" s="20">
-        <v>2.0467733269995301</v>
+        <v>2.0461387012040899</v>
       </c>
       <c r="E53" s="20">
-        <v>0.51731796705343003</v>
+        <v>0.51715756662120005</v>
       </c>
       <c r="F53" s="20">
-        <v>5.5227502393324102</v>
+        <v>5.5210378466031198</v>
       </c>
       <c r="G53" s="20">
-        <v>4.4486448676260997</v>
+        <v>4.6220113359583097</v>
       </c>
       <c r="H53" s="19">
-        <v>6.7395710171254999</v>
+        <v>6.5627355100403397</v>
       </c>
       <c r="I53" s="20">
-        <v>1.1471084930354301</v>
+        <v>1.14675281872226</v>
       </c>
       <c r="J53" s="20">
         <v>0</v>
@@ -3858,19 +3858,19 @@
         <v>0</v>
       </c>
       <c r="L53" s="20">
-        <v>9.6335589610007393</v>
+        <v>9.6146973117205796</v>
       </c>
       <c r="M53" s="20">
-        <v>0.90526013433662</v>
+        <v>0.88603944414436997</v>
       </c>
       <c r="N53" s="19">
-        <v>1.7749544849152801</v>
+        <v>1.48449352386231</v>
       </c>
       <c r="O53" s="21">
-        <v>-4.4270940700916999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-4.2757419509646999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>116</v>
       </c>
@@ -3878,25 +3878,25 @@
         <v>117</v>
       </c>
       <c r="C54" s="19">
-        <v>8.4310591530098797</v>
+        <v>8.4314144583033102</v>
       </c>
       <c r="D54" s="20">
-        <v>2.0680690426519099</v>
+        <v>2.0681561961002202</v>
       </c>
       <c r="E54" s="20">
-        <v>1.3562266798284</v>
+        <v>1.3562838345120101</v>
       </c>
       <c r="F54" s="20">
-        <v>5.0067635907642503</v>
+        <v>5.00697458793252</v>
       </c>
       <c r="G54" s="20">
-        <v>23.158537116501101</v>
+        <v>24.022583546274699</v>
       </c>
       <c r="H54" s="19" t="s">
         <v>26</v>
       </c>
       <c r="I54" s="20">
-        <v>3.52418752179562</v>
+        <v>3.52433603961039</v>
       </c>
       <c r="J54" s="20">
         <v>0</v>
@@ -3905,19 +3905,19 @@
         <v>0</v>
       </c>
       <c r="L54" s="20">
-        <v>15.3691806216973</v>
+        <v>15.344759889154</v>
       </c>
       <c r="M54" s="20">
-        <v>1.56224339628667</v>
+        <v>1.8090643607327099</v>
       </c>
       <c r="N54" s="19">
-        <v>0.98363914621670001</v>
+        <v>0.98866579590720005</v>
       </c>
       <c r="O54" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>118</v>
       </c>
@@ -3925,46 +3925,46 @@
         <v>119</v>
       </c>
       <c r="C55" s="19">
-        <v>3.8814118099960502</v>
+        <v>3.8814082241039798</v>
       </c>
       <c r="D55" s="20">
-        <v>1.3070958047010199</v>
+        <v>1.3070945971237999</v>
       </c>
       <c r="E55" s="20">
-        <v>1.3122314693916599</v>
+        <v>1.3122302570697899</v>
       </c>
       <c r="F55" s="20">
-        <v>1.2620846025532699</v>
+        <v>1.26208343656022</v>
       </c>
       <c r="G55" s="20">
-        <v>4.5314490482022096</v>
-      </c>
-      <c r="H55" s="19">
-        <v>10.5425477687717</v>
+        <v>4.9366952959277501</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="I55" s="20">
-        <v>3.9937645053815798</v>
+        <v>3.6666196645548399</v>
       </c>
       <c r="J55" s="20">
         <v>0</v>
       </c>
       <c r="K55" s="20">
-        <v>4.5420840789323602</v>
+        <v>4.5420798826697402</v>
       </c>
       <c r="L55" s="20">
-        <v>2.1679273352787201</v>
+        <v>2.16517069240281</v>
       </c>
       <c r="M55" s="20">
-        <v>1.37573823652461</v>
+        <v>1.4456927208580099</v>
       </c>
       <c r="N55" s="19">
-        <v>2.3076864101312502</v>
-      </c>
-      <c r="O55" s="21">
-        <v>4.1428762132863302</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+        <v>2.54693126845179</v>
+      </c>
+      <c r="O55" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>120</v>
       </c>
@@ -3972,46 +3972,46 @@
         <v>121</v>
       </c>
       <c r="C56" s="19">
-        <v>5.6661803497435104</v>
+        <v>5.6661869772633899</v>
       </c>
       <c r="D56" s="20">
-        <v>0.86402300833531998</v>
+        <v>0.86402401895081005</v>
       </c>
       <c r="E56" s="20">
-        <v>2.0222792242685999</v>
+        <v>2.0222815896532</v>
       </c>
       <c r="F56" s="20">
-        <v>2.7798780463575801</v>
+        <v>2.7798812978772802</v>
       </c>
       <c r="G56" s="20">
-        <v>3.30589678679948</v>
+        <v>3.3059023911191501</v>
       </c>
       <c r="H56" s="19">
-        <v>21.655933777998399</v>
+        <v>21.6559610911136</v>
       </c>
       <c r="I56" s="20">
-        <v>3.4184778017555102</v>
+        <v>2.5326361240598101</v>
       </c>
       <c r="J56" s="20">
-        <v>0.45824363479621999</v>
+        <v>0.73299979488313005</v>
       </c>
       <c r="K56" s="20">
-        <v>7.085593212487E-2</v>
+        <v>7.0856015002409997E-2</v>
       </c>
       <c r="L56" s="20">
         <v>0</v>
       </c>
       <c r="M56" s="20">
-        <v>0.67875343352091</v>
+        <v>0.77474540325973995</v>
       </c>
       <c r="N56" s="19">
-        <v>2.5356902257348199</v>
+        <v>2.60172217880086</v>
       </c>
       <c r="O56" s="21">
-        <v>21.330868353577099</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+        <v>20.008273823227199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>122</v>
       </c>
@@ -4019,46 +4019,46 @@
         <v>123</v>
       </c>
       <c r="C57" s="19">
-        <v>3.1613282891529</v>
+        <v>3.1613313345896201</v>
       </c>
       <c r="D57" s="20">
-        <v>0.37134639626304</v>
+        <v>0.37134675399619999</v>
       </c>
       <c r="E57" s="20">
-        <v>0.49747745228487</v>
+        <v>0.49747793152523001</v>
       </c>
       <c r="F57" s="20">
-        <v>2.2925045041205601</v>
+        <v>2.2925067125838301</v>
       </c>
       <c r="G57" s="20">
-        <v>9.8319110958868201</v>
+        <v>10.7510688442778</v>
       </c>
       <c r="H57" s="19">
-        <v>12.612473711223201</v>
+        <v>11.7875368863301</v>
       </c>
       <c r="I57" s="20">
-        <v>0.82217118186339</v>
+        <v>0.82132018209407998</v>
       </c>
       <c r="J57" s="20">
-        <v>3.1760414807937498</v>
+        <v>3.6052549320444101</v>
       </c>
       <c r="K57" s="20">
-        <v>4.1352768982099997E-3</v>
+        <v>4.1352808818999999E-3</v>
       </c>
       <c r="L57" s="20">
         <v>0</v>
       </c>
       <c r="M57" s="20">
-        <v>1.0490469982669901</v>
+        <v>1.2241951446517501</v>
       </c>
       <c r="N57" s="19">
-        <v>2.2421976849659599</v>
+        <v>2.4403413459799399</v>
       </c>
       <c r="O57" s="21">
-        <v>6.9632234521616496</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+        <v>5.3349303648661701</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>124</v>
       </c>
@@ -4066,46 +4066,46 @@
         <v>125</v>
       </c>
       <c r="C58" s="19">
-        <v>4.4951197383968102</v>
+        <v>4.4951638572434298</v>
       </c>
       <c r="D58" s="20">
-        <v>0.86655926208293999</v>
+        <v>0.86656776721682005</v>
       </c>
       <c r="E58" s="20">
-        <v>1.0576435829489399</v>
+        <v>1.0576539635433899</v>
       </c>
       <c r="F58" s="20">
-        <v>2.5709166732324298</v>
+        <v>2.5709419063485601</v>
       </c>
       <c r="G58" s="20">
-        <v>9.6898517450562807</v>
+        <v>9.61956196543324</v>
       </c>
       <c r="H58" s="19" t="s">
         <v>26</v>
       </c>
       <c r="I58" s="20">
-        <v>4.8572524407328004</v>
+        <v>4.8280476122866496</v>
       </c>
       <c r="J58" s="20">
-        <v>2.1822202086999999E-3</v>
+        <v>2.1199675236799999E-3</v>
       </c>
       <c r="K58" s="20">
-        <v>0.95320195214668002</v>
+        <v>0.95321130766404005</v>
       </c>
       <c r="L58" s="20">
         <v>0</v>
       </c>
       <c r="M58" s="20">
-        <v>1.85032208283135</v>
+        <v>1.79272203101924</v>
       </c>
       <c r="N58" s="19">
-        <v>1.16337267290608</v>
+        <v>1.2201864349477201</v>
       </c>
       <c r="O58" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>126</v>
       </c>
@@ -4113,46 +4113,46 @@
         <v>127</v>
       </c>
       <c r="C59" s="19">
-        <v>8.8527696278548493</v>
+        <v>8.8522829399580392</v>
       </c>
       <c r="D59" s="20">
-        <v>2.6542591399051401</v>
+        <v>2.6541132199441901</v>
       </c>
       <c r="E59" s="20">
-        <v>1.2397457875128</v>
+        <v>1.2396776315237401</v>
       </c>
       <c r="F59" s="20">
-        <v>4.9587647992006598</v>
+        <v>4.9584921872484298</v>
       </c>
       <c r="G59" s="20">
-        <v>5.0344338810897797</v>
+        <v>4.88220298343915</v>
       </c>
       <c r="H59" s="19">
-        <v>-7.4704691216664996</v>
+        <v>-7.6887647801990999</v>
       </c>
       <c r="I59" s="20">
-        <v>5.7763129816151801</v>
+        <v>2.6809965167742802</v>
       </c>
       <c r="J59" s="20">
         <v>0</v>
       </c>
       <c r="K59" s="20">
-        <v>1.404175050589E-2</v>
+        <v>1.4040978549739999E-2</v>
       </c>
       <c r="L59" s="20">
-        <v>6.6601810310903904</v>
+        <v>6.6491608062252299</v>
       </c>
       <c r="M59" s="20">
-        <v>0.90090931528517004</v>
+        <v>1.0990952906414</v>
       </c>
       <c r="N59" s="19">
-        <v>2.37029597618442</v>
+        <v>2.38044900945575</v>
       </c>
       <c r="O59" s="21">
-        <v>-11.639584213117001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>-15.150514348297</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>128</v>
       </c>
@@ -4160,46 +4160,46 @@
         <v>129</v>
       </c>
       <c r="C60" s="15">
-        <v>5.6422980788314403</v>
+        <v>5.8260188713818497</v>
       </c>
       <c r="D60" s="16">
-        <v>0.52194182773519004</v>
+        <v>0.53893695364256999</v>
       </c>
       <c r="E60" s="16">
-        <v>0.86330556616551002</v>
+        <v>0.89141595321225997</v>
       </c>
       <c r="F60" s="16">
-        <v>4.2570506815059703</v>
+        <v>4.39566596099072</v>
       </c>
       <c r="G60" s="16">
-        <v>6.2152807754487398</v>
+        <v>6.6669125949084496</v>
       </c>
       <c r="H60" s="15">
-        <v>13.559110558594201</v>
+        <v>13.7513594342636</v>
       </c>
       <c r="I60" s="16">
-        <v>3.5822033321455802</v>
+        <v>3.6988446768757499</v>
       </c>
       <c r="J60" s="16">
         <v>0</v>
       </c>
       <c r="K60" s="16">
-        <v>1.0562768163129601</v>
+        <v>1.0906706060657001</v>
       </c>
       <c r="L60" s="16">
-        <v>2.7972307382984201</v>
+        <v>2.8835042814954401</v>
       </c>
       <c r="M60" s="16">
-        <v>1.3384577402476501</v>
+        <v>1.27602407199136</v>
       </c>
       <c r="N60" s="15">
-        <v>2.1299214609612598</v>
+        <v>2.3036412800460901</v>
       </c>
       <c r="O60" s="17">
-        <v>9.8194271349194402</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9.8963638715407303</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="22" t="s">
         <v>37</v>
       </c>
@@ -4207,46 +4207,46 @@
         <v>130</v>
       </c>
       <c r="C61" s="24">
-        <v>3.46805941258657</v>
+        <v>3.4691941425760202</v>
       </c>
       <c r="D61" s="25">
-        <v>0.48006720675103998</v>
+        <v>0.48016944805707001</v>
       </c>
       <c r="E61" s="25">
-        <v>0.77602371286561</v>
+        <v>0.77604222246197996</v>
       </c>
       <c r="F61" s="25">
-        <v>2.2119685257351001</v>
+        <v>2.2129825048366301</v>
       </c>
       <c r="G61" s="25">
-        <v>8.8190014889552408</v>
+        <v>9.5119885426564004</v>
       </c>
       <c r="H61" s="24">
-        <v>11.9331545554209</v>
+        <v>11.3416333589443</v>
       </c>
       <c r="I61" s="25">
-        <v>1.7545155134055199</v>
+        <v>1.64323828668961</v>
       </c>
       <c r="J61" s="25">
-        <v>2.4271904349140798</v>
+        <v>2.9751432614394702</v>
       </c>
       <c r="K61" s="25">
-        <v>0.43241109002396</v>
+        <v>0.30975812225904997</v>
       </c>
       <c r="L61" s="25">
-        <v>0.65380567743216</v>
+        <v>0.60858443701674003</v>
       </c>
       <c r="M61" s="25">
-        <v>1.0779879814945099</v>
+        <v>1.1700444305331399</v>
       </c>
       <c r="N61" s="24">
-        <v>1.96328571987912</v>
+        <v>2.0919663251099299</v>
       </c>
       <c r="O61" s="26">
-        <v>7.1329891650826101</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5.8293750692755903</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="32" t="s">
         <v>37</v>
       </c>
@@ -4254,46 +4254,46 @@
         <v>131</v>
       </c>
       <c r="C62" s="34">
-        <v>4.8255414999301696</v>
+        <v>4.8225658670188398</v>
       </c>
       <c r="D62" s="35">
-        <v>0.43478688333317</v>
+        <v>0.43471486205517001</v>
       </c>
       <c r="E62" s="35">
-        <v>1.90254630312311</v>
+        <v>1.9008996804877001</v>
       </c>
       <c r="F62" s="35">
-        <v>2.4882082784785302</v>
+        <v>2.4869512894446899</v>
       </c>
       <c r="G62" s="35">
-        <v>9.2736481102469295</v>
+        <v>9.4026719669916208</v>
       </c>
       <c r="H62" s="34">
-        <v>11.723455504816799</v>
+        <v>11.541282309332701</v>
       </c>
       <c r="I62" s="35">
-        <v>3.5618619033230998</v>
+        <v>3.5409631384747602</v>
       </c>
       <c r="J62" s="35">
-        <v>3.2483867589713</v>
+        <v>3.1762664654861101</v>
       </c>
       <c r="K62" s="35">
-        <v>0.31458372138669</v>
+        <v>0.31734503618561</v>
       </c>
       <c r="L62" s="35">
-        <v>0.84668119835389</v>
+        <v>0.86109985498660002</v>
       </c>
       <c r="M62" s="35">
-        <v>2.3342495635712299</v>
+        <v>2.3034175157245902</v>
       </c>
       <c r="N62" s="34">
-        <v>1.0074085184014701</v>
+        <v>1.06469612498025</v>
       </c>
       <c r="O62" s="36">
-        <v>7.5340076474553603</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7.3594204504443104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="32" t="s">
         <v>37</v>
       </c>
@@ -4301,46 +4301,46 @@
         <v>132</v>
       </c>
       <c r="C63" s="38">
-        <v>8.5436439598311704</v>
+        <v>8.5384280952024891</v>
       </c>
       <c r="D63" s="39">
-        <v>1.6645104395759999E-2</v>
+        <v>1.6647516394309999E-2</v>
       </c>
       <c r="E63" s="39">
-        <v>5.0872696938425701</v>
+        <v>5.0841951388932598</v>
       </c>
       <c r="F63" s="39">
-        <v>3.4432822577111901</v>
+        <v>3.4411469115985001</v>
       </c>
       <c r="G63" s="39">
-        <v>17.437630488749502</v>
+        <v>16.844513531105399</v>
       </c>
       <c r="H63" s="38">
-        <v>10.862058710660801</v>
+        <v>11.1859365686272</v>
       </c>
       <c r="I63" s="39">
-        <v>3.6584858175703099</v>
+        <v>3.6686578221150699</v>
       </c>
       <c r="J63" s="39">
-        <v>0.96126765142482995</v>
+        <v>1.0296623833312299</v>
       </c>
       <c r="K63" s="39">
-        <v>0.14345933286807999</v>
+        <v>0.13339038263565001</v>
       </c>
       <c r="L63" s="39">
-        <v>3.6263851122060001E-2</v>
+        <v>3.6028775522979999E-2</v>
       </c>
       <c r="M63" s="39">
-        <v>1.90566778783272</v>
+        <v>1.89241181348733</v>
       </c>
       <c r="N63" s="38">
-        <v>0.31139262871139001</v>
+        <v>0.30264652096056999</v>
       </c>
       <c r="O63" s="40">
-        <v>11.1624932762721</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+        <v>11.4604545148045</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="41" t="s">
         <v>37</v>
       </c>
@@ -4348,46 +4348,46 @@
         <v>133</v>
       </c>
       <c r="C64" s="34">
-        <v>7.7253714329412198</v>
+        <v>7.66721409991536</v>
       </c>
       <c r="D64" s="35">
-        <v>2.799040939706E-2</v>
+        <v>2.7965943132379999E-2</v>
       </c>
       <c r="E64" s="35">
-        <v>3.92263312271113</v>
+        <v>3.89315021600328</v>
       </c>
       <c r="F64" s="35">
-        <v>3.7840522167938202</v>
+        <v>3.7555046123717299</v>
       </c>
       <c r="G64" s="35">
-        <v>15.6766575898498</v>
+        <v>12.558984631765201</v>
       </c>
       <c r="H64" s="34">
-        <v>1.8830236661358399</v>
+        <v>4.9787767889715902</v>
       </c>
       <c r="I64" s="35">
-        <v>4.6816214079150802</v>
+        <v>4.8290587633132098</v>
       </c>
       <c r="J64" s="35">
-        <v>1.4013766768326099</v>
+        <v>1.49785049939402</v>
       </c>
       <c r="K64" s="35">
-        <v>0.28736735220748</v>
+        <v>0.38373589319488</v>
       </c>
       <c r="L64" s="35">
-        <v>2.333141565487E-2</v>
+        <v>2.311420624781E-2</v>
       </c>
       <c r="M64" s="35">
-        <v>1.1965987812258401</v>
+        <v>1.19043295616859</v>
       </c>
       <c r="N64" s="34">
-        <v>0.18843964402991001</v>
+        <v>0.18850566696067</v>
       </c>
       <c r="O64" s="36">
-        <v>3.46753120410022</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+        <v>6.52419633031883</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="41" t="s">
         <v>37</v>
       </c>
@@ -4395,46 +4395,46 @@
         <v>134</v>
       </c>
       <c r="C65" s="43">
-        <v>4.7279436484718502</v>
+        <v>4.7282405847404902</v>
       </c>
       <c r="D65" s="44">
-        <v>2.8145338934730001E-2</v>
+        <v>2.8147765122889998E-2</v>
       </c>
       <c r="E65" s="44">
-        <v>2.36449496647348</v>
+        <v>2.3646402136581499</v>
       </c>
       <c r="F65" s="44">
-        <v>2.3353034194229498</v>
+        <v>2.3354526823124999</v>
       </c>
       <c r="G65" s="44">
-        <v>19.093541667445599</v>
+        <v>18.2719795434177</v>
       </c>
       <c r="H65" s="43">
-        <v>17.7599622188838</v>
+        <v>18.164818636383799</v>
       </c>
       <c r="I65" s="44">
-        <v>2.37960328453297</v>
+        <v>2.3620054544179001</v>
       </c>
       <c r="J65" s="44">
-        <v>0.82353533565158998</v>
+        <v>0.85691910969952001</v>
       </c>
       <c r="K65" s="44">
-        <v>0.20737689902709999</v>
+        <v>0.15643418480136001</v>
       </c>
       <c r="L65" s="44">
-        <v>8.861706007964E-2</v>
+        <v>8.8046878287579997E-2</v>
       </c>
       <c r="M65" s="44">
-        <v>2.9909557695292901</v>
+        <v>2.9405367715155002</v>
       </c>
       <c r="N65" s="43">
-        <v>0.66841169890938001</v>
+        <v>0.64683922594396004</v>
       </c>
       <c r="O65" s="45">
-        <v>15.360668740219801</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>15.8380479205538</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="41" t="s">
         <v>37</v>
       </c>
@@ -4442,46 +4442,46 @@
         <v>135</v>
       </c>
       <c r="C66" s="47">
-        <v>8.3539675630388093</v>
+        <v>8.3489292769230499</v>
       </c>
       <c r="D66" s="48">
-        <v>4.2645297756719998E-2</v>
+        <v>4.2647411114050002E-2</v>
       </c>
       <c r="E66" s="48">
-        <v>4.9248545873883298</v>
+        <v>4.9219070330820198</v>
       </c>
       <c r="F66" s="48">
-        <v>3.39455982657738</v>
+        <v>3.3924855426612699</v>
       </c>
       <c r="G66" s="48">
-        <v>17.0167966431911</v>
+        <v>16.460593191308998</v>
       </c>
       <c r="H66" s="47">
-        <v>10.9070905728251</v>
+        <v>11.203538915235599</v>
       </c>
       <c r="I66" s="48">
-        <v>3.6534345394396399</v>
+        <v>3.6623323598286199</v>
       </c>
       <c r="J66" s="48">
-        <v>1.08083302838364</v>
+        <v>1.13599620067215</v>
       </c>
       <c r="K66" s="48">
-        <v>0.15240532608398</v>
+        <v>0.14250272929155999</v>
       </c>
       <c r="L66" s="48">
-        <v>7.86306239307E-2</v>
+        <v>7.6899357194880003E-2</v>
       </c>
       <c r="M66" s="48">
-        <v>1.9280730667728401</v>
+        <v>1.91277132255148</v>
       </c>
       <c r="N66" s="47">
-        <v>0.34777875392259</v>
+        <v>0.34039528146661002</v>
       </c>
       <c r="O66" s="49">
-        <v>10.972804313171</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+        <v>11.257306383887499</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="41" t="s">
         <v>37</v>
       </c>
@@ -4489,46 +4489,46 @@
         <v>136</v>
       </c>
       <c r="C67" s="51">
-        <v>4.5644189206342496</v>
+        <v>4.5645733904561503</v>
       </c>
       <c r="D67" s="52">
-        <v>0.53108093273490997</v>
+        <v>0.53124841785436006</v>
       </c>
       <c r="E67" s="52">
-        <v>1.3964962633748299</v>
+        <v>1.3965361963582099</v>
       </c>
       <c r="F67" s="52">
-        <v>2.6368415805763199</v>
+        <v>2.6367886323306502</v>
       </c>
       <c r="G67" s="52">
-        <v>7.6004438053009897</v>
+        <v>7.2245595342225002</v>
       </c>
       <c r="H67" s="51">
-        <v>10.568400977710001</v>
+        <v>10.512635130415401</v>
       </c>
       <c r="I67" s="52">
-        <v>3.61886177032296</v>
+        <v>3.57009214414835</v>
       </c>
       <c r="J67" s="52">
-        <v>2.34473054909235</v>
+        <v>1.87861195753355</v>
       </c>
       <c r="K67" s="52">
-        <v>0.23163410450472999</v>
+        <v>0.31220843529442999</v>
       </c>
       <c r="L67" s="52">
-        <v>1.4955571363029601</v>
+        <v>1.65649766219115</v>
       </c>
       <c r="M67" s="52">
-        <v>2.3287523252334301</v>
+        <v>2.28441525746535</v>
       </c>
       <c r="N67" s="51">
-        <v>0.81821697307514996</v>
+        <v>0.83753426673206999</v>
       </c>
       <c r="O67" s="53">
-        <v>6.9683716598243599</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+        <v>7.1134596953471796</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="41" t="s">
         <v>37</v>
       </c>
@@ -4536,46 +4536,46 @@
         <v>137</v>
       </c>
       <c r="C68" s="43">
-        <v>4.21033448470354</v>
+        <v>4.2110331913412198</v>
       </c>
       <c r="D68" s="44">
-        <v>0.27395923014691997</v>
+        <v>0.27394602717574001</v>
       </c>
       <c r="E68" s="44">
-        <v>1.1749504778089499</v>
+        <v>1.1750512031379401</v>
       </c>
       <c r="F68" s="44">
-        <v>2.76142470631159</v>
+        <v>2.7620358905684101</v>
       </c>
       <c r="G68" s="44">
-        <v>7.8225427979812796</v>
+        <v>7.6205121945404501</v>
       </c>
       <c r="H68" s="43">
-        <v>11.78788626966</v>
+        <v>11.4546437704873</v>
       </c>
       <c r="I68" s="44">
-        <v>3.0192420178699302</v>
+        <v>2.85715736523768</v>
       </c>
       <c r="J68" s="44">
-        <v>2.73799785412925</v>
+        <v>2.6965436514987</v>
       </c>
       <c r="K68" s="44">
-        <v>0.30200375995822998</v>
+        <v>0.26908102097478998</v>
       </c>
       <c r="L68" s="44">
-        <v>0.35828757842371001</v>
+        <v>0.35001738951541</v>
       </c>
       <c r="M68" s="44">
-        <v>2.1468445185311</v>
+        <v>2.1551810081190199</v>
       </c>
       <c r="N68" s="43">
-        <v>1.2494194552237099</v>
+        <v>1.3635855986584899</v>
       </c>
       <c r="O68" s="45">
-        <v>8.0125751212639305</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+        <v>7.4773924669585696</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="41" t="s">
         <v>37</v>
       </c>
@@ -4583,46 +4583,46 @@
         <v>138</v>
       </c>
       <c r="C69" s="43">
-        <v>4.1576103530106501</v>
+        <v>4.1613618920937796</v>
       </c>
       <c r="D69" s="44">
-        <v>1.2712950266890299</v>
+        <v>1.27257085285738</v>
       </c>
       <c r="E69" s="44">
-        <v>1.46353540071008</v>
+        <v>1.4645615686989</v>
       </c>
       <c r="F69" s="44">
-        <v>1.4227798975919399</v>
+        <v>1.4242294425961399</v>
       </c>
       <c r="G69" s="44">
-        <v>9.5767857907821803</v>
+        <v>11.039569139216299</v>
       </c>
       <c r="H69" s="43">
-        <v>10.0290678466292</v>
+        <v>9.9847984110058192</v>
       </c>
       <c r="I69" s="44">
-        <v>3.44557360120162</v>
+        <v>3.4843155226324898</v>
       </c>
       <c r="J69" s="44">
-        <v>0.11504156492037</v>
+        <v>0.13728205245117001</v>
       </c>
       <c r="K69" s="44">
-        <v>0.3537808642484</v>
+        <v>0.36267607838186999</v>
       </c>
       <c r="L69" s="44">
-        <v>3.1394327356625999</v>
+        <v>3.14128974869549</v>
       </c>
       <c r="M69" s="44">
-        <v>0.72150840205234001</v>
+        <v>0.67659594767771003</v>
       </c>
       <c r="N69" s="43">
-        <v>1.1442255820288201</v>
+        <v>1.1041940621070601</v>
       </c>
       <c r="O69" s="45">
-        <v>8.0006522989183093</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+        <v>8.0470760443249993</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="41" t="s">
         <v>37</v>
       </c>
@@ -4630,46 +4630,46 @@
         <v>139</v>
       </c>
       <c r="C70" s="43">
-        <v>3.37717031795462</v>
+        <v>3.3669003347482902</v>
       </c>
       <c r="D70" s="44">
-        <v>0.56572744852366996</v>
+        <v>0.56372637936022996</v>
       </c>
       <c r="E70" s="44">
-        <v>0.96624119508629003</v>
+        <v>0.96352005630066995</v>
       </c>
       <c r="F70" s="44">
-        <v>1.8452016064290999</v>
+        <v>1.8396538313125399</v>
       </c>
       <c r="G70" s="44">
-        <v>9.5778742901385403</v>
+        <v>10.3608639801927</v>
       </c>
       <c r="H70" s="43">
-        <v>12.796825348200899</v>
+        <v>12.038795754616199</v>
       </c>
       <c r="I70" s="44">
-        <v>2.48720782619209</v>
+        <v>2.91030063037454</v>
       </c>
       <c r="J70" s="44">
-        <v>9.8104273678040599</v>
+        <v>10.808535542215299</v>
       </c>
       <c r="K70" s="44">
-        <v>0.19937310472854999</v>
+        <v>0.22134265394166</v>
       </c>
       <c r="L70" s="44">
-        <v>2.9895887140131201</v>
+        <v>2.9863780807524298</v>
       </c>
       <c r="M70" s="44">
-        <v>0.96460880491884005</v>
+        <v>0.89410434349788004</v>
       </c>
       <c r="N70" s="43">
-        <v>0.94922342997128994</v>
+        <v>0.96839915032704005</v>
       </c>
       <c r="O70" s="45">
-        <v>0.37081175295711999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-0.92966338574350005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="41" t="s">
         <v>37</v>
       </c>
@@ -4677,46 +4677,46 @@
         <v>140</v>
       </c>
       <c r="C71" s="43">
-        <v>3.46805941258657</v>
+        <v>3.4691941425760202</v>
       </c>
       <c r="D71" s="44">
-        <v>0.48006720675103998</v>
+        <v>0.48016944805707001</v>
       </c>
       <c r="E71" s="44">
-        <v>0.77602371286560001</v>
+        <v>0.77604222246197996</v>
       </c>
       <c r="F71" s="44">
-        <v>2.2119685257351001</v>
+        <v>2.2129825048366301</v>
       </c>
       <c r="G71" s="44">
-        <v>8.8190014889552408</v>
+        <v>9.5119885426564004</v>
       </c>
       <c r="H71" s="43">
-        <v>11.9331545554209</v>
+        <v>11.3416333589443</v>
       </c>
       <c r="I71" s="44">
-        <v>1.7545155134055199</v>
+        <v>1.64323828668961</v>
       </c>
       <c r="J71" s="44">
-        <v>2.4271904349140798</v>
+        <v>2.9751432614394702</v>
       </c>
       <c r="K71" s="44">
-        <v>0.43241109002396</v>
+        <v>0.30975812225904997</v>
       </c>
       <c r="L71" s="44">
-        <v>0.65380567743216</v>
+        <v>0.60858443701674003</v>
       </c>
       <c r="M71" s="44">
-        <v>1.0779879814945099</v>
+        <v>1.1700444305331399</v>
       </c>
       <c r="N71" s="43">
-        <v>1.96328571987912</v>
+        <v>2.0919663251099299</v>
       </c>
       <c r="O71" s="45">
-        <v>7.1329891650826101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+        <v>5.8293750692755903</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="41" t="s">
         <v>37</v>
       </c>
@@ -4724,46 +4724,46 @@
         <v>141</v>
       </c>
       <c r="C72" s="43">
-        <v>3.98816666910405</v>
+        <v>3.99021722415063</v>
       </c>
       <c r="D72" s="44">
-        <v>0.93117000368892999</v>
+        <v>0.93201254124332999</v>
       </c>
       <c r="E72" s="44">
-        <v>1.1570896716066901</v>
+        <v>1.1576320734919101</v>
       </c>
       <c r="F72" s="44">
-        <v>1.8999069343250701</v>
+        <v>1.900572550003</v>
       </c>
       <c r="G72" s="44">
-        <v>9.0250961925746704</v>
+        <v>9.7650939963396208</v>
       </c>
       <c r="H72" s="43">
-        <v>15.054149155050499</v>
+        <v>13.4706580923866</v>
       </c>
       <c r="I72" s="44">
-        <v>3.1829773425238401</v>
+        <v>3.111252085112</v>
       </c>
       <c r="J72" s="44">
-        <v>9.060265992673E-2</v>
+        <v>0.10573530202074</v>
       </c>
       <c r="K72" s="44">
-        <v>0.48971156195257998</v>
+        <v>0.48946200276675</v>
       </c>
       <c r="L72" s="44">
-        <v>3.1158625603486301</v>
+        <v>3.1157648061768501</v>
       </c>
       <c r="M72" s="44">
-        <v>1.2113883506854399</v>
+        <v>1.1869195398260299</v>
       </c>
       <c r="N72" s="43">
-        <v>1.1879557906507701</v>
+        <v>1.0798857406567399</v>
       </c>
       <c r="O72" s="45">
-        <v>12.1416055740102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+        <v>10.604142786051399</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="41" t="s">
         <v>37</v>
       </c>
@@ -4771,46 +4771,46 @@
         <v>142</v>
       </c>
       <c r="C73" s="43">
-        <v>6.2724535004034303</v>
+        <v>6.2624748066554803</v>
       </c>
       <c r="D73" s="44">
-        <v>0.65162354583843995</v>
+        <v>0.65140357652545999</v>
       </c>
       <c r="E73" s="44">
-        <v>3.2372972176161099</v>
+        <v>3.23155216278436</v>
       </c>
       <c r="F73" s="44">
-        <v>2.3835327941250402</v>
+        <v>2.3795191243430698</v>
       </c>
       <c r="G73" s="44">
-        <v>11.937225943169</v>
+        <v>12.4705197812257</v>
       </c>
       <c r="H73" s="43">
-        <v>6.9804047563534004</v>
+        <v>6.81275295354774</v>
       </c>
       <c r="I73" s="44">
-        <v>4.6752188263810499</v>
+        <v>4.7844580877821601</v>
       </c>
       <c r="J73" s="44">
-        <v>3.14486040265394</v>
+        <v>3.3659103425410102</v>
       </c>
       <c r="K73" s="44">
-        <v>0.58632239620309001</v>
+        <v>0.65954823641562998</v>
       </c>
       <c r="L73" s="44">
-        <v>0.82414756187088001</v>
+        <v>0.82339915651213003</v>
       </c>
       <c r="M73" s="44">
-        <v>2.9182785924234702</v>
+        <v>2.88747400547985</v>
       </c>
       <c r="N73" s="43">
-        <v>0.63811743429696</v>
+        <v>0.69245472522826002</v>
       </c>
       <c r="O73" s="45">
-        <v>3.5438971952861</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+        <v>3.16842457515301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="41" t="s">
         <v>37</v>
       </c>
@@ -4818,46 +4818,46 @@
         <v>143</v>
       </c>
       <c r="C74" s="43">
-        <v>5.6520871994827102</v>
+        <v>5.6520914852355801</v>
       </c>
       <c r="D74" s="44">
-        <v>2.6414970031669999E-2</v>
+        <v>2.6415281850959999E-2</v>
       </c>
       <c r="E74" s="44">
-        <v>3.1590590460704502</v>
+        <v>3.15905910580542</v>
       </c>
       <c r="F74" s="44">
-        <v>2.4666130621243498</v>
+        <v>2.4666169763220598</v>
       </c>
       <c r="G74" s="44">
-        <v>9.1431004136543503</v>
+        <v>7.7398968343571202</v>
       </c>
       <c r="H74" s="43">
-        <v>20.192272112421101</v>
+        <v>24.888837403058201</v>
       </c>
       <c r="I74" s="44">
-        <v>4.4107643731116504</v>
+        <v>4.4700039359830601</v>
       </c>
       <c r="J74" s="44">
-        <v>5.9883274539556597</v>
+        <v>5.9355581236899999</v>
       </c>
       <c r="K74" s="44">
-        <v>3.481053586216E-2</v>
+        <v>4.6844460231689998E-2</v>
       </c>
       <c r="L74" s="44">
-        <v>5.4669460279430003E-2</v>
+        <v>1.86038085286E-2</v>
       </c>
       <c r="M74" s="44">
-        <v>3.2850943321489199</v>
+        <v>3.0605140769004802</v>
       </c>
       <c r="N74" s="43">
-        <v>0.41749644938482999</v>
+        <v>0.42760729689280003</v>
       </c>
       <c r="O74" s="45">
-        <v>14.822638253901699</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>19.869713572797799</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="41" t="s">
         <v>37</v>
       </c>
@@ -4865,46 +4865,46 @@
         <v>144</v>
       </c>
       <c r="C75" s="47">
-        <v>3.5708726715513799</v>
+        <v>3.5691703811705802</v>
       </c>
       <c r="D75" s="48">
-        <v>0.83899869264587001</v>
+        <v>0.83833683538365</v>
       </c>
       <c r="E75" s="48">
-        <v>1.2313183753738901</v>
+        <v>1.2307142606073</v>
       </c>
       <c r="F75" s="48">
-        <v>1.50055564138373</v>
+        <v>1.5001193230388601</v>
       </c>
       <c r="G75" s="48">
-        <v>8.1334824960359207</v>
+        <v>11.103206244627</v>
       </c>
       <c r="H75" s="47">
-        <v>16.984006718900201</v>
+        <v>14.4668714316718</v>
       </c>
       <c r="I75" s="48">
-        <v>3.0628862302781101</v>
+        <v>3.7117791217943998</v>
       </c>
       <c r="J75" s="48">
-        <v>14.386591530873799</v>
+        <v>16.9588732735779</v>
       </c>
       <c r="K75" s="48">
-        <v>3.1800329598900001E-3</v>
+        <v>3.1782505794300002E-3</v>
       </c>
       <c r="L75" s="48">
-        <v>0.54570457302208997</v>
+        <v>0.54472390214048005</v>
       </c>
       <c r="M75" s="48">
-        <v>1.3265326950162499</v>
+        <v>1.37259836382073</v>
       </c>
       <c r="N75" s="47">
-        <v>0.63547433296800004</v>
+        <v>0.76132413536370003</v>
       </c>
       <c r="O75" s="49">
-        <v>3.1494097843382902</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-1.4620473720159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="41" t="s">
         <v>37</v>
       </c>
@@ -4912,46 +4912,46 @@
         <v>145</v>
       </c>
       <c r="C76" s="51">
-        <v>3.7369985474251002</v>
+        <v>3.73706068804211</v>
       </c>
       <c r="D76" s="52">
-        <v>3.4344354883840002E-2</v>
+        <v>3.4344287852240002E-2</v>
       </c>
       <c r="E76" s="52">
-        <v>1.8383423884774199</v>
+        <v>1.8383634042122601</v>
       </c>
       <c r="F76" s="52">
-        <v>1.8643117107625899</v>
+        <v>1.86435290268073</v>
       </c>
       <c r="G76" s="52">
-        <v>16.852028066284898</v>
+        <v>15.0820993567126</v>
       </c>
       <c r="H76" s="51">
-        <v>14.251228524908401</v>
+        <v>14.430643818122199</v>
       </c>
       <c r="I76" s="52">
-        <v>3.2314179137483001</v>
+        <v>3.09533572350922</v>
       </c>
       <c r="J76" s="52">
-        <v>1.3630681462807701</v>
+        <v>1.45658226346564</v>
       </c>
       <c r="K76" s="52">
-        <v>0.17196811116922001</v>
+        <v>0.17152985216014</v>
       </c>
       <c r="L76" s="52">
-        <v>0.25390897053275002</v>
+        <v>0.25173755320053998</v>
       </c>
       <c r="M76" s="52">
-        <v>2.3041292625323502</v>
+        <v>2.1808706812338299</v>
       </c>
       <c r="N76" s="51">
-        <v>0.42284198591137001</v>
+        <v>0.41874548609861001</v>
       </c>
       <c r="O76" s="53">
-        <v>12.9667299622303</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+        <v>13.0465137054726</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="41" t="s">
         <v>37</v>
       </c>
@@ -4959,46 +4959,46 @@
         <v>146</v>
       </c>
       <c r="C77" s="43">
-        <v>8.9445975304901495</v>
+        <v>8.9428820253514694</v>
       </c>
       <c r="D77" s="44">
-        <v>1.49939082883E-2</v>
+        <v>1.499080170167E-2</v>
       </c>
       <c r="E77" s="44">
-        <v>4.5684229672586403</v>
+        <v>4.5675337798041697</v>
       </c>
       <c r="F77" s="44">
-        <v>4.3629685850750102</v>
+        <v>4.3621446779337898</v>
       </c>
       <c r="G77" s="44">
-        <v>15.999262572832301</v>
+        <v>11.310500491368201</v>
       </c>
       <c r="H77" s="43">
-        <v>-1.3502098867478001</v>
+        <v>3.5195460935506899</v>
       </c>
       <c r="I77" s="44">
-        <v>5.0441584364979297</v>
+        <v>5.23545747476172</v>
       </c>
       <c r="J77" s="44">
-        <v>1.55410665774998</v>
+        <v>1.6688085653740801</v>
       </c>
       <c r="K77" s="44">
-        <v>0.34875081024650001</v>
+        <v>0.49500213475700999</v>
       </c>
       <c r="L77" s="44">
-        <v>2.7025920038969999E-2</v>
+        <v>2.695885382629E-2</v>
       </c>
       <c r="M77" s="44">
-        <v>1.10888992967816</v>
+        <v>1.1156790355286901</v>
       </c>
       <c r="N77" s="43">
-        <v>0.1660972304553</v>
+        <v>0.16838954567629999</v>
       </c>
       <c r="O77" s="45">
-        <v>0.48907800158122999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+        <v>5.28016543315006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="41" t="s">
         <v>37</v>
       </c>
@@ -5006,46 +5006,46 @@
         <v>147</v>
       </c>
       <c r="C78" s="43">
-        <v>9.5956994223389707</v>
+        <v>9.5948375613312997</v>
       </c>
       <c r="D78" s="44">
-        <v>4.2364507494499996E-3</v>
+        <v>4.2400208095399999E-3</v>
       </c>
       <c r="E78" s="44">
-        <v>7.1418713032093297</v>
+        <v>7.1412311645019999</v>
       </c>
       <c r="F78" s="44">
-        <v>2.4525896531985798</v>
+        <v>2.4523668015078601</v>
       </c>
       <c r="G78" s="44">
-        <v>17.305505413133801</v>
+        <v>17.161590533388299</v>
       </c>
       <c r="H78" s="43">
-        <v>7.7587569794877203</v>
+        <v>7.9726949355109404</v>
       </c>
       <c r="I78" s="44">
-        <v>4.5220360292746502</v>
+        <v>4.5277699636799502</v>
       </c>
       <c r="J78" s="44">
-        <v>5.9663807161989997E-2</v>
+        <v>6.1683286186649998E-2</v>
       </c>
       <c r="K78" s="44">
-        <v>1.9333794946240001E-2</v>
+        <v>1.983211015519E-2</v>
       </c>
       <c r="L78" s="44">
-        <v>7.7499881463599998E-3</v>
+        <v>7.7456698337300001E-3</v>
       </c>
       <c r="M78" s="44">
-        <v>0.77867075570247002</v>
+        <v>0.8169975423675</v>
       </c>
       <c r="N78" s="43">
-        <v>6.5139116671000002E-2</v>
+        <v>6.5310733318040007E-2</v>
       </c>
       <c r="O78" s="45">
-        <v>11.3502355461343</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>11.5288955573298</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="41" t="s">
         <v>37</v>
       </c>
@@ -5053,46 +5053,46 @@
         <v>148</v>
       </c>
       <c r="C79" s="47">
-        <v>11.752642179847401</v>
+        <v>11.7396074734602</v>
       </c>
       <c r="D79" s="48">
-        <v>2.0030966148700002E-3</v>
+        <v>2.0046815646800002E-3</v>
       </c>
       <c r="E79" s="48">
-        <v>7.4081185190660497</v>
+        <v>7.4000115149557599</v>
       </c>
       <c r="F79" s="48">
-        <v>4.3454615063911204</v>
+        <v>4.3405318720078299</v>
       </c>
       <c r="G79" s="48">
-        <v>17.313396830577101</v>
+        <v>17.277937302065801</v>
       </c>
       <c r="H79" s="47">
-        <v>6.2687111574793297</v>
+        <v>6.0800594725470596</v>
       </c>
       <c r="I79" s="48">
-        <v>4.3465563836727696</v>
+        <v>4.3766491006011696</v>
       </c>
       <c r="J79" s="48">
-        <v>0.30247578389742003</v>
+        <v>0.32772200808350999</v>
       </c>
       <c r="K79" s="48">
-        <v>6.1381406625709997E-2</v>
+        <v>7.3017478736890004E-2</v>
       </c>
       <c r="L79" s="48">
-        <v>2.3016419435200001E-3</v>
+        <v>2.2984242964699999E-3</v>
       </c>
       <c r="M79" s="48">
-        <v>0.96234957346432004</v>
+        <v>0.98653743927626003</v>
       </c>
       <c r="N79" s="47">
-        <v>8.0057560001090003E-2</v>
+        <v>7.835624250664E-2</v>
       </c>
       <c r="O79" s="49">
-        <v>9.2067015752200305</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+        <v>8.9887769802484705</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="41" t="s">
         <v>37</v>
       </c>
@@ -5100,46 +5100,46 @@
         <v>149</v>
       </c>
       <c r="C80" s="51">
-        <v>4.8560060829492704</v>
+        <v>4.8449154870945801</v>
       </c>
       <c r="D80" s="52">
-        <v>9.1732306532150004E-2</v>
+        <v>9.1563358970359998E-2</v>
       </c>
       <c r="E80" s="52">
-        <v>2.8257109378465799</v>
+        <v>2.8191652610967499</v>
       </c>
       <c r="F80" s="52">
-        <v>1.93856282031809</v>
+        <v>1.93418684876646</v>
       </c>
       <c r="G80" s="52">
-        <v>9.1051105816999893</v>
+        <v>9.1602723880027508</v>
       </c>
       <c r="H80" s="51">
-        <v>23.814989007417001</v>
+        <v>26.405122935914999</v>
       </c>
       <c r="I80" s="52">
-        <v>3.50816080422035</v>
+        <v>4.0552472818198204</v>
       </c>
       <c r="J80" s="52">
-        <v>11.832721042585501</v>
+        <v>12.6576995034586</v>
       </c>
       <c r="K80" s="52">
-        <v>9.7350372615399999E-3</v>
+        <v>1.1982915252919999E-2</v>
       </c>
       <c r="L80" s="52">
-        <v>0.20930128828979</v>
+        <v>0.16064659343405999</v>
       </c>
       <c r="M80" s="52">
-        <v>3.16186882179157</v>
+        <v>2.9082415394140999</v>
       </c>
       <c r="N80" s="51">
-        <v>0.4389517379167</v>
+        <v>0.46422937047131002</v>
       </c>
       <c r="O80" s="53">
-        <v>11.6705718837923</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+        <v>14.2575702957039</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="41" t="s">
         <v>37</v>
       </c>
@@ -5147,46 +5147,46 @@
         <v>150</v>
       </c>
       <c r="C81" s="43">
-        <v>6.63289947914088</v>
+        <v>6.6357351301101302</v>
       </c>
       <c r="D81" s="44">
-        <v>7.9714067960800009E-3</v>
+        <v>7.9764707454999997E-3</v>
       </c>
       <c r="E81" s="44">
-        <v>3.69387939958128</v>
+        <v>3.6953724688685199</v>
       </c>
       <c r="F81" s="44">
-        <v>2.9315013578036</v>
+        <v>2.9328392860401702</v>
       </c>
       <c r="G81" s="44">
-        <v>12.792041694477801</v>
+        <v>12.378172321341699</v>
       </c>
       <c r="H81" s="43">
-        <v>17.469263075660599</v>
+        <v>17.3682334689119</v>
       </c>
       <c r="I81" s="44">
-        <v>4.7294031381341401</v>
+        <v>4.7728817581706799</v>
       </c>
       <c r="J81" s="44">
-        <v>7.3789349655340901</v>
+        <v>7.9641870214007398</v>
       </c>
       <c r="K81" s="44">
-        <v>0.39772739169561999</v>
+        <v>0.39958806703934002</v>
       </c>
       <c r="L81" s="44">
-        <v>7.5955734252E-4</v>
+        <v>7.5591454280999996E-4</v>
       </c>
       <c r="M81" s="44">
-        <v>3.6767734014217801</v>
+        <v>3.57264184838865</v>
       </c>
       <c r="N81" s="43">
-        <v>0.21415036000413001</v>
+        <v>0.21729481139814</v>
       </c>
       <c r="O81" s="45">
-        <v>10.5303205377966</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+        <v>9.9866475643128805</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="41" t="s">
         <v>37</v>
       </c>
@@ -5194,46 +5194,46 @@
         <v>151</v>
       </c>
       <c r="C82" s="43">
-        <v>4.8209758278359001</v>
+        <v>4.8192073871546901</v>
       </c>
       <c r="D82" s="44">
-        <v>0.48619985383491998</v>
+        <v>0.48628027612284003</v>
       </c>
       <c r="E82" s="44">
-        <v>1.7641932848486099</v>
+        <v>1.7629118108075901</v>
       </c>
       <c r="F82" s="44">
-        <v>2.5705826516477801</v>
+        <v>2.5700152626729098</v>
       </c>
       <c r="G82" s="44">
-        <v>9.3031297915900701</v>
+        <v>9.4451120614869701</v>
       </c>
       <c r="H82" s="43">
-        <v>9.7434710295057307</v>
+        <v>9.4966479245689506</v>
       </c>
       <c r="I82" s="44">
-        <v>3.5706554399334598</v>
+        <v>3.4702194411061602</v>
       </c>
       <c r="J82" s="44">
-        <v>1.84270495618077</v>
+        <v>1.8720232020321299</v>
       </c>
       <c r="K82" s="44">
-        <v>0.36450258914296002</v>
+        <v>0.35934991957669998</v>
       </c>
       <c r="L82" s="44">
-        <v>0.95105194062001996</v>
+        <v>0.95745253122082996</v>
       </c>
       <c r="M82" s="44">
-        <v>2.1987271931132302</v>
+        <v>2.2202193688502798</v>
       </c>
       <c r="N82" s="43">
-        <v>1.1004931217731699</v>
+        <v>1.1472948963220799</v>
       </c>
       <c r="O82" s="45">
-        <v>6.8566466686090397</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>6.4105274476730996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="41" t="s">
         <v>37</v>
       </c>
@@ -5241,46 +5241,46 @@
         <v>152</v>
       </c>
       <c r="C83" s="47">
-        <v>8.6909866994358804</v>
+        <v>8.6850191280824003</v>
       </c>
       <c r="D83" s="48">
-        <v>1.7433106338810001E-2</v>
+        <v>1.7435006682660001E-2</v>
       </c>
       <c r="E83" s="48">
-        <v>5.1946793060673704</v>
+        <v>5.1911572154589303</v>
       </c>
       <c r="F83" s="48">
-        <v>3.48274708444852</v>
+        <v>3.4803089525680102</v>
       </c>
       <c r="G83" s="48">
-        <v>17.856917652540901</v>
+        <v>17.2472793266571</v>
       </c>
       <c r="H83" s="47">
-        <v>10.3775060432801</v>
+        <v>10.732941767515999</v>
       </c>
       <c r="I83" s="48">
-        <v>3.5799479344419698</v>
+        <v>3.5877481358991501</v>
       </c>
       <c r="J83" s="48">
-        <v>0.49061506621243001</v>
+        <v>0.52154967702008004</v>
       </c>
       <c r="K83" s="48">
-        <v>0.12481207158655</v>
+        <v>0.11388530724900001</v>
       </c>
       <c r="L83" s="48">
-        <v>3.8867630164439997E-2</v>
+        <v>3.8613320216000002E-2</v>
       </c>
       <c r="M83" s="48">
-        <v>1.7757801830503399</v>
+        <v>1.7692964919882801</v>
       </c>
       <c r="N83" s="47">
-        <v>0.31852408675041</v>
+        <v>0.30890048794426</v>
       </c>
       <c r="O83" s="49">
-        <v>11.2088549399579</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+        <v>11.568444618997599</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="41" t="s">
         <v>37</v>
       </c>
@@ -5288,46 +5288,46 @@
         <v>153</v>
       </c>
       <c r="C84" s="51">
-        <v>4.4432316608839999</v>
+        <v>4.4471603421308501</v>
       </c>
       <c r="D84" s="52">
-        <v>1.3251890505850099</v>
+        <v>1.326165395611</v>
       </c>
       <c r="E84" s="52">
-        <v>1.11023172288139</v>
+        <v>1.1109272046612599</v>
       </c>
       <c r="F84" s="52">
-        <v>2.0078108090071098</v>
+        <v>2.0100676634761498</v>
       </c>
       <c r="G84" s="52">
-        <v>8.6636086250139304</v>
+        <v>8.5768998685444497</v>
       </c>
       <c r="H84" s="51">
-        <v>15.3696915790558</v>
+        <v>15.3585412387111</v>
       </c>
       <c r="I84" s="52">
-        <v>2.7690514340474102</v>
+        <v>2.5876517112303499</v>
       </c>
       <c r="J84" s="52">
-        <v>0.14973173278192001</v>
+        <v>0.18046897518753999</v>
       </c>
       <c r="K84" s="52">
-        <v>0.90171338954964997</v>
+        <v>0.85644708799206004</v>
       </c>
       <c r="L84" s="52">
-        <v>3.7232412210231001</v>
+        <v>3.7971438566797899</v>
       </c>
       <c r="M84" s="52">
-        <v>1.19284052051298</v>
+        <v>1.1844577872861</v>
       </c>
       <c r="N84" s="51">
-        <v>1.4111820750049799</v>
+        <v>1.2568698183342699</v>
       </c>
       <c r="O84" s="53">
-        <v>10.7600340742306</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+        <v>10.670805424461699</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="41" t="s">
         <v>37</v>
       </c>
@@ -5335,19 +5335,19 @@
         <v>154</v>
       </c>
       <c r="C85" s="43">
-        <v>14.8538967632308</v>
+        <v>14.8537023030008</v>
       </c>
       <c r="D85" s="44">
-        <v>2.9455629199103499</v>
+        <v>2.94552435798603</v>
       </c>
       <c r="E85" s="44">
-        <v>0.49781271272122002</v>
+        <v>0.49780619559132999</v>
       </c>
       <c r="F85" s="44">
-        <v>11.4105211305992</v>
+        <v>11.410371749423501</v>
       </c>
       <c r="G85" s="44">
-        <v>7.42747323734757</v>
+        <v>7.3305298454727197</v>
       </c>
       <c r="H85" s="43" t="s">
         <v>26</v>
@@ -5374,7 +5374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="41" t="s">
         <v>37</v>
       </c>
@@ -5382,46 +5382,46 @@
         <v>155</v>
       </c>
       <c r="C86" s="43">
-        <v>4.2833545404728399</v>
+        <v>4.28159472828251</v>
       </c>
       <c r="D86" s="44">
-        <v>0.28521661984100999</v>
+        <v>0.28502880699048999</v>
       </c>
       <c r="E86" s="44">
-        <v>1.5351369104611601</v>
+        <v>1.53456352959466</v>
       </c>
       <c r="F86" s="44">
-        <v>2.46300095370382</v>
+        <v>2.4620023352367202</v>
       </c>
       <c r="G86" s="44">
-        <v>8.3074782974982497</v>
+        <v>8.6828933168318496</v>
       </c>
       <c r="H86" s="43">
-        <v>13.3633636097109</v>
+        <v>13.126098669990199</v>
       </c>
       <c r="I86" s="44">
-        <v>3.3162370029438</v>
+        <v>3.25806901375904</v>
       </c>
       <c r="J86" s="44">
-        <v>4.2302777994270402</v>
+        <v>4.3632392518209002</v>
       </c>
       <c r="K86" s="44">
-        <v>0.12590709359763999</v>
+        <v>0.13055055296811</v>
       </c>
       <c r="L86" s="44">
-        <v>0.38084637865588</v>
+        <v>0.37123609314081002</v>
       </c>
       <c r="M86" s="44">
-        <v>2.1583780837689202</v>
+        <v>2.1512714293291002</v>
       </c>
       <c r="N86" s="43">
-        <v>1.06199201491793</v>
+        <v>1.15063168446579</v>
       </c>
       <c r="O86" s="45">
-        <v>8.7221992422872905</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+        <v>8.2172386720245107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="41" t="s">
         <v>37</v>
       </c>
@@ -5429,46 +5429,46 @@
         <v>156</v>
       </c>
       <c r="C87" s="43">
-        <v>4.1634221954894803</v>
+        <v>4.1629048029780504</v>
       </c>
       <c r="D87" s="44">
-        <v>5.6325375929620003E-2</v>
+        <v>5.6314894883800003E-2</v>
       </c>
       <c r="E87" s="44">
-        <v>1.6917643627329999</v>
+        <v>1.6915122579503901</v>
       </c>
       <c r="F87" s="44">
-        <v>2.4153324937938798</v>
+        <v>2.41507768707769</v>
       </c>
       <c r="G87" s="44">
-        <v>12.1465077004137</v>
+        <v>11.3278627618381</v>
       </c>
       <c r="H87" s="43">
-        <v>17.150858194345702</v>
+        <v>16.995621377152201</v>
       </c>
       <c r="I87" s="44">
-        <v>3.0021185554364802</v>
+        <v>2.9765067821959201</v>
       </c>
       <c r="J87" s="44">
-        <v>0.72566581888421</v>
+        <v>0.75512722516635</v>
       </c>
       <c r="K87" s="44">
-        <v>0.28148316094548997</v>
+        <v>0.2779333756747</v>
       </c>
       <c r="L87" s="44">
-        <v>0.11986723342887</v>
+        <v>0.11864994948143</v>
       </c>
       <c r="M87" s="44">
-        <v>3.0335461741971801</v>
+        <v>3.0257824700069098</v>
       </c>
       <c r="N87" s="43">
-        <v>0.94114585416179997</v>
+        <v>0.90867227361614</v>
       </c>
       <c r="O87" s="45">
-        <v>15.0512685081647</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+        <v>14.8859628654026</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="41" t="s">
         <v>37</v>
       </c>
@@ -5476,46 +5476,46 @@
         <v>157</v>
       </c>
       <c r="C88" s="43">
-        <v>7.7611980368921802</v>
+        <v>7.7472595262135604</v>
       </c>
       <c r="D88" s="44">
-        <v>0.11320879306623</v>
+        <v>0.11305265173305</v>
       </c>
       <c r="E88" s="44">
-        <v>4.4935941635376402</v>
+        <v>4.4854488552692597</v>
       </c>
       <c r="F88" s="44">
-        <v>3.1543951930188099</v>
+        <v>3.1487581316534201</v>
       </c>
       <c r="G88" s="44">
-        <v>13.732897410001</v>
+        <v>13.0968278178013</v>
       </c>
       <c r="H88" s="43">
-        <v>1.41238650265909</v>
+        <v>7.3506864140739994E-2</v>
       </c>
       <c r="I88" s="44">
-        <v>5.3422339945533501</v>
+        <v>5.8771681438994499</v>
       </c>
       <c r="J88" s="44">
-        <v>2.1274924487379101</v>
+        <v>0.81361609334343998</v>
       </c>
       <c r="K88" s="44">
-        <v>0.53790767211706003</v>
+        <v>0.61721156302573998</v>
       </c>
       <c r="L88" s="44">
-        <v>3.2964440902910001E-2</v>
+        <v>2.8631949161800001E-2</v>
       </c>
       <c r="M88" s="44">
-        <v>4.1578940464843601</v>
+        <v>4.2045954553787199</v>
       </c>
       <c r="N88" s="43">
-        <v>0.39404349068258998</v>
+        <v>0.45861859842580999</v>
       </c>
       <c r="O88" s="45">
-        <v>-0.4956816017124</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-0.17199865129530001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="41" t="s">
         <v>37</v>
       </c>
@@ -5523,46 +5523,46 @@
         <v>158</v>
       </c>
       <c r="C89" s="43">
-        <v>5.7288846796698696</v>
+        <v>5.7192462245185203</v>
       </c>
       <c r="D89" s="44">
-        <v>5.3927152544299998E-3</v>
+        <v>5.4047676858799999E-3</v>
       </c>
       <c r="E89" s="44">
-        <v>3.2086969943686898</v>
+        <v>3.2033371038143801</v>
       </c>
       <c r="F89" s="44">
-        <v>2.5152953275477401</v>
+        <v>2.5110190768495801</v>
       </c>
       <c r="G89" s="44">
-        <v>20.595519710890901</v>
+        <v>19.3469674297063</v>
       </c>
       <c r="H89" s="43">
-        <v>13.3295910519538</v>
+        <v>14.5587890400743</v>
       </c>
       <c r="I89" s="44">
-        <v>2.9381948341053401</v>
+        <v>2.9425153074101802</v>
       </c>
       <c r="J89" s="44">
-        <v>1.60592913575652</v>
+        <v>1.7509942337509199</v>
       </c>
       <c r="K89" s="44">
-        <v>0.20593714951983999</v>
+        <v>0.16385429001922999</v>
       </c>
       <c r="L89" s="44">
-        <v>4.4262636923919997E-2</v>
+        <v>4.4143217739519999E-2</v>
       </c>
       <c r="M89" s="44">
-        <v>2.6882220388316802</v>
+        <v>2.6262832414089998</v>
       </c>
       <c r="N89" s="43">
-        <v>0.35112201327700998</v>
+        <v>0.33995251547101002</v>
       </c>
       <c r="O89" s="45">
-        <v>11.3723129117501</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>12.5760768490948</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="41" t="s">
         <v>37</v>
       </c>
@@ -5570,46 +5570,46 @@
         <v>159</v>
       </c>
       <c r="C90" s="47">
-        <v>12.03982303607</v>
+        <v>12.038738416602</v>
       </c>
       <c r="D90" s="48">
-        <v>1.9972417474300001E-3</v>
+        <v>1.9983506579800002E-3</v>
       </c>
       <c r="E90" s="48">
-        <v>7.5963392037714303</v>
+        <v>7.59564510614452</v>
       </c>
       <c r="F90" s="48">
-        <v>4.4443918704898397</v>
+        <v>4.4440003095625498</v>
       </c>
       <c r="G90" s="48">
-        <v>17.001292266122299</v>
+        <v>16.933821593842602</v>
       </c>
       <c r="H90" s="47">
-        <v>6.9683401664120401</v>
+        <v>6.7773307717513198</v>
       </c>
       <c r="I90" s="48">
-        <v>4.4070230575940004</v>
+        <v>4.4340040436895798</v>
       </c>
       <c r="J90" s="48">
-        <v>0.56214600691920003</v>
+        <v>0.58591540504825002</v>
       </c>
       <c r="K90" s="48">
-        <v>5.1849012447970001E-2</v>
+        <v>6.3280844924879995E-2</v>
       </c>
       <c r="L90" s="48">
-        <v>2.8405638513999999E-3</v>
+        <v>2.83873651999E-3</v>
       </c>
       <c r="M90" s="48">
-        <v>0.95594681444236995</v>
+        <v>0.97618295874417005</v>
       </c>
       <c r="N90" s="47">
-        <v>7.4801193337179994E-2</v>
+        <v>7.5644423126269997E-2</v>
       </c>
       <c r="O90" s="49">
-        <v>9.7277796330079394</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+        <v>9.5074724470773404</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="41" t="s">
         <v>37</v>
       </c>
@@ -5617,46 +5617,46 @@
         <v>160</v>
       </c>
       <c r="C91" s="51">
-        <v>4.1003120456645998</v>
+        <v>4.1029548542453904</v>
       </c>
       <c r="D91" s="52">
-        <v>1.1286136765082</v>
+        <v>1.1292330478260499</v>
       </c>
       <c r="E91" s="52">
-        <v>1.1530070220214901</v>
+        <v>1.1534456648100899</v>
       </c>
       <c r="F91" s="52">
-        <v>1.8186912850360999</v>
+        <v>1.82027607953181</v>
       </c>
       <c r="G91" s="52">
-        <v>8.57280560306776</v>
+        <v>9.0092358032725492</v>
       </c>
       <c r="H91" s="51">
-        <v>17.2071683904799</v>
+        <v>16.801142603144999</v>
       </c>
       <c r="I91" s="52">
-        <v>2.90340420359788</v>
+        <v>2.90528742589294</v>
       </c>
       <c r="J91" s="52">
-        <v>2.71057748997013</v>
+        <v>3.3029493532432901</v>
       </c>
       <c r="K91" s="52">
-        <v>0.71747991476860995</v>
+        <v>0.68052089536328997</v>
       </c>
       <c r="L91" s="52">
-        <v>2.6791420561053201</v>
+        <v>2.6951643486783601</v>
       </c>
       <c r="M91" s="52">
-        <v>1.1934687069518899</v>
+        <v>1.2238847707116101</v>
       </c>
       <c r="N91" s="51">
-        <v>1.29273828817979</v>
+        <v>1.2047709116598799</v>
       </c>
       <c r="O91" s="53">
-        <v>11.517166138102001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+        <v>10.5991397493815</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="41" t="s">
         <v>37</v>
       </c>
@@ -5664,46 +5664,46 @@
         <v>161</v>
       </c>
       <c r="C92" s="43">
-        <v>3.7141328844040902</v>
+        <v>3.7141321030619499</v>
       </c>
       <c r="D92" s="44">
-        <v>0.40617136544075999</v>
+        <v>0.40617137203581999</v>
       </c>
       <c r="E92" s="44">
-        <v>0.64102791627569</v>
+        <v>0.64103515119726995</v>
       </c>
       <c r="F92" s="44">
-        <v>2.6669336066403302</v>
+        <v>2.6669255837814099</v>
       </c>
       <c r="G92" s="44">
-        <v>3.26301679179989</v>
+        <v>3.28044979743937</v>
       </c>
       <c r="H92" s="43">
-        <v>32.044989518890198</v>
+        <v>28.377138023718199</v>
       </c>
       <c r="I92" s="44">
-        <v>1.61213301327585</v>
+        <v>1.24018731750496</v>
       </c>
       <c r="J92" s="44">
-        <v>0.79329359325920001</v>
+        <v>0.64570056118257002</v>
       </c>
       <c r="K92" s="44">
-        <v>5.8478651021209999E-2</v>
+        <v>5.8478666060220001E-2</v>
       </c>
       <c r="L92" s="44">
-        <v>0.43000963316253998</v>
+        <v>0.41883294220268003</v>
       </c>
       <c r="M92" s="44">
-        <v>1.3674234662771301</v>
+        <v>1.36255088945529</v>
       </c>
       <c r="N92" s="43">
-        <v>0.82488113027209997</v>
+        <v>0.68366361161730005</v>
       </c>
       <c r="O92" s="45">
-        <v>30.183036058173901</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+        <v>26.4480986707051</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="41" t="s">
         <v>37</v>
       </c>
@@ -5711,46 +5711,46 @@
         <v>162</v>
       </c>
       <c r="C93" s="43">
-        <v>5.9484277859872501</v>
+        <v>5.8945767896375498</v>
       </c>
       <c r="D93" s="44">
-        <v>0.31898099148600001</v>
+        <v>0.31323050798293001</v>
       </c>
       <c r="E93" s="44">
-        <v>2.5545749442079999</v>
+        <v>2.53257818679546</v>
       </c>
       <c r="F93" s="44">
-        <v>3.07487188572623</v>
+        <v>3.0487681301618101</v>
       </c>
       <c r="G93" s="44">
-        <v>11.0941300660477</v>
+        <v>11.2696209965777</v>
       </c>
       <c r="H93" s="43">
-        <v>2.5851904287661198</v>
+        <v>6.94736022139982</v>
       </c>
       <c r="I93" s="44">
-        <v>4.3321931031562499</v>
+        <v>4.5601117416813297</v>
       </c>
       <c r="J93" s="44">
-        <v>3.6789272792139997E-2</v>
+        <v>3.654053570976E-2</v>
       </c>
       <c r="K93" s="44">
         <v>0</v>
       </c>
       <c r="L93" s="44">
-        <v>1.09501532258127</v>
+        <v>1.0891830648647201</v>
       </c>
       <c r="M93" s="44">
-        <v>1.1497424749988301</v>
+        <v>1.13811280250999</v>
       </c>
       <c r="N93" s="43">
-        <v>0.40030270888260999</v>
+        <v>0.37234096500135</v>
       </c>
       <c r="O93" s="45">
-        <v>4.2355337526675303</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+        <v>8.8712945949953301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="41" t="s">
         <v>37</v>
       </c>
@@ -5758,46 +5758,46 @@
         <v>163</v>
       </c>
       <c r="C94" s="43">
-        <v>4.5509052961380601</v>
+        <v>4.5588263399607598</v>
       </c>
       <c r="D94" s="44">
-        <v>0.11984012496091</v>
+        <v>0.12008902027468001</v>
       </c>
       <c r="E94" s="44">
-        <v>2.4542330703371502</v>
+        <v>2.4581203563758498</v>
       </c>
       <c r="F94" s="44">
-        <v>1.9768320661746901</v>
+        <v>1.9806169286142501</v>
       </c>
       <c r="G94" s="44">
-        <v>12.916258820167901</v>
+        <v>12.6784892667054</v>
       </c>
       <c r="H94" s="43">
-        <v>20.294309156396</v>
+        <v>20.717299514320299</v>
       </c>
       <c r="I94" s="44">
-        <v>2.54802555564721</v>
+        <v>2.55088891884566</v>
       </c>
       <c r="J94" s="44">
-        <v>0.21601399884670999</v>
+        <v>0.20975802512929001</v>
       </c>
       <c r="K94" s="44">
-        <v>0.15556288749389999</v>
+        <v>0.15585680260814999</v>
       </c>
       <c r="L94" s="44">
-        <v>3.9541281748320001E-2</v>
+        <v>3.9876081944239999E-2</v>
       </c>
       <c r="M94" s="44">
-        <v>0.78680844494315005</v>
+        <v>0.76965868003727</v>
       </c>
       <c r="N94" s="43">
-        <v>0.21979099441718</v>
+        <v>0.22030473612070001</v>
       </c>
       <c r="O94" s="45">
-        <v>21.424617104593999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+        <v>21.872734107326401</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="41" t="s">
         <v>37</v>
       </c>
@@ -5805,46 +5805,46 @@
         <v>164</v>
       </c>
       <c r="C95" s="43">
-        <v>4.34520065100644</v>
+        <v>4.3476905926544704</v>
       </c>
       <c r="D95" s="44">
-        <v>1.42601327999255</v>
+        <v>1.42698218673071</v>
       </c>
       <c r="E95" s="44">
-        <v>1.3838795791684899</v>
+        <v>1.38440003236375</v>
       </c>
       <c r="F95" s="44">
-        <v>1.53530768006457</v>
+        <v>1.53630826183743</v>
       </c>
       <c r="G95" s="44">
-        <v>9.5630460804180295</v>
+        <v>9.6602806050667205</v>
       </c>
       <c r="H95" s="43">
-        <v>14.8395025987212</v>
+        <v>16.087840213888398</v>
       </c>
       <c r="I95" s="44">
-        <v>3.3779106643008698</v>
+        <v>3.33667768827917</v>
       </c>
       <c r="J95" s="44">
-        <v>3.834605598443E-2</v>
+        <v>5.2219660974539998E-2</v>
       </c>
       <c r="K95" s="44">
-        <v>0.72597480484448995</v>
+        <v>0.63159650634983999</v>
       </c>
       <c r="L95" s="44">
-        <v>3.7675533547319202</v>
+        <v>3.8893858025549601</v>
       </c>
       <c r="M95" s="44">
-        <v>0.98274892637027</v>
+        <v>1.03706802362816</v>
       </c>
       <c r="N95" s="43">
-        <v>1.23493900145844</v>
+        <v>1.0927519418964899</v>
       </c>
       <c r="O95" s="45">
-        <v>11.467851119632501</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>12.7214959667636</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="41" t="s">
         <v>37</v>
       </c>
@@ -5852,46 +5852,46 @@
         <v>165</v>
       </c>
       <c r="C96" s="47">
-        <v>5.1970147782920098</v>
+        <v>5.1920986167276197</v>
       </c>
       <c r="D96" s="48">
-        <v>0.32916623076078999</v>
+        <v>0.32900742023121998</v>
       </c>
       <c r="E96" s="48">
-        <v>1.99826648036512</v>
+        <v>1.99574721292312</v>
       </c>
       <c r="F96" s="48">
-        <v>2.9744031027424098</v>
+        <v>2.9721171805960198</v>
       </c>
       <c r="G96" s="48">
-        <v>10.480456014161399</v>
+        <v>10.399608728036799</v>
       </c>
       <c r="H96" s="47">
-        <v>17.431352352825101</v>
+        <v>17.415484234401202</v>
       </c>
       <c r="I96" s="48">
-        <v>3.6773772158000799</v>
+        <v>4.2605667529264597</v>
       </c>
       <c r="J96" s="48">
-        <v>4.8321448155030602</v>
+        <v>5.3673328203187998</v>
       </c>
       <c r="K96" s="48">
-        <v>1.4277623966911499</v>
+        <v>1.4692484470966201</v>
       </c>
       <c r="L96" s="48">
-        <v>0.15576637538016</v>
+        <v>0.15544619103116</v>
       </c>
       <c r="M96" s="48">
-        <v>4.3068779489451297</v>
+        <v>4.2698444737093304</v>
       </c>
       <c r="N96" s="47">
-        <v>0.41334725936661998</v>
+        <v>0.33745927013920002</v>
       </c>
       <c r="O96" s="49">
-        <v>9.9728307727390799</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+        <v>10.0767197850326</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="41" t="s">
         <v>37</v>
       </c>
@@ -5899,46 +5899,46 @@
         <v>166</v>
       </c>
       <c r="C97" s="51">
-        <v>3.6206806205811199</v>
+        <v>3.6223390877837298</v>
       </c>
       <c r="D97" s="52">
-        <v>0.77880354436694998</v>
+        <v>0.77925014378878998</v>
       </c>
       <c r="E97" s="52">
-        <v>0.95551302065485</v>
+        <v>0.95579067675938001</v>
       </c>
       <c r="F97" s="52">
-        <v>1.8863640722460899</v>
+        <v>1.8872982839521799</v>
       </c>
       <c r="G97" s="52">
-        <v>9.2520791220348197</v>
+        <v>10.0844416760324</v>
       </c>
       <c r="H97" s="51">
-        <v>13.0826511567235</v>
+        <v>12.334096369508901</v>
       </c>
       <c r="I97" s="52">
-        <v>2.3473762044489201</v>
+        <v>2.3714057069563701</v>
       </c>
       <c r="J97" s="52">
-        <v>3.0237969942338601</v>
+        <v>3.26138553757646</v>
       </c>
       <c r="K97" s="52">
-        <v>0.2434273350002</v>
+        <v>0.22713313068079999</v>
       </c>
       <c r="L97" s="52">
-        <v>1.2577576311749099</v>
+        <v>1.3100374018882901</v>
       </c>
       <c r="M97" s="52">
-        <v>1.16079390303647</v>
+        <v>1.1100914560906401</v>
       </c>
       <c r="N97" s="51">
-        <v>1.5185544056963001</v>
+        <v>1.6462977909246701</v>
       </c>
       <c r="O97" s="53">
-        <v>8.2256970920306998</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7.1505567593044201</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="41" t="s">
         <v>37</v>
       </c>
@@ -5946,46 +5946,46 @@
         <v>167</v>
       </c>
       <c r="C98" s="47">
-        <v>6.9538852374586897</v>
+        <v>6.9534306443219203</v>
       </c>
       <c r="D98" s="48">
-        <v>0.13195129533625</v>
+        <v>0.13194325546921001</v>
       </c>
       <c r="E98" s="48">
-        <v>2.95393647281493</v>
+        <v>2.9537573476191001</v>
       </c>
       <c r="F98" s="48">
-        <v>3.8679973818550102</v>
+        <v>3.8677299537821499</v>
       </c>
       <c r="G98" s="48">
-        <v>10.009310586441099</v>
+        <v>9.3792126273046197</v>
       </c>
       <c r="H98" s="47">
-        <v>19.468789188814998</v>
+        <v>17.224083117196699</v>
       </c>
       <c r="I98" s="48">
-        <v>1.93364398480389</v>
+        <v>1.6187785585774901</v>
       </c>
       <c r="J98" s="48">
-        <v>0.81207254130507001</v>
+        <v>0.62608626852870997</v>
       </c>
       <c r="K98" s="48">
-        <v>8.4109358527300004E-2</v>
+        <v>8.3911638425420002E-2</v>
       </c>
       <c r="L98" s="48">
-        <v>0.24209497276752001</v>
+        <v>0.23604843489405</v>
       </c>
       <c r="M98" s="48">
-        <v>1.84416197499422</v>
+        <v>1.9402496076459601</v>
       </c>
       <c r="N98" s="47">
-        <v>1.3930771239950199</v>
+        <v>1.2334283130974799</v>
       </c>
       <c r="O98" s="49">
-        <v>17.0269172020298</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+        <v>14.723137413182499</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="54"/>
       <c r="B99" s="55"/>
       <c r="C99" s="56"/>
@@ -6002,7 +6002,7 @@
       <c r="N99" s="56"/>
       <c r="O99" s="56"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>168</v>
       </c>
@@ -6020,7 +6020,7 @@
       <c r="N100" s="57"/>
       <c r="O100" s="57"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>169</v>
       </c>
@@ -6038,7 +6038,7 @@
       <c r="N101" s="57"/>
       <c r="O101" s="57"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>170</v>
       </c>
@@ -6056,7 +6056,7 @@
       <c r="N102" s="57"/>
       <c r="O102" s="57"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>171</v>
       </c>
@@ -6074,7 +6074,7 @@
       <c r="N103" s="57"/>
       <c r="O103" s="57"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>172</v>
       </c>
@@ -6092,7 +6092,7 @@
       <c r="N104" s="57"/>
       <c r="O104" s="57"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>173</v>
       </c>
@@ -6110,7 +6110,7 @@
       <c r="N105" s="57"/>
       <c r="O105" s="57"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>174</v>
       </c>
@@ -6128,7 +6128,7 @@
       <c r="N106" s="57"/>
       <c r="O106" s="57"/>
     </row>
-    <row r="107" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="58"/>
       <c r="C107" s="57"/>
       <c r="D107" s="57"/>
@@ -6144,7 +6144,7 @@
       <c r="N107" s="57"/>
       <c r="O107" s="57"/>
     </row>
-    <row r="108" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="58"/>
       <c r="C108" s="57"/>
       <c r="D108" s="57"/>
@@ -6160,7 +6160,7 @@
       <c r="N108" s="57"/>
       <c r="O108" s="57"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>177</v>
       </c>
@@ -6178,7 +6178,7 @@
       <c r="N109" s="57"/>
       <c r="O109" s="57"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>178</v>
       </c>
@@ -6196,7 +6196,7 @@
       <c r="N110" s="57"/>
       <c r="O110" s="57"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>179</v>
       </c>
@@ -6214,7 +6214,7 @@
       <c r="N111" s="57"/>
       <c r="O111" s="57"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>175</v>
       </c>
@@ -6232,7 +6232,7 @@
       <c r="N112" s="57"/>
       <c r="O112" s="57"/>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>176</v>
       </c>
@@ -6250,7 +6250,7 @@
       <c r="N113" s="57"/>
       <c r="O113" s="57"/>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="57"/>
       <c r="D114" s="57"/>
@@ -6268,12 +6268,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{8A1A9498-38CB-4A92-8657-8C33113FD2A7}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{C5752588-3D6E-4F6F-A705-A82120477767}"/>
-    <hyperlink ref="B107" r:id="rId3" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{C1AA23B2-8A25-44C8-A9D4-479AC0805BF4}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{C74DE4C1-F06A-4119-9DF6-1D3C8ECC28C7}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{7CA11AD8-0C3A-44DD-83FD-3580CB02F87E}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{B463165F-6BD8-4F46-AB90-1389A8E4F1F5}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{63B89F9F-F89E-4A85-B8FF-A0AB32C7477C}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{AAFF8E60-1703-4B7E-807D-5B3B81D612B0}"/>
+    <hyperlink ref="B107" r:id="rId3" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{116CCD77-BB51-4625-AA61-257F0A86C1B7}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{D90A4E9B-2861-4E91-9A93-5864476C2968}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{809D2995-6DD8-452B-85D6-F65C284BD403}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{D8279C17-2315-4EBF-ACDF-9F595CAAE5F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
